--- a/策划案/镇魂街/战斗设计.xlsx
+++ b/策划案/镇魂街/战斗设计.xlsx
@@ -4,11 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="30" r:id="rId2"/>
+    <sheet name="卡牌设计" sheetId="30" r:id="rId2"/>
+    <sheet name="可用的策略点" sheetId="31" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="33" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,8 +21,540 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="C1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+没有填写的，即为常规关卡，剧情不做特殊要求，根据实际情况看是否增加战斗里的对话剧情</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+单次战斗时长，后面用来评估玩家疲乏值、设计兴奋点、估算玩家总体时间进程等</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+按照60%星数给予3个抽卡券，100%星数通关再给7个抽卡券这样来设计，相当于1章关卡给1次10连。如果后续有其他活动给券，则对应的抽出一部分来挪到其他地方。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+救完引导抽卡后，要告诉玩家柠檬精只是先借给夏玲，去保护她的</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+体现唐流雨和柠檬精的伤害差距，用剧情方式告诉玩家需要去培养</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+引导布阵，记得把曹玄亮放在边上，下面有用（通过关卡设计，让他调整曹玄亮站位）。Ps：在没有柠檬精之前，先找一个角色配进去暂时代替，但要保证数值和技能设计与柠檬精一致</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+考虑后面补一个机械兵头领。
+为了方便描述，暂将怪物分为普通、精英、头目、boss四个强度，精英就是常规关卡中，实力明显较强的，用来给特定站位带去压力的怪，头目一般放在中等卡点关卡，boss放在大卡点</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+考虑后面补一个机械兵头领。
+为了方便描述，暂将怪物分为普通、精英、头目、boss四个强度，精英就是常规关卡中，实力明显较强的，用来给特定站位带去压力的怪，头目一般放在中等卡点关卡，boss放在大卡点</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+这个可以结合剧情，让曹焱兵离开的时候说还记得之前召唤柠檬精的时候感受到的力量溢出之类的么，那个行程的碎片可以用来获取技能balba，总之包装一个比较说得通的逻辑（如果要改变碎片的叫法，比如说叫守护灵灵能啥的也都行，就跟有些游戏把碎片起名叫做魂石啥的一样）</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D10" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+战斗结束要加剧情，黑尔坎普出来，唐流雨能量耗尽，定格在唐流雨打算牺牲自己跟黑尔坎普同归于尽，之后黑尔坎普冲了过来的画面</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D11" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+开战前有剧情，黑尔坎普向他们进攻，千军一发之际，李轩辕登场</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O13" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+记得这个融合到剧情里解释，比如鬼符三通给了个东西，说可以吸收溢散的灵气用于战斗之类的</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C17" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+使用教学关某个策略，进行非强制性的指定战斗，1-2回合定胜负那种，重点突出关羽的三连击牛b</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D17" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+插入战斗前和战斗后剧情，剧情对话里的立绘使用剪影立绘，名字写“？？？”，不要出现关羽和张飞名字（虽然玩家会猜到关羽），对话中不要出现二哥三弟之类的称呼，也不要出现其他势力的明确称呼，让玩家有个期待感虽然玩家能猜到是蜀国，但是会想跟关羽一起的是谁，其他人又长啥样（针对没看过镇魂街的玩家）</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C23" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+玩家正常阵容战斗，敌人防御极高，我方打不死他们，3或4回合后，典韦登场（登场时要有剧情，出现对话框，曹焱兵派典韦出战）</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G23" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+最好能把这里的塞普洛斯加点特效或者换换皮肤颜色，显得比之前那只更牛b一点（比如红毛变成冒着黑色火焰之类）</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K23" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+最好能把这里的塞普洛斯加点特效或者换换皮肤颜色，显得比之前那只更牛b一点（比如红毛变成冒着黑色火焰之类）</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F27" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+刻意做成一样的怪，一样的数值设计，让玩家再感受下寄灵人变强</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J27" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+刻意做成一样的怪，一样的数值设计，让玩家再感受下寄灵人变强</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O27" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+暂时放在这里，因为第一天一开始不想太早开竞技场，这里可能又略晚，具体实际跑的时候感受一下</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="304">
   <si>
     <t>sheet名</t>
   </si>
@@ -88,10 +622,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>常服夏玲</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>水晶</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -112,10 +642,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>群体输出</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>控制</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -140,14 +666,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>集中行动，配合追击守护灵</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>BUFF，治疗</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>单体输出</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -164,10 +682,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>集中行动，秒杀寄灵人</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>阎巧巧</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -188,10 +702,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>吐槽，随机1敌方所受伤害提升</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>解控，分散攻击</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -200,10 +710,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>单体输出</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>红</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -212,10 +718,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>集中行动</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>唐流雨</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -225,10 +727,6 @@
   </si>
   <si>
     <t>黄</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -276,27 +774,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>群体BUFF，攻击力提升，持续2回合。2回合CD</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>为生命值最低的单位施加治疗，同时回复1点蓝水晶。如果被治疗的单位满血，则回复1点随机水晶，无CD</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>单体输出，回复1点黄水晶，无CD
-觉醒：
-对有雷电标记的单位暴击提升20%</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">群体伤害，对对位施加雷电标记（受到暴击造成群体伤害，持续3回合），1回合CD
-觉醒：
-使对位防御降低35%，持续2回合
-</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>造成伤害，获得2点红水晶,1回合CD。
 觉醒：
 每拥有3点红水晶，伤害提升15%</t>
@@ -306,22 +783,6 @@
     <t>造成伤害，减少2点对位守护灵水晶，如果对位没有守护灵，或者守护灵已死亡，则随机减少3点水晶，1回合CD。入场CD1回合
 觉醒：
 守护灵每释放1次大招，该技能伤害提升30%</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>分散行动，控制敌方行动，3阶段牛逼</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>单体攻击，使自身下一次伤害提升35%，1回合CD
-觉醒：
-回复1点红水晶</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>单体伤害，施加风刃Debuff，使对方受穿透概率提升10%，持续1回合。
-觉醒：
-如果穿透，则回复1点红水晶</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -332,35 +793,13 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>单体攻击，回复1点红水晶，35%概率击晕对方。入场1回合CD。
-觉醒：每多3点红水晶，概率提升10%</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>单体攻击，如果对方有增益BUFF，则伤害提升50%，翻转增益BUFF效果。1回合CD。
-觉醒：守护灵每释放1次奥义，伤害提升30%</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>3水晶，群体小额治疗，解控
 觉醒：
 无</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>6水晶，群体伤害，单体追击。
-觉醒：
-追击技能伤害提升15%</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>群体攻击，可追击</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>单体伤害。
-觉醒：
-对生命值低于30%的单位，伤害提升35%</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -374,15 +813,99 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>无</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>烈风螳螂</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>红</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>无</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>典韦</t>
+    <t>单体输出</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>单体输出</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>三连击战士，防御</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SSR</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>投放</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>单体输出，更强的三连击角色</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计目的</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>输出</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>初期的蓝色辅助型寄灵人。现有卡牌库中，很难进行替换。觉醒技能要很有用。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始卡牌</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽卡投放，易出。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>应对生存压力较大的关卡</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗曹焱兵</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>单体输出，阻止敌方召唤</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>集中行动，单体输出，在1阶段干掉对方寄灵人。与守护灵无配合。随游戏进程推进，关卡寄灵人血量提升，此策略不在奏效</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>初期输出型寄灵人。让玩家有爽感，但会被替换。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>分散行动，延迟对位守护灵召唤，3阶段牛逼</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1个综合能力较强的寄灵人，符合剧情特质。但缺乏特质，会被替换。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>寄灵人抽卡30抽投放</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>寄灵人抽卡10抽投放</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -397,32 +920,1047 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>R</t>
+      <t>SR</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>黄</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>单体输出</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>三连击战士</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>高顺</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>烈风螳螂</t>
+    <t>7日活动</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>常服曹焱兵的强化版，对于大多数玩家可以一直使用</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>对群体造成伤害</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>单体攻击，下回合回复1点红水晶。
+入场CD：0回合；CD：1回合
+觉醒：
+使敌方单位受到伤害提升25%，持续2回合</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>分散行动，配合守护灵打出爆炸输出。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>单体攻击，如果对方有增益BUFF，则伤害提升50%，清除增益BUFF效果。
+入场CD：0；CD：0
+觉醒：守护灵每释放1次奥义，伤害提升30%</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>分散行动，延迟对位守护灵召唤，3阶段牛逼</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>三连击，打出爆炸伤害。替代唐流雨。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2关卡赠送</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得曹焱兵后，抽卡赠送</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>守护灵20抽保底获得</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>较容易获得</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>守护灵5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0抽获得</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>新手期夏玲的守护灵</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>初期的单体攻击守护灵</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>主线任务目标赠送，</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一天结点投放。凸显游戏的策略性，增强分散行动的感受。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>初期群体攻击的守护灵，清小怪，加快节奏</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>首冲获得</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>剧情赠送</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>付费玩家替代于禁的卡</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>免费玩家5天可获得的替代于禁的守护灵</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>6水晶，群体伤害，单体追击。
+觉醒：
+追击技能伤害提升15%</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>6水晶，单体伤害。
+觉醒：
+对生命值低于30%的单位，伤害提升35%</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>给对方施加烈风印记。如果对方被击杀，则发生爆炸。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>给自己上一个护盾，所受伤害降低25%，持续2回合。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>典韦(不变)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>高顺(不变)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>6水晶，单体伤害，若敌方血量高于一定比例，则造成额外伤害。如果没有击杀目标，则降低自身攻击力1回合。
+觉醒：
+若本次攻击击杀了目标，则对另一名生命值比例最低的敌方追加一次攻击</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>更好的配合攻击型守护灵。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>集中行动，克制北落师门</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>缠斗能力较强，克制防御怪。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3水晶，单体伤害。
+觉醒：
+穿透概率提升20%</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一章末期或第二章初期剧情投放。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>吐槽，随机1敌方攻击力下降</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>替代唐流雨的单体输出三连击</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>替代唐流雨的单体输出卡。初期推关比较好用。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>剧情投放</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>常服夏玲</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUFF，治疗</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUFF</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始辅助型寄灵人。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUFF，然后输出</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>常服夏玲、李轩辕；曹玄亮、唐流雨</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>鬼兵</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>鬼兵</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>机械兵</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>小蜘蛛</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>寄灵人+守护灵</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>大卡点</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>北落师门，石灵明</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>策略点</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>策略点描述</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>我方阵容</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌方阵容</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>策略类型</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用夏玲和曹玄亮秒寄灵人</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个肉点，一个脆点的寄灵人</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要换位置秒杀寄灵人</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要配合群攻单位秒杀寄灵人</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要召唤守护灵收割寄灵人</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>换下位置</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>脆的寄灵人做肉些</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>脆的寄灵人再做肉些</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>优先召唤守护灵</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用战斗夏玲过量治疗多回水晶</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用北落师门抗伤害</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>寄灵人血量压力</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>秒杀对方寄灵人</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>柠檬精解控</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>对方2个控制单位，50%概率控制</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>对方2个控制单位，100%概率控制</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用柠檬精解控</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>换位置，让柠檬精放在</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>6水晶，单体伤害。
+觉醒：
+提升技能暴击伤害。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>单体攻击，回复1点红水晶，35%概率击晕对方。
+觉醒：每多3点红水晶，概率提升10%</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">单体攻击，回复1点红水晶。如果对位水晶大于4或守护灵死亡，则造成眩晕1回合。否则减少2点对位水晶。
+CD 1
+觉醒：
+守护灵每释放一次奥义，伤害提升15%
+</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>对敌方造成伤害，回复1点红水晶。
+CD：0
+觉醒：
+每多3点红水晶，伤害提升15%</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>对敌方造成伤害，回复1点黄水晶。
+CD：0
+觉醒：
+每拥有3点黄水晶，伤害提升15%</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成小量群体伤害，回复1点蓝水晶
+CD：0
+觉醒：
+无</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>群体BUFF，伤害提升，持续2回合，回复1点蓝水晶。
+CD：2
+觉醒：
+为友方提升攻击力，提升量为夏玲攻击力的15%</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成群体伤害，中间的伤害更高
+CD：1
+觉醒：
+每多3点红水晶，伤害提高25%。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">造成伤害，回复1点红水晶。
+施加易伤，可叠层。
+CD：0
+觉醒：
+守护灵每释放一次水晶技能，伤害提升25%。
+</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>群体BUFF，伤害提升，持续2回合，回复1点蓝水晶。
+CD：2
+觉醒：
+为友方提升攻击力，提升量为夏玲攻击力的15%</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>单体攻击，回复1点红水晶，使自身或守护灵下一次伤害提升35%
+CD：2回合
+觉醒：
+回复1点红水晶</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>为生命值最低的单位施加治疗，同时回复1点蓝水晶。如果被治疗的单位满血，则回复1点随机水晶
+CD：1
+觉醒：
+被治疗单位清除异常状态。如果没有异常状态，则回复1点对应守护灵的水晶，如果没有守护灵，则回复1点随机水晶</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>灵装夏玲</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>章</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>关</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容简介</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>剧情</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>我方阵容</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌方阵容（左中右）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗设计</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌方阵容（左中右）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的战斗设计</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>投放和引导</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>兴奋点</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>新手引导</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>救夏玲</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹焱兵、许褚；曹玄亮</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>鬼兵</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>巨蟒将军</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>剧情关卡</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹脸商业化面板，次日登陆送许褚</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>新手引导</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>教导养成</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>常服夏玲、柠檬精；曹玄亮、唐流雨</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹焱兵、许褚</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>唐流雨</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>夏玲BUFF，3连秒寄灵人</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>守护灵升级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>养成验证</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>常服夏玲、柠檬精；曹玄亮、唐流雨</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹焱兵、许褚</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>感知到守护灵升级后，伤害明显提升</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗曹焱兵-脆（许褚）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>强化之前的操作，要求玩家2回合干掉战斗曹焱兵，不然招出许褚很难应对</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>鬼兵（精英）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>中间鬼兵高攻高防，两边高攻低血，他们都可以秒掉夏玲，但不集火情况下秒不掉曹玄亮。引导玩家把曹玄亮放在中间，使用群攻先秒掉两边的人，然后最迟第二回合要召唤出守护灵，靠守护灵才能不死且较快速击杀中间鬼兵，获得3星。若开始没用群攻直接召唤，夏玲会被杀死无法3星，若2回合还不召唤，则失败</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗前黑尔坎普密谋进攻，所以怪物改成机械兵</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>机械兵</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>机械兵（精英）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续给予我方首回合寄灵人压力，首回合打剩一丝血（按夏玲血计算），无需特殊操作，可以正常3星通关。重复第5关感受，让玩家习惯先曹玄亮群攻清怪；同时开始提升中间怪物防御力，让玩家明显感受到击杀中间怪物需要多次行动了。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>机械兵（精英）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>纯剧情关</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>夏玲差点被车撞，李轩辕替他挡了，第二天夏玲询问曹焱兵，谈及锁心链，这时发现远处有骚乱，带玩家离开去查看，并丢给玩家两个技能</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>连击技能a、连击技能b各1个，强制引导安装到唐流雨身上（新手引导中对应的去掉这一步，并做好功能开启条件，在这时候才开启技能背包等一系列东西）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>三连击秒杀快感，这里务必多重复几关，让他感知到这个伤害，并且觉得如果能快速放两次奥义就好了，为下面解放水晶做铺垫</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续重复上一关感受，但增加中间怪物防御力，让唐流雨普攻打上去也不怎么疼了，玩家直观感受是伤害不足了，回合数延长了</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>考虑夏玲可以通过自带技能combo获得一颗唐流雨用的水晶，来提高前期玩家对于水晶技能感知？</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>小蜘蛛</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续增加中间怪物防血</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>持续加强三连击感受，但之前是秒人，现在剩1/3之类的，需要再额外行动才行</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>引导3连击</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>唐流雨vs山蜘蛛</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>山蜘蛛（头目）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>可参考教学关卡集中攻击或3连击关卡来设计，比如x回合后敌方够水晶放大招，能秒杀我方，所以我方一定要在那之前通过三连击击杀山蜘蛛（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>但不要去强制规定我方阵容或者行动规则，可以去强制规定敌方水晶和行动</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>小蜘蛛</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>持续引导玩家感受三连击伤害效果，但已经需要放2次以上的奥义才行了，感受到水晶的短缺</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>特殊战斗</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>李轩辕vs黑尔坎普</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>常服夏玲、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>李轩辕</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>；曹玄亮、唐流雨</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑尔坎普、塞普洛斯（boss）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>可通过定死敌方水晶每回合获取状况，保证在第6回合狗够水晶放大招，一口火喷死所有人，在这之前，要么玩家运气好，能直接攒够唐流雨水晶放3连击，要么用李轩辕技能自己形成combo快速两次大招，要么李轩辕偶数回合用大招，让唐流雨行动攒够水晶放3连，总之这个关卡不需要像教学关卡那样规定成只有一个策略，而是有多个策略都能过，但是都必须卡在某个时间点前完成，否则就被团灭。所以要枚举几种关键行动模式，他们只是有的能更快击杀对方，有的要多用几回合，按照这几个方案的最大行动回合数和伤害，去反推敌人血量</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>引导李轩辕技能释放策略，为了配合前面唐流雨的3连击，可以考虑把李轩辕技能偶数回合获得自己水晶改为谁攻击谁获得对应颜色水晶，这一关让玩家感受到李轩辕的加入，使得唐流雨三连击容易释放了</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得sr卡李轩辕</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>常服夏玲、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>李轩辕；曹玄亮、唐流雨</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>塞普洛斯</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>寄灵人保持之前的压力（敌方寄灵人能力提升要与我方寄灵人升级获得的提升相匹配），三个敌方守护灵攻击都比较高，使我方守护灵都快速残血，引导玩家在奇数回合使用李轩辕技能，让我方分散行动恢复血量</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>塞普洛斯</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>引导布阵更换李轩辕上场</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>鬼符三通封印灵槐树</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>神器系统解锁，直接解锁神器1，获得初始水晶+2效果</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始水晶增加，李轩辕大招较容易连续释放</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>常服夏玲、李轩辕；曹玄亮、唐流雨</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>重复分散行动模式，数值压力提升</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>小蜘蛛</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>若失败，检查玩家守护灵等级，若小于x，则引导玩家提升守护灵等级（前期首通务必给到足够守护灵经验）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>塞普洛斯（精英）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>集中攻击模式，提高塞普洛斯数值，要求玩家优先击杀塞普洛斯</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（参见教学关卡行动顺序设计，控制两边的血量，要让两边的人输出不浪费才行，只针对默认玩家阵容或同等品质的来设计就可以，不考虑有更好的卡的玩家）</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>塞普洛斯（精英）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>特殊关</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>关羽张飞vsBoss</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>张飞；关羽</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙怪or伏尸将军之类的</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>教学关卡，一回合战斗，以介绍张飞和关羽两个英雄技能为主，需要特殊设计，写死</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙怪or伏尸将军之类的</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>此战役重点体现关羽三连击的厉害，开启通灵功能的引导，要在靠前的位置看到可以兑换关羽，原材料之一是许褚，许褚在次日登陆送给玩家</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>首回合要给到寄灵人压力，让玩家尽快招守护灵；敌我双方守护灵互拼的节奏也开始加快</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>首回合要给到寄灵人压力，让玩家尽快招守护灵；我方唐流雨r卡容易死，关卡进入2星状态</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>纯剧情关</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹焱兵回来，看到灵槐树被毁，金铃子飞出来互相对话，抢棒棒糖啥的，捡搞笑有趣的来，别过于纠结讲解各种设定，多考虑玩家有啥互动可以加</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗结束后，强制引导跳转守护灵突破页面，软引导指着可以突破的守护灵就行，不强制引导玩家突破哪一个，但是如果玩家不突破，就无法通过下一关（注意，只给到一个守护灵的突破材料就行，包装到剧情里）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>机械兵</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>小蜘蛛</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.如果守护灵没突破，无法通关，同时寄灵人也要持续给到首回合压力
+2.从此关开始，敌方进入3角色，通过没有对位的那个敌人一直集火中间角色，让玩家开始出现想要第3组角色的感受</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗后qte剧情，捡箱子或者啥，主要是给玩家突破材料</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>常服夏玲、李轩辕；曹玄亮、唐流雨</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>特殊关</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹焱兵助战，战斗中派典韦上场，战后装逼说武神躯（老子有7个，玩家还可以吐槽“爷爷，是你么爷爷”）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>常服夏玲、李轩辕；曹玄亮、唐流雨；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>典韦（中途助战）</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑尔坎普、塞普洛斯（boss）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗数据写死，强制使用写死的阵容，确保3回合内目前玩家能力不会被打死，典韦出战后用一个99级典韦数据去秒杀对方（千万注意敌方血量和防御设置，要远超于当前玩家能力，以防意外）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑尔坎普、塞普洛斯（boss）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.特殊设计典韦技能，让他跟李轩辕有比较好的技能联动，此时弹出强推面板，首充送古之恶来--典韦，并且在页面上做出明显文字提示说出其和李轩辕的搭配；
+2.在满星关卡宝箱里，可给大量突破材料，软引导玩家突破第二个守护灵</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>给予寄灵人第一回合生存压力</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>这关卡设计好数值，首回合就让敌方把我方寄灵人都打死，让玩家失败（不管失败与否，结束战斗后都强制引导去获取挂机经验，然后去突破，突破材料在这关确保刚好够）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>引导挂机收获一次，让玩家达到寄灵人地狱道突破的等级（算好经验，反正之前就算他领了，总数还是一样的），这时候解锁玩家的地狱道，开出一串任务链来，这些任务要引导玩家继续下面的路程，不仅仅是在关卡里了，可能是打竞技场x次，进行一次快速挂机，加x个好友等等（特别提一下通关3-5，获取更多寄灵人，因为这个奖励玩家不过关不知道，所以提前给一个可以预知的地方，让他有继续推关卡目标）。另外这次突破的奖励或者带来的好处，一定要突出</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>持续给予数值压力</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>塞普洛斯（头目）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>有一定难度，并且设定策略，小卡一下玩家，需要玩家各种培养到比较满的状态，并且策略正确</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>竞技场开放</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>纯剧情关</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>准备出发修复灵槐树，夏玲爆衣，好好想想爆衣这个怎么表现能给玩家有想象力，但又不碰政策风险</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>给予战斗服夏玲、常服曹焱兵</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>引导上阵战斗夏玲</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗夏玲、李轩辕；曹玄亮、唐流雨；常服曹焱兵、任意卡</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>鬼将军（精英）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>引导玩家用战斗夏玲替换常服夏玲</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>看看还有别的王国成员么</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>盖文，西方龙</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>红莲缇娜，天使缇娜</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>与上一关难度差不多，略有提升，玩家不对应略作养成，就很可能2星。另外从此关卡开始，频繁使用正常的3组寄灵人+守护灵</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>引出王国组织，增加剧情悬念</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>中等卡点</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>伏尸将军（精英）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡玩家2星，但不会卡玩家过关</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>北落师门篇开启，白水儿被追，出个选项救人还是不救。这段剧情重点要表现下白水儿的萌，比如跑的气喘吁吁，脸很红什么的</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>与上一关难度差不多，略有提升，玩家不对应略作养成，就很可能2星</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>这里剧情与漫画略微有点出入，我们自己补一段曹焱兵和北落师门见面后切磋武艺的段落</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>常服曹焱兵</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>北落师门</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>写死的关卡，第一次必输，输了之后给到寄灵人通用升星替代卡，强制引导玩家进行升星，然后再返回来打，变成常规数据，北落师门被轻松打败，凸显升星的作用</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>开启寄灵人升星，引导寄灵人升星，应该需要添加通用升星替代卡</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>设定玩家双SSR或3SR阵容，且至少购买过2次快速挂机才能过（这个购买，是排除掉所有赠送的次数，自己购买的）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>接下来为第2天内容，该准备引导专属武器了，这个作为第2天核心追求；还有个技能升级，再考虑下是第一天还是第二天</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -430,7 +1968,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -512,6 +2050,51 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="8">
@@ -624,7 +2207,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
@@ -640,6 +2223,39 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="5">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -939,7 +2555,7 @@
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="20.5" customWidth="1"/>
     <col min="2" max="2" width="27.125" customWidth="1"/>
@@ -950,7 +2566,7 @@
     <col min="7" max="7" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -976,7 +2592,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="47.25" customHeight="1">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -986,7 +2602,7 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="57.75" customHeight="1">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -996,7 +2612,7 @@
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
     </row>
-    <row r="4" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="54" customHeight="1">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -1006,7 +2622,7 @@
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="1:8" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="55.5" customHeight="1">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -1016,7 +2632,7 @@
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8">
       <c r="A9" s="1"/>
     </row>
   </sheetData>
@@ -1028,23 +2644,30 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D11" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="L2" sqref="A2:L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="12.875" customWidth="1"/>
     <col min="2" max="3" width="16.375" customWidth="1"/>
     <col min="4" max="6" width="13.625" customWidth="1"/>
-    <col min="7" max="8" width="14.75" customWidth="1"/>
-    <col min="9" max="9" width="31.875" customWidth="1"/>
-    <col min="10" max="10" width="37.875" customWidth="1"/>
+    <col min="7" max="7" width="21.25" customWidth="1"/>
+    <col min="8" max="8" width="19.5" customWidth="1"/>
+    <col min="9" max="9" width="21.5" customWidth="1"/>
+    <col min="10" max="10" width="12.375" customWidth="1"/>
+    <col min="11" max="11" width="32.75" customWidth="1"/>
+    <col min="12" max="12" width="37.875" customWidth="1"/>
+    <col min="13" max="13" width="22.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" ht="17.25">
       <c r="A1" s="5" t="s">
         <v>8</v>
       </c>
@@ -1058,358 +2681,1721 @@
         <v>10</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>11</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="I1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="K1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="100.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" ht="108" customHeight="1">
       <c r="A2" s="3"/>
       <c r="B2" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C2" s="3"/>
-      <c r="D2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>25</v>
+      <c r="D2" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>121</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>30</v>
+        <v>78</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="89.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="108" customHeight="1">
       <c r="A3" s="3"/>
-      <c r="B3" s="3" t="s">
-        <v>17</v>
+      <c r="B3" s="4" t="s">
+        <v>123</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>25</v>
+        <v>125</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>121</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>34</v>
+        <v>126</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>62</v>
+        <v>127</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="150.75" customHeight="1">
       <c r="A4" s="3"/>
-      <c r="B4" s="3" t="s">
-        <v>16</v>
+      <c r="B4" s="4" t="s">
+        <v>171</v>
       </c>
       <c r="C4" s="3"/>
-      <c r="D4" s="3" t="s">
-        <v>24</v>
+      <c r="D4" s="4" t="s">
+        <v>124</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>20</v>
       </c>
       <c r="G4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="99.75" customHeight="1">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="101.25" customHeight="1">
+      <c r="A6" s="3"/>
+      <c r="B6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="3"/>
-      <c r="B5" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="3" t="s">
+      <c r="E6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="M6" s="6"/>
+    </row>
+    <row r="7" spans="1:13" ht="91.5" customHeight="1">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3" t="s">
+      <c r="E7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="3"/>
-      <c r="B7" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>28</v>
-      </c>
       <c r="H7" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I7" s="3"/>
+        <v>74</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="J7" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="75.75" customHeight="1">
       <c r="A8" s="3"/>
       <c r="B8" s="4" t="s">
         <v>38</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>42</v>
+      <c r="G8" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>43</v>
+        <v>115</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="J8" s="3"/>
-    </row>
-    <row r="9" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="117.75" customHeight="1">
       <c r="A9" s="3"/>
       <c r="B9" s="4" t="s">
-        <v>49</v>
+        <v>75</v>
       </c>
       <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
+      <c r="D9" s="4"/>
       <c r="E9" s="4" t="s">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>52</v>
+        <v>18</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="J9" s="3"/>
-    </row>
-    <row r="10" spans="1:10" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="67.5" customHeight="1">
       <c r="A10" s="3"/>
       <c r="B10" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
+      <c r="D10" s="4" t="s">
+        <v>34</v>
+      </c>
       <c r="E10" s="4" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="G10" s="3"/>
+        <v>36</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>118</v>
+      </c>
       <c r="H10" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="K10" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="I10" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="J10" s="3"/>
-    </row>
-    <row r="11" spans="1:10" ht="87" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" ht="66.75" customHeight="1">
       <c r="A11" s="3"/>
       <c r="B11" s="4" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="4" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G11" s="3"/>
+        <v>50</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>86</v>
+      </c>
       <c r="H11" s="4" t="s">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="J11" s="3"/>
-    </row>
-    <row r="12" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" ht="67.5" customHeight="1">
       <c r="A12" s="3"/>
       <c r="B12" s="4" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="4" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>80</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="G12" s="3"/>
       <c r="H12" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-    </row>
-    <row r="13" spans="1:10" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" ht="87" customHeight="1">
       <c r="A13" s="3"/>
       <c r="B13" s="4" t="s">
-        <v>81</v>
+        <v>47</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="4" t="s">
-        <v>82</v>
+        <v>48</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>84</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="G13" s="3"/>
       <c r="H13" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-    </row>
-    <row r="14" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" ht="51.75" customHeight="1">
       <c r="A14" s="3"/>
       <c r="B14" s="4" t="s">
-        <v>87</v>
+        <v>58</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-    </row>
-    <row r="15" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E14" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" ht="63.75" customHeight="1">
       <c r="A15" s="3"/>
       <c r="B15" s="4" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
+      <c r="E15" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" ht="56.25" customHeight="1">
+      <c r="A16" s="3"/>
+      <c r="B16" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="1:12" ht="102" customHeight="1">
+      <c r="A17" s="3"/>
+      <c r="B17" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="L17" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:E11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="2" max="2" width="27.875" customWidth="1"/>
+    <col min="3" max="3" width="18.625" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="5" max="5" width="28.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B3" t="s">
+        <v>141</v>
+      </c>
+      <c r="E3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="B4" t="s">
+        <v>143</v>
+      </c>
+      <c r="E4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="B5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="B6" t="s">
+        <v>145</v>
+      </c>
+      <c r="E6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>152</v>
+      </c>
+      <c r="B7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="B8" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="B9" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>154</v>
+      </c>
+      <c r="B10" t="s">
+        <v>157</v>
+      </c>
+      <c r="E10" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="B11" t="s">
+        <v>158</v>
+      </c>
+      <c r="E11" t="s">
+        <v>156</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="4.125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="5.25" style="7" customWidth="1"/>
+    <col min="3" max="3" width="9" style="7"/>
+    <col min="4" max="4" width="18.375" style="7" customWidth="1"/>
+    <col min="5" max="5" width="37.375" style="7" customWidth="1"/>
+    <col min="6" max="6" width="13.625" style="9" customWidth="1"/>
+    <col min="7" max="7" width="13.125" style="9" customWidth="1"/>
+    <col min="8" max="8" width="12.625" style="9" customWidth="1"/>
+    <col min="9" max="9" width="50.5" style="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.625" style="9" customWidth="1"/>
+    <col min="11" max="11" width="13.125" style="9" customWidth="1"/>
+    <col min="12" max="12" width="12.625" style="9" customWidth="1"/>
+    <col min="13" max="13" width="50.5" style="11" customWidth="1"/>
+    <col min="14" max="14" width="6.625" style="11" customWidth="1"/>
+    <col min="15" max="15" width="46.625" style="9" customWidth="1"/>
+    <col min="16" max="16" width="16.5" style="7" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16">
+      <c r="A1" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="O1" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="P1" s="7" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" s="10">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7">
+        <v>1</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="M2" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="O2" s="9" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" s="10"/>
+      <c r="B3" s="7">
+        <v>2</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="M3" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="O3" s="9" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="28.5">
+      <c r="A4" s="10"/>
+      <c r="B4" s="7">
+        <v>3</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="M4" s="11" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="85.5">
+      <c r="A5" s="10"/>
+      <c r="B5" s="7">
+        <v>4</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="71.25">
+      <c r="A6" s="10"/>
+      <c r="B6" s="7">
+        <v>5</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="O6" s="11"/>
+    </row>
+    <row r="7" spans="1:16" ht="99.75">
+      <c r="A7" s="10"/>
+      <c r="B7" s="7">
+        <v>6</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="O7" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="P7" s="8" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="42.75">
+      <c r="A8" s="10"/>
+      <c r="B8" s="7">
+        <v>7</v>
+      </c>
+      <c r="D8" s="9"/>
+      <c r="E8" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="O8" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="P8" s="8"/>
+    </row>
+    <row r="9" spans="1:16" ht="28.5">
+      <c r="A9" s="10"/>
+      <c r="B9" s="7">
+        <v>8</v>
+      </c>
+      <c r="D9" s="9"/>
+      <c r="E9" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="O9" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="P9" s="8"/>
+    </row>
+    <row r="10" spans="1:16" ht="57">
+      <c r="A10" s="10"/>
+      <c r="B10" s="7">
+        <v>9</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="K10" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="O10" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="P10" s="8"/>
+    </row>
+    <row r="11" spans="1:16" ht="142.5">
+      <c r="A11" s="10"/>
+      <c r="B11" s="7">
+        <v>10</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="K11" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="O11" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="57">
+      <c r="A12" s="10">
+        <v>2</v>
+      </c>
+      <c r="B12" s="7">
+        <v>1</v>
+      </c>
+      <c r="D12" s="9"/>
+      <c r="E12" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="K12" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="O12" s="9" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="42.75">
+      <c r="A13" s="10"/>
+      <c r="B13" s="7">
+        <v>2</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="E13" s="13"/>
+      <c r="O13" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="P13" s="9" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="28.5">
+      <c r="A14" s="10"/>
+      <c r="B14" s="7">
+        <v>3</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="I14" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="J14" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="K14" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="O14" s="9" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="28.5">
+      <c r="A15" s="10"/>
+      <c r="B15" s="7">
+        <v>4</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="J15" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="K15" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="O15" s="9" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="57">
+      <c r="A16" s="10"/>
+      <c r="B16" s="7">
+        <v>5</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="I16" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="J16" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="K16" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="O16" s="9" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="42.75">
+      <c r="A17" s="10"/>
+      <c r="B17" s="7">
+        <v>6</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="K17" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="L17" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="O17" s="9" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="28.5">
+      <c r="A18" s="10"/>
+      <c r="B18" s="7">
+        <v>7</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="I18" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="J18" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="K18" s="9" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="28.5">
+      <c r="A19" s="10"/>
+      <c r="B19" s="7">
+        <v>8</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="I19" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="J19" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="K19" s="9" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="114">
+      <c r="A20" s="10"/>
+      <c r="B20" s="7">
+        <v>9</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="E20" s="13"/>
+      <c r="O20" s="9" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="57">
+      <c r="A21" s="10"/>
+      <c r="B21" s="7">
+        <v>10</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="I21" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="J21" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="K21" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="L21" s="9" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="57">
+      <c r="A22" s="10"/>
+      <c r="B22" s="7">
+        <v>11</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="I22" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="J22" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="K22" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="L22" s="9" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="85.5">
+      <c r="A23" s="10"/>
+      <c r="B23" s="7">
+        <v>12</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>268</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="I23" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="K23" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="O23" s="9" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="A24" s="10">
+        <v>3</v>
+      </c>
+      <c r="B24" s="7">
+        <v>1</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="I24" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="J24" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="K24" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="L24" s="9" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="128.25">
+      <c r="A25" s="10"/>
+      <c r="B25" s="7">
+        <v>2</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="I25" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="J25" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="K25" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="L25" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="O25" s="9" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
+      <c r="A26" s="10"/>
+      <c r="B26" s="7">
+        <v>3</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="I26" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="J26" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="K26" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="L26" s="9" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" ht="28.5">
+      <c r="A27" s="10"/>
+      <c r="B27" s="7">
+        <v>4</v>
+      </c>
+      <c r="D27" s="9"/>
+      <c r="E27" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="H27" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="I27" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="J27" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="K27" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="L27" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="O27" s="9" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" ht="85.5">
+      <c r="A28" s="10"/>
+      <c r="B28" s="7">
+        <v>5</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="O28" s="9" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="28.5">
+      <c r="A29" s="10"/>
+      <c r="B29" s="7">
+        <v>6</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="H29" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="J29" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="K29" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="L29" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="O29" s="9" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
+      <c r="A30" s="10"/>
+      <c r="B30" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="42.75">
+      <c r="A31" s="10"/>
+      <c r="B31" s="7">
+        <v>8</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="G31" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="H31" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="I31" s="11" t="s">
+        <v>290</v>
+      </c>
+      <c r="J31" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="K31" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="L31" s="9" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" ht="28.5">
+      <c r="A32" s="10"/>
+      <c r="B32" s="7">
+        <v>9</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" ht="28.5">
+      <c r="A33" s="10"/>
+      <c r="B33" s="7">
+        <v>10</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="G33" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="H33" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="I33" s="11" t="s">
+        <v>294</v>
+      </c>
+      <c r="J33" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="K33" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="L33" s="9" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" ht="28.5">
+      <c r="A34" s="10"/>
+      <c r="B34" s="7">
+        <v>11</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="G34" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="H34" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="J34" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="K34" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="L34" s="9" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" ht="99.75">
+      <c r="A35" s="10"/>
+      <c r="B35" s="7">
+        <v>12</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" ht="28.5">
+      <c r="A36" s="10"/>
+      <c r="B36" s="7">
+        <v>13</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="G36" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="H36" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="I36" s="11" t="s">
+        <v>296</v>
+      </c>
+      <c r="J36" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="K36" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="L36" s="9" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" ht="71.25">
+      <c r="A37" s="10"/>
+      <c r="B37" s="7">
+        <v>14</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="G37" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="I37" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="K37" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="O37" s="9" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" ht="28.5">
+      <c r="A38" s="10"/>
+      <c r="B38" s="7">
+        <v>15</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="G38" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="I38" s="11" t="s">
+        <v>302</v>
+      </c>
+      <c r="K38" s="9" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15">
+      <c r="A39" s="15"/>
+    </row>
+    <row r="41" spans="1:15">
+      <c r="B41" s="16"/>
+      <c r="E41" s="16" t="s">
+        <v>303</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="A2:A11"/>
+    <mergeCell ref="P7:P10"/>
+    <mergeCell ref="A12:A23"/>
+    <mergeCell ref="A24:A38"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/策划案/镇魂街/战斗设计.xlsx
+++ b/策划案/镇魂街/战斗设计.xlsx
@@ -1,16 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F67E9191-C407-4902-9DB4-302581409321}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
     <sheet name="卡牌设计" sheetId="30" r:id="rId2"/>
     <sheet name="可用的策略点" sheetId="31" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="33" r:id="rId4"/>
+    <sheet name="关卡设计" sheetId="34" r:id="rId4"/>
+    <sheet name="原版关卡设计" sheetId="33" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,12 +24,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -53,7 +55,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0">
+    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
       <text>
         <r>
           <rPr>
@@ -79,7 +81,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0">
+    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000003000000}">
       <text>
         <r>
           <rPr>
@@ -105,7 +107,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0" shapeId="0">
+    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000004000000}">
       <text>
         <r>
           <rPr>
@@ -131,7 +133,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D3" authorId="0" shapeId="0">
+    <comment ref="D3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000005000000}">
       <text>
         <r>
           <rPr>
@@ -157,7 +159,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E3" authorId="0" shapeId="0">
+    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000006000000}">
       <text>
         <r>
           <rPr>
@@ -183,7 +185,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G6" authorId="0" shapeId="0">
+    <comment ref="G6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000007000000}">
       <text>
         <r>
           <rPr>
@@ -210,7 +212,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K6" authorId="0" shapeId="0">
+    <comment ref="K6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000008000000}">
       <text>
         <r>
           <rPr>
@@ -237,7 +239,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O7" authorId="0" shapeId="0">
+    <comment ref="O7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000009000000}">
       <text>
         <r>
           <rPr>
@@ -263,7 +265,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D10" authorId="0" shapeId="0">
+    <comment ref="D10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -289,7 +291,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D11" authorId="0" shapeId="0">
+    <comment ref="D11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -315,7 +317,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O13" authorId="0" shapeId="0">
+    <comment ref="O13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -341,7 +343,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C17" authorId="0" shapeId="0">
+    <comment ref="C17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -367,7 +369,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D17" authorId="0" shapeId="0">
+    <comment ref="D17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -393,7 +395,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C23" authorId="0" shapeId="0">
+    <comment ref="C23" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000F000000}">
       <text>
         <r>
           <rPr>
@@ -419,7 +421,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G23" authorId="0" shapeId="0">
+    <comment ref="G23" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000010000000}">
       <text>
         <r>
           <rPr>
@@ -445,7 +447,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K23" authorId="0" shapeId="0">
+    <comment ref="K23" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000011000000}">
       <text>
         <r>
           <rPr>
@@ -471,7 +473,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F27" authorId="0" shapeId="0">
+    <comment ref="F27" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000012000000}">
       <text>
         <r>
           <rPr>
@@ -497,7 +499,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J27" authorId="0" shapeId="0">
+    <comment ref="J27" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000013000000}">
       <text>
         <r>
           <rPr>
@@ -523,7 +525,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O27" authorId="0" shapeId="0">
+    <comment ref="O27" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000014000000}">
       <text>
         <r>
           <rPr>
@@ -554,196 +556,196 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="451">
   <si>
     <t>sheet名</t>
   </si>
   <si>
     <t>导出客户端文件</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>导出服务端文件</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>主键</t>
   </si>
   <si>
     <t>是否导出</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>屏蔽字段</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>表注释</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>常驻内存</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>卡牌ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>卡牌名</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>定位</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>出场技能</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>头像</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>技能1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>技能2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>曹玄亮</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>常服曹焱兵</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>水晶</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>红</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>黄</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>蓝</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>品质</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>控制</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>SR</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>北落师门</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>防御</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>无</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>策略</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>单体输出</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>红</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>分散行动，回复水晶</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>分散行动，保护队友</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>阎巧巧</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>柠檬怪</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>解控</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>R</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>蓝</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>解控，分散攻击</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>吕仙宫</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>红</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>黄</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>唐流雨</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>R</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>黄</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>于禁</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>R</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>单体攻击</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>李轩辕</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -759,154 +761,154 @@
       </rPr>
       <t>R</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>蓝</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>红</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>辅助，使玩家分散行动更有优势</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>造成伤害，获得2点红水晶,1回合CD。
 觉醒：
 每拥有3点红水晶，伤害提升15%</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>造成伤害，减少2点对位守护灵水晶，如果对位没有守护灵，或者守护灵已死亡，则随机减少3点水晶，1回合CD。入场CD1回合
 觉醒：
 守护灵每释放1次大招，该技能伤害提升30%</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">单体攻击，回复1点红水晶，自身所受伤害降低50，持续1回合，1回合CD。
 觉醒：
 所受伤害再降低25%
 </t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>3水晶，群体小额治疗，解控
 觉醒：
 无</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>群体攻击，可追击</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>单回合造成伤害回水晶。双回合群体虹吸
 觉醒：
 拥有虹吸的单位，每攻击一次，50%概率回复1点自身颜色的水晶</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>许褚</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>无</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>烈风螳螂</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>黄</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>红</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>单体输出</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>单体输出</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>三连击战士，防御</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>SSR</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>投放</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>单体输出，更强的三连击角色</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>设计目的</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>输出</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>初期的蓝色辅助型寄灵人。现有卡牌库中，很难进行替换。觉醒技能要很有用。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>初始卡牌</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>抽卡投放，易出。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>应对生存压力较大的关卡</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>战斗曹焱兵</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>单体输出，阻止敌方召唤</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>集中行动，单体输出，在1阶段干掉对方寄灵人。与守护灵无配合。随游戏进程推进，关卡寄灵人血量提升，此策略不在奏效</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>初期输出型寄灵人。让玩家有爽感，但会被替换。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>分散行动，延迟对位守护灵召唤，3阶段牛逼</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>1个综合能力较强的寄灵人，符合剧情特质。但缺乏特质，会被替换。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>寄灵人抽卡30抽投放</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>寄灵人抽卡10抽投放</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -922,44 +924,40 @@
       </rPr>
       <t>SR</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>7日活动</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>常服曹焱兵的强化版，对于大多数玩家可以一直使用</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>对群体造成伤害</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>单体攻击，下回合回复1点红水晶。
 入场CD：0回合；CD：1回合
 觉醒：
 使敌方单位受到伤害提升25%，持续2回合</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>分散行动，配合守护灵打出爆炸输出。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>单体攻击，如果对方有增益BUFF，则伤害提升50%，清除增益BUFF效果。
 入场CD：0；CD：0
 觉醒：守护灵每释放1次奥义，伤害提升30%</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>分散行动，延迟对位守护灵召唤，3阶段牛逼</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>三连击，打出爆炸伤害。替代唐流雨。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -975,19 +973,19 @@
       </rPr>
       <t>2关卡赠送</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>获得曹焱兵后，抽卡赠送</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>守护灵20抽保底获得</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>较容易获得</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1003,274 +1001,270 @@
       </rPr>
       <t>0抽获得</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>新手期夏玲的守护灵</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>初期的单体攻击守护灵</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>主线任务目标赠送，</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>第一天结点投放。凸显游戏的策略性，增强分散行动的感受。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>初期群体攻击的守护灵，清小怪，加快节奏</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>首冲获得</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>剧情赠送</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>付费玩家替代于禁的卡</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>免费玩家5天可获得的替代于禁的守护灵</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>6水晶，群体伤害，单体追击。
 觉醒：
 追击技能伤害提升15%</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>6水晶，单体伤害。
 觉醒：
 对生命值低于30%的单位，伤害提升35%</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>给对方施加烈风印记。如果对方被击杀，则发生爆炸。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>给自己上一个护盾，所受伤害降低25%，持续2回合。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>典韦(不变)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>高顺(不变)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>6水晶，单体伤害，若敌方血量高于一定比例，则造成额外伤害。如果没有击杀目标，则降低自身攻击力1回合。
 觉醒：
 若本次攻击击杀了目标，则对另一名生命值比例最低的敌方追加一次攻击</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>更好的配合攻击型守护灵。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>集中行动，克制北落师门</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>缠斗能力较强，克制防御怪。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>3水晶，单体伤害。
 觉醒：
 穿透概率提升20%</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>第一章末期或第二章初期剧情投放。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>吐槽，随机1敌方攻击力下降</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>替代唐流雨的单体输出三连击</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>替代唐流雨的单体输出卡。初期推关比较好用。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>R</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>剧情投放</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>常服夏玲</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>BUFF，治疗</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>BUFF</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>初始辅助型寄灵人。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>BUFF，然后输出</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>常服夏玲、李轩辕；曹玄亮、唐流雨</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>鬼兵</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>鬼兵</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>机械兵</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>小蜘蛛</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>寄灵人+守护灵</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>大卡点</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>北落师门，石灵明</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>策略点</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>策略点描述</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>我方阵容</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>敌方阵容</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>策略类型</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>使用夏玲和曹玄亮秒寄灵人</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>一个肉点，一个脆点的寄灵人</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>需要换位置秒杀寄灵人</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>需要配合群攻单位秒杀寄灵人</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>需要召唤守护灵收割寄灵人</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>换下位置</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>脆的寄灵人做肉些</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>脆的寄灵人再做肉些</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>优先召唤守护灵</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>使用战斗夏玲过量治疗多回水晶</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>使用北落师门抗伤害</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>寄灵人血量压力</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>秒杀对方寄灵人</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>柠檬精解控</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>对方2个控制单位，50%概率控制</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>对方2个控制单位，100%概率控制</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>使用柠檬精解控</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>换位置，让柠檬精放在</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>6水晶，单体伤害。
 觉醒：
 提升技能暴击伤害。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>单体攻击，回复1点红水晶，35%概率击晕对方。
 觉醒：每多3点红水晶，概率提升10%</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">单体攻击，回复1点红水晶。如果对位水晶大于4或守护灵死亡，则造成眩晕1回合。否则减少2点对位水晶。
@@ -1278,42 +1272,42 @@
 觉醒：
 守护灵每释放一次奥义，伤害提升15%
 </t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>对敌方造成伤害，回复1点红水晶。
 CD：0
 觉醒：
 每多3点红水晶，伤害提升15%</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>对敌方造成伤害，回复1点黄水晶。
 CD：0
 觉醒：
 每拥有3点黄水晶，伤害提升15%</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>造成小量群体伤害，回复1点蓝水晶
 CD：0
 觉醒：
 无</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>群体BUFF，伤害提升，持续2回合，回复1点蓝水晶。
 CD：2
 觉醒：
 为友方提升攻击力，提升量为夏玲攻击力的15%</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>造成群体伤害，中间的伤害更高
 CD：1
 觉醒：
 每多3点红水晶，伤害提高25%。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">造成伤害，回复1点红水晶。
@@ -1322,236 +1316,236 @@
 觉醒：
 守护灵每释放一次水晶技能，伤害提升25%。
 </t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>群体BUFF，伤害提升，持续2回合，回复1点蓝水晶。
 CD：2
 觉醒：
 为友方提升攻击力，提升量为夏玲攻击力的15%</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>单体攻击，回复1点红水晶，使自身或守护灵下一次伤害提升35%
 CD：2回合
 觉醒：
 回复1点红水晶</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>为生命值最低的单位施加治疗，同时回复1点蓝水晶。如果被治疗的单位满血，则回复1点随机水晶
 CD：1
 觉醒：
 被治疗单位清除异常状态。如果没有异常状态，则回复1点对应守护灵的水晶，如果没有守护灵，则回复1点随机水晶</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>灵装夏玲</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>章</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>关</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>内容简介</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>剧情</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>我方阵容</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>敌方阵容（左中右）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>战斗设计</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>敌方阵容（左中右）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>我的战斗设计</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>回合</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>投放和引导</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>兴奋点</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>新手引导</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>救夏玲</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>曹焱兵、许褚；曹玄亮</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>鬼兵</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>巨蟒将军</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>剧情关卡</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>弹脸商业化面板，次日登陆送许褚</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>新手引导</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>教导养成</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>常服夏玲、柠檬精；曹玄亮、唐流雨</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>曹焱兵、许褚</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>唐流雨</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>夏玲BUFF，3连秒寄灵人</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>守护灵升级</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>养成验证</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>常服夏玲、柠檬精；曹玄亮、唐流雨</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>曹焱兵、许褚</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>感知到守护灵升级后，伤害明显提升</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>战斗曹焱兵-脆（许褚）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>强化之前的操作，要求玩家2回合干掉战斗曹焱兵，不然招出许褚很难应对</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>鬼兵（精英）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>中间鬼兵高攻高防，两边高攻低血，他们都可以秒掉夏玲，但不集火情况下秒不掉曹玄亮。引导玩家把曹玄亮放在中间，使用群攻先秒掉两边的人，然后最迟第二回合要召唤出守护灵，靠守护灵才能不死且较快速击杀中间鬼兵，获得3星。若开始没用群攻直接召唤，夏玲会被杀死无法3星，若2回合还不召唤，则失败</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>战斗前黑尔坎普密谋进攻，所以怪物改成机械兵</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>机械兵</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>机械兵（精英）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>继续给予我方首回合寄灵人压力，首回合打剩一丝血（按夏玲血计算），无需特殊操作，可以正常3星通关。重复第5关感受，让玩家习惯先曹玄亮群攻清怪；同时开始提升中间怪物防御力，让玩家明显感受到击杀中间怪物需要多次行动了。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>机械兵（精英）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>纯剧情关</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>夏玲差点被车撞，李轩辕替他挡了，第二天夏玲询问曹焱兵，谈及锁心链，这时发现远处有骚乱，带玩家离开去查看，并丢给玩家两个技能</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>连击技能a、连击技能b各1个，强制引导安装到唐流雨身上（新手引导中对应的去掉这一步，并做好功能开启条件，在这时候才开启技能背包等一系列东西）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>三连击秒杀快感，这里务必多重复几关，让他感知到这个伤害，并且觉得如果能快速放两次奥义就好了，为下面解放水晶做铺垫</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>继续重复上一关感受，但增加中间怪物防御力，让唐流雨普攻打上去也不怎么疼了，玩家直观感受是伤害不足了，回合数延长了</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>考虑夏玲可以通过自带技能combo获得一颗唐流雨用的水晶，来提高前期玩家对于水晶技能感知？</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>小蜘蛛</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>继续增加中间怪物防血</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>持续加强三连击感受，但之前是秒人，现在剩1/3之类的，需要再额外行动才行</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>引导3连击</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>唐流雨vs山蜘蛛</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>山蜘蛛（头目）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1578,23 +1572,23 @@
       </rPr>
       <t>）</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>小蜘蛛</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>持续引导玩家感受三连击伤害效果，但已经需要放2次以上的奥义才行了，感受到水晶的短缺</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>特殊战斗</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>李轩辕vs黑尔坎普</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1621,23 +1615,23 @@
       </rPr>
       <t>；曹玄亮、唐流雨</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>黑尔坎普、塞普洛斯（boss）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>可通过定死敌方水晶每回合获取状况，保证在第6回合狗够水晶放大招，一口火喷死所有人，在这之前，要么玩家运气好，能直接攒够唐流雨水晶放3连击，要么用李轩辕技能自己形成combo快速两次大招，要么李轩辕偶数回合用大招，让唐流雨行动攒够水晶放3连，总之这个关卡不需要像教学关卡那样规定成只有一个策略，而是有多个策略都能过，但是都必须卡在某个时间点前完成，否则就被团灭。所以要枚举几种关键行动模式，他们只是有的能更快击杀对方，有的要多用几回合，按照这几个方案的最大行动回合数和伤害，去反推敌人血量</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>引导李轩辕技能释放策略，为了配合前面唐流雨的3连击，可以考虑把李轩辕技能偶数回合获得自己水晶改为谁攻击谁获得对应颜色水晶，这一关让玩家感受到李轩辕的加入，使得唐流雨三连击容易释放了</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>获得sr卡李轩辕</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1653,55 +1647,55 @@
       </rPr>
       <t>李轩辕；曹玄亮、唐流雨</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>塞普洛斯</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>寄灵人保持之前的压力（敌方寄灵人能力提升要与我方寄灵人升级获得的提升相匹配），三个敌方守护灵攻击都比较高，使我方守护灵都快速残血，引导玩家在奇数回合使用李轩辕技能，让我方分散行动恢复血量</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>塞普洛斯</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>引导布阵更换李轩辕上场</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>鬼符三通封印灵槐树</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>神器系统解锁，直接解锁神器1，获得初始水晶+2效果</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>初始水晶增加，李轩辕大招较容易连续释放</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>常服夏玲、李轩辕；曹玄亮、唐流雨</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>重复分散行动模式，数值压力提升</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>小蜘蛛</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>若失败，检查玩家守护灵等级，若小于x，则引导玩家提升守护灵等级（前期首通务必给到足够守护灵经验）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>塞普洛斯（精英）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1718,92 +1712,92 @@
       </rPr>
       <t>（参见教学关卡行动顺序设计，控制两边的血量，要让两边的人输出不浪费才行，只针对默认玩家阵容或同等品质的来设计就可以，不考虑有更好的卡的玩家）</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>塞普洛斯（精英）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>特殊关</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>关羽张飞vsBoss</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>张飞；关羽</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>龙怪or伏尸将军之类的</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> </t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>教学关卡，一回合战斗，以介绍张飞和关羽两个英雄技能为主，需要特殊设计，写死</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>龙怪or伏尸将军之类的</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>此战役重点体现关羽三连击的厉害，开启通灵功能的引导，要在靠前的位置看到可以兑换关羽，原材料之一是许褚，许褚在次日登陆送给玩家</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>首回合要给到寄灵人压力，让玩家尽快招守护灵；敌我双方守护灵互拼的节奏也开始加快</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>首回合要给到寄灵人压力，让玩家尽快招守护灵；我方唐流雨r卡容易死，关卡进入2星状态</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>纯剧情关</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>曹焱兵回来，看到灵槐树被毁，金铃子飞出来互相对话，抢棒棒糖啥的，捡搞笑有趣的来，别过于纠结讲解各种设定，多考虑玩家有啥互动可以加</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>战斗结束后，强制引导跳转守护灵突破页面，软引导指着可以突破的守护灵就行，不强制引导玩家突破哪一个，但是如果玩家不突破，就无法通过下一关（注意，只给到一个守护灵的突破材料就行，包装到剧情里）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>机械兵</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>小蜘蛛</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>1.如果守护灵没突破，无法通关，同时寄灵人也要持续给到首回合压力
 2.从此关开始，敌方进入3角色，通过没有对位的那个敌人一直集火中间角色，让玩家开始出现想要第3组角色的感受</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>战斗后qte剧情，捡箱子或者啥，主要是给玩家突破材料</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>常服夏玲、李轩辕；曹玄亮、唐流雨</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>特殊关</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>曹焱兵助战，战斗中派典韦上场，战后装逼说武神躯（老子有7个，玩家还可以吐槽“爷爷，是你么爷爷”）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1820,155 +1814,1447 @@
       </rPr>
       <t>典韦（中途助战）</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>黑尔坎普、塞普洛斯（boss）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>战斗数据写死，强制使用写死的阵容，确保3回合内目前玩家能力不会被打死，典韦出战后用一个99级典韦数据去秒杀对方（千万注意敌方血量和防御设置，要远超于当前玩家能力，以防意外）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>黑尔坎普、塞普洛斯（boss）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>1.特殊设计典韦技能，让他跟李轩辕有比较好的技能联动，此时弹出强推面板，首充送古之恶来--典韦，并且在页面上做出明显文字提示说出其和李轩辕的搭配；
 2.在满星关卡宝箱里，可给大量突破材料，软引导玩家突破第二个守护灵</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>给予寄灵人第一回合生存压力</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>这关卡设计好数值，首回合就让敌方把我方寄灵人都打死，让玩家失败（不管失败与否，结束战斗后都强制引导去获取挂机经验，然后去突破，突破材料在这关确保刚好够）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>引导挂机收获一次，让玩家达到寄灵人地狱道突破的等级（算好经验，反正之前就算他领了，总数还是一样的），这时候解锁玩家的地狱道，开出一串任务链来，这些任务要引导玩家继续下面的路程，不仅仅是在关卡里了，可能是打竞技场x次，进行一次快速挂机，加x个好友等等（特别提一下通关3-5，获取更多寄灵人，因为这个奖励玩家不过关不知道，所以提前给一个可以预知的地方，让他有继续推关卡目标）。另外这次突破的奖励或者带来的好处，一定要突出</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>持续给予数值压力</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>塞普洛斯（头目）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>有一定难度，并且设定策略，小卡一下玩家，需要玩家各种培养到比较满的状态，并且策略正确</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>竞技场开放</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>纯剧情关</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>准备出发修复灵槐树，夏玲爆衣，好好想想爆衣这个怎么表现能给玩家有想象力，但又不碰政策风险</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>给予战斗服夏玲、常服曹焱兵</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>引导上阵战斗夏玲</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>战斗夏玲、李轩辕；曹玄亮、唐流雨；常服曹焱兵、任意卡</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>鬼将军（精英）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>引导玩家用战斗夏玲替换常服夏玲</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>看看还有别的王国成员么</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>盖文，西方龙</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>红莲缇娜，天使缇娜</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>与上一关难度差不多，略有提升，玩家不对应略作养成，就很可能2星。另外从此关卡开始，频繁使用正常的3组寄灵人+守护灵</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>引出王国组织，增加剧情悬念</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>中等卡点</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>伏尸将军（精英）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>卡玩家2星，但不会卡玩家过关</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>北落师门篇开启，白水儿被追，出个选项救人还是不救。这段剧情重点要表现下白水儿的萌，比如跑的气喘吁吁，脸很红什么的</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>与上一关难度差不多，略有提升，玩家不对应略作养成，就很可能2星</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>这里剧情与漫画略微有点出入，我们自己补一段曹焱兵和北落师门见面后切磋武艺的段落</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>常服曹焱兵</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>北落师门</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>写死的关卡，第一次必输，输了之后给到寄灵人通用升星替代卡，强制引导玩家进行升星，然后再返回来打，变成常规数据，北落师门被轻松打败，凸显升星的作用</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>开启寄灵人升星，引导寄灵人升星，应该需要添加通用升星替代卡</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>设定玩家双SSR或3SR阵容，且至少购买过2次快速挂机才能过（这个购买，是排除掉所有赠送的次数，自己购买的）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>接下来为第2天内容，该准备引导专属武器了，这个作为第2天核心追求；还有个技能升级，再考虑下是第一天还是第二天</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>关卡</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-1关</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-2关</t>
+  </si>
+  <si>
+    <t>1-3关</t>
+  </si>
+  <si>
+    <t>1-4关</t>
+  </si>
+  <si>
+    <t>1-5关</t>
+  </si>
+  <si>
+    <t>1-6关</t>
+  </si>
+  <si>
+    <t>1-7关</t>
+  </si>
+  <si>
+    <t>1-8关</t>
+  </si>
+  <si>
+    <t>1-9关</t>
+  </si>
+  <si>
+    <t>剧情引导关</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>剧情</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>夏玲来到镇魂街，见到唐流雨，看见他正在摆弄机械玩偶</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>夏玲梦中梦见一场激烈的战争</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>展现游戏特色，使用群攻与插槽</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>留给天悦</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>夏玲，曹玄亮</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>鬼兵X3（刀，锤，刀）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>夏玲技能2，唐流雨技能2（打死拿到的鬼兵），唐流雨技能1，夏玲普攻。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-4</t>
+  </si>
+  <si>
+    <t>夏玲，柠檬精，曹玄亮</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>唐流雨输出很高，夏玲濒死。招出柠檬精来抵挡唐流雨攻击</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>夏玲与唐流雨聊天，了解镇魂街的情况。
+夏玲看见唐流雨在摆弄玩偶，很是好奇。
+玩偶突然活化，夏玲和唐流雨进入战斗。
+战斗后，曹玄亮告诉夏玲这是他的守护灵。唐流雨加入队伍。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>柠檬精解晕</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-5</t>
+  </si>
+  <si>
+    <t>黑尔坎普密谋进攻镇魂街</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>使用唐流雨出场技A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>OE秒杀小怪</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>夏玲，柠檬精，曹玄亮，唐流雨</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>机械兵X</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-6</t>
+  </si>
+  <si>
+    <t>对群体造成伤害，2.5倍攻击。唐流雨血量系数是其他守护灵的2/3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>给自己上一个护盾，所受伤害降低25%，持续2回合。召唤多消耗1点水晶</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>心魔X</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>唐流雨出场A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>OE后，无法清怪。使用插槽技能收割怪物</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-7</t>
+  </si>
+  <si>
+    <t>山雨欲来，镇魂街外围，恶灵开始骚动</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合数增长，唐流雨大招AOE清兵</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>鬼刀兵X</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>剧情与引导</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>为准备防御黑尔坎普的攻击，曹焱兵开始对夏玲进行训练。引导玩家地狱道突破。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌方输出很猛，玩家地狱道不进阶，可能会被砍死</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>让玩家领取第二个关卡宝箱，并在此进行守护灵抽奖，抽到唐流雨，兑换一个可以追击的技能</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>鬼将军</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>出场4水晶，让玩家快速招守护灵，不要垃圾时间。鬼将军死于唐流雨的大招加追击</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-9</t>
+  </si>
+  <si>
+    <t>引导玩家突破唐流雨，对战官邸BOSS</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>挂机1-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>打败了B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>OSS，要清扫余党。</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>战力正好够</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>挂机1-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>前方怪物比较强，曹焱兵加入我们</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>夏玲，柠檬精，曹玄亮，唐流雨，曹焱兵</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>挂机1-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>挂机1-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>引导玩家再进行一次守护灵抽奖，给于禁</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>夏玲，柠檬精，曹玄亮，唐流雨，曹焱兵，于禁</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>要求玩家把3个守护灵升到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5级</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2-1</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>序章1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>夏玲接到鬼符三通的短信，来到镇魂街，遇到鬼兵，曹玄亮前来相救。
+曹玄亮给夏玲介绍镇魂街的设定。镇魂街是连接人类世界和领域的地方。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹焱兵出现，干掉一堆杂兵。
+曹焱兵和夏玲互相吐槽，夏玲获得柠檬精。
+又来了一个砍刀鬼将军。想要称霸罗刹街。
+曹焱兵被鬼将军晕住，曹玄亮教导夏玲召唤守护灵。柠檬精解控。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>夏玲，柠檬精，战斗曹焱兵(剧情)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>巨蟒将军（亘古巨蟒），奥义技能必晕</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">夏玲起床，曹焱兵要消除她的记忆。夏玲扔包砸曹焱兵，掉出鬼符三通的灵言信
+剧情上，谈及锁心链，夏玲被车撞
+引导玩家领取星星宝箱，宝箱中的守护灵抽卡券，抽卡又获得一个柠檬精，引导玩家兑换技能，给柠檬精装上插槽。
+</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-8</t>
+  </si>
+  <si>
+    <t>1-10</t>
+  </si>
+  <si>
+    <t>夏玲，柠檬精</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要召唤柠檬精，然后。。。菜鸡互啄</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>王国组织锁定锁定夏玲，鬼符三通来救援。
+夏玲被车撞，黑尔坎普确认夏玲身份。
+鬼符三通让夏玲去罗刹街找曹焱兵，只有那里才安全。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>王国组织寄灵人X</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2-2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>王国组织寄灵人，黑尔坎普（塞伯罗斯），王国组织寄灵人</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用曹焱兵，阻止黑尔召唤守护灵</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>山蜘蛛，小蜘蛛，小蜘蛛</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>不突破唐流雨，很难打过山蜘蛛。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2-3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>夏玲迟迟召唤不出守护灵，曹焱兵把夏玲带到镇魂街边缘去练级</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>王国组织寄灵人，南御夫（噬日），王国组织寄灵人</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2-4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>危机关头，夏玲激发灵力，曹玄亮，曹焱兵，鬼符三通前来营救</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>唐流雨配合于禁干掉对方守护灵</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>鬼兵，鬼兵，鬼兵</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2-5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2-6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2-7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2-8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2-9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>主线任务-牧守令扫荡1次</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>升到10级</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>战前准备，要求3个守护灵突破+1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>开场红黄来4水晶</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>精英鬼兵X</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>机械X3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>王国组织全面进攻罗刹街</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>夏玲，柠檬精，曹玄亮，唐流雨，曹焱兵，于禁</t>
+  </si>
+  <si>
+    <t>困难1-1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>困难1-2</t>
+  </si>
+  <si>
+    <t>困难1-3</t>
+  </si>
+  <si>
+    <t>困难1-4</t>
+  </si>
+  <si>
+    <t>困难1-5</t>
+  </si>
+  <si>
+    <t>困难1-6</t>
+  </si>
+  <si>
+    <t>要求守护灵全7级</t>
+  </si>
+  <si>
+    <t>要求守护灵全8级</t>
+  </si>
+  <si>
+    <t>要求守护灵全9级</t>
+  </si>
+  <si>
+    <t>要求守护灵全12级</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>要求守护灵全10级</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>要求守护灵全6级。困难关可以使用动画的阴版，没时间的话就随便配下。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>要求守护灵全10级，1个守护灵15级2突
+罗刹街开起了4个传送门，曹焱兵，许褚，曹玄亮，鬼符三通分别去堵门</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>比较考验唐流雨的暴雨梨花，暴雨梨花后，鬼兵只剩一个插槽技能的血</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹焱兵被调虎离山，黑尔坎普亲自攻打罗刹街，曹玄亮苦战不支。夏玲吞噬灵槐枝，召唤李轩辕，引导玩家分散行动，回复生命。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪攻击较高，需要善用李轩辕的虹吸技能。出场4水晶，省去寄灵人阶段。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>精英机械兵X</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>精英机械兵，塞伯罗斯，精英机械兵</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>出场4水晶，使用李轩辕仙状态，给于禁转水晶，尽快击杀塞伯罗斯。塞伯罗斯大招系数调高些</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>在另一位面，曹焱兵和许褚大战塞伯罗斯</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>挂机2-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>挂机2-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>挂机2-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>挂机2-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>芦花风-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>芦花风-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>芦花风-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>芦花风-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>激活神器1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>挂机2-5</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>挂机2-6</t>
+  </si>
+  <si>
+    <t>挂机2-7</t>
+  </si>
+  <si>
+    <t>挂机2-8</t>
+  </si>
+  <si>
+    <t>3-1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-2</t>
+  </si>
+  <si>
+    <t>3-3</t>
+  </si>
+  <si>
+    <t>3-4</t>
+  </si>
+  <si>
+    <t>3-5</t>
+  </si>
+  <si>
+    <t>3-6</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>3-8</t>
+  </si>
+  <si>
+    <t>3-9</t>
+  </si>
+  <si>
+    <r>
+      <t>困难2-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>困难2-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>困难2-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>困难2-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>困难2-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>困难2-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>困难2-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>困难2-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>困难2-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="17">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="18" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2178,50 +3464,50 @@
   </borders>
   <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" applyFont="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyFont="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="4">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="4">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="4" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="4" applyFont="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="5">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="5">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2234,44 +3520,51 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="4" quotePrefix="1" applyFont="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="4" quotePrefix="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
-    <cellStyle name="Grid" xfId="4"/>
-    <cellStyle name="Normal" xfId="1"/>
+    <cellStyle name="Grid" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Normal" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="10"/>
-    <cellStyle name="超链接 2" xfId="11"/>
-    <cellStyle name="大标题" xfId="3"/>
-    <cellStyle name="横向标题" xfId="5"/>
-    <cellStyle name="文本" xfId="9"/>
-    <cellStyle name="无效" xfId="6"/>
-    <cellStyle name="因变Grid" xfId="7"/>
-    <cellStyle name="英文标题" xfId="12"/>
-    <cellStyle name="中文标题" xfId="2"/>
-    <cellStyle name="纵向标题" xfId="8"/>
+    <cellStyle name="常规 2" xfId="10" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="超链接 2" xfId="11" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="大标题" xfId="3" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="横向标题" xfId="5" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="文本" xfId="9" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="无效" xfId="6" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="因变Grid" xfId="7" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="英文标题" xfId="12" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="中文标题" xfId="2" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="纵向标题" xfId="8" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2548,14 +3841,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.5" customWidth="1"/>
     <col min="2" max="2" width="27.125" customWidth="1"/>
@@ -2566,7 +3859,7 @@
     <col min="7" max="7" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15">
+    <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2592,7 +3885,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="47.25" customHeight="1">
+    <row r="2" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -2602,7 +3895,7 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8" ht="57.75" customHeight="1">
+    <row r="3" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -2612,7 +3905,7 @@
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
     </row>
-    <row r="4" spans="1:8" ht="54" customHeight="1">
+    <row r="4" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -2622,7 +3915,7 @@
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="1:8" ht="55.5" customHeight="1">
+    <row r="5" spans="1:8" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -2632,28 +3925,28 @@
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L2" sqref="A2:L2"/>
+      <selection pane="bottomRight" activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.875" customWidth="1"/>
     <col min="2" max="3" width="16.375" customWidth="1"/>
@@ -2667,7 +3960,7 @@
     <col min="13" max="13" width="22.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="17.25">
+    <row r="1" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>8</v>
       </c>
@@ -2705,7 +3998,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="108" customHeight="1">
+    <row r="2" spans="1:13" ht="108" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="3" t="s">
         <v>15</v>
@@ -2715,7 +4008,7 @@
         <v>70</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>18</v>
@@ -2733,23 +4026,23 @@
         <v>72</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="108" customHeight="1">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="108" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>20</v>
@@ -2758,29 +4051,29 @@
         <v>26</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="J3" s="4" t="s">
         <v>72</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="150.75" customHeight="1">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="150.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>23</v>
@@ -2798,16 +4091,16 @@
         <v>30</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="99.75" customHeight="1">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="99.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
         <v>16</v>
@@ -2832,7 +4125,7 @@
         <v>79</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="K5" s="4" t="s">
         <v>52</v>
@@ -2841,7 +4134,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="101.25" customHeight="1">
+    <row r="6" spans="1:13" ht="101.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="4" t="s">
         <v>32</v>
@@ -2860,23 +4153,23 @@
         <v>26</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J6" s="4" t="s">
         <v>73</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="M6" s="6"/>
     </row>
-    <row r="7" spans="1:13" ht="91.5" customHeight="1">
+    <row r="7" spans="1:13" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="3" t="s">
         <v>24</v>
@@ -2907,10 +4200,10 @@
         <v>54</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="75.75" customHeight="1">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="4" t="s">
         <v>38</v>
@@ -2929,22 +4222,22 @@
         <v>26</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J8" s="4" t="s">
         <v>81</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="117.75" customHeight="1">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="117.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="4" t="s">
         <v>75</v>
@@ -2964,19 +4257,19 @@
         <v>85</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J9" s="4" t="s">
         <v>84</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="67.5" customHeight="1">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="4" t="s">
         <v>33</v>
@@ -2992,23 +4285,23 @@
         <v>36</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I10" s="4" t="s">
         <v>37</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K10" s="4" t="s">
         <v>55</v>
       </c>
       <c r="L10" s="3"/>
     </row>
-    <row r="11" spans="1:13" ht="66.75" customHeight="1">
+    <row r="11" spans="1:13" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="4" t="s">
         <v>41</v>
@@ -3022,23 +4315,23 @@
         <v>50</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>86</v>
+        <v>332</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I11" s="4" t="s">
         <v>56</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L11" s="3"/>
     </row>
-    <row r="12" spans="1:13" ht="67.5" customHeight="1">
+    <row r="12" spans="1:13" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="4" t="s">
         <v>44</v>
@@ -3053,20 +4346,20 @@
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I12" s="4" t="s">
         <v>46</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L12" s="3"/>
     </row>
-    <row r="13" spans="1:13" ht="87" customHeight="1">
+    <row r="13" spans="1:13" ht="87" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="4" t="s">
         <v>47</v>
@@ -3081,20 +4374,20 @@
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I13" s="4" t="s">
         <v>51</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K13" s="4" t="s">
         <v>57</v>
       </c>
       <c r="L13" s="3"/>
     </row>
-    <row r="14" spans="1:13" ht="51.75" customHeight="1">
+    <row r="14" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="4" t="s">
         <v>58</v>
@@ -3108,23 +4401,23 @@
         <v>18</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>109</v>
+        <v>333</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I14" s="4" t="s">
         <v>65</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L14" s="3"/>
     </row>
-    <row r="15" spans="1:13" ht="63.75" customHeight="1">
+    <row r="15" spans="1:13" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="4" t="s">
         <v>60</v>
@@ -3138,26 +4431,26 @@
         <v>62</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I15" s="4" t="s">
         <v>63</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="L15" s="3"/>
     </row>
-    <row r="16" spans="1:13" ht="56.25" customHeight="1">
+    <row r="16" spans="1:13" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -3171,23 +4464,23 @@
         <v>59</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I16" s="4" t="s">
         <v>68</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="L16" s="3"/>
     </row>
-    <row r="17" spans="1:12" ht="102" customHeight="1">
+    <row r="17" spans="1:12" ht="102" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -3201,35 +4494,35 @@
         <v>26</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I17" s="4" t="s">
         <v>64</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L17" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A2:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A14" sqref="A14:B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
     <col min="2" max="2" width="27.875" customWidth="1"/>
@@ -3238,1162 +4531,2008 @@
     <col min="5" max="5" width="28.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E3" t="s">
         <v>140</v>
       </c>
-      <c r="B2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C2" t="s">
-        <v>137</v>
-      </c>
-      <c r="D2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>141</v>
+      </c>
+      <c r="E4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>142</v>
+      </c>
+      <c r="E5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>143</v>
+      </c>
+      <c r="E6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>150</v>
+      </c>
+      <c r="B7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>152</v>
+      </c>
+      <c r="B10" t="s">
+        <v>155</v>
+      </c>
+      <c r="E10" t="s">
         <v>153</v>
       </c>
-      <c r="B3" t="s">
-        <v>141</v>
-      </c>
-      <c r="E3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="B4" t="s">
-        <v>143</v>
-      </c>
-      <c r="E4" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="B5" t="s">
-        <v>144</v>
-      </c>
-      <c r="E5" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="B6" t="s">
-        <v>145</v>
-      </c>
-      <c r="E6" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>152</v>
-      </c>
-      <c r="B7" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="B8" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="B9" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>156</v>
+      </c>
+      <c r="E11" t="s">
         <v>154</v>
       </c>
-      <c r="B10" t="s">
-        <v>157</v>
-      </c>
-      <c r="E10" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="B11" t="s">
-        <v>158</v>
-      </c>
-      <c r="E11" t="s">
-        <v>156</v>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>302</v>
+      </c>
+      <c r="B14" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="15" t="s">
+        <v>303</v>
+      </c>
+      <c r="B15" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="B16" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="15" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="15" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="15" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="15" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" s="15" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" s="15" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" s="15" t="s">
+        <v>311</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A31B7236-3710-4DC0-AA77-549DE6C0D1CF}">
+  <dimension ref="A3:E65"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A66" sqref="A66"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="42.875" customWidth="1"/>
+    <col min="3" max="3" width="29.375" customWidth="1"/>
+    <col min="4" max="4" width="32.5" customWidth="1"/>
+    <col min="5" max="5" width="40" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="16" t="s">
+        <v>362</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="16" t="s">
+        <v>339</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="99" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="16" t="s">
+        <v>340</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="16" t="s">
+        <v>368</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="84.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="16" t="s">
+        <v>321</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="16" t="s">
+        <v>326</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="104.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="16" t="s">
+        <v>331</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="16" t="s">
+        <v>336</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="16" t="s">
+        <v>369</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="16" t="s">
+        <v>348</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="16" t="s">
+        <v>370</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="16" t="s">
+        <v>361</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="16" t="s">
+        <v>375</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="16" t="s">
+        <v>380</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="16" t="s">
+        <v>383</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="4" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="16" t="s">
+        <v>387</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="D24" s="3"/>
+      <c r="E24" s="4" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="16" t="s">
+        <v>388</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="16" t="s">
+        <v>400</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="4"/>
+    </row>
+    <row r="27" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="16" t="s">
+        <v>401</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="4"/>
+    </row>
+    <row r="28" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="16" t="s">
+        <v>402</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="4"/>
+    </row>
+    <row r="29" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="16" t="s">
+        <v>403</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="4"/>
+    </row>
+    <row r="30" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="16" t="s">
+        <v>404</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="4"/>
+    </row>
+    <row r="31" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="16" t="s">
+        <v>405</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="4"/>
+    </row>
+    <row r="32" spans="1:5" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="16" t="s">
+        <v>389</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="D32" s="3"/>
+      <c r="E32" s="4" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="16" t="s">
+        <v>390</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="D33" s="3"/>
+      <c r="E33" s="4" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="16" t="s">
+        <v>391</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="D34" s="3"/>
+      <c r="E34" s="4" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+    </row>
+    <row r="36" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+    </row>
+    <row r="37" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+    </row>
+    <row r="38" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+    </row>
+    <row r="39" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+    </row>
+    <row r="40" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+    </row>
+    <row r="41" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+    </row>
+    <row r="42" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+    </row>
+    <row r="43" spans="1:5" ht="33" x14ac:dyDescent="0.2">
+      <c r="A43" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+    </row>
+    <row r="44" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A44" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+    </row>
+    <row r="45" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A45" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+    </row>
+    <row r="46" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A46" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+    </row>
+    <row r="47" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A47" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+    </row>
+    <row r="48" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A48" s="19" t="s">
+        <v>433</v>
+      </c>
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+    </row>
+    <row r="49" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A49" s="19" t="s">
+        <v>434</v>
+      </c>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+    </row>
+    <row r="50" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A50" s="19" t="s">
+        <v>435</v>
+      </c>
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+    </row>
+    <row r="51" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A51" s="19" t="s">
+        <v>436</v>
+      </c>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+    </row>
+    <row r="52" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A52" s="19" t="s">
+        <v>437</v>
+      </c>
+      <c r="B52" s="3"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+    </row>
+    <row r="53" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A53" s="19" t="s">
+        <v>438</v>
+      </c>
+      <c r="B53" s="3"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+    </row>
+    <row r="54" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A54" s="16" t="s">
+        <v>442</v>
+      </c>
+      <c r="B54" s="3"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+    </row>
+    <row r="55" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A55" s="16" t="s">
+        <v>443</v>
+      </c>
+      <c r="B55" s="3"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+    </row>
+    <row r="56" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A56" s="16" t="s">
+        <v>444</v>
+      </c>
+      <c r="B56" s="3"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+    </row>
+    <row r="57" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A57" s="16" t="s">
+        <v>445</v>
+      </c>
+      <c r="B57" s="3"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+    </row>
+    <row r="58" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A58" s="16" t="s">
+        <v>446</v>
+      </c>
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+    </row>
+    <row r="59" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A59" s="16" t="s">
+        <v>447</v>
+      </c>
+      <c r="B59" s="3"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
+    </row>
+    <row r="60" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A60" s="16" t="s">
+        <v>448</v>
+      </c>
+      <c r="B60" s="3"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+    </row>
+    <row r="61" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A61" s="16" t="s">
+        <v>449</v>
+      </c>
+      <c r="B61" s="3"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3"/>
+    </row>
+    <row r="62" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A62" s="16" t="s">
+        <v>450</v>
+      </c>
+      <c r="B62" s="3"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
+    </row>
+    <row r="63" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A63" s="19" t="s">
+        <v>439</v>
+      </c>
+      <c r="B63" s="3"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3"/>
+    </row>
+    <row r="64" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A64" s="19" t="s">
+        <v>440</v>
+      </c>
+      <c r="B64" s="3"/>
+      <c r="C64" s="3"/>
+      <c r="D64" s="3"/>
+      <c r="E64" s="3"/>
+    </row>
+    <row r="65" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A65" s="19" t="s">
+        <v>441</v>
+      </c>
+      <c r="B65" s="3"/>
+      <c r="C65" s="3"/>
+      <c r="D65" s="3"/>
+      <c r="E65" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:P41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.125" style="7" customWidth="1"/>
     <col min="2" max="2" width="5.25" style="7" customWidth="1"/>
     <col min="3" max="3" width="9" style="7"/>
     <col min="4" max="4" width="18.375" style="7" customWidth="1"/>
     <col min="5" max="5" width="37.375" style="7" customWidth="1"/>
-    <col min="6" max="6" width="13.625" style="9" customWidth="1"/>
-    <col min="7" max="7" width="13.125" style="9" customWidth="1"/>
-    <col min="8" max="8" width="12.625" style="9" customWidth="1"/>
-    <col min="9" max="9" width="50.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.625" style="9" customWidth="1"/>
-    <col min="11" max="11" width="13.125" style="9" customWidth="1"/>
-    <col min="12" max="12" width="12.625" style="9" customWidth="1"/>
-    <col min="13" max="13" width="50.5" style="11" customWidth="1"/>
-    <col min="14" max="14" width="6.625" style="11" customWidth="1"/>
-    <col min="15" max="15" width="46.625" style="9" customWidth="1"/>
+    <col min="6" max="6" width="13.625" style="8" customWidth="1"/>
+    <col min="7" max="7" width="13.125" style="8" customWidth="1"/>
+    <col min="8" max="8" width="12.625" style="8" customWidth="1"/>
+    <col min="9" max="9" width="50.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.625" style="8" customWidth="1"/>
+    <col min="11" max="11" width="13.125" style="8" customWidth="1"/>
+    <col min="12" max="12" width="12.625" style="8" customWidth="1"/>
+    <col min="13" max="13" width="50.5" style="9" customWidth="1"/>
+    <col min="14" max="14" width="6.625" style="9" customWidth="1"/>
+    <col min="15" max="15" width="46.625" style="8" customWidth="1"/>
     <col min="16" max="16" width="16.5" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="D1" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="E1" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="F1" s="18" t="s">
         <v>175</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="J1" s="18" t="s">
         <v>177</v>
       </c>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="9" t="s">
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="N1" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="9" t="s">
+      <c r="O1" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="P1" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="O1" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="P1" s="7" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16">
-      <c r="A2" s="10">
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A2" s="17">
         <v>1</v>
       </c>
       <c r="B2" s="7">
         <v>1</v>
       </c>
       <c r="C2" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="F2" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="G2" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="H2" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="M2" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="O2" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="H2" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="L2" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="M2" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="O2" s="9" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16">
-      <c r="A3" s="10"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A3" s="17"/>
       <c r="B3" s="7">
         <v>2</v>
       </c>
       <c r="C3" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="G3" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="K3" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="M3" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="O3" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="M3" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="O3" s="9" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="28.5">
-      <c r="A4" s="10"/>
+    </row>
+    <row r="4" spans="1:16" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="17"/>
       <c r="B4" s="7">
         <v>3</v>
       </c>
       <c r="D4" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="G4" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="I4" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="K4" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="M4" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="K4" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="M4" s="11" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" ht="85.5">
-      <c r="A5" s="10"/>
+    </row>
+    <row r="5" spans="1:16" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="17"/>
       <c r="B5" s="7">
         <v>4</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="J5" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="K5" s="9" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" ht="71.25">
-      <c r="A6" s="10"/>
+        <v>191</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A6" s="17"/>
       <c r="B6" s="7">
         <v>5</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="G6" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="F6" s="9" t="s">
+      <c r="I6" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="J6" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="K6" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="I6" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="J6" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="K6" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="O6" s="11"/>
-    </row>
-    <row r="7" spans="1:16" ht="99.75">
-      <c r="A7" s="10"/>
+      <c r="O6" s="9"/>
+    </row>
+    <row r="7" spans="1:16" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="17"/>
       <c r="B7" s="7">
         <v>6</v>
       </c>
       <c r="C7" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="O7" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="P7" s="18" t="s">
         <v>212</v>
       </c>
-      <c r="O7" s="11" t="s">
-        <v>213</v>
-      </c>
-      <c r="P7" s="8" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="42.75">
-      <c r="A8" s="10"/>
+    </row>
+    <row r="8" spans="1:16" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="17"/>
       <c r="B8" s="7">
         <v>7</v>
       </c>
-      <c r="D8" s="9"/>
+      <c r="D8" s="8"/>
       <c r="E8" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="I8" s="11" t="s">
-        <v>215</v>
-      </c>
-      <c r="J8" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="K8" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="O8" s="11" t="s">
-        <v>216</v>
-      </c>
-      <c r="P8" s="8"/>
-    </row>
-    <row r="9" spans="1:16" ht="28.5">
-      <c r="A9" s="10"/>
+        <v>191</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="O8" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="P8" s="18"/>
+    </row>
+    <row r="9" spans="1:16" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="17"/>
       <c r="B9" s="7">
         <v>8</v>
       </c>
-      <c r="D9" s="9"/>
+      <c r="D9" s="8"/>
       <c r="E9" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="F9" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="O9" s="9" t="s">
         <v>217</v>
       </c>
-      <c r="G9" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="I9" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="J9" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="K9" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="O9" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="P9" s="8"/>
-    </row>
-    <row r="10" spans="1:16" ht="57">
-      <c r="A10" s="10"/>
+      <c r="P9" s="18"/>
+    </row>
+    <row r="10" spans="1:16" ht="57" x14ac:dyDescent="0.2">
+      <c r="A10" s="17"/>
       <c r="B10" s="7">
         <v>9</v>
       </c>
       <c r="C10" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="G10" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="I10" s="9" t="s">
         <v>221</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="G10" s="9" t="s">
+      <c r="J10" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="I10" s="11" t="s">
+      <c r="K10" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="O10" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="J10" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="K10" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="O10" s="11" t="s">
-        <v>225</v>
-      </c>
-      <c r="P10" s="8"/>
-    </row>
-    <row r="11" spans="1:16" ht="142.5">
-      <c r="A11" s="10"/>
+      <c r="P10" s="18"/>
+    </row>
+    <row r="11" spans="1:16" ht="142.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="17"/>
       <c r="B11" s="7">
         <v>10</v>
       </c>
       <c r="C11" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="E11" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="G11" s="8" t="s">
         <v>227</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="I11" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="K11" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="O11" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="I11" s="11" t="s">
+      <c r="P11" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="K11" s="9" t="s">
-        <v>229</v>
-      </c>
-      <c r="O11" s="9" t="s">
-        <v>231</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" ht="57">
-      <c r="A12" s="10">
+    </row>
+    <row r="12" spans="1:16" ht="57" x14ac:dyDescent="0.2">
+      <c r="A12" s="17">
         <v>2</v>
       </c>
       <c r="B12" s="7">
         <v>1</v>
       </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="12" t="s">
+      <c r="D12" s="8"/>
+      <c r="E12" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="I12" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="F12" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="G12" s="9" t="s">
+      <c r="J12" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="K12" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="I12" s="11" t="s">
+      <c r="O12" s="8" t="s">
         <v>235</v>
       </c>
-      <c r="J12" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="K12" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="O12" s="9" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" ht="42.75">
-      <c r="A13" s="10"/>
+    </row>
+    <row r="13" spans="1:16" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="17"/>
       <c r="B13" s="7">
         <v>2</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="D13" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="E13" s="11"/>
+      <c r="O13" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="P13" s="8" t="s">
         <v>238</v>
       </c>
-      <c r="E13" s="13"/>
-      <c r="O13" s="9" t="s">
-        <v>239</v>
-      </c>
-      <c r="P13" s="9" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" ht="28.5">
-      <c r="A14" s="10"/>
+    </row>
+    <row r="14" spans="1:16" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="17"/>
       <c r="B14" s="7">
         <v>3</v>
       </c>
-      <c r="E14" s="13" t="s">
+      <c r="E14" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="J14" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="F14" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="I14" s="11" t="s">
+      <c r="K14" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="O14" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="J14" s="9" t="s">
-        <v>243</v>
-      </c>
-      <c r="K14" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="O14" s="9" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" ht="28.5">
-      <c r="A15" s="10"/>
+    </row>
+    <row r="15" spans="1:16" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="17"/>
       <c r="B15" s="7">
         <v>4</v>
       </c>
-      <c r="E15" s="13" t="s">
-        <v>241</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="I15" s="11" t="s">
+      <c r="E15" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="K15" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="O15" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="J15" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="K15" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="O15" s="9" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" ht="57">
-      <c r="A16" s="10"/>
+    </row>
+    <row r="16" spans="1:16" ht="57" x14ac:dyDescent="0.2">
+      <c r="A16" s="17"/>
       <c r="B16" s="7">
         <v>5</v>
       </c>
-      <c r="E16" s="13" t="s">
-        <v>241</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="G16" s="9" t="s">
+      <c r="E16" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="K16" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="I16" s="11" t="s">
-        <v>246</v>
-      </c>
-      <c r="J16" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="K16" s="9" t="s">
-        <v>247</v>
-      </c>
-      <c r="O16" s="9" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" ht="42.75">
-      <c r="A17" s="10"/>
+      <c r="O16" s="8" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="17"/>
       <c r="B17" s="7">
         <v>6</v>
       </c>
       <c r="C17" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="E17" s="11" t="s">
         <v>248</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="G17" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="E17" s="13" t="s">
+      <c r="H17" s="8" t="s">
         <v>250</v>
       </c>
-      <c r="G17" s="9" t="s">
+      <c r="I17" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="H17" s="9" t="s">
+      <c r="K17" s="8" t="s">
         <v>252</v>
       </c>
-      <c r="I17" s="11" t="s">
+      <c r="L17" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="O17" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="K17" s="9" t="s">
-        <v>254</v>
-      </c>
-      <c r="L17" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="O17" s="9" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" ht="28.5">
-      <c r="A18" s="10"/>
+    </row>
+    <row r="18" spans="1:15" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A18" s="17"/>
       <c r="B18" s="7">
         <v>7</v>
       </c>
-      <c r="E18" s="13" t="s">
+      <c r="E18" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="G18" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="F18" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="G18" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="I18" s="11" t="s">
-        <v>256</v>
-      </c>
-      <c r="J18" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="K18" s="9" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" ht="28.5">
-      <c r="A19" s="10"/>
+      <c r="I18" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="K18" s="8" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A19" s="17"/>
       <c r="B19" s="7">
         <v>8</v>
       </c>
-      <c r="E19" s="13" t="s">
+      <c r="E19" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="F19" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="F19" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="G19" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="I19" s="11" t="s">
-        <v>257</v>
-      </c>
-      <c r="J19" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="K19" s="9" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" ht="114">
-      <c r="A20" s="10"/>
+      <c r="G19" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="I19" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="K19" s="8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="114" x14ac:dyDescent="0.2">
+      <c r="A20" s="17"/>
       <c r="B20" s="7">
         <v>9</v>
       </c>
       <c r="C20" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="E20" s="11"/>
+      <c r="O20" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="D20" s="9" t="s">
-        <v>259</v>
-      </c>
-      <c r="E20" s="13"/>
-      <c r="O20" s="9" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" ht="57">
-      <c r="A21" s="10"/>
+    </row>
+    <row r="21" spans="1:15" ht="57" x14ac:dyDescent="0.2">
+      <c r="A21" s="17"/>
       <c r="B21" s="7">
         <v>10</v>
       </c>
-      <c r="E21" s="13" t="s">
+      <c r="E21" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="F21" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="F21" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="G21" s="9" t="s">
+      <c r="G21" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="I21" s="9" t="s">
         <v>261</v>
       </c>
-      <c r="H21" s="9" t="s">
-        <v>262</v>
-      </c>
-      <c r="I21" s="11" t="s">
-        <v>263</v>
-      </c>
-      <c r="J21" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="K21" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="L21" s="9" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" ht="57">
-      <c r="A22" s="10"/>
+      <c r="J21" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="K21" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="L21" s="8" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="57" x14ac:dyDescent="0.2">
+      <c r="A22" s="17"/>
       <c r="B22" s="7">
         <v>11</v>
       </c>
-      <c r="D22" s="9" t="s">
-        <v>264</v>
-      </c>
-      <c r="E22" s="13" t="s">
-        <v>265</v>
-      </c>
-      <c r="F22" s="9" t="s">
+      <c r="D22" s="8" t="s">
         <v>262</v>
       </c>
-      <c r="G22" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="H22" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="I22" s="11" t="s">
+      <c r="E22" s="11" t="s">
         <v>263</v>
       </c>
-      <c r="J22" s="9" t="s">
-        <v>262</v>
-      </c>
-      <c r="K22" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="L22" s="9" t="s">
+      <c r="F22" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="G22" s="8" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" ht="85.5">
-      <c r="A23" s="10"/>
+      <c r="H22" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="I22" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="K22" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="L22" s="8" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A23" s="17"/>
       <c r="B23" s="7">
         <v>12</v>
       </c>
       <c r="C23" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="E23" s="12" t="s">
         <v>266</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="G23" s="8" t="s">
         <v>267</v>
       </c>
-      <c r="E23" s="14" t="s">
+      <c r="I23" s="9" t="s">
         <v>268</v>
       </c>
-      <c r="G23" s="9" t="s">
+      <c r="K23" s="8" t="s">
         <v>269</v>
       </c>
-      <c r="I23" s="11" t="s">
+      <c r="O23" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="K23" s="9" t="s">
-        <v>271</v>
-      </c>
-      <c r="O23" s="9" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
-      <c r="A24" s="10">
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A24" s="17">
         <v>3</v>
       </c>
       <c r="B24" s="7">
         <v>1</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="F24" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="G24" s="9" t="s">
-        <v>261</v>
-      </c>
-      <c r="H24" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="I24" s="11" t="s">
-        <v>273</v>
-      </c>
-      <c r="J24" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="K24" s="9" t="s">
-        <v>261</v>
-      </c>
-      <c r="L24" s="9" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" ht="128.25">
-      <c r="A25" s="10"/>
+        <v>263</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="I24" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="J24" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="K24" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="L24" s="8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="128.25" x14ac:dyDescent="0.2">
+      <c r="A25" s="17"/>
       <c r="B25" s="7">
         <v>2</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="F25" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="G25" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="H25" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="I25" s="11" t="s">
-        <v>274</v>
-      </c>
-      <c r="J25" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="K25" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="L25" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="O25" s="9" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15">
-      <c r="A26" s="10"/>
+        <v>263</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="I25" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="J25" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="K25" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="L25" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="O25" s="8" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A26" s="17"/>
       <c r="B26" s="7">
         <v>3</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="F26" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="G26" s="9" t="s">
-        <v>261</v>
-      </c>
-      <c r="H26" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="I26" s="11" t="s">
-        <v>276</v>
-      </c>
-      <c r="J26" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="K26" s="9" t="s">
-        <v>261</v>
-      </c>
-      <c r="L26" s="9" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" ht="28.5">
-      <c r="A27" s="10"/>
+        <v>263</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="I26" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="J26" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="K26" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="L26" s="8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A27" s="17"/>
       <c r="B27" s="7">
         <v>4</v>
       </c>
-      <c r="D27" s="9"/>
+      <c r="D27" s="8"/>
       <c r="E27" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="F27" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="G27" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="I27" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="J27" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="K27" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="L27" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="O27" s="8" t="s">
         <v>277</v>
       </c>
-      <c r="H27" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="I27" s="11" t="s">
-        <v>278</v>
-      </c>
-      <c r="J27" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="K27" s="9" t="s">
-        <v>277</v>
-      </c>
-      <c r="L27" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="O27" s="9" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" ht="85.5">
-      <c r="A28" s="10"/>
+    </row>
+    <row r="28" spans="1:15" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A28" s="17"/>
       <c r="B28" s="7">
         <v>5</v>
       </c>
       <c r="C28" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="O28" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="D28" s="9" t="s">
-        <v>281</v>
-      </c>
-      <c r="O28" s="9" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" ht="28.5">
-      <c r="A29" s="10"/>
+    </row>
+    <row r="29" spans="1:15" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A29" s="17"/>
       <c r="B29" s="7">
         <v>6</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C29" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="G29" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9" t="s">
+      <c r="H29" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="J29" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="K29" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="L29" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="O29" s="8" t="s">
         <v>284</v>
       </c>
-      <c r="F29" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="G29" s="9" t="s">
-        <v>285</v>
-      </c>
-      <c r="H29" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="J29" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="K29" s="9" t="s">
-        <v>285</v>
-      </c>
-      <c r="L29" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="O29" s="9" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15">
-      <c r="A30" s="10"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A30" s="17"/>
       <c r="B30" s="7">
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="42.75">
-      <c r="A31" s="10"/>
+    <row r="31" spans="1:15" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A31" s="17"/>
       <c r="B31" s="7">
         <v>8</v>
       </c>
-      <c r="F31" s="9" t="s">
+      <c r="F31" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="H31" s="8" t="s">
         <v>287</v>
       </c>
-      <c r="G31" s="9" t="s">
+      <c r="I31" s="9" t="s">
         <v>288</v>
       </c>
-      <c r="H31" s="9" t="s">
-        <v>289</v>
-      </c>
-      <c r="I31" s="11" t="s">
-        <v>290</v>
-      </c>
-      <c r="J31" s="9" t="s">
+      <c r="J31" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="K31" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="L31" s="8" t="s">
         <v>287</v>
       </c>
-      <c r="K31" s="9" t="s">
-        <v>288</v>
-      </c>
-      <c r="L31" s="9" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" ht="28.5">
-      <c r="A32" s="10"/>
+    </row>
+    <row r="32" spans="1:15" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A32" s="17"/>
       <c r="B32" s="7">
         <v>9</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" ht="28.5">
-      <c r="A33" s="10"/>
+        <v>278</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A33" s="17"/>
       <c r="B33" s="7">
         <v>10</v>
       </c>
       <c r="C33" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="H33" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="I33" s="9" t="s">
         <v>292</v>
       </c>
-      <c r="F33" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="G33" s="9" t="s">
-        <v>293</v>
-      </c>
-      <c r="H33" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="I33" s="11" t="s">
-        <v>294</v>
-      </c>
-      <c r="J33" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="K33" s="9" t="s">
-        <v>293</v>
-      </c>
-      <c r="L33" s="9" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" ht="28.5">
-      <c r="A34" s="10"/>
+      <c r="J33" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="K33" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="L33" s="8" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A34" s="17"/>
       <c r="B34" s="7">
         <v>11</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="F34" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="G34" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="H34" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="J34" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="K34" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="L34" s="9" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" ht="99.75">
-      <c r="A35" s="10"/>
+        <v>290</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="H34" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="J34" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="K34" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="L34" s="8" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="A35" s="17"/>
       <c r="B35" s="7">
         <v>12</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" ht="28.5">
-      <c r="A36" s="10"/>
+        <v>278</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A36" s="17"/>
       <c r="B36" s="7">
         <v>13</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="F36" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="G36" s="9" t="s">
-        <v>285</v>
-      </c>
-      <c r="H36" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="I36" s="11" t="s">
-        <v>296</v>
-      </c>
-      <c r="J36" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="K36" s="9" t="s">
-        <v>285</v>
-      </c>
-      <c r="L36" s="9" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" ht="71.25">
-      <c r="A37" s="10"/>
+        <v>290</v>
+      </c>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="G36" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="H36" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="I36" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="J36" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="K36" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="L36" s="8" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A37" s="17"/>
       <c r="B37" s="7">
         <v>14</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="D37" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="G37" s="8" t="s">
         <v>297</v>
       </c>
-      <c r="E37" s="7" t="s">
+      <c r="I37" s="9" t="s">
         <v>298</v>
       </c>
-      <c r="G37" s="9" t="s">
+      <c r="K37" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="O37" s="8" t="s">
         <v>299</v>
       </c>
-      <c r="I37" s="11" t="s">
-        <v>300</v>
-      </c>
-      <c r="K37" s="9" t="s">
-        <v>299</v>
-      </c>
-      <c r="O37" s="9" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" ht="28.5">
-      <c r="A38" s="10"/>
+    </row>
+    <row r="38" spans="1:15" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A38" s="17"/>
       <c r="B38" s="7">
         <v>15</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="G38" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="I38" s="11" t="s">
-        <v>302</v>
-      </c>
-      <c r="K38" s="9" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15">
-      <c r="A39" s="15"/>
-    </row>
-    <row r="41" spans="1:15">
-      <c r="B41" s="16"/>
-      <c r="E41" s="16" t="s">
-        <v>303</v>
+        <v>132</v>
+      </c>
+      <c r="G38" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="I38" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="K38" s="8" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A39" s="13"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B41" s="14"/>
+      <c r="E41" s="14" t="s">
+        <v>301</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A24:A38"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="J1:L1"/>
     <mergeCell ref="A2:A11"/>
     <mergeCell ref="P7:P10"/>
     <mergeCell ref="A12:A23"/>
-    <mergeCell ref="A24:A38"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>

--- a/策划案/镇魂街/战斗设计.xlsx
+++ b/策划案/镇魂街/战斗设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -1140,26 +1140,12 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>造成群体伤害，中间的伤害更高
-CD：1
-觉醒：
-每多3点红水晶，伤害提高25%。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">造成伤害，回复1点红水晶。
 施加易伤，可叠层。
 CD：0
 觉醒：
 守护灵每释放一次水晶技能，伤害提升25%。
 </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>为生命值最低的单位施加治疗，同时回复1点蓝水晶。如果被治疗的单位满血，则回复1点随机水晶
-CD：1
-觉醒：
-被治疗单位清除异常状态。如果没有异常状态，则回复1点对应守护灵的水晶，如果没有守护灵，则回复1点随机水晶</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -2188,13 +2174,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">夏玲起床，曹焱兵要消除她的记忆。夏玲扔包砸曹焱兵，掉出鬼符三通的灵言信
-剧情上，谈及锁心链，夏玲被车撞
-引导玩家领取星星宝箱，宝箱中的守护灵抽卡券，抽卡又获得一个柠檬精，引导玩家兑换技能，给柠檬精装上插槽。
-</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>1-3</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -3072,20 +3051,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>群体BUFF，伤害提升，持续2回合。
-CD：2
-觉醒：
-为友方提升攻击力，提升量为夏玲攻击力的15%</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>群体BUFF，伤害提升，持续2回合。
-CD：2
-觉醒：
-为友方提升攻击力，提升量为夏玲攻击力的15%</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>造成伤害，获得1点红水晶。
 觉醒：
 每拥有3点红水晶，伤害提升15%</t>
@@ -3102,18 +3067,6 @@
 入场CD：0回合；CD：1回合
 觉醒：
 使敌方单位受到伤害提升25%，持续2回合</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>单体攻击，使自身或守护灵下一次伤害提升100%
-CD：1回合
-觉醒：
-每多3点红水晶，加成提升30%</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>单体攻击，35%概率击晕对方。
-觉醒：每多3点红水晶，击晕概率提升5%</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -3122,12 +3075,6 @@
 觉醒：
 守护灵每释放一次奥义，伤害提升15%
 </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>单体攻击，如果对方有增益BUFF，则伤害提升50%，清除增益BUFF效果，并回复1点黄水晶。
-入场CD：0；CD：0
-觉醒：守护灵每释放1次奥义，伤害提升30%</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -4919,13 +4866,66 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">寄灵人投放思路：
+    <t xml:space="preserve">寄灵人守护灵投放思路：
 1. 寄灵人在设计上不与守护灵绑定
 2. 基础的寄灵人系统赠送，高级寄灵人抽卡获得。高级寄灵人只是技能效果稍微好些，更多是外观的追求。
-3. 可以认为，游戏还是主要卖守护灵，寄灵人就像是皮肤。守护灵不必完全按照剧情走。
+3. 可以认为，游戏还是主要卖守护灵，寄灵人就像是皮肤。
+4. 守护灵不必完全按照剧情走，可以适当自己发挥。多数玩家没看过漫画，但对可能出现的武将会充满遐想，我们应当满足他们。
 寄灵人分类：
 水晶维度，1技能都会回复某1颜色的水晶。
 前后期维度，前期卡着重于干掉对方寄灵人，或延缓对方招守护灵；后期卡着重于与守护灵配合输出，给对位施加debuff（不随守护灵召唤消失）
+</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成群体伤害，中间的伤害更高，回复1点红水晶
+CD：1
+觉醒：
+每多3点红水晶，伤害提高25%。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>单体攻击，使自身或守护灵下一次伤害提升100%，回复1点红水晶
+CD：1回合
+觉醒：
+每多3点红水晶，加成提升30%</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>单体攻击，35%概率击晕对方，回复1点红水晶。
+觉醒：每多3点红水晶，击晕概率提升5%</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>群体BUFF，回复1点蓝水晶，伤害提升，持续2回合。
+CD：1
+觉醒：
+为友方提升攻击力，提升量为夏玲攻击力的15%</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>群体BUFF，回复1点蓝水晶，伤害提升，持续2回合。
+CD：1
+觉醒：
+为友方提升攻击力，提升量为夏玲攻击力的15%</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>为生命值最低的单位施加治疗，同时回复1点蓝水晶。如果被治疗的单位满血，则回复1点随机水晶
+CD：0
+觉醒：
+被治疗单位清除异常状态。如果没有异常状态，则回复1点对应守护灵的水晶，如果没有守护灵，则回复1点随机水晶</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>单体攻击，如果对方有增益BUFF，则伤害提升50%，清除增益BUFF效果，并回复1点黄水晶。
+CD：1
+觉醒：守护灵每释放1次奥义，伤害提升30%</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">夏玲起床，曹焱兵要消除她的记忆。夏玲扔包砸曹焱兵，掉出鬼符三通的灵言信
+引导玩家领取星星宝箱，宝箱中的守护灵抽卡券，抽卡又获得一个柠檬精，引导玩家兑换技能，给柠檬精装上插槽。
 </t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -5534,6 +5534,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="4" applyFont="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="4">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5611,12 +5617,6 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="10" borderId="15" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="4">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="4" applyFont="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="14">
@@ -6148,8 +6148,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:L58"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B57" sqref="B57"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -6163,13 +6163,13 @@
   <sheetData>
     <row r="3" spans="1:5" ht="17.25">
       <c r="A3" s="5" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>107</v>
@@ -6180,67 +6180,67 @@
     </row>
     <row r="4" spans="1:5" ht="16.5">
       <c r="A4" s="15" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>270</v>
-      </c>
       <c r="E4" s="3" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="70.5" customHeight="1">
       <c r="A5" s="15" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="99" customHeight="1">
       <c r="A6" s="15" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>315</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="72" customHeight="1">
       <c r="A7" s="15" t="s">
+        <v>316</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>319</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>323</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>322</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>100</v>
@@ -6248,16 +6248,16 @@
     </row>
     <row r="8" spans="1:5" ht="84.75" customHeight="1">
       <c r="A8" s="15" t="s">
+        <v>272</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>276</v>
-      </c>
       <c r="D8" s="4" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>40</v>
@@ -6265,281 +6265,281 @@
     </row>
     <row r="9" spans="1:5" ht="42" customHeight="1">
       <c r="A9" s="15" t="s">
+        <v>277</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="D9" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="E9" s="4" t="s">
         <v>281</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="104.25" customHeight="1">
       <c r="A10" s="15" t="s">
+        <v>282</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>855</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>318</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>286</v>
-      </c>
       <c r="D10" s="4" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="37.5" customHeight="1">
       <c r="A11" s="15" t="s">
+        <v>285</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>289</v>
-      </c>
       <c r="D11" s="4" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="45" customHeight="1">
       <c r="A12" s="15" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="57.75" customHeight="1">
       <c r="A13" s="15" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B13" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>298</v>
-      </c>
       <c r="D13" s="4" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="39.75" customHeight="1">
       <c r="A14" s="15" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="30.75" customHeight="1">
       <c r="A15" s="4" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>26</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="33" customHeight="1">
       <c r="A16" s="4" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>26</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="33" customHeight="1">
       <c r="A17" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>307</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>309</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>26</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="33" customHeight="1">
       <c r="A18" s="4" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>26</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="51" customHeight="1">
       <c r="A19" s="4" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="33" customHeight="1">
       <c r="A20" s="15" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>26</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="31.5" customHeight="1">
       <c r="A21" s="15" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="4" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="33.75" customHeight="1">
       <c r="A22" s="15" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="4" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="39.75" customHeight="1">
       <c r="A23" s="15" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="4" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="32.25" customHeight="1">
       <c r="A24" s="15" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="4" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="33" customHeight="1">
       <c r="A25" s="15" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="33" customHeight="1">
       <c r="A26" s="15" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -6547,10 +6547,10 @@
     </row>
     <row r="27" spans="1:5" ht="33" customHeight="1">
       <c r="A27" s="15" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -6558,10 +6558,10 @@
     </row>
     <row r="28" spans="1:5" ht="33" customHeight="1">
       <c r="A28" s="15" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -6569,10 +6569,10 @@
     </row>
     <row r="29" spans="1:5" ht="33" customHeight="1">
       <c r="A29" s="15" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
@@ -6580,10 +6580,10 @@
     </row>
     <row r="30" spans="1:5" ht="33" customHeight="1">
       <c r="A30" s="15" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
@@ -6591,10 +6591,10 @@
     </row>
     <row r="31" spans="1:5" ht="33" customHeight="1">
       <c r="A31" s="15" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
@@ -6602,113 +6602,113 @@
     </row>
     <row r="32" spans="1:5" ht="65.25" customHeight="1">
       <c r="A32" s="15" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="D32" s="3"/>
       <c r="E32" s="4" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="51" customHeight="1">
       <c r="A33" s="15" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="4" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="I33" t="s">
+        <v>397</v>
+      </c>
+      <c r="J33" t="s">
+        <v>398</v>
+      </c>
+      <c r="L33" t="s">
         <v>400</v>
-      </c>
-      <c r="J33" t="s">
-        <v>401</v>
-      </c>
-      <c r="L33" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="57" customHeight="1">
       <c r="A34" s="15" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="3"/>
       <c r="E34" s="4"/>
       <c r="I34" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="J34" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="L34" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="28.5" customHeight="1">
       <c r="A35" s="4" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B35" s="3"/>
       <c r="C35" s="4" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
     </row>
     <row r="36" spans="1:12" ht="26.25" customHeight="1">
       <c r="A36" s="4" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B36" s="3"/>
       <c r="C36" s="4" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
     </row>
     <row r="37" spans="1:12" ht="24" customHeight="1">
       <c r="A37" s="4" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B37" s="3"/>
       <c r="C37" s="4" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
     </row>
     <row r="38" spans="1:12" ht="23.25" customHeight="1">
       <c r="A38" s="4" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B38" s="3"/>
       <c r="C38" s="4" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
     </row>
     <row r="39" spans="1:12" ht="23.25" customHeight="1">
       <c r="A39" s="4" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="B39" s="43" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C39" s="44"/>
       <c r="D39" s="44"/>
@@ -6716,51 +6716,51 @@
     </row>
     <row r="40" spans="1:12" ht="37.5" customHeight="1">
       <c r="A40" s="4" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="B40" s="3"/>
       <c r="C40" s="4" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
     </row>
     <row r="41" spans="1:12" ht="36.75" customHeight="1">
       <c r="A41" s="4" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B41" s="3"/>
       <c r="C41" s="4" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
     </row>
     <row r="42" spans="1:12" ht="38.25" customHeight="1">
       <c r="A42" s="4" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B42" s="3"/>
       <c r="C42" s="4" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
     </row>
     <row r="43" spans="1:12" ht="38.25" customHeight="1">
       <c r="A43" s="4" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B43" s="3"/>
       <c r="C43" s="4" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
     </row>
     <row r="44" spans="1:12" ht="28.5" customHeight="1">
       <c r="A44" s="4" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -6769,54 +6769,54 @@
     </row>
     <row r="45" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A45" s="4" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="B45" s="3"/>
       <c r="C45" s="4" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
     </row>
     <row r="46" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A46" s="4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B46" s="3"/>
       <c r="C46" s="4" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
     </row>
     <row r="47" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A47" s="3" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B47" s="3"/>
       <c r="C47" s="4" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
     </row>
     <row r="48" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A48" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B48" s="3"/>
       <c r="C48" s="4" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
     </row>
     <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A49" s="4" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="B49" s="43" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="C49" s="44"/>
       <c r="D49" s="44"/>
@@ -6824,135 +6824,135 @@
     </row>
     <row r="50" spans="1:5" ht="51.75" customHeight="1">
       <c r="A50" s="16" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="D50" s="3"/>
       <c r="E50" s="4" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="35.1" customHeight="1">
       <c r="A51" s="16" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="D51" s="3"/>
       <c r="E51" s="4" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="35.1" customHeight="1">
       <c r="A52" s="16" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="C52" s="4"/>
       <c r="D52" s="3"/>
       <c r="E52" s="4" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="35.1" customHeight="1">
       <c r="A53" s="16" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="C53" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="D53" s="4" t="s">
         <v>427</v>
-      </c>
-      <c r="D53" s="4" t="s">
-        <v>430</v>
       </c>
       <c r="E53" s="4"/>
     </row>
     <row r="54" spans="1:5" ht="35.1" customHeight="1">
       <c r="A54" s="16" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
       <c r="E54" s="4" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="35.1" customHeight="1">
       <c r="A55" s="16" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="D55" s="3"/>
       <c r="E55" s="4" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="45.75" customHeight="1">
       <c r="A56" s="16" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
       <c r="E56" s="4" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="45.75" customHeight="1">
       <c r="A57" s="16" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="52.5" customHeight="1">
       <c r="A58" s="16" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B58" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="C58" s="4" t="s">
         <v>438</v>
       </c>
-      <c r="C58" s="4" t="s">
-        <v>441</v>
-      </c>
       <c r="D58" s="4" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
     </row>
   </sheetData>
@@ -6970,11 +6970,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H9" sqref="H9"/>
+      <selection pane="bottomRight" activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -7024,32 +7024,32 @@
     </row>
     <row r="2" spans="1:10" ht="108" customHeight="1">
       <c r="A2" s="4" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>821</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>414</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>415</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>829</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>416</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>418</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>417</v>
-      </c>
       <c r="J2" s="4" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="108" customHeight="1">
@@ -7067,7 +7067,7 @@
         <v>35</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>826</v>
+        <v>818</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>76</v>
@@ -7097,7 +7097,7 @@
         <v>47</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>827</v>
+        <v>819</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>79</v>
@@ -7114,10 +7114,10 @@
     </row>
     <row r="5" spans="1:10" ht="99.75" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="4" t="s">
@@ -7127,47 +7127,47 @@
         <v>20</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>828</v>
+        <v>820</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>852</v>
+        <v>844</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="84.75" customHeight="1">
       <c r="A6" s="3"/>
       <c r="B6" s="4" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="4" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>20</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="4" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="103.5" customHeight="1">
       <c r="A7" s="3"/>
       <c r="B7" s="4" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="4" t="s">
@@ -7177,43 +7177,43 @@
         <v>20</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="102.75" customHeight="1">
       <c r="A8" s="3"/>
       <c r="B8" s="4" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="4" t="s">
-        <v>797</v>
+        <v>789</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>20</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>797</v>
+        <v>789</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="4" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="67.5" customHeight="1">
@@ -7229,7 +7229,7 @@
         <v>41</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>77</v>
@@ -7247,155 +7247,155 @@
     <row r="10" spans="1:10" ht="87" customHeight="1">
       <c r="A10" s="3"/>
       <c r="B10" s="4" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="4" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="4" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="121.5" customHeight="1">
       <c r="A11" s="3"/>
       <c r="B11" s="4" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="4" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>791</v>
+        <v>783</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>811</v>
+        <v>803</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>830</v>
+        <v>822</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="4" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="92.25" customHeight="1">
       <c r="A12" s="3"/>
       <c r="B12" s="4" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="4" t="s">
-        <v>846</v>
+        <v>838</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>790</v>
+        <v>782</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>812</v>
+        <v>804</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>831</v>
+        <v>823</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>813</v>
+        <v>805</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>793</v>
+        <v>785</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="133.5" customHeight="1">
       <c r="A13" s="3"/>
       <c r="B13" s="4" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="4" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>787</v>
+        <v>779</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="4" t="s">
-        <v>832</v>
+        <v>824</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>850</v>
+        <v>842</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>786</v>
+        <v>778</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="138.75" customHeight="1">
       <c r="A14" s="3"/>
       <c r="B14" s="4" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="4" t="s">
         <v>68</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>792</v>
+        <v>784</v>
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="4" t="s">
-        <v>833</v>
+        <v>825</v>
       </c>
       <c r="I14" s="3"/>
       <c r="J14" s="4" t="s">
-        <v>788</v>
+        <v>780</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="119.25" customHeight="1">
       <c r="A15" s="3"/>
       <c r="B15" s="4" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="4" t="s">
-        <v>797</v>
+        <v>789</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>796</v>
+        <v>788</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>794</v>
+        <v>786</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>795</v>
+        <v>787</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>843</v>
+        <v>835</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>854</v>
+        <v>846</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="65.25" customHeight="1">
@@ -7411,7 +7411,7 @@
         <v>18</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="G16" s="4" t="s">
         <v>80</v>
@@ -7423,43 +7423,43 @@
         <v>73</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>807</v>
+        <v>799</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="105.75" customHeight="1">
       <c r="A17" s="3"/>
       <c r="B17" s="4" t="s">
-        <v>800</v>
+        <v>792</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="4" t="s">
-        <v>801</v>
+        <v>793</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>845</v>
+        <v>837</v>
       </c>
       <c r="G17" s="3"/>
       <c r="H17" s="4" t="s">
-        <v>810</v>
+        <v>802</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>840</v>
+        <v>832</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>844</v>
+        <v>836</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="54.75" customHeight="1">
       <c r="A18" s="3"/>
       <c r="B18" s="4" t="s">
-        <v>809</v>
+        <v>801</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="4" t="s">
-        <v>802</v>
+        <v>794</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>18</v>
@@ -7483,35 +7483,35 @@
     <row r="19" spans="1:10" ht="53.25" customHeight="1">
       <c r="A19" s="3"/>
       <c r="B19" s="4" t="s">
-        <v>799</v>
+        <v>791</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="4" t="s">
-        <v>802</v>
+        <v>794</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>815</v>
+        <v>807</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>848</v>
+        <v>840</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>838</v>
+        <v>830</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>839</v>
+        <v>831</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>849</v>
+        <v>841</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="91.5" customHeight="1">
       <c r="A20" s="3"/>
       <c r="B20" s="4" t="s">
-        <v>806</v>
+        <v>798</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="4" t="s">
@@ -7521,53 +7521,53 @@
         <v>18</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>816</v>
+        <v>808</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>847</v>
+        <v>839</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>837</v>
+        <v>829</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>851</v>
+        <v>843</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>817</v>
+        <v>809</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="102" customHeight="1">
       <c r="A21" s="3"/>
       <c r="B21" s="4" t="s">
-        <v>853</v>
+        <v>845</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="4" t="s">
-        <v>803</v>
+        <v>795</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>820</v>
+        <v>812</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>814</v>
+        <v>806</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>836</v>
+        <v>828</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>840</v>
+        <v>832</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>819</v>
+        <v>811</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="222" customHeight="1">
       <c r="A22" s="3"/>
       <c r="B22" s="4" t="s">
-        <v>804</v>
+        <v>796</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="4" t="s">
@@ -7577,43 +7577,43 @@
         <v>18</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>823</v>
+        <v>815</v>
       </c>
       <c r="G22" s="3"/>
       <c r="H22" s="4" t="s">
-        <v>835</v>
+        <v>827</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>841</v>
+        <v>833</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>822</v>
+        <v>814</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="109.5" customHeight="1">
       <c r="A23" s="3"/>
       <c r="B23" s="4" t="s">
-        <v>805</v>
+        <v>797</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="4" t="s">
-        <v>797</v>
+        <v>789</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>824</v>
+        <v>816</v>
       </c>
       <c r="G23" s="3"/>
       <c r="H23" s="4" t="s">
+        <v>826</v>
+      </c>
+      <c r="I23" s="4" t="s">
         <v>834</v>
       </c>
-      <c r="I23" s="4" t="s">
-        <v>842</v>
-      </c>
       <c r="J23" s="4" t="s">
-        <v>825</v>
+        <v>817</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="16.5">
@@ -7712,7 +7712,7 @@
   <dimension ref="A1:X19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M2" sqref="M2:X6"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -7788,25 +7788,25 @@
         <v>57</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="M2" s="73" t="s">
-        <v>855</v>
-      </c>
-      <c r="N2" s="72"/>
-      <c r="O2" s="72"/>
-      <c r="P2" s="72"/>
-      <c r="Q2" s="72"/>
-      <c r="R2" s="72"/>
-      <c r="S2" s="72"/>
-      <c r="T2" s="72"/>
-      <c r="U2" s="72"/>
-      <c r="V2" s="72"/>
-      <c r="W2" s="72"/>
-      <c r="X2" s="72"/>
+        <v>848</v>
+      </c>
+      <c r="M2" s="46" t="s">
+        <v>847</v>
+      </c>
+      <c r="N2" s="47"/>
+      <c r="O2" s="47"/>
+      <c r="P2" s="47"/>
+      <c r="Q2" s="47"/>
+      <c r="R2" s="47"/>
+      <c r="S2" s="47"/>
+      <c r="T2" s="47"/>
+      <c r="U2" s="47"/>
+      <c r="V2" s="47"/>
+      <c r="W2" s="47"/>
+      <c r="X2" s="47"/>
     </row>
     <row r="3" spans="1:24" ht="99.95" customHeight="1">
       <c r="A3" s="3"/>
@@ -7836,25 +7836,25 @@
         <v>130</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>443</v>
-      </c>
-      <c r="M3" s="72"/>
-      <c r="N3" s="72"/>
-      <c r="O3" s="72"/>
-      <c r="P3" s="72"/>
-      <c r="Q3" s="72"/>
-      <c r="R3" s="72"/>
-      <c r="S3" s="72"/>
-      <c r="T3" s="72"/>
-      <c r="U3" s="72"/>
-      <c r="V3" s="72"/>
-      <c r="W3" s="72"/>
-      <c r="X3" s="72"/>
+        <v>851</v>
+      </c>
+      <c r="M3" s="47"/>
+      <c r="N3" s="47"/>
+      <c r="O3" s="47"/>
+      <c r="P3" s="47"/>
+      <c r="Q3" s="47"/>
+      <c r="R3" s="47"/>
+      <c r="S3" s="47"/>
+      <c r="T3" s="47"/>
+      <c r="U3" s="47"/>
+      <c r="V3" s="47"/>
+      <c r="W3" s="47"/>
+      <c r="X3" s="47"/>
     </row>
     <row r="4" spans="1:24" ht="99.95" customHeight="1">
       <c r="A4" s="3"/>
       <c r="B4" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="4" t="s">
@@ -7876,23 +7876,23 @@
         <v>91</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>133</v>
+        <v>853</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>444</v>
-      </c>
-      <c r="M4" s="72"/>
-      <c r="N4" s="72"/>
-      <c r="O4" s="72"/>
-      <c r="P4" s="72"/>
-      <c r="Q4" s="72"/>
-      <c r="R4" s="72"/>
-      <c r="S4" s="72"/>
-      <c r="T4" s="72"/>
-      <c r="U4" s="72"/>
-      <c r="V4" s="72"/>
-      <c r="W4" s="72"/>
-      <c r="X4" s="72"/>
+        <v>852</v>
+      </c>
+      <c r="M4" s="47"/>
+      <c r="N4" s="47"/>
+      <c r="O4" s="47"/>
+      <c r="P4" s="47"/>
+      <c r="Q4" s="47"/>
+      <c r="R4" s="47"/>
+      <c r="S4" s="47"/>
+      <c r="T4" s="47"/>
+      <c r="U4" s="47"/>
+      <c r="V4" s="47"/>
+      <c r="W4" s="47"/>
+      <c r="X4" s="47"/>
     </row>
     <row r="5" spans="1:24" ht="99.95" customHeight="1">
       <c r="A5" s="3"/>
@@ -7919,23 +7919,23 @@
         <v>88</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>446</v>
-      </c>
-      <c r="M5" s="72"/>
-      <c r="N5" s="72"/>
-      <c r="O5" s="72"/>
-      <c r="P5" s="72"/>
-      <c r="Q5" s="72"/>
-      <c r="R5" s="72"/>
-      <c r="S5" s="72"/>
-      <c r="T5" s="72"/>
-      <c r="U5" s="72"/>
-      <c r="V5" s="72"/>
-      <c r="W5" s="72"/>
-      <c r="X5" s="72"/>
+        <v>441</v>
+      </c>
+      <c r="M5" s="47"/>
+      <c r="N5" s="47"/>
+      <c r="O5" s="47"/>
+      <c r="P5" s="47"/>
+      <c r="Q5" s="47"/>
+      <c r="R5" s="47"/>
+      <c r="S5" s="47"/>
+      <c r="T5" s="47"/>
+      <c r="U5" s="47"/>
+      <c r="V5" s="47"/>
+      <c r="W5" s="47"/>
+      <c r="X5" s="47"/>
     </row>
     <row r="6" spans="1:24" ht="99.95" customHeight="1">
       <c r="A6" s="3"/>
@@ -7962,23 +7962,23 @@
         <v>58</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>448</v>
-      </c>
-      <c r="M6" s="72"/>
-      <c r="N6" s="72"/>
-      <c r="O6" s="72"/>
-      <c r="P6" s="72"/>
-      <c r="Q6" s="72"/>
-      <c r="R6" s="72"/>
-      <c r="S6" s="72"/>
-      <c r="T6" s="72"/>
-      <c r="U6" s="72"/>
-      <c r="V6" s="72"/>
-      <c r="W6" s="72"/>
-      <c r="X6" s="72"/>
+        <v>849</v>
+      </c>
+      <c r="M6" s="47"/>
+      <c r="N6" s="47"/>
+      <c r="O6" s="47"/>
+      <c r="P6" s="47"/>
+      <c r="Q6" s="47"/>
+      <c r="R6" s="47"/>
+      <c r="S6" s="47"/>
+      <c r="T6" s="47"/>
+      <c r="U6" s="47"/>
+      <c r="V6" s="47"/>
+      <c r="W6" s="47"/>
+      <c r="X6" s="47"/>
     </row>
     <row r="7" spans="1:24" ht="99.95" customHeight="1">
       <c r="A7" s="3"/>
@@ -8008,7 +8008,7 @@
         <v>49</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>449</v>
+        <v>850</v>
       </c>
     </row>
     <row r="8" spans="1:24" ht="99.95" customHeight="1">
@@ -8039,7 +8039,7 @@
         <v>129</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>451</v>
+        <v>854</v>
       </c>
     </row>
     <row r="9" spans="1:24" ht="99.95" customHeight="1">
@@ -8068,7 +8068,7 @@
         <v>128</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
     </row>
     <row r="10" spans="1:24" ht="99.95" customHeight="1">
@@ -8207,6 +8207,7 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8214,8 +8215,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P41"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -8240,332 +8241,332 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="F1" s="49" t="s">
         <v>138</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="F1" s="47" t="s">
+      <c r="J1" s="49" t="s">
         <v>140</v>
       </c>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="7" t="s">
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="J1" s="47" t="s">
+      <c r="N1" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="7" t="s">
+      <c r="O1" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="P1" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="O1" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="P1" s="6" t="s">
-        <v>146</v>
-      </c>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" s="46">
+      <c r="A2" s="48">
         <v>1</v>
       </c>
       <c r="B2" s="6">
         <v>1</v>
       </c>
       <c r="C2" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="F2" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="G2" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="H2" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="M2" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="O2" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="H2" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="M2" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="O2" s="7" t="s">
-        <v>153</v>
-      </c>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3" s="46"/>
+      <c r="A3" s="48"/>
       <c r="B3" s="6">
         <v>2</v>
       </c>
       <c r="C3" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="G3" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="K3" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="M3" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="O3" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="M3" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="O3" s="7" t="s">
-        <v>160</v>
-      </c>
     </row>
     <row r="4" spans="1:16" ht="28.5">
-      <c r="A4" s="46"/>
+      <c r="A4" s="48"/>
       <c r="B4" s="6">
         <v>3</v>
       </c>
       <c r="D4" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="I4" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="K4" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="M4" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="K4" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="M4" s="8" t="s">
-        <v>166</v>
-      </c>
     </row>
     <row r="5" spans="1:16" ht="85.5">
-      <c r="A5" s="46"/>
+      <c r="A5" s="48"/>
       <c r="B5" s="6">
         <v>4</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="71.25">
-      <c r="A6" s="46"/>
+      <c r="A6" s="48"/>
       <c r="B6" s="6">
         <v>5</v>
       </c>
       <c r="D6" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="E6" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="F6" s="7" t="s">
+      <c r="I6" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="J6" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="I6" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>173</v>
-      </c>
       <c r="O6" s="8"/>
     </row>
     <row r="7" spans="1:16" ht="99.75">
-      <c r="A7" s="46"/>
+      <c r="A7" s="48"/>
       <c r="B7" s="6">
         <v>6</v>
       </c>
       <c r="C7" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="O7" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="P7" s="49" t="s">
         <v>175</v>
       </c>
-      <c r="O7" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="P7" s="47" t="s">
-        <v>177</v>
-      </c>
     </row>
     <row r="8" spans="1:16" ht="42.75">
-      <c r="A8" s="46"/>
+      <c r="A8" s="48"/>
       <c r="B8" s="6">
         <v>7</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="6" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="O8" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="P8" s="47"/>
+        <v>177</v>
+      </c>
+      <c r="P8" s="49"/>
     </row>
     <row r="9" spans="1:16" ht="28.5">
-      <c r="A9" s="46"/>
+      <c r="A9" s="48"/>
       <c r="B9" s="6">
         <v>8</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="6" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F9" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="O9" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="G9" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="I9" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="O9" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="P9" s="47"/>
+      <c r="P9" s="49"/>
     </row>
     <row r="10" spans="1:16" ht="57">
-      <c r="A10" s="46"/>
+      <c r="A10" s="48"/>
       <c r="B10" s="6">
         <v>9</v>
       </c>
       <c r="C10" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="I10" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="E10" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="G10" s="7" t="s">
+      <c r="J10" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="I10" s="8" t="s">
+      <c r="K10" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="O10" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="J10" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="O10" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="P10" s="47"/>
+      <c r="P10" s="49"/>
     </row>
     <row r="11" spans="1:16" ht="142.5">
-      <c r="A11" s="46"/>
+      <c r="A11" s="48"/>
       <c r="B11" s="6">
         <v>10</v>
       </c>
       <c r="C11" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="G11" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="I11" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="K11" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="I11" s="8" t="s">
+      <c r="P11" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="K11" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="P11" s="6" t="s">
-        <v>195</v>
-      </c>
     </row>
     <row r="12" spans="1:16" ht="57">
-      <c r="A12" s="46">
+      <c r="A12" s="48">
         <v>2</v>
       </c>
       <c r="B12" s="6">
@@ -8573,162 +8574,162 @@
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="I12" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="F12" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="G12" s="7" t="s">
+      <c r="J12" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="I12" s="8" t="s">
+      <c r="O12" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="J12" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>200</v>
-      </c>
     </row>
     <row r="13" spans="1:16" ht="42.75">
-      <c r="A13" s="46"/>
+      <c r="A13" s="48"/>
       <c r="B13" s="6">
         <v>2</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E13" s="10"/>
       <c r="O13" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="28.5">
-      <c r="A14" s="46"/>
+      <c r="A14" s="48"/>
       <c r="B14" s="6">
         <v>3</v>
       </c>
       <c r="E14" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="I14" s="8" t="s">
+      <c r="K14" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="J14" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>207</v>
-      </c>
     </row>
     <row r="15" spans="1:16" ht="28.5">
-      <c r="A15" s="46"/>
+      <c r="A15" s="48"/>
       <c r="B15" s="6">
         <v>4</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="I15" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="O15" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="O15" s="7" t="s">
-        <v>207</v>
-      </c>
     </row>
     <row r="16" spans="1:16" ht="57">
-      <c r="A16" s="46"/>
+      <c r="A16" s="48"/>
       <c r="B16" s="6">
         <v>5</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G16" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="I16" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>210</v>
-      </c>
       <c r="O16" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="42.75">
-      <c r="A17" s="46"/>
+      <c r="A17" s="48"/>
       <c r="B17" s="6">
         <v>6</v>
       </c>
       <c r="C17" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="E17" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="G17" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="E17" s="10" t="s">
+      <c r="H17" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="I17" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="H17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="I17" s="8" t="s">
+      <c r="L17" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="K17" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>218</v>
-      </c>
     </row>
     <row r="18" spans="1:15" ht="28.5">
-      <c r="A18" s="46"/>
+      <c r="A18" s="48"/>
       <c r="B18" s="6">
         <v>7</v>
       </c>
@@ -8742,7 +8743,7 @@
         <v>99</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>99</v>
@@ -8752,7 +8753,7 @@
       </c>
     </row>
     <row r="19" spans="1:15" ht="28.5">
-      <c r="A19" s="46"/>
+      <c r="A19" s="48"/>
       <c r="B19" s="6">
         <v>8</v>
       </c>
@@ -8766,7 +8767,7 @@
         <v>99</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>99</v>
@@ -8776,23 +8777,23 @@
       </c>
     </row>
     <row r="20" spans="1:15" ht="114">
-      <c r="A20" s="46"/>
+      <c r="A20" s="48"/>
       <c r="B20" s="6">
         <v>9</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E20" s="10"/>
       <c r="O20" s="7" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="57">
-      <c r="A21" s="46"/>
+      <c r="A21" s="48"/>
       <c r="B21" s="6">
         <v>10</v>
       </c>
@@ -8803,13 +8804,13 @@
         <v>99</v>
       </c>
       <c r="G21" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="I21" s="8" t="s">
         <v>224</v>
-      </c>
-      <c r="H21" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="I21" s="8" t="s">
-        <v>226</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>99</v>
@@ -8818,22 +8819,22 @@
         <v>100</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="57">
-      <c r="A22" s="46"/>
+      <c r="A22" s="48"/>
       <c r="B22" s="6">
         <v>11</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>100</v>
@@ -8842,10 +8843,10 @@
         <v>99</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>100</v>
@@ -8855,71 +8856,71 @@
       </c>
     </row>
     <row r="23" spans="1:15" ht="85.5">
-      <c r="A23" s="46"/>
+      <c r="A23" s="48"/>
       <c r="B23" s="6">
         <v>12</v>
       </c>
       <c r="C23" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="E23" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="E23" s="11" t="s">
+      <c r="I23" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="K23" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="I23" s="8" t="s">
+      <c r="O23" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="K23" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="O23" s="7" t="s">
-        <v>235</v>
-      </c>
     </row>
     <row r="24" spans="1:15">
-      <c r="A24" s="46">
+      <c r="A24" s="48">
         <v>3</v>
       </c>
       <c r="B24" s="6">
         <v>1</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>101</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="H24" s="7" t="s">
         <v>101</v>
       </c>
       <c r="I24" s="8" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>101</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="L24" s="7" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="128.25">
-      <c r="A25" s="46"/>
+      <c r="A25" s="48"/>
       <c r="B25" s="6">
         <v>2</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>98</v>
@@ -8931,7 +8932,7 @@
         <v>98</v>
       </c>
       <c r="I25" s="8" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>98</v>
@@ -8943,105 +8944,105 @@
         <v>98</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="26" spans="1:15">
-      <c r="A26" s="46"/>
+      <c r="A26" s="48"/>
       <c r="B26" s="6">
         <v>3</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>101</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="H26" s="7" t="s">
         <v>101</v>
       </c>
       <c r="I26" s="8" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J26" s="7" t="s">
         <v>101</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="28.5">
-      <c r="A27" s="46"/>
+      <c r="A27" s="48"/>
       <c r="B27" s="6">
         <v>4</v>
       </c>
       <c r="D27" s="7"/>
       <c r="E27" s="6" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F27" s="7" t="s">
         <v>98</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="H27" s="7" t="s">
         <v>98</v>
       </c>
       <c r="I27" s="8" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>98</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="L27" s="7" t="s">
         <v>98</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="28" spans="1:15" ht="85.5">
-      <c r="A28" s="46"/>
+      <c r="A28" s="48"/>
       <c r="B28" s="6">
         <v>5</v>
       </c>
       <c r="C28" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="O28" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="D28" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="O28" s="7" t="s">
-        <v>245</v>
-      </c>
     </row>
     <row r="29" spans="1:15" ht="28.5">
-      <c r="A29" s="46"/>
+      <c r="A29" s="48"/>
       <c r="B29" s="6">
         <v>6</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D29" s="7"/>
       <c r="E29" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>98</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H29" s="7" t="s">
         <v>98</v>
@@ -9050,97 +9051,97 @@
         <v>98</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="L29" s="7" t="s">
         <v>98</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="30" spans="1:15">
-      <c r="A30" s="46"/>
+      <c r="A30" s="48"/>
       <c r="B30" s="6">
         <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:15" ht="42.75">
-      <c r="A31" s="46"/>
+      <c r="A31" s="48"/>
       <c r="B31" s="6">
         <v>8</v>
       </c>
       <c r="F31" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="H31" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="G31" s="7" t="s">
+      <c r="I31" s="8" t="s">
         <v>251</v>
       </c>
-      <c r="H31" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="I31" s="8" t="s">
-        <v>253</v>
-      </c>
       <c r="J31" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="K31" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>252</v>
-      </c>
     </row>
     <row r="32" spans="1:15" ht="28.5">
-      <c r="A32" s="46"/>
+      <c r="A32" s="48"/>
       <c r="B32" s="6">
         <v>9</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="33" spans="1:15" ht="28.5">
-      <c r="A33" s="46"/>
+      <c r="A33" s="48"/>
       <c r="B33" s="6">
         <v>10</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F33" s="7" t="s">
         <v>98</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="H33" s="7" t="s">
         <v>98</v>
       </c>
       <c r="I33" s="8" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>98</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="L33" s="7" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="34" spans="1:15" ht="28.5">
-      <c r="A34" s="46"/>
+      <c r="A34" s="48"/>
       <c r="B34" s="6">
         <v>11</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>102</v>
@@ -9162,80 +9163,80 @@
       </c>
     </row>
     <row r="35" spans="1:15" ht="99.75">
-      <c r="A35" s="46"/>
+      <c r="A35" s="48"/>
       <c r="B35" s="6">
         <v>12</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="36" spans="1:15" ht="28.5">
-      <c r="A36" s="46"/>
+      <c r="A36" s="48"/>
       <c r="B36" s="6">
         <v>13</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D36" s="7"/>
       <c r="E36" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>98</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H36" s="7" t="s">
         <v>98</v>
       </c>
       <c r="I36" s="8" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="J36" s="7" t="s">
         <v>98</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="L36" s="7" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="37" spans="1:15" ht="71.25">
-      <c r="A37" s="46"/>
+      <c r="A37" s="48"/>
       <c r="B37" s="6">
         <v>14</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D37" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="G37" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="E37" s="6" t="s">
+      <c r="I37" s="8" t="s">
         <v>261</v>
       </c>
-      <c r="G37" s="7" t="s">
+      <c r="K37" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="O37" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="I37" s="8" t="s">
-        <v>263</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="O37" s="7" t="s">
-        <v>264</v>
-      </c>
     </row>
     <row r="38" spans="1:15" ht="28.5">
-      <c r="A38" s="46"/>
+      <c r="A38" s="48"/>
       <c r="B38" s="6">
         <v>15</v>
       </c>
@@ -9246,7 +9247,7 @@
         <v>104</v>
       </c>
       <c r="I38" s="8" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K38" s="7" t="s">
         <v>104</v>
@@ -9258,7 +9259,7 @@
     <row r="41" spans="1:15">
       <c r="B41" s="13"/>
       <c r="E41" s="13" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
   </sheetData>
@@ -9305,58 +9306,58 @@
   <sheetData>
     <row r="1" spans="1:12" ht="17.25" thickBot="1">
       <c r="A1" s="17" t="s">
+        <v>476</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>477</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>478</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>479</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>480</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>481</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>482</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>483</v>
+      </c>
+      <c r="I1" s="19" t="s">
         <v>484</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="J1" s="19" t="s">
         <v>485</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="K1" s="20" t="s">
         <v>486</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="L1" s="18" t="s">
         <v>487</v>
       </c>
-      <c r="E1" s="17" t="s">
+    </row>
+    <row r="2" spans="1:12" ht="33">
+      <c r="A2" s="56" t="s">
         <v>488</v>
       </c>
-      <c r="F1" s="18" t="s">
-        <v>489</v>
-      </c>
-      <c r="G1" s="17" t="s">
+      <c r="B2" s="59"/>
+      <c r="C2" s="22" t="s">
         <v>490</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="D2" s="23" t="s">
         <v>491</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="E2" s="59" t="s">
         <v>492</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="F2" s="59" t="s">
         <v>493</v>
-      </c>
-      <c r="K1" s="20" t="s">
-        <v>494</v>
-      </c>
-      <c r="L1" s="18" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="33">
-      <c r="A2" s="54" t="s">
-        <v>496</v>
-      </c>
-      <c r="B2" s="57"/>
-      <c r="C2" s="22" t="s">
-        <v>498</v>
-      </c>
-      <c r="D2" s="23" t="s">
-        <v>499</v>
-      </c>
-      <c r="E2" s="57" t="s">
-        <v>500</v>
-      </c>
-      <c r="F2" s="57" t="s">
-        <v>501</v>
       </c>
       <c r="G2" s="22"/>
       <c r="H2" s="22"/>
@@ -9366,42 +9367,42 @@
       <c r="L2" s="24"/>
     </row>
     <row r="3" spans="1:12" ht="49.5">
-      <c r="A3" s="55"/>
-      <c r="B3" s="58"/>
+      <c r="A3" s="57"/>
+      <c r="B3" s="60"/>
       <c r="C3" s="23" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="D3" s="23" t="s">
-        <v>503</v>
-      </c>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
+        <v>495</v>
+      </c>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
       <c r="G3" s="23"/>
       <c r="H3" s="23" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="I3" s="23" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="J3" s="23" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="K3" s="23"/>
       <c r="L3" s="25" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="33.75" thickBot="1">
-      <c r="A4" s="56"/>
-      <c r="B4" s="59"/>
+      <c r="A4" s="58"/>
+      <c r="B4" s="61"/>
       <c r="C4" s="26" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>510</v>
-      </c>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59"/>
+        <v>502</v>
+      </c>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
       <c r="G4" s="26"/>
       <c r="H4" s="26"/>
       <c r="I4" s="26"/>
@@ -9410,21 +9411,21 @@
       <c r="L4" s="27"/>
     </row>
     <row r="5" spans="1:12" ht="33">
-      <c r="A5" s="54" t="s">
-        <v>511</v>
-      </c>
-      <c r="B5" s="57"/>
+      <c r="A5" s="56" t="s">
+        <v>503</v>
+      </c>
+      <c r="B5" s="59"/>
       <c r="C5" s="22" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="D5" s="23" t="s">
-        <v>512</v>
-      </c>
-      <c r="E5" s="57" t="s">
-        <v>513</v>
-      </c>
-      <c r="F5" s="57" t="s">
-        <v>514</v>
+        <v>504</v>
+      </c>
+      <c r="E5" s="59" t="s">
+        <v>505</v>
+      </c>
+      <c r="F5" s="59" t="s">
+        <v>506</v>
       </c>
       <c r="G5" s="22"/>
       <c r="H5" s="22"/>
@@ -9434,48 +9435,48 @@
       <c r="L5" s="24"/>
     </row>
     <row r="6" spans="1:12" ht="49.5">
-      <c r="A6" s="55" t="s">
-        <v>515</v>
-      </c>
-      <c r="B6" s="58"/>
+      <c r="A6" s="57" t="s">
+        <v>507</v>
+      </c>
+      <c r="B6" s="60"/>
       <c r="C6" s="23" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="D6" s="23" t="s">
-        <v>516</v>
-      </c>
-      <c r="E6" s="58" t="s">
-        <v>513</v>
-      </c>
-      <c r="F6" s="58" t="s">
-        <v>514</v>
+        <v>508</v>
+      </c>
+      <c r="E6" s="60" t="s">
+        <v>505</v>
+      </c>
+      <c r="F6" s="60" t="s">
+        <v>506</v>
       </c>
       <c r="G6" s="23"/>
       <c r="H6" s="23" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
       <c r="I6" s="23" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="J6" s="23" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="K6" s="23"/>
       <c r="L6" s="25" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="17.25" thickBot="1">
-      <c r="A7" s="56"/>
-      <c r="B7" s="59"/>
+      <c r="A7" s="58"/>
+      <c r="B7" s="61"/>
       <c r="C7" s="26" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>521</v>
-      </c>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
+        <v>513</v>
+      </c>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
       <c r="G7" s="26"/>
       <c r="H7" s="26"/>
       <c r="I7" s="26"/>
@@ -9484,21 +9485,21 @@
       <c r="L7" s="27"/>
     </row>
     <row r="8" spans="1:12" ht="33">
-      <c r="A8" s="60" t="s">
-        <v>522</v>
-      </c>
-      <c r="B8" s="63"/>
+      <c r="A8" s="62" t="s">
+        <v>514</v>
+      </c>
+      <c r="B8" s="65"/>
       <c r="C8" s="28" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="D8" s="23" t="s">
-        <v>512</v>
-      </c>
-      <c r="E8" s="57" t="s">
-        <v>523</v>
-      </c>
-      <c r="F8" s="57" t="s">
-        <v>514</v>
+        <v>504</v>
+      </c>
+      <c r="E8" s="59" t="s">
+        <v>515</v>
+      </c>
+      <c r="F8" s="59" t="s">
+        <v>506</v>
       </c>
       <c r="G8" s="22"/>
       <c r="H8" s="22"/>
@@ -9508,48 +9509,48 @@
       <c r="L8" s="24"/>
     </row>
     <row r="9" spans="1:12" ht="33">
-      <c r="A9" s="61" t="s">
-        <v>522</v>
-      </c>
-      <c r="B9" s="64"/>
+      <c r="A9" s="63" t="s">
+        <v>514</v>
+      </c>
+      <c r="B9" s="66"/>
       <c r="C9" s="29" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="D9" s="29" t="s">
-        <v>524</v>
-      </c>
-      <c r="E9" s="58" t="s">
-        <v>523</v>
-      </c>
-      <c r="F9" s="58" t="s">
-        <v>514</v>
+        <v>516</v>
+      </c>
+      <c r="E9" s="60" t="s">
+        <v>515</v>
+      </c>
+      <c r="F9" s="60" t="s">
+        <v>506</v>
       </c>
       <c r="G9" s="23"/>
       <c r="H9" s="23" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="I9" s="23" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="J9" s="23" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="K9" s="23"/>
       <c r="L9" s="25" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="33.75" thickBot="1">
-      <c r="A10" s="62"/>
-      <c r="B10" s="65"/>
+      <c r="A10" s="64"/>
+      <c r="B10" s="67"/>
       <c r="C10" s="30" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="D10" s="30" t="s">
-        <v>529</v>
-      </c>
-      <c r="E10" s="59"/>
-      <c r="F10" s="59"/>
+        <v>521</v>
+      </c>
+      <c r="E10" s="61"/>
+      <c r="F10" s="61"/>
       <c r="G10" s="26"/>
       <c r="H10" s="26"/>
       <c r="I10" s="26"/>
@@ -9558,21 +9559,21 @@
       <c r="L10" s="27"/>
     </row>
     <row r="11" spans="1:12" ht="33">
-      <c r="A11" s="54" t="s">
-        <v>530</v>
-      </c>
-      <c r="B11" s="57"/>
+      <c r="A11" s="56" t="s">
+        <v>522</v>
+      </c>
+      <c r="B11" s="59"/>
       <c r="C11" s="22" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="D11" s="23" t="s">
-        <v>532</v>
-      </c>
-      <c r="E11" s="63" t="s">
-        <v>533</v>
-      </c>
-      <c r="F11" s="63" t="s">
-        <v>534</v>
+        <v>524</v>
+      </c>
+      <c r="E11" s="65" t="s">
+        <v>525</v>
+      </c>
+      <c r="F11" s="65" t="s">
+        <v>526</v>
       </c>
       <c r="G11" s="28"/>
       <c r="H11" s="28"/>
@@ -9582,48 +9583,48 @@
       <c r="L11" s="31"/>
     </row>
     <row r="12" spans="1:12" ht="49.5">
-      <c r="A12" s="55" t="s">
-        <v>535</v>
-      </c>
-      <c r="B12" s="58"/>
+      <c r="A12" s="57" t="s">
+        <v>527</v>
+      </c>
+      <c r="B12" s="60"/>
       <c r="C12" s="23" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="D12" s="23" t="s">
-        <v>536</v>
-      </c>
-      <c r="E12" s="64" t="s">
-        <v>533</v>
-      </c>
-      <c r="F12" s="64" t="s">
-        <v>534</v>
+        <v>528</v>
+      </c>
+      <c r="E12" s="66" t="s">
+        <v>525</v>
+      </c>
+      <c r="F12" s="66" t="s">
+        <v>526</v>
       </c>
       <c r="G12" s="29"/>
       <c r="H12" s="29" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="I12" s="29" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="J12" s="29" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="K12" s="29"/>
       <c r="L12" s="32" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="33.75" thickBot="1">
-      <c r="A13" s="56"/>
-      <c r="B13" s="59"/>
+      <c r="A13" s="58"/>
+      <c r="B13" s="61"/>
       <c r="C13" s="26" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="D13" s="26" t="s">
-        <v>541</v>
-      </c>
-      <c r="E13" s="65"/>
-      <c r="F13" s="65"/>
+        <v>533</v>
+      </c>
+      <c r="E13" s="67"/>
+      <c r="F13" s="67"/>
       <c r="G13" s="30"/>
       <c r="H13" s="30"/>
       <c r="I13" s="30"/>
@@ -9632,21 +9633,21 @@
       <c r="L13" s="33"/>
     </row>
     <row r="14" spans="1:12" ht="33">
-      <c r="A14" s="54" t="s">
-        <v>542</v>
-      </c>
-      <c r="B14" s="57"/>
+      <c r="A14" s="56" t="s">
+        <v>534</v>
+      </c>
+      <c r="B14" s="59"/>
       <c r="C14" s="22" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="D14" s="23" t="s">
-        <v>532</v>
-      </c>
-      <c r="E14" s="57" t="s">
-        <v>543</v>
-      </c>
-      <c r="F14" s="57" t="s">
-        <v>534</v>
+        <v>524</v>
+      </c>
+      <c r="E14" s="59" t="s">
+        <v>535</v>
+      </c>
+      <c r="F14" s="59" t="s">
+        <v>526</v>
       </c>
       <c r="G14" s="22"/>
       <c r="H14" s="22"/>
@@ -9656,48 +9657,48 @@
       <c r="L14" s="24"/>
     </row>
     <row r="15" spans="1:12" ht="33">
-      <c r="A15" s="55" t="s">
-        <v>544</v>
-      </c>
-      <c r="B15" s="58"/>
+      <c r="A15" s="57" t="s">
+        <v>536</v>
+      </c>
+      <c r="B15" s="60"/>
       <c r="C15" s="23" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="D15" s="23" t="s">
-        <v>536</v>
-      </c>
-      <c r="E15" s="58" t="s">
-        <v>543</v>
-      </c>
-      <c r="F15" s="58" t="s">
-        <v>501</v>
+        <v>528</v>
+      </c>
+      <c r="E15" s="60" t="s">
+        <v>535</v>
+      </c>
+      <c r="F15" s="60" t="s">
+        <v>493</v>
       </c>
       <c r="G15" s="23"/>
       <c r="H15" s="23" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="I15" s="23" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="J15" s="23" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="K15" s="23"/>
       <c r="L15" s="25" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="33.75" thickBot="1">
-      <c r="A16" s="56"/>
-      <c r="B16" s="59"/>
+      <c r="A16" s="58"/>
+      <c r="B16" s="61"/>
       <c r="C16" s="26" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="D16" s="26" t="s">
-        <v>547</v>
-      </c>
-      <c r="E16" s="59"/>
-      <c r="F16" s="59"/>
+        <v>539</v>
+      </c>
+      <c r="E16" s="61"/>
+      <c r="F16" s="61"/>
       <c r="G16" s="26"/>
       <c r="H16" s="26"/>
       <c r="I16" s="26"/>
@@ -9706,21 +9707,21 @@
       <c r="L16" s="27"/>
     </row>
     <row r="17" spans="1:12" ht="33">
-      <c r="A17" s="60" t="s">
-        <v>548</v>
-      </c>
-      <c r="B17" s="63"/>
+      <c r="A17" s="62" t="s">
+        <v>540</v>
+      </c>
+      <c r="B17" s="65"/>
       <c r="C17" s="28" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="D17" s="28" t="s">
-        <v>532</v>
-      </c>
-      <c r="E17" s="57" t="s">
-        <v>549</v>
-      </c>
-      <c r="F17" s="57" t="s">
-        <v>534</v>
+        <v>524</v>
+      </c>
+      <c r="E17" s="59" t="s">
+        <v>541</v>
+      </c>
+      <c r="F17" s="59" t="s">
+        <v>526</v>
       </c>
       <c r="G17" s="22"/>
       <c r="H17" s="22"/>
@@ -9730,48 +9731,48 @@
       <c r="L17" s="24"/>
     </row>
     <row r="18" spans="1:12" ht="49.5">
-      <c r="A18" s="61" t="s">
-        <v>548</v>
-      </c>
-      <c r="B18" s="64"/>
+      <c r="A18" s="63" t="s">
+        <v>540</v>
+      </c>
+      <c r="B18" s="66"/>
       <c r="C18" s="29" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="D18" s="29" t="s">
-        <v>536</v>
-      </c>
-      <c r="E18" s="58" t="s">
-        <v>549</v>
-      </c>
-      <c r="F18" s="58" t="s">
-        <v>501</v>
+        <v>528</v>
+      </c>
+      <c r="E18" s="60" t="s">
+        <v>541</v>
+      </c>
+      <c r="F18" s="60" t="s">
+        <v>493</v>
       </c>
       <c r="G18" s="23"/>
       <c r="H18" s="23" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="I18" s="23" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="J18" s="23" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="K18" s="23"/>
       <c r="L18" s="25" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="33.75" thickBot="1">
-      <c r="A19" s="62"/>
-      <c r="B19" s="65"/>
+      <c r="A19" s="64"/>
+      <c r="B19" s="67"/>
       <c r="C19" s="30" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="D19" s="30" t="s">
-        <v>554</v>
-      </c>
-      <c r="E19" s="59"/>
-      <c r="F19" s="59"/>
+        <v>546</v>
+      </c>
+      <c r="E19" s="61"/>
+      <c r="F19" s="61"/>
       <c r="G19" s="26"/>
       <c r="H19" s="26"/>
       <c r="I19" s="26"/>
@@ -9780,15 +9781,15 @@
       <c r="L19" s="27"/>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="54"/>
-      <c r="B20" s="57"/>
+      <c r="A20" s="56"/>
+      <c r="B20" s="59"/>
       <c r="C20" s="22"/>
       <c r="D20" s="22"/>
-      <c r="E20" s="57" t="s">
-        <v>555</v>
-      </c>
-      <c r="F20" s="57" t="s">
-        <v>534</v>
+      <c r="E20" s="59" t="s">
+        <v>547</v>
+      </c>
+      <c r="F20" s="59" t="s">
+        <v>526</v>
       </c>
       <c r="G20" s="22"/>
       <c r="H20" s="22"/>
@@ -9798,40 +9799,40 @@
       <c r="L20" s="24"/>
     </row>
     <row r="21" spans="1:12" ht="132">
-      <c r="A21" s="55"/>
-      <c r="B21" s="58"/>
+      <c r="A21" s="57"/>
+      <c r="B21" s="60"/>
       <c r="C21" s="23"/>
       <c r="D21" s="23"/>
-      <c r="E21" s="58" t="s">
-        <v>555</v>
-      </c>
-      <c r="F21" s="58" t="s">
-        <v>534</v>
+      <c r="E21" s="60" t="s">
+        <v>547</v>
+      </c>
+      <c r="F21" s="60" t="s">
+        <v>526</v>
       </c>
       <c r="G21" s="23"/>
       <c r="H21" s="23" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
       <c r="I21" s="23" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
       <c r="J21" s="23" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
       <c r="K21" s="23" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
       <c r="L21" s="25" t="s">
-        <v>560</v>
+        <v>552</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="17.25" thickBot="1">
-      <c r="A22" s="56"/>
-      <c r="B22" s="59"/>
+      <c r="A22" s="58"/>
+      <c r="B22" s="61"/>
       <c r="C22" s="26"/>
       <c r="D22" s="26"/>
-      <c r="E22" s="59"/>
-      <c r="F22" s="59"/>
+      <c r="E22" s="61"/>
+      <c r="F22" s="61"/>
       <c r="G22" s="26"/>
       <c r="H22" s="26"/>
       <c r="I22" s="26"/>
@@ -9840,15 +9841,15 @@
       <c r="L22" s="27"/>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="54"/>
-      <c r="B23" s="57"/>
+      <c r="A23" s="56"/>
+      <c r="B23" s="59"/>
       <c r="C23" s="22"/>
       <c r="D23" s="22"/>
-      <c r="E23" s="57" t="s">
-        <v>561</v>
-      </c>
-      <c r="F23" s="57" t="s">
-        <v>534</v>
+      <c r="E23" s="59" t="s">
+        <v>553</v>
+      </c>
+      <c r="F23" s="59" t="s">
+        <v>526</v>
       </c>
       <c r="G23" s="22"/>
       <c r="H23" s="22"/>
@@ -9858,40 +9859,40 @@
       <c r="L23" s="24"/>
     </row>
     <row r="24" spans="1:12" ht="148.5">
-      <c r="A24" s="55"/>
-      <c r="B24" s="58"/>
+      <c r="A24" s="57"/>
+      <c r="B24" s="60"/>
       <c r="C24" s="23"/>
       <c r="D24" s="23"/>
-      <c r="E24" s="58" t="s">
-        <v>562</v>
-      </c>
-      <c r="F24" s="58" t="s">
-        <v>534</v>
+      <c r="E24" s="60" t="s">
+        <v>554</v>
+      </c>
+      <c r="F24" s="60" t="s">
+        <v>526</v>
       </c>
       <c r="G24" s="23"/>
       <c r="H24" s="23" t="s">
-        <v>821</v>
+        <v>813</v>
       </c>
       <c r="I24" s="23" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
       <c r="J24" s="23" t="s">
-        <v>564</v>
+        <v>556</v>
       </c>
       <c r="K24" s="23" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="L24" s="25" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="17.25" thickBot="1">
-      <c r="A25" s="56"/>
-      <c r="B25" s="59"/>
+      <c r="A25" s="58"/>
+      <c r="B25" s="61"/>
       <c r="C25" s="26"/>
       <c r="D25" s="26"/>
-      <c r="E25" s="59"/>
-      <c r="F25" s="59"/>
+      <c r="E25" s="61"/>
+      <c r="F25" s="61"/>
       <c r="G25" s="26"/>
       <c r="H25" s="26"/>
       <c r="I25" s="26"/>
@@ -9900,15 +9901,15 @@
       <c r="L25" s="27"/>
     </row>
     <row r="26" spans="1:12">
-      <c r="A26" s="54"/>
-      <c r="B26" s="57"/>
+      <c r="A26" s="56"/>
+      <c r="B26" s="59"/>
       <c r="C26" s="22"/>
       <c r="D26" s="22"/>
-      <c r="E26" s="63" t="s">
-        <v>567</v>
-      </c>
-      <c r="F26" s="63" t="s">
-        <v>501</v>
+      <c r="E26" s="65" t="s">
+        <v>559</v>
+      </c>
+      <c r="F26" s="65" t="s">
+        <v>493</v>
       </c>
       <c r="G26" s="28"/>
       <c r="H26" s="28"/>
@@ -9918,38 +9919,38 @@
       <c r="L26" s="31"/>
     </row>
     <row r="27" spans="1:12" ht="49.5">
-      <c r="A27" s="55"/>
-      <c r="B27" s="58"/>
+      <c r="A27" s="57"/>
+      <c r="B27" s="60"/>
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
-      <c r="E27" s="64" t="s">
-        <v>567</v>
-      </c>
-      <c r="F27" s="64" t="s">
-        <v>501</v>
+      <c r="E27" s="66" t="s">
+        <v>559</v>
+      </c>
+      <c r="F27" s="66" t="s">
+        <v>493</v>
       </c>
       <c r="G27" s="29"/>
       <c r="H27" s="29" t="s">
-        <v>568</v>
+        <v>560</v>
       </c>
       <c r="I27" s="29" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
       <c r="J27" s="29" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
       <c r="K27" s="29"/>
       <c r="L27" s="32" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="17.25" thickBot="1">
-      <c r="A28" s="56"/>
-      <c r="B28" s="59"/>
+      <c r="A28" s="58"/>
+      <c r="B28" s="61"/>
       <c r="C28" s="26"/>
       <c r="D28" s="26"/>
-      <c r="E28" s="65"/>
-      <c r="F28" s="65"/>
+      <c r="E28" s="67"/>
+      <c r="F28" s="67"/>
       <c r="G28" s="30"/>
       <c r="H28" s="30"/>
       <c r="I28" s="30"/>
@@ -9958,15 +9959,15 @@
       <c r="L28" s="33"/>
     </row>
     <row r="29" spans="1:12">
-      <c r="A29" s="54"/>
-      <c r="B29" s="57"/>
+      <c r="A29" s="56"/>
+      <c r="B29" s="59"/>
       <c r="C29" s="22"/>
       <c r="D29" s="22"/>
-      <c r="E29" s="63" t="s">
-        <v>571</v>
-      </c>
-      <c r="F29" s="63" t="s">
-        <v>501</v>
+      <c r="E29" s="65" t="s">
+        <v>563</v>
+      </c>
+      <c r="F29" s="65" t="s">
+        <v>493</v>
       </c>
       <c r="G29" s="28"/>
       <c r="H29" s="28"/>
@@ -9976,38 +9977,38 @@
       <c r="L29" s="31"/>
     </row>
     <row r="30" spans="1:12" ht="49.5">
-      <c r="A30" s="55"/>
-      <c r="B30" s="58"/>
+      <c r="A30" s="57"/>
+      <c r="B30" s="60"/>
       <c r="C30" s="23"/>
       <c r="D30" s="23"/>
-      <c r="E30" s="64" t="s">
-        <v>571</v>
-      </c>
-      <c r="F30" s="64" t="s">
-        <v>501</v>
+      <c r="E30" s="66" t="s">
+        <v>563</v>
+      </c>
+      <c r="F30" s="66" t="s">
+        <v>493</v>
       </c>
       <c r="G30" s="29"/>
       <c r="H30" s="29" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="I30" s="29" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
       <c r="J30" s="29" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="K30" s="29"/>
       <c r="L30" s="32" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="17.25" thickBot="1">
-      <c r="A31" s="56"/>
-      <c r="B31" s="59"/>
+      <c r="A31" s="58"/>
+      <c r="B31" s="61"/>
       <c r="C31" s="26"/>
       <c r="D31" s="26"/>
-      <c r="E31" s="65"/>
-      <c r="F31" s="65"/>
+      <c r="E31" s="67"/>
+      <c r="F31" s="67"/>
       <c r="G31" s="30"/>
       <c r="H31" s="30"/>
       <c r="I31" s="30"/>
@@ -10016,15 +10017,15 @@
       <c r="L31" s="33"/>
     </row>
     <row r="32" spans="1:12">
-      <c r="A32" s="54"/>
-      <c r="B32" s="57"/>
+      <c r="A32" s="56"/>
+      <c r="B32" s="59"/>
       <c r="C32" s="22"/>
       <c r="D32" s="22"/>
-      <c r="E32" s="57" t="s">
-        <v>576</v>
-      </c>
-      <c r="F32" s="57" t="s">
-        <v>514</v>
+      <c r="E32" s="59" t="s">
+        <v>568</v>
+      </c>
+      <c r="F32" s="59" t="s">
+        <v>506</v>
       </c>
       <c r="G32" s="22"/>
       <c r="H32" s="22"/>
@@ -10034,40 +10035,40 @@
       <c r="L32" s="24"/>
     </row>
     <row r="33" spans="1:12" ht="66">
-      <c r="A33" s="55"/>
-      <c r="B33" s="58"/>
+      <c r="A33" s="57"/>
+      <c r="B33" s="60"/>
       <c r="C33" s="23"/>
       <c r="D33" s="23"/>
-      <c r="E33" s="58" t="s">
-        <v>577</v>
-      </c>
-      <c r="F33" s="58" t="s">
-        <v>514</v>
+      <c r="E33" s="60" t="s">
+        <v>569</v>
+      </c>
+      <c r="F33" s="60" t="s">
+        <v>506</v>
       </c>
       <c r="G33" s="23"/>
       <c r="H33" s="23" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
       <c r="I33" s="23" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
       <c r="J33" s="23" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="K33" s="23" t="s">
-        <v>581</v>
+        <v>573</v>
       </c>
       <c r="L33" s="25" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="17.25" thickBot="1">
-      <c r="A34" s="56"/>
-      <c r="B34" s="59"/>
+      <c r="A34" s="58"/>
+      <c r="B34" s="61"/>
       <c r="C34" s="26"/>
       <c r="D34" s="26"/>
-      <c r="E34" s="59"/>
-      <c r="F34" s="59"/>
+      <c r="E34" s="61"/>
+      <c r="F34" s="61"/>
       <c r="G34" s="26"/>
       <c r="H34" s="26"/>
       <c r="I34" s="26"/>
@@ -10076,18 +10077,18 @@
       <c r="L34" s="27"/>
     </row>
     <row r="35" spans="1:12">
-      <c r="A35" s="48" t="s">
-        <v>583</v>
-      </c>
-      <c r="B35" s="51"/>
+      <c r="A35" s="50" t="s">
+        <v>575</v>
+      </c>
+      <c r="B35" s="53"/>
       <c r="C35" s="34" t="s">
-        <v>584</v>
+        <v>576</v>
       </c>
       <c r="D35" s="34"/>
-      <c r="E35" s="51" t="s">
-        <v>585</v>
-      </c>
-      <c r="F35" s="51"/>
+      <c r="E35" s="53" t="s">
+        <v>577</v>
+      </c>
+      <c r="F35" s="53"/>
       <c r="G35" s="34"/>
       <c r="H35" s="34"/>
       <c r="I35" s="34"/>
@@ -10096,46 +10097,46 @@
       <c r="L35" s="35"/>
     </row>
     <row r="36" spans="1:12" ht="66">
-      <c r="A36" s="49" t="s">
-        <v>586</v>
-      </c>
-      <c r="B36" s="52" t="s">
-        <v>587</v>
+      <c r="A36" s="51" t="s">
+        <v>578</v>
+      </c>
+      <c r="B36" s="54" t="s">
+        <v>579</v>
       </c>
       <c r="C36" s="36" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="D36" s="36" t="s">
-        <v>589</v>
-      </c>
-      <c r="E36" s="52" t="s">
-        <v>585</v>
-      </c>
-      <c r="F36" s="52" t="s">
-        <v>514</v>
+        <v>581</v>
+      </c>
+      <c r="E36" s="54" t="s">
+        <v>577</v>
+      </c>
+      <c r="F36" s="54" t="s">
+        <v>506</v>
       </c>
       <c r="G36" s="36"/>
       <c r="H36" s="36" t="s">
-        <v>590</v>
+        <v>582</v>
       </c>
       <c r="I36" s="36" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
       <c r="J36" s="36"/>
       <c r="K36" s="36"/>
       <c r="L36" s="37"/>
     </row>
     <row r="37" spans="1:12" ht="33.75" thickBot="1">
-      <c r="A37" s="50"/>
-      <c r="B37" s="53"/>
+      <c r="A37" s="52"/>
+      <c r="B37" s="55"/>
       <c r="C37" s="38" t="s">
-        <v>592</v>
+        <v>584</v>
       </c>
       <c r="D37" s="38" t="s">
-        <v>593</v>
-      </c>
-      <c r="E37" s="53"/>
-      <c r="F37" s="53"/>
+        <v>585</v>
+      </c>
+      <c r="E37" s="55"/>
+      <c r="F37" s="55"/>
       <c r="G37" s="38"/>
       <c r="H37" s="38"/>
       <c r="I37" s="38"/>
@@ -10144,21 +10145,21 @@
       <c r="L37" s="39"/>
     </row>
     <row r="38" spans="1:12" ht="33">
-      <c r="A38" s="54" t="s">
-        <v>594</v>
-      </c>
-      <c r="B38" s="57"/>
+      <c r="A38" s="56" t="s">
+        <v>586</v>
+      </c>
+      <c r="B38" s="59"/>
       <c r="C38" s="22" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="D38" s="23" t="s">
-        <v>531</v>
-      </c>
-      <c r="E38" s="63" t="s">
-        <v>595</v>
-      </c>
-      <c r="F38" s="63" t="s">
-        <v>596</v>
+        <v>523</v>
+      </c>
+      <c r="E38" s="65" t="s">
+        <v>587</v>
+      </c>
+      <c r="F38" s="65" t="s">
+        <v>588</v>
       </c>
       <c r="G38" s="28"/>
       <c r="H38" s="28"/>
@@ -10168,50 +10169,50 @@
       <c r="L38" s="31"/>
     </row>
     <row r="39" spans="1:12" ht="66">
-      <c r="A39" s="55" t="s">
-        <v>597</v>
-      </c>
-      <c r="B39" s="58"/>
+      <c r="A39" s="57" t="s">
+        <v>589</v>
+      </c>
+      <c r="B39" s="60"/>
       <c r="C39" s="23" t="s">
-        <v>598</v>
+        <v>590</v>
       </c>
       <c r="D39" s="23" t="s">
-        <v>599</v>
-      </c>
-      <c r="E39" s="64" t="s">
-        <v>600</v>
-      </c>
-      <c r="F39" s="64" t="s">
-        <v>596</v>
+        <v>591</v>
+      </c>
+      <c r="E39" s="66" t="s">
+        <v>592</v>
+      </c>
+      <c r="F39" s="66" t="s">
+        <v>588</v>
       </c>
       <c r="G39" s="29"/>
       <c r="H39" s="29" t="s">
-        <v>601</v>
+        <v>593</v>
       </c>
       <c r="I39" s="29" t="s">
-        <v>602</v>
+        <v>594</v>
       </c>
       <c r="J39" s="29" t="s">
-        <v>603</v>
+        <v>595</v>
       </c>
       <c r="K39" s="29" t="s">
-        <v>604</v>
+        <v>596</v>
       </c>
       <c r="L39" s="32" t="s">
-        <v>605</v>
+        <v>597</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="50.25" thickBot="1">
-      <c r="A40" s="56"/>
-      <c r="B40" s="59"/>
+      <c r="A40" s="58"/>
+      <c r="B40" s="61"/>
       <c r="C40" s="26" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="D40" s="26" t="s">
-        <v>606</v>
-      </c>
-      <c r="E40" s="65"/>
-      <c r="F40" s="65"/>
+        <v>598</v>
+      </c>
+      <c r="E40" s="67"/>
+      <c r="F40" s="67"/>
       <c r="G40" s="30"/>
       <c r="H40" s="30"/>
       <c r="I40" s="30"/>
@@ -10220,15 +10221,15 @@
       <c r="L40" s="33"/>
     </row>
     <row r="41" spans="1:12">
-      <c r="A41" s="54"/>
-      <c r="B41" s="57"/>
+      <c r="A41" s="56"/>
+      <c r="B41" s="59"/>
       <c r="C41" s="22"/>
       <c r="D41" s="22"/>
-      <c r="E41" s="63" t="s">
-        <v>607</v>
-      </c>
-      <c r="F41" s="63" t="s">
-        <v>608</v>
+      <c r="E41" s="65" t="s">
+        <v>599</v>
+      </c>
+      <c r="F41" s="65" t="s">
+        <v>600</v>
       </c>
       <c r="G41" s="28"/>
       <c r="H41" s="28"/>
@@ -10238,40 +10239,40 @@
       <c r="L41" s="31"/>
     </row>
     <row r="42" spans="1:12" ht="165">
-      <c r="A42" s="55"/>
-      <c r="B42" s="58"/>
+      <c r="A42" s="57"/>
+      <c r="B42" s="60"/>
       <c r="C42" s="23"/>
       <c r="D42" s="23"/>
-      <c r="E42" s="64" t="s">
-        <v>609</v>
-      </c>
-      <c r="F42" s="64" t="s">
-        <v>610</v>
+      <c r="E42" s="66" t="s">
+        <v>601</v>
+      </c>
+      <c r="F42" s="66" t="s">
+        <v>602</v>
       </c>
       <c r="G42" s="29"/>
       <c r="H42" s="29" t="s">
-        <v>611</v>
+        <v>603</v>
       </c>
       <c r="I42" s="29" t="s">
-        <v>612</v>
+        <v>604</v>
       </c>
       <c r="J42" s="29" t="s">
-        <v>613</v>
+        <v>605</v>
       </c>
       <c r="K42" s="29" t="s">
-        <v>614</v>
+        <v>606</v>
       </c>
       <c r="L42" s="32" t="s">
-        <v>615</v>
+        <v>607</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="17.25" thickBot="1">
-      <c r="A43" s="56"/>
-      <c r="B43" s="59"/>
+      <c r="A43" s="58"/>
+      <c r="B43" s="61"/>
       <c r="C43" s="26"/>
       <c r="D43" s="26"/>
-      <c r="E43" s="65"/>
-      <c r="F43" s="65"/>
+      <c r="E43" s="67"/>
+      <c r="F43" s="67"/>
       <c r="G43" s="30"/>
       <c r="H43" s="30"/>
       <c r="I43" s="30"/>
@@ -10280,14 +10281,14 @@
       <c r="L43" s="33"/>
     </row>
     <row r="44" spans="1:12">
-      <c r="A44" s="48"/>
-      <c r="B44" s="51"/>
+      <c r="A44" s="50"/>
+      <c r="B44" s="53"/>
       <c r="C44" s="34"/>
       <c r="D44" s="34"/>
-      <c r="E44" s="51" t="s">
-        <v>616</v>
-      </c>
-      <c r="F44" s="51"/>
+      <c r="E44" s="53" t="s">
+        <v>608</v>
+      </c>
+      <c r="F44" s="53"/>
       <c r="G44" s="34"/>
       <c r="H44" s="34"/>
       <c r="I44" s="34"/>
@@ -10296,34 +10297,34 @@
       <c r="L44" s="35"/>
     </row>
     <row r="45" spans="1:12" ht="82.5">
-      <c r="A45" s="49"/>
-      <c r="B45" s="52"/>
+      <c r="A45" s="51"/>
+      <c r="B45" s="54"/>
       <c r="C45" s="36"/>
       <c r="D45" s="36"/>
-      <c r="E45" s="52" t="s">
-        <v>617</v>
-      </c>
-      <c r="F45" s="52" t="s">
+      <c r="E45" s="54" t="s">
+        <v>609</v>
+      </c>
+      <c r="F45" s="54" t="s">
         <v>18</v>
       </c>
       <c r="G45" s="36"/>
       <c r="H45" s="36" t="s">
-        <v>618</v>
+        <v>610</v>
       </c>
       <c r="I45" s="36" t="s">
-        <v>619</v>
+        <v>611</v>
       </c>
       <c r="J45" s="36"/>
       <c r="K45" s="36"/>
       <c r="L45" s="37"/>
     </row>
     <row r="46" spans="1:12" ht="17.25" thickBot="1">
-      <c r="A46" s="50"/>
-      <c r="B46" s="53"/>
+      <c r="A46" s="52"/>
+      <c r="B46" s="55"/>
       <c r="C46" s="38"/>
       <c r="D46" s="38"/>
-      <c r="E46" s="53"/>
-      <c r="F46" s="53"/>
+      <c r="E46" s="55"/>
+      <c r="F46" s="55"/>
       <c r="G46" s="38"/>
       <c r="H46" s="38"/>
       <c r="I46" s="38"/>
@@ -10332,14 +10333,14 @@
       <c r="L46" s="39"/>
     </row>
     <row r="47" spans="1:12">
-      <c r="A47" s="48"/>
-      <c r="B47" s="51"/>
+      <c r="A47" s="50"/>
+      <c r="B47" s="53"/>
       <c r="C47" s="34"/>
       <c r="D47" s="34"/>
-      <c r="E47" s="51" t="s">
-        <v>620</v>
-      </c>
-      <c r="F47" s="51"/>
+      <c r="E47" s="53" t="s">
+        <v>612</v>
+      </c>
+      <c r="F47" s="53"/>
       <c r="G47" s="34"/>
       <c r="H47" s="34"/>
       <c r="I47" s="34"/>
@@ -10348,34 +10349,34 @@
       <c r="L47" s="35"/>
     </row>
     <row r="48" spans="1:12" ht="49.5">
-      <c r="A48" s="49"/>
-      <c r="B48" s="52"/>
+      <c r="A48" s="51"/>
+      <c r="B48" s="54"/>
       <c r="C48" s="36"/>
       <c r="D48" s="36"/>
-      <c r="E48" s="52" t="s">
-        <v>621</v>
-      </c>
-      <c r="F48" s="52" t="s">
-        <v>622</v>
+      <c r="E48" s="54" t="s">
+        <v>613</v>
+      </c>
+      <c r="F48" s="54" t="s">
+        <v>614</v>
       </c>
       <c r="G48" s="36"/>
       <c r="H48" s="36" t="s">
-        <v>623</v>
+        <v>615</v>
       </c>
       <c r="I48" s="36" t="s">
-        <v>624</v>
+        <v>616</v>
       </c>
       <c r="J48" s="36"/>
       <c r="K48" s="36"/>
       <c r="L48" s="37"/>
     </row>
     <row r="49" spans="1:12" ht="17.25" thickBot="1">
-      <c r="A49" s="50"/>
-      <c r="B49" s="53"/>
+      <c r="A49" s="52"/>
+      <c r="B49" s="55"/>
       <c r="C49" s="38"/>
       <c r="D49" s="38"/>
-      <c r="E49" s="53"/>
-      <c r="F49" s="53"/>
+      <c r="E49" s="55"/>
+      <c r="F49" s="55"/>
       <c r="G49" s="38"/>
       <c r="H49" s="38"/>
       <c r="I49" s="38"/>
@@ -10384,18 +10385,18 @@
       <c r="L49" s="39"/>
     </row>
     <row r="50" spans="1:12">
-      <c r="A50" s="48" t="s">
-        <v>625</v>
-      </c>
-      <c r="B50" s="51"/>
+      <c r="A50" s="50" t="s">
+        <v>617</v>
+      </c>
+      <c r="B50" s="53"/>
       <c r="C50" s="34" t="s">
-        <v>584</v>
+        <v>576</v>
       </c>
       <c r="D50" s="34"/>
-      <c r="E50" s="51" t="s">
-        <v>626</v>
-      </c>
-      <c r="F50" s="51"/>
+      <c r="E50" s="53" t="s">
+        <v>618</v>
+      </c>
+      <c r="F50" s="53"/>
       <c r="G50" s="34"/>
       <c r="H50" s="34"/>
       <c r="I50" s="34"/>
@@ -10404,46 +10405,46 @@
       <c r="L50" s="35"/>
     </row>
     <row r="51" spans="1:12" ht="66">
-      <c r="A51" s="49" t="s">
-        <v>625</v>
-      </c>
-      <c r="B51" s="52" t="s">
-        <v>627</v>
+      <c r="A51" s="51" t="s">
+        <v>617</v>
+      </c>
+      <c r="B51" s="54" t="s">
+        <v>619</v>
       </c>
       <c r="C51" s="36" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="D51" s="36" t="s">
-        <v>628</v>
-      </c>
-      <c r="E51" s="52" t="s">
-        <v>626</v>
-      </c>
-      <c r="F51" s="52" t="s">
-        <v>610</v>
+        <v>620</v>
+      </c>
+      <c r="E51" s="54" t="s">
+        <v>618</v>
+      </c>
+      <c r="F51" s="54" t="s">
+        <v>602</v>
       </c>
       <c r="G51" s="36"/>
       <c r="H51" s="36" t="s">
-        <v>629</v>
+        <v>621</v>
       </c>
       <c r="I51" s="36" t="s">
-        <v>630</v>
+        <v>622</v>
       </c>
       <c r="J51" s="36"/>
       <c r="K51" s="36"/>
       <c r="L51" s="37"/>
     </row>
     <row r="52" spans="1:12" ht="50.25" thickBot="1">
-      <c r="A52" s="50"/>
-      <c r="B52" s="53"/>
+      <c r="A52" s="52"/>
+      <c r="B52" s="55"/>
       <c r="C52" s="38" t="s">
-        <v>592</v>
+        <v>584</v>
       </c>
       <c r="D52" s="38" t="s">
-        <v>631</v>
-      </c>
-      <c r="E52" s="53"/>
-      <c r="F52" s="53"/>
+        <v>623</v>
+      </c>
+      <c r="E52" s="55"/>
+      <c r="F52" s="55"/>
       <c r="G52" s="38"/>
       <c r="H52" s="38"/>
       <c r="I52" s="38"/>
@@ -10452,18 +10453,18 @@
       <c r="L52" s="39"/>
     </row>
     <row r="53" spans="1:12">
-      <c r="A53" s="66" t="s">
-        <v>632</v>
-      </c>
-      <c r="B53" s="69"/>
+      <c r="A53" s="68" t="s">
+        <v>624</v>
+      </c>
+      <c r="B53" s="71"/>
       <c r="C53" s="40" t="s">
-        <v>584</v>
+        <v>576</v>
       </c>
       <c r="D53" s="40"/>
-      <c r="E53" s="51" t="s">
-        <v>633</v>
-      </c>
-      <c r="F53" s="51"/>
+      <c r="E53" s="53" t="s">
+        <v>625</v>
+      </c>
+      <c r="F53" s="53"/>
       <c r="G53" s="34"/>
       <c r="H53" s="34"/>
       <c r="I53" s="34"/>
@@ -10472,46 +10473,46 @@
       <c r="L53" s="35"/>
     </row>
     <row r="54" spans="1:12" ht="33">
-      <c r="A54" s="67" t="s">
-        <v>634</v>
-      </c>
-      <c r="B54" s="70" t="s">
-        <v>635</v>
+      <c r="A54" s="69" t="s">
+        <v>626</v>
+      </c>
+      <c r="B54" s="72" t="s">
+        <v>627</v>
       </c>
       <c r="C54" s="41" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="D54" s="41" t="s">
-        <v>636</v>
-      </c>
-      <c r="E54" s="52" t="s">
-        <v>633</v>
-      </c>
-      <c r="F54" s="52" t="s">
-        <v>610</v>
+        <v>628</v>
+      </c>
+      <c r="E54" s="54" t="s">
+        <v>625</v>
+      </c>
+      <c r="F54" s="54" t="s">
+        <v>602</v>
       </c>
       <c r="G54" s="36"/>
       <c r="H54" s="36" t="s">
-        <v>637</v>
+        <v>629</v>
       </c>
       <c r="I54" s="36" t="s">
-        <v>638</v>
+        <v>630</v>
       </c>
       <c r="J54" s="36"/>
       <c r="K54" s="36"/>
       <c r="L54" s="37"/>
     </row>
     <row r="55" spans="1:12" ht="50.25" thickBot="1">
-      <c r="A55" s="68"/>
-      <c r="B55" s="71"/>
+      <c r="A55" s="70"/>
+      <c r="B55" s="73"/>
       <c r="C55" s="42" t="s">
-        <v>592</v>
+        <v>584</v>
       </c>
       <c r="D55" s="42" t="s">
-        <v>639</v>
-      </c>
-      <c r="E55" s="53"/>
-      <c r="F55" s="53"/>
+        <v>631</v>
+      </c>
+      <c r="E55" s="55"/>
+      <c r="F55" s="55"/>
       <c r="G55" s="38"/>
       <c r="H55" s="38"/>
       <c r="I55" s="38"/>
@@ -10520,18 +10521,18 @@
       <c r="L55" s="39"/>
     </row>
     <row r="56" spans="1:12">
-      <c r="A56" s="48" t="s">
-        <v>640</v>
-      </c>
-      <c r="B56" s="51"/>
+      <c r="A56" s="50" t="s">
+        <v>632</v>
+      </c>
+      <c r="B56" s="53"/>
       <c r="C56" s="34" t="s">
-        <v>584</v>
+        <v>576</v>
       </c>
       <c r="D56" s="34"/>
-      <c r="E56" s="51" t="s">
-        <v>641</v>
-      </c>
-      <c r="F56" s="51"/>
+      <c r="E56" s="53" t="s">
+        <v>633</v>
+      </c>
+      <c r="F56" s="53"/>
       <c r="G56" s="34"/>
       <c r="H56" s="34"/>
       <c r="I56" s="34"/>
@@ -10540,46 +10541,46 @@
       <c r="L56" s="35"/>
     </row>
     <row r="57" spans="1:12" ht="33">
-      <c r="A57" s="49" t="s">
-        <v>640</v>
-      </c>
-      <c r="B57" s="52" t="s">
+      <c r="A57" s="51" t="s">
+        <v>632</v>
+      </c>
+      <c r="B57" s="54" t="s">
+        <v>627</v>
+      </c>
+      <c r="C57" s="36" t="s">
+        <v>580</v>
+      </c>
+      <c r="D57" s="36" t="s">
+        <v>634</v>
+      </c>
+      <c r="E57" s="54" t="s">
+        <v>633</v>
+      </c>
+      <c r="F57" s="54" t="s">
         <v>635</v>
-      </c>
-      <c r="C57" s="36" t="s">
-        <v>588</v>
-      </c>
-      <c r="D57" s="36" t="s">
-        <v>642</v>
-      </c>
-      <c r="E57" s="52" t="s">
-        <v>641</v>
-      </c>
-      <c r="F57" s="52" t="s">
-        <v>643</v>
       </c>
       <c r="G57" s="36"/>
       <c r="H57" s="36" t="s">
-        <v>644</v>
+        <v>636</v>
       </c>
       <c r="I57" s="36" t="s">
-        <v>638</v>
+        <v>630</v>
       </c>
       <c r="J57" s="36"/>
       <c r="K57" s="36"/>
       <c r="L57" s="37"/>
     </row>
     <row r="58" spans="1:12" ht="33.75" thickBot="1">
-      <c r="A58" s="50"/>
-      <c r="B58" s="53"/>
+      <c r="A58" s="52"/>
+      <c r="B58" s="55"/>
       <c r="C58" s="38" t="s">
-        <v>592</v>
+        <v>584</v>
       </c>
       <c r="D58" s="38" t="s">
-        <v>645</v>
-      </c>
-      <c r="E58" s="53"/>
-      <c r="F58" s="53"/>
+        <v>637</v>
+      </c>
+      <c r="E58" s="55"/>
+      <c r="F58" s="55"/>
       <c r="G58" s="38"/>
       <c r="H58" s="38"/>
       <c r="I58" s="38"/>
@@ -10588,21 +10589,21 @@
       <c r="L58" s="39"/>
     </row>
     <row r="59" spans="1:12" ht="33">
-      <c r="A59" s="54" t="s">
-        <v>646</v>
-      </c>
-      <c r="B59" s="57"/>
+      <c r="A59" s="56" t="s">
+        <v>638</v>
+      </c>
+      <c r="B59" s="59"/>
       <c r="C59" s="22" t="s">
-        <v>647</v>
+        <v>639</v>
       </c>
       <c r="D59" s="23" t="s">
-        <v>648</v>
-      </c>
-      <c r="E59" s="57" t="s">
-        <v>649</v>
-      </c>
-      <c r="F59" s="57" t="s">
-        <v>610</v>
+        <v>640</v>
+      </c>
+      <c r="E59" s="59" t="s">
+        <v>641</v>
+      </c>
+      <c r="F59" s="59" t="s">
+        <v>602</v>
       </c>
       <c r="G59" s="22"/>
       <c r="H59" s="22"/>
@@ -10612,50 +10613,50 @@
       <c r="L59" s="24"/>
     </row>
     <row r="60" spans="1:12" ht="82.5">
-      <c r="A60" s="55" t="s">
-        <v>646</v>
-      </c>
-      <c r="B60" s="58"/>
+      <c r="A60" s="57" t="s">
+        <v>638</v>
+      </c>
+      <c r="B60" s="60"/>
       <c r="C60" s="23" t="s">
-        <v>598</v>
+        <v>590</v>
       </c>
       <c r="D60" s="23" t="s">
-        <v>650</v>
-      </c>
-      <c r="E60" s="58" t="s">
-        <v>649</v>
-      </c>
-      <c r="F60" s="58" t="s">
-        <v>651</v>
+        <v>642</v>
+      </c>
+      <c r="E60" s="60" t="s">
+        <v>641</v>
+      </c>
+      <c r="F60" s="60" t="s">
+        <v>643</v>
       </c>
       <c r="G60" s="23"/>
       <c r="H60" s="23" t="s">
-        <v>652</v>
+        <v>644</v>
       </c>
       <c r="I60" s="23" t="s">
-        <v>653</v>
+        <v>645</v>
       </c>
       <c r="J60" s="23" t="s">
-        <v>654</v>
+        <v>646</v>
       </c>
       <c r="K60" s="23" t="s">
-        <v>655</v>
+        <v>647</v>
       </c>
       <c r="L60" s="25" t="s">
-        <v>656</v>
+        <v>648</v>
       </c>
     </row>
     <row r="61" spans="1:12" ht="66.75" thickBot="1">
-      <c r="A61" s="56"/>
-      <c r="B61" s="59"/>
+      <c r="A61" s="58"/>
+      <c r="B61" s="61"/>
       <c r="C61" s="26" t="s">
-        <v>657</v>
+        <v>649</v>
       </c>
       <c r="D61" s="26" t="s">
-        <v>658</v>
-      </c>
-      <c r="E61" s="59"/>
-      <c r="F61" s="59"/>
+        <v>650</v>
+      </c>
+      <c r="E61" s="61"/>
+      <c r="F61" s="61"/>
       <c r="G61" s="26"/>
       <c r="H61" s="26"/>
       <c r="I61" s="26"/>
@@ -10664,18 +10665,18 @@
       <c r="L61" s="27"/>
     </row>
     <row r="62" spans="1:12">
-      <c r="A62" s="48" t="s">
-        <v>659</v>
-      </c>
-      <c r="B62" s="51"/>
+      <c r="A62" s="50" t="s">
+        <v>651</v>
+      </c>
+      <c r="B62" s="53"/>
       <c r="C62" s="34" t="s">
-        <v>584</v>
+        <v>576</v>
       </c>
       <c r="D62" s="34"/>
-      <c r="E62" s="51" t="s">
-        <v>660</v>
-      </c>
-      <c r="F62" s="51"/>
+      <c r="E62" s="53" t="s">
+        <v>652</v>
+      </c>
+      <c r="F62" s="53"/>
       <c r="G62" s="34"/>
       <c r="H62" s="34"/>
       <c r="I62" s="34"/>
@@ -10684,46 +10685,46 @@
       <c r="L62" s="35"/>
     </row>
     <row r="63" spans="1:12" ht="49.5">
-      <c r="A63" s="49" t="s">
-        <v>659</v>
-      </c>
-      <c r="B63" s="52" t="s">
-        <v>587</v>
+      <c r="A63" s="51" t="s">
+        <v>651</v>
+      </c>
+      <c r="B63" s="54" t="s">
+        <v>579</v>
       </c>
       <c r="C63" s="36" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="D63" s="36" t="s">
-        <v>661</v>
-      </c>
-      <c r="E63" s="52" t="s">
-        <v>660</v>
-      </c>
-      <c r="F63" s="52" t="s">
-        <v>622</v>
+        <v>653</v>
+      </c>
+      <c r="E63" s="54" t="s">
+        <v>652</v>
+      </c>
+      <c r="F63" s="54" t="s">
+        <v>614</v>
       </c>
       <c r="G63" s="36"/>
       <c r="H63" s="36" t="s">
-        <v>662</v>
+        <v>654</v>
       </c>
       <c r="I63" s="36" t="s">
-        <v>663</v>
+        <v>655</v>
       </c>
       <c r="J63" s="36"/>
       <c r="K63" s="36"/>
       <c r="L63" s="37"/>
     </row>
     <row r="64" spans="1:12" ht="33.75" thickBot="1">
-      <c r="A64" s="50"/>
-      <c r="B64" s="53"/>
+      <c r="A64" s="52"/>
+      <c r="B64" s="55"/>
       <c r="C64" s="38" t="s">
-        <v>592</v>
+        <v>584</v>
       </c>
       <c r="D64" s="38" t="s">
-        <v>664</v>
-      </c>
-      <c r="E64" s="53"/>
-      <c r="F64" s="53"/>
+        <v>656</v>
+      </c>
+      <c r="E64" s="55"/>
+      <c r="F64" s="55"/>
       <c r="G64" s="38"/>
       <c r="H64" s="38"/>
       <c r="I64" s="38"/>
@@ -10732,21 +10733,21 @@
       <c r="L64" s="39"/>
     </row>
     <row r="65" spans="1:12" ht="33">
-      <c r="A65" s="54" t="s">
+      <c r="A65" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="B65" s="57"/>
+      <c r="B65" s="59"/>
       <c r="C65" s="22" t="s">
-        <v>647</v>
+        <v>639</v>
       </c>
       <c r="D65" s="23" t="s">
-        <v>665</v>
-      </c>
-      <c r="E65" s="57" t="s">
-        <v>666</v>
-      </c>
-      <c r="F65" s="57" t="s">
-        <v>610</v>
+        <v>657</v>
+      </c>
+      <c r="E65" s="59" t="s">
+        <v>658</v>
+      </c>
+      <c r="F65" s="59" t="s">
+        <v>602</v>
       </c>
       <c r="G65" s="22"/>
       <c r="H65" s="22"/>
@@ -10756,48 +10757,48 @@
       <c r="L65" s="24"/>
     </row>
     <row r="66" spans="1:12" ht="66">
-      <c r="A66" s="55" t="s">
-        <v>667</v>
-      </c>
-      <c r="B66" s="58"/>
+      <c r="A66" s="57" t="s">
+        <v>659</v>
+      </c>
+      <c r="B66" s="60"/>
       <c r="C66" s="23" t="s">
-        <v>598</v>
+        <v>590</v>
       </c>
       <c r="D66" s="23" t="s">
-        <v>668</v>
-      </c>
-      <c r="E66" s="58" t="s">
-        <v>666</v>
-      </c>
-      <c r="F66" s="58" t="s">
-        <v>610</v>
+        <v>660</v>
+      </c>
+      <c r="E66" s="60" t="s">
+        <v>658</v>
+      </c>
+      <c r="F66" s="60" t="s">
+        <v>602</v>
       </c>
       <c r="G66" s="23"/>
       <c r="H66" s="23" t="s">
-        <v>669</v>
+        <v>661</v>
       </c>
       <c r="I66" s="23" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="J66" s="23" t="s">
-        <v>671</v>
+        <v>663</v>
       </c>
       <c r="K66" s="23"/>
       <c r="L66" s="25" t="s">
-        <v>672</v>
+        <v>664</v>
       </c>
     </row>
     <row r="67" spans="1:12" ht="33.75" thickBot="1">
-      <c r="A67" s="56"/>
-      <c r="B67" s="59"/>
+      <c r="A67" s="58"/>
+      <c r="B67" s="61"/>
       <c r="C67" s="26" t="s">
-        <v>657</v>
+        <v>649</v>
       </c>
       <c r="D67" s="26" t="s">
-        <v>673</v>
-      </c>
-      <c r="E67" s="59"/>
-      <c r="F67" s="59"/>
+        <v>665</v>
+      </c>
+      <c r="E67" s="61"/>
+      <c r="F67" s="61"/>
       <c r="G67" s="26"/>
       <c r="H67" s="26"/>
       <c r="I67" s="26"/>
@@ -10806,18 +10807,18 @@
       <c r="L67" s="27"/>
     </row>
     <row r="68" spans="1:12">
-      <c r="A68" s="48" t="s">
-        <v>674</v>
-      </c>
-      <c r="B68" s="51"/>
+      <c r="A68" s="50" t="s">
+        <v>666</v>
+      </c>
+      <c r="B68" s="53"/>
       <c r="C68" s="34" t="s">
-        <v>584</v>
+        <v>576</v>
       </c>
       <c r="D68" s="34"/>
-      <c r="E68" s="51" t="s">
-        <v>675</v>
-      </c>
-      <c r="F68" s="51"/>
+      <c r="E68" s="53" t="s">
+        <v>667</v>
+      </c>
+      <c r="F68" s="53"/>
       <c r="G68" s="34"/>
       <c r="H68" s="34"/>
       <c r="I68" s="34"/>
@@ -10826,46 +10827,46 @@
       <c r="L68" s="35"/>
     </row>
     <row r="69" spans="1:12" ht="33">
-      <c r="A69" s="49" t="s">
-        <v>674</v>
-      </c>
-      <c r="B69" s="52" t="s">
-        <v>635</v>
+      <c r="A69" s="51" t="s">
+        <v>666</v>
+      </c>
+      <c r="B69" s="54" t="s">
+        <v>627</v>
       </c>
       <c r="C69" s="36" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="D69" s="36" t="s">
-        <v>676</v>
-      </c>
-      <c r="E69" s="52" t="s">
-        <v>675</v>
-      </c>
-      <c r="F69" s="52" t="s">
-        <v>610</v>
+        <v>668</v>
+      </c>
+      <c r="E69" s="54" t="s">
+        <v>667</v>
+      </c>
+      <c r="F69" s="54" t="s">
+        <v>602</v>
       </c>
       <c r="G69" s="36"/>
       <c r="H69" s="36" t="s">
-        <v>677</v>
+        <v>669</v>
       </c>
       <c r="I69" s="36" t="s">
-        <v>678</v>
+        <v>670</v>
       </c>
       <c r="J69" s="36"/>
       <c r="K69" s="36"/>
       <c r="L69" s="37"/>
     </row>
     <row r="70" spans="1:12" ht="33.75" thickBot="1">
-      <c r="A70" s="50"/>
-      <c r="B70" s="53"/>
+      <c r="A70" s="52"/>
+      <c r="B70" s="55"/>
       <c r="C70" s="38" t="s">
-        <v>592</v>
+        <v>584</v>
       </c>
       <c r="D70" s="38" t="s">
-        <v>679</v>
-      </c>
-      <c r="E70" s="53"/>
-      <c r="F70" s="53"/>
+        <v>671</v>
+      </c>
+      <c r="E70" s="55"/>
+      <c r="F70" s="55"/>
       <c r="G70" s="38"/>
       <c r="H70" s="38"/>
       <c r="I70" s="38"/>
@@ -10874,18 +10875,18 @@
       <c r="L70" s="39"/>
     </row>
     <row r="71" spans="1:12">
-      <c r="A71" s="48" t="s">
-        <v>680</v>
-      </c>
-      <c r="B71" s="51"/>
+      <c r="A71" s="50" t="s">
+        <v>672</v>
+      </c>
+      <c r="B71" s="53"/>
       <c r="C71" s="34" t="s">
-        <v>584</v>
+        <v>576</v>
       </c>
       <c r="D71" s="34"/>
-      <c r="E71" s="51" t="s">
-        <v>681</v>
-      </c>
-      <c r="F71" s="51"/>
+      <c r="E71" s="53" t="s">
+        <v>673</v>
+      </c>
+      <c r="F71" s="53"/>
       <c r="G71" s="34"/>
       <c r="H71" s="34"/>
       <c r="I71" s="34"/>
@@ -10894,46 +10895,46 @@
       <c r="L71" s="35"/>
     </row>
     <row r="72" spans="1:12" ht="49.5">
-      <c r="A72" s="49" t="s">
-        <v>680</v>
-      </c>
-      <c r="B72" s="52" t="s">
-        <v>587</v>
+      <c r="A72" s="51" t="s">
+        <v>672</v>
+      </c>
+      <c r="B72" s="54" t="s">
+        <v>579</v>
       </c>
       <c r="C72" s="36" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="D72" s="36" t="s">
-        <v>676</v>
-      </c>
-      <c r="E72" s="52" t="s">
-        <v>681</v>
-      </c>
-      <c r="F72" s="52" t="s">
-        <v>610</v>
+        <v>668</v>
+      </c>
+      <c r="E72" s="54" t="s">
+        <v>673</v>
+      </c>
+      <c r="F72" s="54" t="s">
+        <v>602</v>
       </c>
       <c r="G72" s="36"/>
       <c r="H72" s="36" t="s">
-        <v>682</v>
+        <v>674</v>
       </c>
       <c r="I72" s="36" t="s">
-        <v>683</v>
+        <v>675</v>
       </c>
       <c r="J72" s="36"/>
       <c r="K72" s="36"/>
       <c r="L72" s="37"/>
     </row>
     <row r="73" spans="1:12" ht="33.75" thickBot="1">
-      <c r="A73" s="50"/>
-      <c r="B73" s="53"/>
+      <c r="A73" s="52"/>
+      <c r="B73" s="55"/>
       <c r="C73" s="38" t="s">
-        <v>592</v>
+        <v>584</v>
       </c>
       <c r="D73" s="38" t="s">
-        <v>684</v>
-      </c>
-      <c r="E73" s="53"/>
-      <c r="F73" s="53"/>
+        <v>676</v>
+      </c>
+      <c r="E73" s="55"/>
+      <c r="F73" s="55"/>
       <c r="G73" s="38"/>
       <c r="H73" s="38"/>
       <c r="I73" s="38"/>
@@ -10942,18 +10943,18 @@
       <c r="L73" s="39"/>
     </row>
     <row r="74" spans="1:12">
-      <c r="A74" s="48" t="s">
-        <v>685</v>
-      </c>
-      <c r="B74" s="51"/>
+      <c r="A74" s="50" t="s">
+        <v>677</v>
+      </c>
+      <c r="B74" s="53"/>
       <c r="C74" s="34" t="s">
-        <v>584</v>
+        <v>576</v>
       </c>
       <c r="D74" s="34"/>
-      <c r="E74" s="51" t="s">
-        <v>686</v>
-      </c>
-      <c r="F74" s="51"/>
+      <c r="E74" s="53" t="s">
+        <v>678</v>
+      </c>
+      <c r="F74" s="53"/>
       <c r="G74" s="34"/>
       <c r="H74" s="34"/>
       <c r="I74" s="34"/>
@@ -10962,46 +10963,46 @@
       <c r="L74" s="35"/>
     </row>
     <row r="75" spans="1:12" ht="33">
-      <c r="A75" s="49" t="s">
-        <v>685</v>
-      </c>
-      <c r="B75" s="52" t="s">
-        <v>635</v>
+      <c r="A75" s="51" t="s">
+        <v>677</v>
+      </c>
+      <c r="B75" s="54" t="s">
+        <v>627</v>
       </c>
       <c r="C75" s="36" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="D75" s="36" t="s">
-        <v>687</v>
-      </c>
-      <c r="E75" s="52" t="s">
-        <v>686</v>
-      </c>
-      <c r="F75" s="52" t="s">
-        <v>622</v>
+        <v>679</v>
+      </c>
+      <c r="E75" s="54" t="s">
+        <v>678</v>
+      </c>
+      <c r="F75" s="54" t="s">
+        <v>614</v>
       </c>
       <c r="G75" s="36"/>
       <c r="H75" s="36" t="s">
-        <v>688</v>
+        <v>680</v>
       </c>
       <c r="I75" s="36" t="s">
-        <v>689</v>
+        <v>681</v>
       </c>
       <c r="J75" s="36"/>
       <c r="K75" s="36"/>
       <c r="L75" s="37"/>
     </row>
     <row r="76" spans="1:12" ht="33.75" thickBot="1">
-      <c r="A76" s="50"/>
-      <c r="B76" s="53"/>
+      <c r="A76" s="52"/>
+      <c r="B76" s="55"/>
       <c r="C76" s="38" t="s">
-        <v>592</v>
+        <v>584</v>
       </c>
       <c r="D76" s="38" t="s">
-        <v>690</v>
-      </c>
-      <c r="E76" s="53"/>
-      <c r="F76" s="53"/>
+        <v>682</v>
+      </c>
+      <c r="E76" s="55"/>
+      <c r="F76" s="55"/>
       <c r="G76" s="38"/>
       <c r="H76" s="38"/>
       <c r="I76" s="38"/>
@@ -11010,18 +11011,18 @@
       <c r="L76" s="39"/>
     </row>
     <row r="77" spans="1:12">
-      <c r="A77" s="48" t="s">
-        <v>691</v>
-      </c>
-      <c r="B77" s="51"/>
+      <c r="A77" s="50" t="s">
+        <v>683</v>
+      </c>
+      <c r="B77" s="53"/>
       <c r="C77" s="34" t="s">
-        <v>584</v>
+        <v>576</v>
       </c>
       <c r="D77" s="34"/>
-      <c r="E77" s="51" t="s">
-        <v>692</v>
-      </c>
-      <c r="F77" s="51"/>
+      <c r="E77" s="53" t="s">
+        <v>684</v>
+      </c>
+      <c r="F77" s="53"/>
       <c r="G77" s="34"/>
       <c r="H77" s="34"/>
       <c r="I77" s="34"/>
@@ -11030,46 +11031,46 @@
       <c r="L77" s="35"/>
     </row>
     <row r="78" spans="1:12" ht="33">
-      <c r="A78" s="49" t="s">
-        <v>691</v>
-      </c>
-      <c r="B78" s="52" t="s">
-        <v>635</v>
+      <c r="A78" s="51" t="s">
+        <v>683</v>
+      </c>
+      <c r="B78" s="54" t="s">
+        <v>627</v>
       </c>
       <c r="C78" s="36" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="D78" s="36" t="s">
-        <v>693</v>
-      </c>
-      <c r="E78" s="52" t="s">
-        <v>692</v>
-      </c>
-      <c r="F78" s="52" t="s">
-        <v>622</v>
+        <v>685</v>
+      </c>
+      <c r="E78" s="54" t="s">
+        <v>684</v>
+      </c>
+      <c r="F78" s="54" t="s">
+        <v>614</v>
       </c>
       <c r="G78" s="36"/>
       <c r="H78" s="36" t="s">
-        <v>694</v>
+        <v>686</v>
       </c>
       <c r="I78" s="36" t="s">
-        <v>695</v>
+        <v>687</v>
       </c>
       <c r="J78" s="36"/>
       <c r="K78" s="36"/>
       <c r="L78" s="37"/>
     </row>
     <row r="79" spans="1:12" ht="33.75" thickBot="1">
-      <c r="A79" s="50"/>
-      <c r="B79" s="53"/>
+      <c r="A79" s="52"/>
+      <c r="B79" s="55"/>
       <c r="C79" s="38" t="s">
-        <v>592</v>
+        <v>584</v>
       </c>
       <c r="D79" s="38" t="s">
-        <v>696</v>
-      </c>
-      <c r="E79" s="53"/>
-      <c r="F79" s="53"/>
+        <v>688</v>
+      </c>
+      <c r="E79" s="55"/>
+      <c r="F79" s="55"/>
       <c r="G79" s="38"/>
       <c r="H79" s="38"/>
       <c r="I79" s="38"/>
@@ -11078,18 +11079,18 @@
       <c r="L79" s="39"/>
     </row>
     <row r="80" spans="1:12">
-      <c r="A80" s="48" t="s">
-        <v>697</v>
-      </c>
-      <c r="B80" s="51"/>
+      <c r="A80" s="50" t="s">
+        <v>689</v>
+      </c>
+      <c r="B80" s="53"/>
       <c r="C80" s="34" t="s">
-        <v>584</v>
+        <v>576</v>
       </c>
       <c r="D80" s="34"/>
-      <c r="E80" s="51" t="s">
-        <v>698</v>
-      </c>
-      <c r="F80" s="51"/>
+      <c r="E80" s="53" t="s">
+        <v>690</v>
+      </c>
+      <c r="F80" s="53"/>
       <c r="G80" s="34"/>
       <c r="H80" s="34"/>
       <c r="I80" s="34"/>
@@ -11098,46 +11099,46 @@
       <c r="L80" s="35"/>
     </row>
     <row r="81" spans="1:12" ht="49.5">
-      <c r="A81" s="49" t="s">
-        <v>699</v>
-      </c>
-      <c r="B81" s="52" t="s">
+      <c r="A81" s="51" t="s">
+        <v>691</v>
+      </c>
+      <c r="B81" s="54" t="s">
+        <v>627</v>
+      </c>
+      <c r="C81" s="36" t="s">
+        <v>580</v>
+      </c>
+      <c r="D81" s="36" t="s">
+        <v>692</v>
+      </c>
+      <c r="E81" s="54" t="s">
+        <v>693</v>
+      </c>
+      <c r="F81" s="54" t="s">
         <v>635</v>
-      </c>
-      <c r="C81" s="36" t="s">
-        <v>588</v>
-      </c>
-      <c r="D81" s="36" t="s">
-        <v>700</v>
-      </c>
-      <c r="E81" s="52" t="s">
-        <v>701</v>
-      </c>
-      <c r="F81" s="52" t="s">
-        <v>643</v>
       </c>
       <c r="G81" s="36"/>
       <c r="H81" s="36" t="s">
-        <v>702</v>
+        <v>694</v>
       </c>
       <c r="I81" s="36" t="s">
-        <v>703</v>
+        <v>695</v>
       </c>
       <c r="J81" s="36"/>
       <c r="K81" s="36"/>
       <c r="L81" s="37"/>
     </row>
     <row r="82" spans="1:12" ht="50.25" thickBot="1">
-      <c r="A82" s="50"/>
-      <c r="B82" s="53"/>
+      <c r="A82" s="52"/>
+      <c r="B82" s="55"/>
       <c r="C82" s="38" t="s">
-        <v>592</v>
+        <v>584</v>
       </c>
       <c r="D82" s="38" t="s">
-        <v>704</v>
-      </c>
-      <c r="E82" s="53"/>
-      <c r="F82" s="53"/>
+        <v>696</v>
+      </c>
+      <c r="E82" s="55"/>
+      <c r="F82" s="55"/>
       <c r="G82" s="38"/>
       <c r="H82" s="38"/>
       <c r="I82" s="38"/>
@@ -11146,18 +11147,18 @@
       <c r="L82" s="39"/>
     </row>
     <row r="83" spans="1:12">
-      <c r="A83" s="48" t="s">
-        <v>705</v>
-      </c>
-      <c r="B83" s="51"/>
+      <c r="A83" s="50" t="s">
+        <v>697</v>
+      </c>
+      <c r="B83" s="53"/>
       <c r="C83" s="34" t="s">
-        <v>584</v>
+        <v>576</v>
       </c>
       <c r="D83" s="34"/>
-      <c r="E83" s="51" t="s">
-        <v>706</v>
-      </c>
-      <c r="F83" s="51"/>
+      <c r="E83" s="53" t="s">
+        <v>698</v>
+      </c>
+      <c r="F83" s="53"/>
       <c r="G83" s="34"/>
       <c r="H83" s="34"/>
       <c r="I83" s="34"/>
@@ -11166,46 +11167,46 @@
       <c r="L83" s="35"/>
     </row>
     <row r="84" spans="1:12" ht="33">
-      <c r="A84" s="49" t="s">
-        <v>705</v>
-      </c>
-      <c r="B84" s="52" t="s">
-        <v>587</v>
+      <c r="A84" s="51" t="s">
+        <v>697</v>
+      </c>
+      <c r="B84" s="54" t="s">
+        <v>579</v>
       </c>
       <c r="C84" s="36" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="D84" s="36" t="s">
-        <v>668</v>
-      </c>
-      <c r="E84" s="52" t="s">
-        <v>707</v>
-      </c>
-      <c r="F84" s="52" t="s">
-        <v>643</v>
+        <v>660</v>
+      </c>
+      <c r="E84" s="54" t="s">
+        <v>699</v>
+      </c>
+      <c r="F84" s="54" t="s">
+        <v>635</v>
       </c>
       <c r="G84" s="36"/>
       <c r="H84" s="36" t="s">
-        <v>708</v>
+        <v>700</v>
       </c>
       <c r="I84" s="36" t="s">
-        <v>709</v>
+        <v>701</v>
       </c>
       <c r="J84" s="36"/>
       <c r="K84" s="36"/>
       <c r="L84" s="37"/>
     </row>
     <row r="85" spans="1:12" ht="33.75" thickBot="1">
-      <c r="A85" s="50"/>
-      <c r="B85" s="53"/>
+      <c r="A85" s="52"/>
+      <c r="B85" s="55"/>
       <c r="C85" s="38" t="s">
-        <v>592</v>
+        <v>584</v>
       </c>
       <c r="D85" s="38" t="s">
-        <v>710</v>
-      </c>
-      <c r="E85" s="53"/>
-      <c r="F85" s="53"/>
+        <v>702</v>
+      </c>
+      <c r="E85" s="55"/>
+      <c r="F85" s="55"/>
       <c r="G85" s="38"/>
       <c r="H85" s="38"/>
       <c r="I85" s="38"/>
@@ -11214,21 +11215,21 @@
       <c r="L85" s="39"/>
     </row>
     <row r="86" spans="1:12" ht="33">
-      <c r="A86" s="60" t="s">
-        <v>711</v>
-      </c>
-      <c r="B86" s="63"/>
+      <c r="A86" s="62" t="s">
+        <v>703</v>
+      </c>
+      <c r="B86" s="65"/>
       <c r="C86" s="28" t="s">
-        <v>647</v>
+        <v>639</v>
       </c>
       <c r="D86" s="23" t="s">
-        <v>712</v>
-      </c>
-      <c r="E86" s="57" t="s">
-        <v>713</v>
-      </c>
-      <c r="F86" s="57" t="s">
-        <v>714</v>
+        <v>704</v>
+      </c>
+      <c r="E86" s="59" t="s">
+        <v>705</v>
+      </c>
+      <c r="F86" s="59" t="s">
+        <v>706</v>
       </c>
       <c r="G86" s="22"/>
       <c r="H86" s="22"/>
@@ -11238,48 +11239,48 @@
       <c r="L86" s="24"/>
     </row>
     <row r="87" spans="1:12" ht="99">
-      <c r="A87" s="61" t="s">
-        <v>711</v>
-      </c>
-      <c r="B87" s="64"/>
+      <c r="A87" s="63" t="s">
+        <v>703</v>
+      </c>
+      <c r="B87" s="66"/>
       <c r="C87" s="29" t="s">
-        <v>715</v>
+        <v>707</v>
       </c>
       <c r="D87" s="29" t="s">
-        <v>716</v>
-      </c>
-      <c r="E87" s="58" t="s">
-        <v>717</v>
-      </c>
-      <c r="F87" s="58" t="s">
-        <v>643</v>
+        <v>708</v>
+      </c>
+      <c r="E87" s="60" t="s">
+        <v>709</v>
+      </c>
+      <c r="F87" s="60" t="s">
+        <v>635</v>
       </c>
       <c r="G87" s="23"/>
       <c r="H87" s="23" t="s">
-        <v>718</v>
+        <v>710</v>
       </c>
       <c r="I87" s="23" t="s">
-        <v>719</v>
+        <v>711</v>
       </c>
       <c r="J87" s="23" t="s">
-        <v>720</v>
+        <v>712</v>
       </c>
       <c r="K87" s="23"/>
       <c r="L87" s="25" t="s">
-        <v>721</v>
+        <v>713</v>
       </c>
     </row>
     <row r="88" spans="1:12" ht="50.25" thickBot="1">
-      <c r="A88" s="62"/>
-      <c r="B88" s="65"/>
+      <c r="A88" s="64"/>
+      <c r="B88" s="67"/>
       <c r="C88" s="30" t="s">
-        <v>657</v>
+        <v>649</v>
       </c>
       <c r="D88" s="30" t="s">
-        <v>722</v>
-      </c>
-      <c r="E88" s="59"/>
-      <c r="F88" s="59"/>
+        <v>714</v>
+      </c>
+      <c r="E88" s="61"/>
+      <c r="F88" s="61"/>
       <c r="G88" s="26"/>
       <c r="H88" s="26"/>
       <c r="I88" s="26"/>
@@ -11288,21 +11289,21 @@
       <c r="L88" s="27"/>
     </row>
     <row r="89" spans="1:12" ht="33">
-      <c r="A89" s="54" t="s">
-        <v>723</v>
-      </c>
-      <c r="B89" s="57"/>
+      <c r="A89" s="56" t="s">
+        <v>715</v>
+      </c>
+      <c r="B89" s="59"/>
       <c r="C89" s="22" t="s">
-        <v>647</v>
+        <v>639</v>
       </c>
       <c r="D89" s="23" t="s">
-        <v>724</v>
-      </c>
-      <c r="E89" s="57" t="s">
-        <v>725</v>
-      </c>
-      <c r="F89" s="57" t="s">
-        <v>622</v>
+        <v>716</v>
+      </c>
+      <c r="E89" s="59" t="s">
+        <v>717</v>
+      </c>
+      <c r="F89" s="59" t="s">
+        <v>614</v>
       </c>
       <c r="G89" s="22"/>
       <c r="H89" s="22"/>
@@ -11312,48 +11313,48 @@
       <c r="L89" s="24"/>
     </row>
     <row r="90" spans="1:12" ht="99">
-      <c r="A90" s="55" t="s">
-        <v>726</v>
-      </c>
-      <c r="B90" s="58"/>
+      <c r="A90" s="57" t="s">
+        <v>718</v>
+      </c>
+      <c r="B90" s="60"/>
       <c r="C90" s="23" t="s">
-        <v>598</v>
+        <v>590</v>
       </c>
       <c r="D90" s="23" t="s">
-        <v>727</v>
-      </c>
-      <c r="E90" s="58" t="s">
-        <v>728</v>
-      </c>
-      <c r="F90" s="58" t="s">
-        <v>622</v>
+        <v>719</v>
+      </c>
+      <c r="E90" s="60" t="s">
+        <v>720</v>
+      </c>
+      <c r="F90" s="60" t="s">
+        <v>614</v>
       </c>
       <c r="G90" s="23"/>
       <c r="H90" s="23" t="s">
-        <v>818</v>
+        <v>810</v>
       </c>
       <c r="I90" s="23" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
       <c r="J90" s="23"/>
       <c r="K90" s="23" t="s">
-        <v>730</v>
+        <v>722</v>
       </c>
       <c r="L90" s="25" t="s">
-        <v>731</v>
+        <v>723</v>
       </c>
     </row>
     <row r="91" spans="1:12" ht="50.25" thickBot="1">
-      <c r="A91" s="56"/>
-      <c r="B91" s="59"/>
+      <c r="A91" s="58"/>
+      <c r="B91" s="61"/>
       <c r="C91" s="26" t="s">
-        <v>657</v>
+        <v>649</v>
       </c>
       <c r="D91" s="26" t="s">
-        <v>732</v>
-      </c>
-      <c r="E91" s="59"/>
-      <c r="F91" s="59"/>
+        <v>724</v>
+      </c>
+      <c r="E91" s="61"/>
+      <c r="F91" s="61"/>
       <c r="G91" s="26"/>
       <c r="H91" s="26"/>
       <c r="I91" s="26"/>
@@ -11362,21 +11363,21 @@
       <c r="L91" s="27"/>
     </row>
     <row r="92" spans="1:12" ht="33">
-      <c r="A92" s="60" t="s">
-        <v>733</v>
-      </c>
-      <c r="B92" s="63"/>
+      <c r="A92" s="62" t="s">
+        <v>725</v>
+      </c>
+      <c r="B92" s="65"/>
       <c r="C92" s="28" t="s">
-        <v>734</v>
+        <v>726</v>
       </c>
       <c r="D92" s="23" t="s">
-        <v>665</v>
-      </c>
-      <c r="E92" s="57" t="s">
-        <v>735</v>
-      </c>
-      <c r="F92" s="57" t="s">
-        <v>610</v>
+        <v>657</v>
+      </c>
+      <c r="E92" s="59" t="s">
+        <v>727</v>
+      </c>
+      <c r="F92" s="59" t="s">
+        <v>602</v>
       </c>
       <c r="G92" s="22"/>
       <c r="H92" s="22"/>
@@ -11386,48 +11387,48 @@
       <c r="L92" s="24"/>
     </row>
     <row r="93" spans="1:12" ht="49.5">
-      <c r="A93" s="61" t="s">
-        <v>736</v>
-      </c>
-      <c r="B93" s="64"/>
+      <c r="A93" s="63" t="s">
+        <v>728</v>
+      </c>
+      <c r="B93" s="66"/>
       <c r="C93" s="29" t="s">
-        <v>598</v>
+        <v>590</v>
       </c>
       <c r="D93" s="29" t="s">
-        <v>665</v>
-      </c>
-      <c r="E93" s="58" t="s">
-        <v>735</v>
-      </c>
-      <c r="F93" s="58" t="s">
-        <v>610</v>
+        <v>657</v>
+      </c>
+      <c r="E93" s="60" t="s">
+        <v>727</v>
+      </c>
+      <c r="F93" s="60" t="s">
+        <v>602</v>
       </c>
       <c r="G93" s="23"/>
       <c r="H93" s="23" t="s">
-        <v>737</v>
+        <v>729</v>
       </c>
       <c r="I93" s="23" t="s">
-        <v>738</v>
+        <v>730</v>
       </c>
       <c r="J93" s="23" t="s">
-        <v>739</v>
+        <v>731</v>
       </c>
       <c r="K93" s="23"/>
       <c r="L93" s="25" t="s">
-        <v>740</v>
+        <v>732</v>
       </c>
     </row>
     <row r="94" spans="1:12" ht="17.25" thickBot="1">
-      <c r="A94" s="62"/>
-      <c r="B94" s="65"/>
+      <c r="A94" s="64"/>
+      <c r="B94" s="67"/>
       <c r="C94" s="30" t="s">
-        <v>657</v>
+        <v>649</v>
       </c>
       <c r="D94" s="30" t="s">
-        <v>741</v>
-      </c>
-      <c r="E94" s="59"/>
-      <c r="F94" s="59"/>
+        <v>733</v>
+      </c>
+      <c r="E94" s="61"/>
+      <c r="F94" s="61"/>
       <c r="G94" s="26"/>
       <c r="H94" s="26"/>
       <c r="I94" s="26"/>
@@ -11436,21 +11437,21 @@
       <c r="L94" s="27"/>
     </row>
     <row r="95" spans="1:12" ht="33">
-      <c r="A95" s="54" t="s">
-        <v>742</v>
-      </c>
-      <c r="B95" s="57"/>
+      <c r="A95" s="56" t="s">
+        <v>734</v>
+      </c>
+      <c r="B95" s="59"/>
       <c r="C95" s="22" t="s">
-        <v>734</v>
+        <v>726</v>
       </c>
       <c r="D95" s="23" t="s">
-        <v>712</v>
-      </c>
-      <c r="E95" s="63" t="s">
-        <v>743</v>
-      </c>
-      <c r="F95" s="63" t="s">
-        <v>643</v>
+        <v>704</v>
+      </c>
+      <c r="E95" s="65" t="s">
+        <v>735</v>
+      </c>
+      <c r="F95" s="65" t="s">
+        <v>635</v>
       </c>
       <c r="G95" s="28"/>
       <c r="H95" s="28"/>
@@ -11460,48 +11461,48 @@
       <c r="L95" s="31"/>
     </row>
     <row r="96" spans="1:12" ht="33">
-      <c r="A96" s="55" t="s">
-        <v>742</v>
-      </c>
-      <c r="B96" s="58"/>
+      <c r="A96" s="57" t="s">
+        <v>734</v>
+      </c>
+      <c r="B96" s="60"/>
       <c r="C96" s="23" t="s">
-        <v>598</v>
+        <v>590</v>
       </c>
       <c r="D96" s="23" t="s">
-        <v>665</v>
-      </c>
-      <c r="E96" s="64" t="s">
-        <v>743</v>
-      </c>
-      <c r="F96" s="64" t="s">
-        <v>643</v>
+        <v>657</v>
+      </c>
+      <c r="E96" s="66" t="s">
+        <v>735</v>
+      </c>
+      <c r="F96" s="66" t="s">
+        <v>635</v>
       </c>
       <c r="G96" s="29"/>
       <c r="H96" s="29" t="s">
-        <v>744</v>
+        <v>736</v>
       </c>
       <c r="I96" s="29" t="s">
-        <v>745</v>
+        <v>737</v>
       </c>
       <c r="J96" s="29" t="s">
-        <v>746</v>
+        <v>738</v>
       </c>
       <c r="K96" s="29"/>
       <c r="L96" s="32" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
     </row>
     <row r="97" spans="1:12" ht="33.75" thickBot="1">
-      <c r="A97" s="56"/>
-      <c r="B97" s="59"/>
+      <c r="A97" s="58"/>
+      <c r="B97" s="61"/>
       <c r="C97" s="26" t="s">
-        <v>657</v>
+        <v>649</v>
       </c>
       <c r="D97" s="26" t="s">
-        <v>748</v>
-      </c>
-      <c r="E97" s="65"/>
-      <c r="F97" s="65"/>
+        <v>740</v>
+      </c>
+      <c r="E97" s="67"/>
+      <c r="F97" s="67"/>
       <c r="G97" s="30"/>
       <c r="H97" s="30"/>
       <c r="I97" s="30"/>
@@ -11510,21 +11511,21 @@
       <c r="L97" s="33"/>
     </row>
     <row r="98" spans="1:12" ht="33">
-      <c r="A98" s="54" t="s">
-        <v>749</v>
-      </c>
-      <c r="B98" s="57"/>
+      <c r="A98" s="56" t="s">
+        <v>741</v>
+      </c>
+      <c r="B98" s="59"/>
       <c r="C98" s="22" t="s">
-        <v>647</v>
+        <v>639</v>
       </c>
       <c r="D98" s="23" t="s">
-        <v>665</v>
-      </c>
-      <c r="E98" s="57" t="s">
-        <v>750</v>
-      </c>
-      <c r="F98" s="57" t="s">
-        <v>610</v>
+        <v>657</v>
+      </c>
+      <c r="E98" s="59" t="s">
+        <v>742</v>
+      </c>
+      <c r="F98" s="59" t="s">
+        <v>602</v>
       </c>
       <c r="G98" s="22"/>
       <c r="H98" s="22"/>
@@ -11534,48 +11535,48 @@
       <c r="L98" s="24"/>
     </row>
     <row r="99" spans="1:12" ht="33">
-      <c r="A99" s="55" t="s">
-        <v>751</v>
-      </c>
-      <c r="B99" s="58"/>
+      <c r="A99" s="57" t="s">
+        <v>743</v>
+      </c>
+      <c r="B99" s="60"/>
       <c r="C99" s="23" t="s">
-        <v>598</v>
+        <v>590</v>
       </c>
       <c r="D99" s="23" t="s">
-        <v>752</v>
-      </c>
-      <c r="E99" s="58" t="s">
-        <v>750</v>
-      </c>
-      <c r="F99" s="58" t="s">
-        <v>610</v>
+        <v>744</v>
+      </c>
+      <c r="E99" s="60" t="s">
+        <v>742</v>
+      </c>
+      <c r="F99" s="60" t="s">
+        <v>602</v>
       </c>
       <c r="G99" s="23"/>
       <c r="H99" s="23" t="s">
-        <v>753</v>
+        <v>745</v>
       </c>
       <c r="I99" s="23" t="s">
-        <v>754</v>
+        <v>746</v>
       </c>
       <c r="J99" s="23" t="s">
-        <v>755</v>
+        <v>747</v>
       </c>
       <c r="K99" s="23"/>
       <c r="L99" s="25" t="s">
-        <v>756</v>
+        <v>748</v>
       </c>
     </row>
     <row r="100" spans="1:12" ht="33.75" thickBot="1">
-      <c r="A100" s="56"/>
-      <c r="B100" s="59"/>
+      <c r="A100" s="58"/>
+      <c r="B100" s="61"/>
       <c r="C100" s="26" t="s">
-        <v>657</v>
+        <v>649</v>
       </c>
       <c r="D100" s="26" t="s">
-        <v>757</v>
-      </c>
-      <c r="E100" s="59"/>
-      <c r="F100" s="59"/>
+        <v>749</v>
+      </c>
+      <c r="E100" s="61"/>
+      <c r="F100" s="61"/>
       <c r="G100" s="26"/>
       <c r="H100" s="26"/>
       <c r="I100" s="26"/>
@@ -11584,21 +11585,21 @@
       <c r="L100" s="27"/>
     </row>
     <row r="101" spans="1:12" ht="33">
-      <c r="A101" s="54" t="s">
-        <v>758</v>
-      </c>
-      <c r="B101" s="57"/>
+      <c r="A101" s="56" t="s">
+        <v>750</v>
+      </c>
+      <c r="B101" s="59"/>
       <c r="C101" s="22" t="s">
-        <v>647</v>
+        <v>639</v>
       </c>
       <c r="D101" s="23" t="s">
-        <v>724</v>
-      </c>
-      <c r="E101" s="57" t="s">
-        <v>759</v>
-      </c>
-      <c r="F101" s="57" t="s">
-        <v>622</v>
+        <v>716</v>
+      </c>
+      <c r="E101" s="59" t="s">
+        <v>751</v>
+      </c>
+      <c r="F101" s="59" t="s">
+        <v>614</v>
       </c>
       <c r="G101" s="22"/>
       <c r="H101" s="22"/>
@@ -11608,48 +11609,48 @@
       <c r="L101" s="24"/>
     </row>
     <row r="102" spans="1:12" ht="33">
-      <c r="A102" s="55" t="s">
-        <v>758</v>
-      </c>
-      <c r="B102" s="58"/>
+      <c r="A102" s="57" t="s">
+        <v>750</v>
+      </c>
+      <c r="B102" s="60"/>
       <c r="C102" s="23" t="s">
-        <v>598</v>
+        <v>590</v>
       </c>
       <c r="D102" s="23" t="s">
-        <v>760</v>
-      </c>
-      <c r="E102" s="58" t="s">
-        <v>759</v>
-      </c>
-      <c r="F102" s="58" t="s">
-        <v>622</v>
+        <v>752</v>
+      </c>
+      <c r="E102" s="60" t="s">
+        <v>751</v>
+      </c>
+      <c r="F102" s="60" t="s">
+        <v>614</v>
       </c>
       <c r="G102" s="23"/>
       <c r="H102" s="23" t="s">
-        <v>808</v>
+        <v>800</v>
       </c>
       <c r="I102" s="23" t="s">
-        <v>761</v>
+        <v>753</v>
       </c>
       <c r="J102" s="23" t="s">
-        <v>762</v>
+        <v>754</v>
       </c>
       <c r="K102" s="23"/>
       <c r="L102" s="25" t="s">
-        <v>763</v>
+        <v>755</v>
       </c>
     </row>
     <row r="103" spans="1:12" ht="33.75" thickBot="1">
-      <c r="A103" s="56"/>
-      <c r="B103" s="59"/>
+      <c r="A103" s="58"/>
+      <c r="B103" s="61"/>
       <c r="C103" s="26" t="s">
-        <v>657</v>
+        <v>649</v>
       </c>
       <c r="D103" s="26" t="s">
-        <v>764</v>
-      </c>
-      <c r="E103" s="59"/>
-      <c r="F103" s="59"/>
+        <v>756</v>
+      </c>
+      <c r="E103" s="61"/>
+      <c r="F103" s="61"/>
       <c r="G103" s="26"/>
       <c r="H103" s="26"/>
       <c r="I103" s="26"/>
@@ -11658,18 +11659,18 @@
       <c r="L103" s="27"/>
     </row>
     <row r="104" spans="1:12">
-      <c r="A104" s="48" t="s">
-        <v>765</v>
-      </c>
-      <c r="B104" s="51"/>
+      <c r="A104" s="50" t="s">
+        <v>757</v>
+      </c>
+      <c r="B104" s="53"/>
       <c r="C104" s="34" t="s">
-        <v>584</v>
+        <v>576</v>
       </c>
       <c r="D104" s="34"/>
-      <c r="E104" s="51" t="s">
-        <v>766</v>
-      </c>
-      <c r="F104" s="51"/>
+      <c r="E104" s="53" t="s">
+        <v>758</v>
+      </c>
+      <c r="F104" s="53"/>
       <c r="G104" s="34"/>
       <c r="H104" s="34"/>
       <c r="I104" s="34"/>
@@ -11678,46 +11679,46 @@
       <c r="L104" s="35"/>
     </row>
     <row r="105" spans="1:12" ht="33">
-      <c r="A105" s="49" t="s">
-        <v>765</v>
-      </c>
-      <c r="B105" s="52" t="s">
-        <v>767</v>
+      <c r="A105" s="51" t="s">
+        <v>757</v>
+      </c>
+      <c r="B105" s="54" t="s">
+        <v>759</v>
       </c>
       <c r="C105" s="36" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="D105" s="36" t="s">
-        <v>716</v>
-      </c>
-      <c r="E105" s="52" t="s">
-        <v>766</v>
-      </c>
-      <c r="F105" s="52" t="s">
-        <v>622</v>
+        <v>708</v>
+      </c>
+      <c r="E105" s="54" t="s">
+        <v>758</v>
+      </c>
+      <c r="F105" s="54" t="s">
+        <v>614</v>
       </c>
       <c r="G105" s="36"/>
       <c r="H105" s="36" t="s">
-        <v>768</v>
+        <v>760</v>
       </c>
       <c r="I105" s="36" t="s">
-        <v>769</v>
+        <v>761</v>
       </c>
       <c r="J105" s="36"/>
       <c r="K105" s="36"/>
       <c r="L105" s="37"/>
     </row>
     <row r="106" spans="1:12" ht="33.75" thickBot="1">
-      <c r="A106" s="50"/>
-      <c r="B106" s="53"/>
+      <c r="A106" s="52"/>
+      <c r="B106" s="55"/>
       <c r="C106" s="38" t="s">
-        <v>592</v>
+        <v>584</v>
       </c>
       <c r="D106" s="38" t="s">
-        <v>770</v>
-      </c>
-      <c r="E106" s="53"/>
-      <c r="F106" s="53"/>
+        <v>762</v>
+      </c>
+      <c r="E106" s="55"/>
+      <c r="F106" s="55"/>
       <c r="G106" s="38"/>
       <c r="H106" s="38"/>
       <c r="I106" s="38"/>
@@ -11726,18 +11727,18 @@
       <c r="L106" s="39"/>
     </row>
     <row r="107" spans="1:12">
-      <c r="A107" s="48" t="s">
-        <v>771</v>
-      </c>
-      <c r="B107" s="51"/>
+      <c r="A107" s="50" t="s">
+        <v>763</v>
+      </c>
+      <c r="B107" s="53"/>
       <c r="C107" s="34" t="s">
-        <v>584</v>
+        <v>576</v>
       </c>
       <c r="D107" s="34"/>
-      <c r="E107" s="51" t="s">
-        <v>772</v>
-      </c>
-      <c r="F107" s="51"/>
+      <c r="E107" s="53" t="s">
+        <v>764</v>
+      </c>
+      <c r="F107" s="53"/>
       <c r="G107" s="34"/>
       <c r="H107" s="34"/>
       <c r="I107" s="34"/>
@@ -11746,46 +11747,46 @@
       <c r="L107" s="35"/>
     </row>
     <row r="108" spans="1:12" ht="33">
-      <c r="A108" s="49" t="s">
-        <v>771</v>
-      </c>
-      <c r="B108" s="52" t="s">
+      <c r="A108" s="51" t="s">
+        <v>763</v>
+      </c>
+      <c r="B108" s="54" t="s">
+        <v>627</v>
+      </c>
+      <c r="C108" s="36" t="s">
+        <v>580</v>
+      </c>
+      <c r="D108" s="36" t="s">
+        <v>634</v>
+      </c>
+      <c r="E108" s="54" t="s">
+        <v>764</v>
+      </c>
+      <c r="F108" s="54" t="s">
         <v>635</v>
-      </c>
-      <c r="C108" s="36" t="s">
-        <v>588</v>
-      </c>
-      <c r="D108" s="36" t="s">
-        <v>642</v>
-      </c>
-      <c r="E108" s="52" t="s">
-        <v>772</v>
-      </c>
-      <c r="F108" s="52" t="s">
-        <v>643</v>
       </c>
       <c r="G108" s="36"/>
       <c r="H108" s="36" t="s">
-        <v>773</v>
+        <v>765</v>
       </c>
       <c r="I108" s="36" t="s">
-        <v>774</v>
+        <v>766</v>
       </c>
       <c r="J108" s="36"/>
       <c r="K108" s="36"/>
       <c r="L108" s="37"/>
     </row>
     <row r="109" spans="1:12" ht="17.25" thickBot="1">
-      <c r="A109" s="50"/>
-      <c r="B109" s="53"/>
+      <c r="A109" s="52"/>
+      <c r="B109" s="55"/>
       <c r="C109" s="38" t="s">
-        <v>592</v>
+        <v>584</v>
       </c>
       <c r="D109" s="38" t="s">
-        <v>775</v>
-      </c>
-      <c r="E109" s="53"/>
-      <c r="F109" s="53"/>
+        <v>767</v>
+      </c>
+      <c r="E109" s="55"/>
+      <c r="F109" s="55"/>
       <c r="G109" s="38"/>
       <c r="H109" s="38"/>
       <c r="I109" s="38"/>
@@ -11794,18 +11795,18 @@
       <c r="L109" s="39"/>
     </row>
     <row r="110" spans="1:12">
-      <c r="A110" s="48" t="s">
-        <v>776</v>
-      </c>
-      <c r="B110" s="51"/>
+      <c r="A110" s="50" t="s">
+        <v>768</v>
+      </c>
+      <c r="B110" s="53"/>
       <c r="C110" s="34" t="s">
-        <v>584</v>
+        <v>576</v>
       </c>
       <c r="D110" s="34"/>
-      <c r="E110" s="51" t="s">
-        <v>777</v>
-      </c>
-      <c r="F110" s="51"/>
+      <c r="E110" s="53" t="s">
+        <v>769</v>
+      </c>
+      <c r="F110" s="53"/>
       <c r="G110" s="34"/>
       <c r="H110" s="34"/>
       <c r="I110" s="34"/>
@@ -11814,46 +11815,46 @@
       <c r="L110" s="35"/>
     </row>
     <row r="111" spans="1:12" ht="33">
-      <c r="A111" s="49" t="s">
-        <v>776</v>
-      </c>
-      <c r="B111" s="52" t="s">
-        <v>767</v>
+      <c r="A111" s="51" t="s">
+        <v>768</v>
+      </c>
+      <c r="B111" s="54" t="s">
+        <v>759</v>
       </c>
       <c r="C111" s="36" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="D111" s="36" t="s">
-        <v>642</v>
-      </c>
-      <c r="E111" s="52" t="s">
-        <v>777</v>
-      </c>
-      <c r="F111" s="52" t="s">
-        <v>643</v>
+        <v>634</v>
+      </c>
+      <c r="E111" s="54" t="s">
+        <v>769</v>
+      </c>
+      <c r="F111" s="54" t="s">
+        <v>635</v>
       </c>
       <c r="G111" s="36"/>
       <c r="H111" s="36" t="s">
-        <v>716</v>
+        <v>708</v>
       </c>
       <c r="I111" s="36" t="s">
-        <v>778</v>
+        <v>770</v>
       </c>
       <c r="J111" s="36"/>
       <c r="K111" s="36"/>
       <c r="L111" s="37"/>
     </row>
     <row r="112" spans="1:12" ht="33.75" thickBot="1">
-      <c r="A112" s="50"/>
-      <c r="B112" s="53"/>
+      <c r="A112" s="52"/>
+      <c r="B112" s="55"/>
       <c r="C112" s="38" t="s">
-        <v>592</v>
+        <v>584</v>
       </c>
       <c r="D112" s="38" t="s">
-        <v>779</v>
-      </c>
-      <c r="E112" s="53"/>
-      <c r="F112" s="53"/>
+        <v>771</v>
+      </c>
+      <c r="E112" s="55"/>
+      <c r="F112" s="55"/>
       <c r="G112" s="38"/>
       <c r="H112" s="38"/>
       <c r="I112" s="38"/>
@@ -11862,18 +11863,18 @@
       <c r="L112" s="39"/>
     </row>
     <row r="113" spans="1:12">
-      <c r="A113" s="48" t="s">
-        <v>780</v>
-      </c>
-      <c r="B113" s="51"/>
+      <c r="A113" s="50" t="s">
+        <v>772</v>
+      </c>
+      <c r="B113" s="53"/>
       <c r="C113" s="34" t="s">
-        <v>584</v>
+        <v>576</v>
       </c>
       <c r="D113" s="34"/>
-      <c r="E113" s="51" t="s">
-        <v>781</v>
-      </c>
-      <c r="F113" s="51"/>
+      <c r="E113" s="53" t="s">
+        <v>773</v>
+      </c>
+      <c r="F113" s="53"/>
       <c r="G113" s="34"/>
       <c r="H113" s="34"/>
       <c r="I113" s="34"/>
@@ -11882,46 +11883,46 @@
       <c r="L113" s="35"/>
     </row>
     <row r="114" spans="1:12" ht="33">
-      <c r="A114" s="49" t="s">
-        <v>780</v>
-      </c>
-      <c r="B114" s="52" t="s">
-        <v>767</v>
+      <c r="A114" s="51" t="s">
+        <v>772</v>
+      </c>
+      <c r="B114" s="54" t="s">
+        <v>759</v>
       </c>
       <c r="C114" s="36" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="D114" s="36" t="s">
-        <v>782</v>
-      </c>
-      <c r="E114" s="52" t="s">
-        <v>781</v>
-      </c>
-      <c r="F114" s="52" t="s">
-        <v>643</v>
+        <v>774</v>
+      </c>
+      <c r="E114" s="54" t="s">
+        <v>773</v>
+      </c>
+      <c r="F114" s="54" t="s">
+        <v>635</v>
       </c>
       <c r="G114" s="36"/>
       <c r="H114" s="36" t="s">
-        <v>783</v>
+        <v>775</v>
       </c>
       <c r="I114" s="36" t="s">
-        <v>784</v>
+        <v>776</v>
       </c>
       <c r="J114" s="36"/>
       <c r="K114" s="36"/>
       <c r="L114" s="37"/>
     </row>
     <row r="115" spans="1:12" ht="17.25" thickBot="1">
-      <c r="A115" s="50"/>
-      <c r="B115" s="53"/>
+      <c r="A115" s="52"/>
+      <c r="B115" s="55"/>
       <c r="C115" s="38" t="s">
-        <v>592</v>
+        <v>584</v>
       </c>
       <c r="D115" s="38" t="s">
-        <v>785</v>
-      </c>
-      <c r="E115" s="53"/>
-      <c r="F115" s="53"/>
+        <v>777</v>
+      </c>
+      <c r="E115" s="55"/>
+      <c r="F115" s="55"/>
       <c r="G115" s="38"/>
       <c r="H115" s="38"/>
       <c r="I115" s="38"/>

--- a/策划案/镇魂街/战斗设计.xlsx
+++ b/策划案/镇魂街/战斗设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -560,7 +560,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1252" uniqueCount="856">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1252" uniqueCount="857">
   <si>
     <t>sheet名</t>
   </si>
@@ -4927,6 +4927,10 @@
     <t xml:space="preserve">夏玲起床，曹焱兵要消除她的记忆。夏玲扔包砸曹焱兵，掉出鬼符三通的灵言信
 引导玩家领取星星宝箱，宝箱中的守护灵抽卡券，抽卡又获得一个柠檬精，引导玩家兑换技能，给柠檬精装上插槽。
 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UR</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -5546,24 +5550,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="9" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="12" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="14" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="15" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="9" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5598,6 +5584,24 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="9" borderId="15" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="9" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="12" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="14" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="15" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="10" borderId="9" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6148,7 +6152,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:L58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
@@ -6970,11 +6974,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F22" sqref="F22"/>
+      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -7171,7 +7175,7 @@
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="4" t="s">
-        <v>68</v>
+        <v>856</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>20</v>
@@ -7571,7 +7575,7 @@
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="4" t="s">
-        <v>68</v>
+        <v>789</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>18</v>
@@ -9343,20 +9347,20 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="33">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="50" t="s">
         <v>488</v>
       </c>
-      <c r="B2" s="59"/>
+      <c r="B2" s="53"/>
       <c r="C2" s="22" t="s">
         <v>490</v>
       </c>
       <c r="D2" s="23" t="s">
         <v>491</v>
       </c>
-      <c r="E2" s="59" t="s">
+      <c r="E2" s="53" t="s">
         <v>492</v>
       </c>
-      <c r="F2" s="59" t="s">
+      <c r="F2" s="53" t="s">
         <v>493</v>
       </c>
       <c r="G2" s="22"/>
@@ -9367,16 +9371,16 @@
       <c r="L2" s="24"/>
     </row>
     <row r="3" spans="1:12" ht="49.5">
-      <c r="A3" s="57"/>
-      <c r="B3" s="60"/>
+      <c r="A3" s="51"/>
+      <c r="B3" s="54"/>
       <c r="C3" s="23" t="s">
         <v>494</v>
       </c>
       <c r="D3" s="23" t="s">
         <v>495</v>
       </c>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
       <c r="G3" s="23"/>
       <c r="H3" s="23" t="s">
         <v>496</v>
@@ -9393,16 +9397,16 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="33.75" thickBot="1">
-      <c r="A4" s="58"/>
-      <c r="B4" s="61"/>
+      <c r="A4" s="52"/>
+      <c r="B4" s="55"/>
       <c r="C4" s="26" t="s">
         <v>501</v>
       </c>
       <c r="D4" s="26" t="s">
         <v>502</v>
       </c>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
       <c r="G4" s="26"/>
       <c r="H4" s="26"/>
       <c r="I4" s="26"/>
@@ -9411,20 +9415,20 @@
       <c r="L4" s="27"/>
     </row>
     <row r="5" spans="1:12" ht="33">
-      <c r="A5" s="56" t="s">
+      <c r="A5" s="50" t="s">
         <v>503</v>
       </c>
-      <c r="B5" s="59"/>
+      <c r="B5" s="53"/>
       <c r="C5" s="22" t="s">
         <v>490</v>
       </c>
       <c r="D5" s="23" t="s">
         <v>504</v>
       </c>
-      <c r="E5" s="59" t="s">
+      <c r="E5" s="53" t="s">
         <v>505</v>
       </c>
-      <c r="F5" s="59" t="s">
+      <c r="F5" s="53" t="s">
         <v>506</v>
       </c>
       <c r="G5" s="22"/>
@@ -9435,20 +9439,20 @@
       <c r="L5" s="24"/>
     </row>
     <row r="6" spans="1:12" ht="49.5">
-      <c r="A6" s="57" t="s">
+      <c r="A6" s="51" t="s">
         <v>507</v>
       </c>
-      <c r="B6" s="60"/>
+      <c r="B6" s="54"/>
       <c r="C6" s="23" t="s">
         <v>494</v>
       </c>
       <c r="D6" s="23" t="s">
         <v>508</v>
       </c>
-      <c r="E6" s="60" t="s">
+      <c r="E6" s="54" t="s">
         <v>505</v>
       </c>
-      <c r="F6" s="60" t="s">
+      <c r="F6" s="54" t="s">
         <v>506</v>
       </c>
       <c r="G6" s="23"/>
@@ -9467,16 +9471,16 @@
       </c>
     </row>
     <row r="7" spans="1:12" ht="17.25" thickBot="1">
-      <c r="A7" s="58"/>
-      <c r="B7" s="61"/>
+      <c r="A7" s="52"/>
+      <c r="B7" s="55"/>
       <c r="C7" s="26" t="s">
         <v>501</v>
       </c>
       <c r="D7" s="26" t="s">
         <v>513</v>
       </c>
-      <c r="E7" s="61"/>
-      <c r="F7" s="61"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
       <c r="G7" s="26"/>
       <c r="H7" s="26"/>
       <c r="I7" s="26"/>
@@ -9485,20 +9489,20 @@
       <c r="L7" s="27"/>
     </row>
     <row r="8" spans="1:12" ht="33">
-      <c r="A8" s="62" t="s">
+      <c r="A8" s="56" t="s">
         <v>514</v>
       </c>
-      <c r="B8" s="65"/>
+      <c r="B8" s="59"/>
       <c r="C8" s="28" t="s">
         <v>490</v>
       </c>
       <c r="D8" s="23" t="s">
         <v>504</v>
       </c>
-      <c r="E8" s="59" t="s">
+      <c r="E8" s="53" t="s">
         <v>515</v>
       </c>
-      <c r="F8" s="59" t="s">
+      <c r="F8" s="53" t="s">
         <v>506</v>
       </c>
       <c r="G8" s="22"/>
@@ -9509,20 +9513,20 @@
       <c r="L8" s="24"/>
     </row>
     <row r="9" spans="1:12" ht="33">
-      <c r="A9" s="63" t="s">
+      <c r="A9" s="57" t="s">
         <v>514</v>
       </c>
-      <c r="B9" s="66"/>
+      <c r="B9" s="60"/>
       <c r="C9" s="29" t="s">
         <v>494</v>
       </c>
       <c r="D9" s="29" t="s">
         <v>516</v>
       </c>
-      <c r="E9" s="60" t="s">
+      <c r="E9" s="54" t="s">
         <v>515</v>
       </c>
-      <c r="F9" s="60" t="s">
+      <c r="F9" s="54" t="s">
         <v>506</v>
       </c>
       <c r="G9" s="23"/>
@@ -9541,16 +9545,16 @@
       </c>
     </row>
     <row r="10" spans="1:12" ht="33.75" thickBot="1">
-      <c r="A10" s="64"/>
-      <c r="B10" s="67"/>
+      <c r="A10" s="58"/>
+      <c r="B10" s="61"/>
       <c r="C10" s="30" t="s">
         <v>501</v>
       </c>
       <c r="D10" s="30" t="s">
         <v>521</v>
       </c>
-      <c r="E10" s="61"/>
-      <c r="F10" s="61"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="55"/>
       <c r="G10" s="26"/>
       <c r="H10" s="26"/>
       <c r="I10" s="26"/>
@@ -9559,20 +9563,20 @@
       <c r="L10" s="27"/>
     </row>
     <row r="11" spans="1:12" ht="33">
-      <c r="A11" s="56" t="s">
+      <c r="A11" s="50" t="s">
         <v>522</v>
       </c>
-      <c r="B11" s="59"/>
+      <c r="B11" s="53"/>
       <c r="C11" s="22" t="s">
         <v>490</v>
       </c>
       <c r="D11" s="23" t="s">
         <v>524</v>
       </c>
-      <c r="E11" s="65" t="s">
+      <c r="E11" s="59" t="s">
         <v>525</v>
       </c>
-      <c r="F11" s="65" t="s">
+      <c r="F11" s="59" t="s">
         <v>526</v>
       </c>
       <c r="G11" s="28"/>
@@ -9583,20 +9587,20 @@
       <c r="L11" s="31"/>
     </row>
     <row r="12" spans="1:12" ht="49.5">
-      <c r="A12" s="57" t="s">
+      <c r="A12" s="51" t="s">
         <v>527</v>
       </c>
-      <c r="B12" s="60"/>
+      <c r="B12" s="54"/>
       <c r="C12" s="23" t="s">
         <v>494</v>
       </c>
       <c r="D12" s="23" t="s">
         <v>528</v>
       </c>
-      <c r="E12" s="66" t="s">
+      <c r="E12" s="60" t="s">
         <v>525</v>
       </c>
-      <c r="F12" s="66" t="s">
+      <c r="F12" s="60" t="s">
         <v>526</v>
       </c>
       <c r="G12" s="29"/>
@@ -9615,16 +9619,16 @@
       </c>
     </row>
     <row r="13" spans="1:12" ht="33.75" thickBot="1">
-      <c r="A13" s="58"/>
-      <c r="B13" s="61"/>
+      <c r="A13" s="52"/>
+      <c r="B13" s="55"/>
       <c r="C13" s="26" t="s">
         <v>501</v>
       </c>
       <c r="D13" s="26" t="s">
         <v>533</v>
       </c>
-      <c r="E13" s="67"/>
-      <c r="F13" s="67"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="61"/>
       <c r="G13" s="30"/>
       <c r="H13" s="30"/>
       <c r="I13" s="30"/>
@@ -9633,20 +9637,20 @@
       <c r="L13" s="33"/>
     </row>
     <row r="14" spans="1:12" ht="33">
-      <c r="A14" s="56" t="s">
+      <c r="A14" s="50" t="s">
         <v>534</v>
       </c>
-      <c r="B14" s="59"/>
+      <c r="B14" s="53"/>
       <c r="C14" s="22" t="s">
         <v>490</v>
       </c>
       <c r="D14" s="23" t="s">
         <v>524</v>
       </c>
-      <c r="E14" s="59" t="s">
+      <c r="E14" s="53" t="s">
         <v>535</v>
       </c>
-      <c r="F14" s="59" t="s">
+      <c r="F14" s="53" t="s">
         <v>526</v>
       </c>
       <c r="G14" s="22"/>
@@ -9657,20 +9661,20 @@
       <c r="L14" s="24"/>
     </row>
     <row r="15" spans="1:12" ht="33">
-      <c r="A15" s="57" t="s">
+      <c r="A15" s="51" t="s">
         <v>536</v>
       </c>
-      <c r="B15" s="60"/>
+      <c r="B15" s="54"/>
       <c r="C15" s="23" t="s">
         <v>494</v>
       </c>
       <c r="D15" s="23" t="s">
         <v>528</v>
       </c>
-      <c r="E15" s="60" t="s">
+      <c r="E15" s="54" t="s">
         <v>535</v>
       </c>
-      <c r="F15" s="60" t="s">
+      <c r="F15" s="54" t="s">
         <v>493</v>
       </c>
       <c r="G15" s="23"/>
@@ -9689,16 +9693,16 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="33.75" thickBot="1">
-      <c r="A16" s="58"/>
-      <c r="B16" s="61"/>
+      <c r="A16" s="52"/>
+      <c r="B16" s="55"/>
       <c r="C16" s="26" t="s">
         <v>501</v>
       </c>
       <c r="D16" s="26" t="s">
         <v>539</v>
       </c>
-      <c r="E16" s="61"/>
-      <c r="F16" s="61"/>
+      <c r="E16" s="55"/>
+      <c r="F16" s="55"/>
       <c r="G16" s="26"/>
       <c r="H16" s="26"/>
       <c r="I16" s="26"/>
@@ -9707,20 +9711,20 @@
       <c r="L16" s="27"/>
     </row>
     <row r="17" spans="1:12" ht="33">
-      <c r="A17" s="62" t="s">
+      <c r="A17" s="56" t="s">
         <v>540</v>
       </c>
-      <c r="B17" s="65"/>
+      <c r="B17" s="59"/>
       <c r="C17" s="28" t="s">
         <v>490</v>
       </c>
       <c r="D17" s="28" t="s">
         <v>524</v>
       </c>
-      <c r="E17" s="59" t="s">
+      <c r="E17" s="53" t="s">
         <v>541</v>
       </c>
-      <c r="F17" s="59" t="s">
+      <c r="F17" s="53" t="s">
         <v>526</v>
       </c>
       <c r="G17" s="22"/>
@@ -9731,20 +9735,20 @@
       <c r="L17" s="24"/>
     </row>
     <row r="18" spans="1:12" ht="49.5">
-      <c r="A18" s="63" t="s">
+      <c r="A18" s="57" t="s">
         <v>540</v>
       </c>
-      <c r="B18" s="66"/>
+      <c r="B18" s="60"/>
       <c r="C18" s="29" t="s">
         <v>494</v>
       </c>
       <c r="D18" s="29" t="s">
         <v>528</v>
       </c>
-      <c r="E18" s="60" t="s">
+      <c r="E18" s="54" t="s">
         <v>541</v>
       </c>
-      <c r="F18" s="60" t="s">
+      <c r="F18" s="54" t="s">
         <v>493</v>
       </c>
       <c r="G18" s="23"/>
@@ -9763,16 +9767,16 @@
       </c>
     </row>
     <row r="19" spans="1:12" ht="33.75" thickBot="1">
-      <c r="A19" s="64"/>
-      <c r="B19" s="67"/>
+      <c r="A19" s="58"/>
+      <c r="B19" s="61"/>
       <c r="C19" s="30" t="s">
         <v>501</v>
       </c>
       <c r="D19" s="30" t="s">
         <v>546</v>
       </c>
-      <c r="E19" s="61"/>
-      <c r="F19" s="61"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="55"/>
       <c r="G19" s="26"/>
       <c r="H19" s="26"/>
       <c r="I19" s="26"/>
@@ -9781,14 +9785,14 @@
       <c r="L19" s="27"/>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="56"/>
-      <c r="B20" s="59"/>
+      <c r="A20" s="50"/>
+      <c r="B20" s="53"/>
       <c r="C20" s="22"/>
       <c r="D20" s="22"/>
-      <c r="E20" s="59" t="s">
+      <c r="E20" s="53" t="s">
         <v>547</v>
       </c>
-      <c r="F20" s="59" t="s">
+      <c r="F20" s="53" t="s">
         <v>526</v>
       </c>
       <c r="G20" s="22"/>
@@ -9799,14 +9803,14 @@
       <c r="L20" s="24"/>
     </row>
     <row r="21" spans="1:12" ht="132">
-      <c r="A21" s="57"/>
-      <c r="B21" s="60"/>
+      <c r="A21" s="51"/>
+      <c r="B21" s="54"/>
       <c r="C21" s="23"/>
       <c r="D21" s="23"/>
-      <c r="E21" s="60" t="s">
+      <c r="E21" s="54" t="s">
         <v>547</v>
       </c>
-      <c r="F21" s="60" t="s">
+      <c r="F21" s="54" t="s">
         <v>526</v>
       </c>
       <c r="G21" s="23"/>
@@ -9827,12 +9831,12 @@
       </c>
     </row>
     <row r="22" spans="1:12" ht="17.25" thickBot="1">
-      <c r="A22" s="58"/>
-      <c r="B22" s="61"/>
+      <c r="A22" s="52"/>
+      <c r="B22" s="55"/>
       <c r="C22" s="26"/>
       <c r="D22" s="26"/>
-      <c r="E22" s="61"/>
-      <c r="F22" s="61"/>
+      <c r="E22" s="55"/>
+      <c r="F22" s="55"/>
       <c r="G22" s="26"/>
       <c r="H22" s="26"/>
       <c r="I22" s="26"/>
@@ -9841,14 +9845,14 @@
       <c r="L22" s="27"/>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="56"/>
-      <c r="B23" s="59"/>
+      <c r="A23" s="50"/>
+      <c r="B23" s="53"/>
       <c r="C23" s="22"/>
       <c r="D23" s="22"/>
-      <c r="E23" s="59" t="s">
+      <c r="E23" s="53" t="s">
         <v>553</v>
       </c>
-      <c r="F23" s="59" t="s">
+      <c r="F23" s="53" t="s">
         <v>526</v>
       </c>
       <c r="G23" s="22"/>
@@ -9859,14 +9863,14 @@
       <c r="L23" s="24"/>
     </row>
     <row r="24" spans="1:12" ht="148.5">
-      <c r="A24" s="57"/>
-      <c r="B24" s="60"/>
+      <c r="A24" s="51"/>
+      <c r="B24" s="54"/>
       <c r="C24" s="23"/>
       <c r="D24" s="23"/>
-      <c r="E24" s="60" t="s">
+      <c r="E24" s="54" t="s">
         <v>554</v>
       </c>
-      <c r="F24" s="60" t="s">
+      <c r="F24" s="54" t="s">
         <v>526</v>
       </c>
       <c r="G24" s="23"/>
@@ -9887,12 +9891,12 @@
       </c>
     </row>
     <row r="25" spans="1:12" ht="17.25" thickBot="1">
-      <c r="A25" s="58"/>
-      <c r="B25" s="61"/>
+      <c r="A25" s="52"/>
+      <c r="B25" s="55"/>
       <c r="C25" s="26"/>
       <c r="D25" s="26"/>
-      <c r="E25" s="61"/>
-      <c r="F25" s="61"/>
+      <c r="E25" s="55"/>
+      <c r="F25" s="55"/>
       <c r="G25" s="26"/>
       <c r="H25" s="26"/>
       <c r="I25" s="26"/>
@@ -9901,14 +9905,14 @@
       <c r="L25" s="27"/>
     </row>
     <row r="26" spans="1:12">
-      <c r="A26" s="56"/>
-      <c r="B26" s="59"/>
+      <c r="A26" s="50"/>
+      <c r="B26" s="53"/>
       <c r="C26" s="22"/>
       <c r="D26" s="22"/>
-      <c r="E26" s="65" t="s">
+      <c r="E26" s="59" t="s">
         <v>559</v>
       </c>
-      <c r="F26" s="65" t="s">
+      <c r="F26" s="59" t="s">
         <v>493</v>
       </c>
       <c r="G26" s="28"/>
@@ -9919,14 +9923,14 @@
       <c r="L26" s="31"/>
     </row>
     <row r="27" spans="1:12" ht="49.5">
-      <c r="A27" s="57"/>
-      <c r="B27" s="60"/>
+      <c r="A27" s="51"/>
+      <c r="B27" s="54"/>
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
-      <c r="E27" s="66" t="s">
+      <c r="E27" s="60" t="s">
         <v>559</v>
       </c>
-      <c r="F27" s="66" t="s">
+      <c r="F27" s="60" t="s">
         <v>493</v>
       </c>
       <c r="G27" s="29"/>
@@ -9945,12 +9949,12 @@
       </c>
     </row>
     <row r="28" spans="1:12" ht="17.25" thickBot="1">
-      <c r="A28" s="58"/>
-      <c r="B28" s="61"/>
+      <c r="A28" s="52"/>
+      <c r="B28" s="55"/>
       <c r="C28" s="26"/>
       <c r="D28" s="26"/>
-      <c r="E28" s="67"/>
-      <c r="F28" s="67"/>
+      <c r="E28" s="61"/>
+      <c r="F28" s="61"/>
       <c r="G28" s="30"/>
       <c r="H28" s="30"/>
       <c r="I28" s="30"/>
@@ -9959,14 +9963,14 @@
       <c r="L28" s="33"/>
     </row>
     <row r="29" spans="1:12">
-      <c r="A29" s="56"/>
-      <c r="B29" s="59"/>
+      <c r="A29" s="50"/>
+      <c r="B29" s="53"/>
       <c r="C29" s="22"/>
       <c r="D29" s="22"/>
-      <c r="E29" s="65" t="s">
+      <c r="E29" s="59" t="s">
         <v>563</v>
       </c>
-      <c r="F29" s="65" t="s">
+      <c r="F29" s="59" t="s">
         <v>493</v>
       </c>
       <c r="G29" s="28"/>
@@ -9977,14 +9981,14 @@
       <c r="L29" s="31"/>
     </row>
     <row r="30" spans="1:12" ht="49.5">
-      <c r="A30" s="57"/>
-      <c r="B30" s="60"/>
+      <c r="A30" s="51"/>
+      <c r="B30" s="54"/>
       <c r="C30" s="23"/>
       <c r="D30" s="23"/>
-      <c r="E30" s="66" t="s">
+      <c r="E30" s="60" t="s">
         <v>563</v>
       </c>
-      <c r="F30" s="66" t="s">
+      <c r="F30" s="60" t="s">
         <v>493</v>
       </c>
       <c r="G30" s="29"/>
@@ -10003,12 +10007,12 @@
       </c>
     </row>
     <row r="31" spans="1:12" ht="17.25" thickBot="1">
-      <c r="A31" s="58"/>
-      <c r="B31" s="61"/>
+      <c r="A31" s="52"/>
+      <c r="B31" s="55"/>
       <c r="C31" s="26"/>
       <c r="D31" s="26"/>
-      <c r="E31" s="67"/>
-      <c r="F31" s="67"/>
+      <c r="E31" s="61"/>
+      <c r="F31" s="61"/>
       <c r="G31" s="30"/>
       <c r="H31" s="30"/>
       <c r="I31" s="30"/>
@@ -10017,14 +10021,14 @@
       <c r="L31" s="33"/>
     </row>
     <row r="32" spans="1:12">
-      <c r="A32" s="56"/>
-      <c r="B32" s="59"/>
+      <c r="A32" s="50"/>
+      <c r="B32" s="53"/>
       <c r="C32" s="22"/>
       <c r="D32" s="22"/>
-      <c r="E32" s="59" t="s">
+      <c r="E32" s="53" t="s">
         <v>568</v>
       </c>
-      <c r="F32" s="59" t="s">
+      <c r="F32" s="53" t="s">
         <v>506</v>
       </c>
       <c r="G32" s="22"/>
@@ -10035,14 +10039,14 @@
       <c r="L32" s="24"/>
     </row>
     <row r="33" spans="1:12" ht="66">
-      <c r="A33" s="57"/>
-      <c r="B33" s="60"/>
+      <c r="A33" s="51"/>
+      <c r="B33" s="54"/>
       <c r="C33" s="23"/>
       <c r="D33" s="23"/>
-      <c r="E33" s="60" t="s">
+      <c r="E33" s="54" t="s">
         <v>569</v>
       </c>
-      <c r="F33" s="60" t="s">
+      <c r="F33" s="54" t="s">
         <v>506</v>
       </c>
       <c r="G33" s="23"/>
@@ -10063,12 +10067,12 @@
       </c>
     </row>
     <row r="34" spans="1:12" ht="17.25" thickBot="1">
-      <c r="A34" s="58"/>
-      <c r="B34" s="61"/>
+      <c r="A34" s="52"/>
+      <c r="B34" s="55"/>
       <c r="C34" s="26"/>
       <c r="D34" s="26"/>
-      <c r="E34" s="61"/>
-      <c r="F34" s="61"/>
+      <c r="E34" s="55"/>
+      <c r="F34" s="55"/>
       <c r="G34" s="26"/>
       <c r="H34" s="26"/>
       <c r="I34" s="26"/>
@@ -10077,18 +10081,18 @@
       <c r="L34" s="27"/>
     </row>
     <row r="35" spans="1:12">
-      <c r="A35" s="50" t="s">
+      <c r="A35" s="62" t="s">
         <v>575</v>
       </c>
-      <c r="B35" s="53"/>
+      <c r="B35" s="65"/>
       <c r="C35" s="34" t="s">
         <v>576</v>
       </c>
       <c r="D35" s="34"/>
-      <c r="E35" s="53" t="s">
+      <c r="E35" s="65" t="s">
         <v>577</v>
       </c>
-      <c r="F35" s="53"/>
+      <c r="F35" s="65"/>
       <c r="G35" s="34"/>
       <c r="H35" s="34"/>
       <c r="I35" s="34"/>
@@ -10097,10 +10101,10 @@
       <c r="L35" s="35"/>
     </row>
     <row r="36" spans="1:12" ht="66">
-      <c r="A36" s="51" t="s">
+      <c r="A36" s="63" t="s">
         <v>578</v>
       </c>
-      <c r="B36" s="54" t="s">
+      <c r="B36" s="66" t="s">
         <v>579</v>
       </c>
       <c r="C36" s="36" t="s">
@@ -10109,10 +10113,10 @@
       <c r="D36" s="36" t="s">
         <v>581</v>
       </c>
-      <c r="E36" s="54" t="s">
+      <c r="E36" s="66" t="s">
         <v>577</v>
       </c>
-      <c r="F36" s="54" t="s">
+      <c r="F36" s="66" t="s">
         <v>506</v>
       </c>
       <c r="G36" s="36"/>
@@ -10127,16 +10131,16 @@
       <c r="L36" s="37"/>
     </row>
     <row r="37" spans="1:12" ht="33.75" thickBot="1">
-      <c r="A37" s="52"/>
-      <c r="B37" s="55"/>
+      <c r="A37" s="64"/>
+      <c r="B37" s="67"/>
       <c r="C37" s="38" t="s">
         <v>584</v>
       </c>
       <c r="D37" s="38" t="s">
         <v>585</v>
       </c>
-      <c r="E37" s="55"/>
-      <c r="F37" s="55"/>
+      <c r="E37" s="67"/>
+      <c r="F37" s="67"/>
       <c r="G37" s="38"/>
       <c r="H37" s="38"/>
       <c r="I37" s="38"/>
@@ -10145,20 +10149,20 @@
       <c r="L37" s="39"/>
     </row>
     <row r="38" spans="1:12" ht="33">
-      <c r="A38" s="56" t="s">
+      <c r="A38" s="50" t="s">
         <v>586</v>
       </c>
-      <c r="B38" s="59"/>
+      <c r="B38" s="53"/>
       <c r="C38" s="22" t="s">
         <v>489</v>
       </c>
       <c r="D38" s="23" t="s">
         <v>523</v>
       </c>
-      <c r="E38" s="65" t="s">
+      <c r="E38" s="59" t="s">
         <v>587</v>
       </c>
-      <c r="F38" s="65" t="s">
+      <c r="F38" s="59" t="s">
         <v>588</v>
       </c>
       <c r="G38" s="28"/>
@@ -10169,20 +10173,20 @@
       <c r="L38" s="31"/>
     </row>
     <row r="39" spans="1:12" ht="66">
-      <c r="A39" s="57" t="s">
+      <c r="A39" s="51" t="s">
         <v>589</v>
       </c>
-      <c r="B39" s="60"/>
+      <c r="B39" s="54"/>
       <c r="C39" s="23" t="s">
         <v>590</v>
       </c>
       <c r="D39" s="23" t="s">
         <v>591</v>
       </c>
-      <c r="E39" s="66" t="s">
+      <c r="E39" s="60" t="s">
         <v>592</v>
       </c>
-      <c r="F39" s="66" t="s">
+      <c r="F39" s="60" t="s">
         <v>588</v>
       </c>
       <c r="G39" s="29"/>
@@ -10203,16 +10207,16 @@
       </c>
     </row>
     <row r="40" spans="1:12" ht="50.25" thickBot="1">
-      <c r="A40" s="58"/>
-      <c r="B40" s="61"/>
+      <c r="A40" s="52"/>
+      <c r="B40" s="55"/>
       <c r="C40" s="26" t="s">
         <v>500</v>
       </c>
       <c r="D40" s="26" t="s">
         <v>598</v>
       </c>
-      <c r="E40" s="67"/>
-      <c r="F40" s="67"/>
+      <c r="E40" s="61"/>
+      <c r="F40" s="61"/>
       <c r="G40" s="30"/>
       <c r="H40" s="30"/>
       <c r="I40" s="30"/>
@@ -10221,14 +10225,14 @@
       <c r="L40" s="33"/>
     </row>
     <row r="41" spans="1:12">
-      <c r="A41" s="56"/>
-      <c r="B41" s="59"/>
+      <c r="A41" s="50"/>
+      <c r="B41" s="53"/>
       <c r="C41" s="22"/>
       <c r="D41" s="22"/>
-      <c r="E41" s="65" t="s">
+      <c r="E41" s="59" t="s">
         <v>599</v>
       </c>
-      <c r="F41" s="65" t="s">
+      <c r="F41" s="59" t="s">
         <v>600</v>
       </c>
       <c r="G41" s="28"/>
@@ -10239,14 +10243,14 @@
       <c r="L41" s="31"/>
     </row>
     <row r="42" spans="1:12" ht="165">
-      <c r="A42" s="57"/>
-      <c r="B42" s="60"/>
+      <c r="A42" s="51"/>
+      <c r="B42" s="54"/>
       <c r="C42" s="23"/>
       <c r="D42" s="23"/>
-      <c r="E42" s="66" t="s">
+      <c r="E42" s="60" t="s">
         <v>601</v>
       </c>
-      <c r="F42" s="66" t="s">
+      <c r="F42" s="60" t="s">
         <v>602</v>
       </c>
       <c r="G42" s="29"/>
@@ -10267,12 +10271,12 @@
       </c>
     </row>
     <row r="43" spans="1:12" ht="17.25" thickBot="1">
-      <c r="A43" s="58"/>
-      <c r="B43" s="61"/>
+      <c r="A43" s="52"/>
+      <c r="B43" s="55"/>
       <c r="C43" s="26"/>
       <c r="D43" s="26"/>
-      <c r="E43" s="67"/>
-      <c r="F43" s="67"/>
+      <c r="E43" s="61"/>
+      <c r="F43" s="61"/>
       <c r="G43" s="30"/>
       <c r="H43" s="30"/>
       <c r="I43" s="30"/>
@@ -10281,14 +10285,14 @@
       <c r="L43" s="33"/>
     </row>
     <row r="44" spans="1:12">
-      <c r="A44" s="50"/>
-      <c r="B44" s="53"/>
+      <c r="A44" s="62"/>
+      <c r="B44" s="65"/>
       <c r="C44" s="34"/>
       <c r="D44" s="34"/>
-      <c r="E44" s="53" t="s">
+      <c r="E44" s="65" t="s">
         <v>608</v>
       </c>
-      <c r="F44" s="53"/>
+      <c r="F44" s="65"/>
       <c r="G44" s="34"/>
       <c r="H44" s="34"/>
       <c r="I44" s="34"/>
@@ -10297,14 +10301,14 @@
       <c r="L44" s="35"/>
     </row>
     <row r="45" spans="1:12" ht="82.5">
-      <c r="A45" s="51"/>
-      <c r="B45" s="54"/>
+      <c r="A45" s="63"/>
+      <c r="B45" s="66"/>
       <c r="C45" s="36"/>
       <c r="D45" s="36"/>
-      <c r="E45" s="54" t="s">
+      <c r="E45" s="66" t="s">
         <v>609</v>
       </c>
-      <c r="F45" s="54" t="s">
+      <c r="F45" s="66" t="s">
         <v>18</v>
       </c>
       <c r="G45" s="36"/>
@@ -10319,12 +10323,12 @@
       <c r="L45" s="37"/>
     </row>
     <row r="46" spans="1:12" ht="17.25" thickBot="1">
-      <c r="A46" s="52"/>
-      <c r="B46" s="55"/>
+      <c r="A46" s="64"/>
+      <c r="B46" s="67"/>
       <c r="C46" s="38"/>
       <c r="D46" s="38"/>
-      <c r="E46" s="55"/>
-      <c r="F46" s="55"/>
+      <c r="E46" s="67"/>
+      <c r="F46" s="67"/>
       <c r="G46" s="38"/>
       <c r="H46" s="38"/>
       <c r="I46" s="38"/>
@@ -10333,14 +10337,14 @@
       <c r="L46" s="39"/>
     </row>
     <row r="47" spans="1:12">
-      <c r="A47" s="50"/>
-      <c r="B47" s="53"/>
+      <c r="A47" s="62"/>
+      <c r="B47" s="65"/>
       <c r="C47" s="34"/>
       <c r="D47" s="34"/>
-      <c r="E47" s="53" t="s">
+      <c r="E47" s="65" t="s">
         <v>612</v>
       </c>
-      <c r="F47" s="53"/>
+      <c r="F47" s="65"/>
       <c r="G47" s="34"/>
       <c r="H47" s="34"/>
       <c r="I47" s="34"/>
@@ -10349,14 +10353,14 @@
       <c r="L47" s="35"/>
     </row>
     <row r="48" spans="1:12" ht="49.5">
-      <c r="A48" s="51"/>
-      <c r="B48" s="54"/>
+      <c r="A48" s="63"/>
+      <c r="B48" s="66"/>
       <c r="C48" s="36"/>
       <c r="D48" s="36"/>
-      <c r="E48" s="54" t="s">
+      <c r="E48" s="66" t="s">
         <v>613</v>
       </c>
-      <c r="F48" s="54" t="s">
+      <c r="F48" s="66" t="s">
         <v>614</v>
       </c>
       <c r="G48" s="36"/>
@@ -10371,12 +10375,12 @@
       <c r="L48" s="37"/>
     </row>
     <row r="49" spans="1:12" ht="17.25" thickBot="1">
-      <c r="A49" s="52"/>
-      <c r="B49" s="55"/>
+      <c r="A49" s="64"/>
+      <c r="B49" s="67"/>
       <c r="C49" s="38"/>
       <c r="D49" s="38"/>
-      <c r="E49" s="55"/>
-      <c r="F49" s="55"/>
+      <c r="E49" s="67"/>
+      <c r="F49" s="67"/>
       <c r="G49" s="38"/>
       <c r="H49" s="38"/>
       <c r="I49" s="38"/>
@@ -10385,18 +10389,18 @@
       <c r="L49" s="39"/>
     </row>
     <row r="50" spans="1:12">
-      <c r="A50" s="50" t="s">
+      <c r="A50" s="62" t="s">
         <v>617</v>
       </c>
-      <c r="B50" s="53"/>
+      <c r="B50" s="65"/>
       <c r="C50" s="34" t="s">
         <v>576</v>
       </c>
       <c r="D50" s="34"/>
-      <c r="E50" s="53" t="s">
+      <c r="E50" s="65" t="s">
         <v>618</v>
       </c>
-      <c r="F50" s="53"/>
+      <c r="F50" s="65"/>
       <c r="G50" s="34"/>
       <c r="H50" s="34"/>
       <c r="I50" s="34"/>
@@ -10405,10 +10409,10 @@
       <c r="L50" s="35"/>
     </row>
     <row r="51" spans="1:12" ht="66">
-      <c r="A51" s="51" t="s">
+      <c r="A51" s="63" t="s">
         <v>617</v>
       </c>
-      <c r="B51" s="54" t="s">
+      <c r="B51" s="66" t="s">
         <v>619</v>
       </c>
       <c r="C51" s="36" t="s">
@@ -10417,10 +10421,10 @@
       <c r="D51" s="36" t="s">
         <v>620</v>
       </c>
-      <c r="E51" s="54" t="s">
+      <c r="E51" s="66" t="s">
         <v>618</v>
       </c>
-      <c r="F51" s="54" t="s">
+      <c r="F51" s="66" t="s">
         <v>602</v>
       </c>
       <c r="G51" s="36"/>
@@ -10435,16 +10439,16 @@
       <c r="L51" s="37"/>
     </row>
     <row r="52" spans="1:12" ht="50.25" thickBot="1">
-      <c r="A52" s="52"/>
-      <c r="B52" s="55"/>
+      <c r="A52" s="64"/>
+      <c r="B52" s="67"/>
       <c r="C52" s="38" t="s">
         <v>584</v>
       </c>
       <c r="D52" s="38" t="s">
         <v>623</v>
       </c>
-      <c r="E52" s="55"/>
-      <c r="F52" s="55"/>
+      <c r="E52" s="67"/>
+      <c r="F52" s="67"/>
       <c r="G52" s="38"/>
       <c r="H52" s="38"/>
       <c r="I52" s="38"/>
@@ -10461,10 +10465,10 @@
         <v>576</v>
       </c>
       <c r="D53" s="40"/>
-      <c r="E53" s="53" t="s">
+      <c r="E53" s="65" t="s">
         <v>625</v>
       </c>
-      <c r="F53" s="53"/>
+      <c r="F53" s="65"/>
       <c r="G53" s="34"/>
       <c r="H53" s="34"/>
       <c r="I53" s="34"/>
@@ -10485,10 +10489,10 @@
       <c r="D54" s="41" t="s">
         <v>628</v>
       </c>
-      <c r="E54" s="54" t="s">
+      <c r="E54" s="66" t="s">
         <v>625</v>
       </c>
-      <c r="F54" s="54" t="s">
+      <c r="F54" s="66" t="s">
         <v>602</v>
       </c>
       <c r="G54" s="36"/>
@@ -10511,8 +10515,8 @@
       <c r="D55" s="42" t="s">
         <v>631</v>
       </c>
-      <c r="E55" s="55"/>
-      <c r="F55" s="55"/>
+      <c r="E55" s="67"/>
+      <c r="F55" s="67"/>
       <c r="G55" s="38"/>
       <c r="H55" s="38"/>
       <c r="I55" s="38"/>
@@ -10521,18 +10525,18 @@
       <c r="L55" s="39"/>
     </row>
     <row r="56" spans="1:12">
-      <c r="A56" s="50" t="s">
+      <c r="A56" s="62" t="s">
         <v>632</v>
       </c>
-      <c r="B56" s="53"/>
+      <c r="B56" s="65"/>
       <c r="C56" s="34" t="s">
         <v>576</v>
       </c>
       <c r="D56" s="34"/>
-      <c r="E56" s="53" t="s">
+      <c r="E56" s="65" t="s">
         <v>633</v>
       </c>
-      <c r="F56" s="53"/>
+      <c r="F56" s="65"/>
       <c r="G56" s="34"/>
       <c r="H56" s="34"/>
       <c r="I56" s="34"/>
@@ -10541,10 +10545,10 @@
       <c r="L56" s="35"/>
     </row>
     <row r="57" spans="1:12" ht="33">
-      <c r="A57" s="51" t="s">
+      <c r="A57" s="63" t="s">
         <v>632</v>
       </c>
-      <c r="B57" s="54" t="s">
+      <c r="B57" s="66" t="s">
         <v>627</v>
       </c>
       <c r="C57" s="36" t="s">
@@ -10553,10 +10557,10 @@
       <c r="D57" s="36" t="s">
         <v>634</v>
       </c>
-      <c r="E57" s="54" t="s">
+      <c r="E57" s="66" t="s">
         <v>633</v>
       </c>
-      <c r="F57" s="54" t="s">
+      <c r="F57" s="66" t="s">
         <v>635</v>
       </c>
       <c r="G57" s="36"/>
@@ -10571,16 +10575,16 @@
       <c r="L57" s="37"/>
     </row>
     <row r="58" spans="1:12" ht="33.75" thickBot="1">
-      <c r="A58" s="52"/>
-      <c r="B58" s="55"/>
+      <c r="A58" s="64"/>
+      <c r="B58" s="67"/>
       <c r="C58" s="38" t="s">
         <v>584</v>
       </c>
       <c r="D58" s="38" t="s">
         <v>637</v>
       </c>
-      <c r="E58" s="55"/>
-      <c r="F58" s="55"/>
+      <c r="E58" s="67"/>
+      <c r="F58" s="67"/>
       <c r="G58" s="38"/>
       <c r="H58" s="38"/>
       <c r="I58" s="38"/>
@@ -10589,20 +10593,20 @@
       <c r="L58" s="39"/>
     </row>
     <row r="59" spans="1:12" ht="33">
-      <c r="A59" s="56" t="s">
+      <c r="A59" s="50" t="s">
         <v>638</v>
       </c>
-      <c r="B59" s="59"/>
+      <c r="B59" s="53"/>
       <c r="C59" s="22" t="s">
         <v>639</v>
       </c>
       <c r="D59" s="23" t="s">
         <v>640</v>
       </c>
-      <c r="E59" s="59" t="s">
+      <c r="E59" s="53" t="s">
         <v>641</v>
       </c>
-      <c r="F59" s="59" t="s">
+      <c r="F59" s="53" t="s">
         <v>602</v>
       </c>
       <c r="G59" s="22"/>
@@ -10613,20 +10617,20 @@
       <c r="L59" s="24"/>
     </row>
     <row r="60" spans="1:12" ht="82.5">
-      <c r="A60" s="57" t="s">
+      <c r="A60" s="51" t="s">
         <v>638</v>
       </c>
-      <c r="B60" s="60"/>
+      <c r="B60" s="54"/>
       <c r="C60" s="23" t="s">
         <v>590</v>
       </c>
       <c r="D60" s="23" t="s">
         <v>642</v>
       </c>
-      <c r="E60" s="60" t="s">
+      <c r="E60" s="54" t="s">
         <v>641</v>
       </c>
-      <c r="F60" s="60" t="s">
+      <c r="F60" s="54" t="s">
         <v>643</v>
       </c>
       <c r="G60" s="23"/>
@@ -10647,16 +10651,16 @@
       </c>
     </row>
     <row r="61" spans="1:12" ht="66.75" thickBot="1">
-      <c r="A61" s="58"/>
-      <c r="B61" s="61"/>
+      <c r="A61" s="52"/>
+      <c r="B61" s="55"/>
       <c r="C61" s="26" t="s">
         <v>649</v>
       </c>
       <c r="D61" s="26" t="s">
         <v>650</v>
       </c>
-      <c r="E61" s="61"/>
-      <c r="F61" s="61"/>
+      <c r="E61" s="55"/>
+      <c r="F61" s="55"/>
       <c r="G61" s="26"/>
       <c r="H61" s="26"/>
       <c r="I61" s="26"/>
@@ -10665,18 +10669,18 @@
       <c r="L61" s="27"/>
     </row>
     <row r="62" spans="1:12">
-      <c r="A62" s="50" t="s">
+      <c r="A62" s="62" t="s">
         <v>651</v>
       </c>
-      <c r="B62" s="53"/>
+      <c r="B62" s="65"/>
       <c r="C62" s="34" t="s">
         <v>576</v>
       </c>
       <c r="D62" s="34"/>
-      <c r="E62" s="53" t="s">
+      <c r="E62" s="65" t="s">
         <v>652</v>
       </c>
-      <c r="F62" s="53"/>
+      <c r="F62" s="65"/>
       <c r="G62" s="34"/>
       <c r="H62" s="34"/>
       <c r="I62" s="34"/>
@@ -10685,10 +10689,10 @@
       <c r="L62" s="35"/>
     </row>
     <row r="63" spans="1:12" ht="49.5">
-      <c r="A63" s="51" t="s">
+      <c r="A63" s="63" t="s">
         <v>651</v>
       </c>
-      <c r="B63" s="54" t="s">
+      <c r="B63" s="66" t="s">
         <v>579</v>
       </c>
       <c r="C63" s="36" t="s">
@@ -10697,10 +10701,10 @@
       <c r="D63" s="36" t="s">
         <v>653</v>
       </c>
-      <c r="E63" s="54" t="s">
+      <c r="E63" s="66" t="s">
         <v>652</v>
       </c>
-      <c r="F63" s="54" t="s">
+      <c r="F63" s="66" t="s">
         <v>614</v>
       </c>
       <c r="G63" s="36"/>
@@ -10715,16 +10719,16 @@
       <c r="L63" s="37"/>
     </row>
     <row r="64" spans="1:12" ht="33.75" thickBot="1">
-      <c r="A64" s="52"/>
-      <c r="B64" s="55"/>
+      <c r="A64" s="64"/>
+      <c r="B64" s="67"/>
       <c r="C64" s="38" t="s">
         <v>584</v>
       </c>
       <c r="D64" s="38" t="s">
         <v>656</v>
       </c>
-      <c r="E64" s="55"/>
-      <c r="F64" s="55"/>
+      <c r="E64" s="67"/>
+      <c r="F64" s="67"/>
       <c r="G64" s="38"/>
       <c r="H64" s="38"/>
       <c r="I64" s="38"/>
@@ -10733,20 +10737,20 @@
       <c r="L64" s="39"/>
     </row>
     <row r="65" spans="1:12" ht="33">
-      <c r="A65" s="56" t="s">
+      <c r="A65" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="B65" s="59"/>
+      <c r="B65" s="53"/>
       <c r="C65" s="22" t="s">
         <v>639</v>
       </c>
       <c r="D65" s="23" t="s">
         <v>657</v>
       </c>
-      <c r="E65" s="59" t="s">
+      <c r="E65" s="53" t="s">
         <v>658</v>
       </c>
-      <c r="F65" s="59" t="s">
+      <c r="F65" s="53" t="s">
         <v>602</v>
       </c>
       <c r="G65" s="22"/>
@@ -10757,20 +10761,20 @@
       <c r="L65" s="24"/>
     </row>
     <row r="66" spans="1:12" ht="66">
-      <c r="A66" s="57" t="s">
+      <c r="A66" s="51" t="s">
         <v>659</v>
       </c>
-      <c r="B66" s="60"/>
+      <c r="B66" s="54"/>
       <c r="C66" s="23" t="s">
         <v>590</v>
       </c>
       <c r="D66" s="23" t="s">
         <v>660</v>
       </c>
-      <c r="E66" s="60" t="s">
+      <c r="E66" s="54" t="s">
         <v>658</v>
       </c>
-      <c r="F66" s="60" t="s">
+      <c r="F66" s="54" t="s">
         <v>602</v>
       </c>
       <c r="G66" s="23"/>
@@ -10789,16 +10793,16 @@
       </c>
     </row>
     <row r="67" spans="1:12" ht="33.75" thickBot="1">
-      <c r="A67" s="58"/>
-      <c r="B67" s="61"/>
+      <c r="A67" s="52"/>
+      <c r="B67" s="55"/>
       <c r="C67" s="26" t="s">
         <v>649</v>
       </c>
       <c r="D67" s="26" t="s">
         <v>665</v>
       </c>
-      <c r="E67" s="61"/>
-      <c r="F67" s="61"/>
+      <c r="E67" s="55"/>
+      <c r="F67" s="55"/>
       <c r="G67" s="26"/>
       <c r="H67" s="26"/>
       <c r="I67" s="26"/>
@@ -10807,18 +10811,18 @@
       <c r="L67" s="27"/>
     </row>
     <row r="68" spans="1:12">
-      <c r="A68" s="50" t="s">
+      <c r="A68" s="62" t="s">
         <v>666</v>
       </c>
-      <c r="B68" s="53"/>
+      <c r="B68" s="65"/>
       <c r="C68" s="34" t="s">
         <v>576</v>
       </c>
       <c r="D68" s="34"/>
-      <c r="E68" s="53" t="s">
+      <c r="E68" s="65" t="s">
         <v>667</v>
       </c>
-      <c r="F68" s="53"/>
+      <c r="F68" s="65"/>
       <c r="G68" s="34"/>
       <c r="H68" s="34"/>
       <c r="I68" s="34"/>
@@ -10827,10 +10831,10 @@
       <c r="L68" s="35"/>
     </row>
     <row r="69" spans="1:12" ht="33">
-      <c r="A69" s="51" t="s">
+      <c r="A69" s="63" t="s">
         <v>666</v>
       </c>
-      <c r="B69" s="54" t="s">
+      <c r="B69" s="66" t="s">
         <v>627</v>
       </c>
       <c r="C69" s="36" t="s">
@@ -10839,10 +10843,10 @@
       <c r="D69" s="36" t="s">
         <v>668</v>
       </c>
-      <c r="E69" s="54" t="s">
+      <c r="E69" s="66" t="s">
         <v>667</v>
       </c>
-      <c r="F69" s="54" t="s">
+      <c r="F69" s="66" t="s">
         <v>602</v>
       </c>
       <c r="G69" s="36"/>
@@ -10857,16 +10861,16 @@
       <c r="L69" s="37"/>
     </row>
     <row r="70" spans="1:12" ht="33.75" thickBot="1">
-      <c r="A70" s="52"/>
-      <c r="B70" s="55"/>
+      <c r="A70" s="64"/>
+      <c r="B70" s="67"/>
       <c r="C70" s="38" t="s">
         <v>584</v>
       </c>
       <c r="D70" s="38" t="s">
         <v>671</v>
       </c>
-      <c r="E70" s="55"/>
-      <c r="F70" s="55"/>
+      <c r="E70" s="67"/>
+      <c r="F70" s="67"/>
       <c r="G70" s="38"/>
       <c r="H70" s="38"/>
       <c r="I70" s="38"/>
@@ -10875,18 +10879,18 @@
       <c r="L70" s="39"/>
     </row>
     <row r="71" spans="1:12">
-      <c r="A71" s="50" t="s">
+      <c r="A71" s="62" t="s">
         <v>672</v>
       </c>
-      <c r="B71" s="53"/>
+      <c r="B71" s="65"/>
       <c r="C71" s="34" t="s">
         <v>576</v>
       </c>
       <c r="D71" s="34"/>
-      <c r="E71" s="53" t="s">
+      <c r="E71" s="65" t="s">
         <v>673</v>
       </c>
-      <c r="F71" s="53"/>
+      <c r="F71" s="65"/>
       <c r="G71" s="34"/>
       <c r="H71" s="34"/>
       <c r="I71" s="34"/>
@@ -10895,10 +10899,10 @@
       <c r="L71" s="35"/>
     </row>
     <row r="72" spans="1:12" ht="49.5">
-      <c r="A72" s="51" t="s">
+      <c r="A72" s="63" t="s">
         <v>672</v>
       </c>
-      <c r="B72" s="54" t="s">
+      <c r="B72" s="66" t="s">
         <v>579</v>
       </c>
       <c r="C72" s="36" t="s">
@@ -10907,10 +10911,10 @@
       <c r="D72" s="36" t="s">
         <v>668</v>
       </c>
-      <c r="E72" s="54" t="s">
+      <c r="E72" s="66" t="s">
         <v>673</v>
       </c>
-      <c r="F72" s="54" t="s">
+      <c r="F72" s="66" t="s">
         <v>602</v>
       </c>
       <c r="G72" s="36"/>
@@ -10925,16 +10929,16 @@
       <c r="L72" s="37"/>
     </row>
     <row r="73" spans="1:12" ht="33.75" thickBot="1">
-      <c r="A73" s="52"/>
-      <c r="B73" s="55"/>
+      <c r="A73" s="64"/>
+      <c r="B73" s="67"/>
       <c r="C73" s="38" t="s">
         <v>584</v>
       </c>
       <c r="D73" s="38" t="s">
         <v>676</v>
       </c>
-      <c r="E73" s="55"/>
-      <c r="F73" s="55"/>
+      <c r="E73" s="67"/>
+      <c r="F73" s="67"/>
       <c r="G73" s="38"/>
       <c r="H73" s="38"/>
       <c r="I73" s="38"/>
@@ -10943,18 +10947,18 @@
       <c r="L73" s="39"/>
     </row>
     <row r="74" spans="1:12">
-      <c r="A74" s="50" t="s">
+      <c r="A74" s="62" t="s">
         <v>677</v>
       </c>
-      <c r="B74" s="53"/>
+      <c r="B74" s="65"/>
       <c r="C74" s="34" t="s">
         <v>576</v>
       </c>
       <c r="D74" s="34"/>
-      <c r="E74" s="53" t="s">
+      <c r="E74" s="65" t="s">
         <v>678</v>
       </c>
-      <c r="F74" s="53"/>
+      <c r="F74" s="65"/>
       <c r="G74" s="34"/>
       <c r="H74" s="34"/>
       <c r="I74" s="34"/>
@@ -10963,10 +10967,10 @@
       <c r="L74" s="35"/>
     </row>
     <row r="75" spans="1:12" ht="33">
-      <c r="A75" s="51" t="s">
+      <c r="A75" s="63" t="s">
         <v>677</v>
       </c>
-      <c r="B75" s="54" t="s">
+      <c r="B75" s="66" t="s">
         <v>627</v>
       </c>
       <c r="C75" s="36" t="s">
@@ -10975,10 +10979,10 @@
       <c r="D75" s="36" t="s">
         <v>679</v>
       </c>
-      <c r="E75" s="54" t="s">
+      <c r="E75" s="66" t="s">
         <v>678</v>
       </c>
-      <c r="F75" s="54" t="s">
+      <c r="F75" s="66" t="s">
         <v>614</v>
       </c>
       <c r="G75" s="36"/>
@@ -10993,16 +10997,16 @@
       <c r="L75" s="37"/>
     </row>
     <row r="76" spans="1:12" ht="33.75" thickBot="1">
-      <c r="A76" s="52"/>
-      <c r="B76" s="55"/>
+      <c r="A76" s="64"/>
+      <c r="B76" s="67"/>
       <c r="C76" s="38" t="s">
         <v>584</v>
       </c>
       <c r="D76" s="38" t="s">
         <v>682</v>
       </c>
-      <c r="E76" s="55"/>
-      <c r="F76" s="55"/>
+      <c r="E76" s="67"/>
+      <c r="F76" s="67"/>
       <c r="G76" s="38"/>
       <c r="H76" s="38"/>
       <c r="I76" s="38"/>
@@ -11011,18 +11015,18 @@
       <c r="L76" s="39"/>
     </row>
     <row r="77" spans="1:12">
-      <c r="A77" s="50" t="s">
+      <c r="A77" s="62" t="s">
         <v>683</v>
       </c>
-      <c r="B77" s="53"/>
+      <c r="B77" s="65"/>
       <c r="C77" s="34" t="s">
         <v>576</v>
       </c>
       <c r="D77" s="34"/>
-      <c r="E77" s="53" t="s">
+      <c r="E77" s="65" t="s">
         <v>684</v>
       </c>
-      <c r="F77" s="53"/>
+      <c r="F77" s="65"/>
       <c r="G77" s="34"/>
       <c r="H77" s="34"/>
       <c r="I77" s="34"/>
@@ -11031,10 +11035,10 @@
       <c r="L77" s="35"/>
     </row>
     <row r="78" spans="1:12" ht="33">
-      <c r="A78" s="51" t="s">
+      <c r="A78" s="63" t="s">
         <v>683</v>
       </c>
-      <c r="B78" s="54" t="s">
+      <c r="B78" s="66" t="s">
         <v>627</v>
       </c>
       <c r="C78" s="36" t="s">
@@ -11043,10 +11047,10 @@
       <c r="D78" s="36" t="s">
         <v>685</v>
       </c>
-      <c r="E78" s="54" t="s">
+      <c r="E78" s="66" t="s">
         <v>684</v>
       </c>
-      <c r="F78" s="54" t="s">
+      <c r="F78" s="66" t="s">
         <v>614</v>
       </c>
       <c r="G78" s="36"/>
@@ -11061,16 +11065,16 @@
       <c r="L78" s="37"/>
     </row>
     <row r="79" spans="1:12" ht="33.75" thickBot="1">
-      <c r="A79" s="52"/>
-      <c r="B79" s="55"/>
+      <c r="A79" s="64"/>
+      <c r="B79" s="67"/>
       <c r="C79" s="38" t="s">
         <v>584</v>
       </c>
       <c r="D79" s="38" t="s">
         <v>688</v>
       </c>
-      <c r="E79" s="55"/>
-      <c r="F79" s="55"/>
+      <c r="E79" s="67"/>
+      <c r="F79" s="67"/>
       <c r="G79" s="38"/>
       <c r="H79" s="38"/>
       <c r="I79" s="38"/>
@@ -11079,18 +11083,18 @@
       <c r="L79" s="39"/>
     </row>
     <row r="80" spans="1:12">
-      <c r="A80" s="50" t="s">
+      <c r="A80" s="62" t="s">
         <v>689</v>
       </c>
-      <c r="B80" s="53"/>
+      <c r="B80" s="65"/>
       <c r="C80" s="34" t="s">
         <v>576</v>
       </c>
       <c r="D80" s="34"/>
-      <c r="E80" s="53" t="s">
+      <c r="E80" s="65" t="s">
         <v>690</v>
       </c>
-      <c r="F80" s="53"/>
+      <c r="F80" s="65"/>
       <c r="G80" s="34"/>
       <c r="H80" s="34"/>
       <c r="I80" s="34"/>
@@ -11099,10 +11103,10 @@
       <c r="L80" s="35"/>
     </row>
     <row r="81" spans="1:12" ht="49.5">
-      <c r="A81" s="51" t="s">
+      <c r="A81" s="63" t="s">
         <v>691</v>
       </c>
-      <c r="B81" s="54" t="s">
+      <c r="B81" s="66" t="s">
         <v>627</v>
       </c>
       <c r="C81" s="36" t="s">
@@ -11111,10 +11115,10 @@
       <c r="D81" s="36" t="s">
         <v>692</v>
       </c>
-      <c r="E81" s="54" t="s">
+      <c r="E81" s="66" t="s">
         <v>693</v>
       </c>
-      <c r="F81" s="54" t="s">
+      <c r="F81" s="66" t="s">
         <v>635</v>
       </c>
       <c r="G81" s="36"/>
@@ -11129,16 +11133,16 @@
       <c r="L81" s="37"/>
     </row>
     <row r="82" spans="1:12" ht="50.25" thickBot="1">
-      <c r="A82" s="52"/>
-      <c r="B82" s="55"/>
+      <c r="A82" s="64"/>
+      <c r="B82" s="67"/>
       <c r="C82" s="38" t="s">
         <v>584</v>
       </c>
       <c r="D82" s="38" t="s">
         <v>696</v>
       </c>
-      <c r="E82" s="55"/>
-      <c r="F82" s="55"/>
+      <c r="E82" s="67"/>
+      <c r="F82" s="67"/>
       <c r="G82" s="38"/>
       <c r="H82" s="38"/>
       <c r="I82" s="38"/>
@@ -11147,18 +11151,18 @@
       <c r="L82" s="39"/>
     </row>
     <row r="83" spans="1:12">
-      <c r="A83" s="50" t="s">
+      <c r="A83" s="62" t="s">
         <v>697</v>
       </c>
-      <c r="B83" s="53"/>
+      <c r="B83" s="65"/>
       <c r="C83" s="34" t="s">
         <v>576</v>
       </c>
       <c r="D83" s="34"/>
-      <c r="E83" s="53" t="s">
+      <c r="E83" s="65" t="s">
         <v>698</v>
       </c>
-      <c r="F83" s="53"/>
+      <c r="F83" s="65"/>
       <c r="G83" s="34"/>
       <c r="H83" s="34"/>
       <c r="I83" s="34"/>
@@ -11167,10 +11171,10 @@
       <c r="L83" s="35"/>
     </row>
     <row r="84" spans="1:12" ht="33">
-      <c r="A84" s="51" t="s">
+      <c r="A84" s="63" t="s">
         <v>697</v>
       </c>
-      <c r="B84" s="54" t="s">
+      <c r="B84" s="66" t="s">
         <v>579</v>
       </c>
       <c r="C84" s="36" t="s">
@@ -11179,10 +11183,10 @@
       <c r="D84" s="36" t="s">
         <v>660</v>
       </c>
-      <c r="E84" s="54" t="s">
+      <c r="E84" s="66" t="s">
         <v>699</v>
       </c>
-      <c r="F84" s="54" t="s">
+      <c r="F84" s="66" t="s">
         <v>635</v>
       </c>
       <c r="G84" s="36"/>
@@ -11197,16 +11201,16 @@
       <c r="L84" s="37"/>
     </row>
     <row r="85" spans="1:12" ht="33.75" thickBot="1">
-      <c r="A85" s="52"/>
-      <c r="B85" s="55"/>
+      <c r="A85" s="64"/>
+      <c r="B85" s="67"/>
       <c r="C85" s="38" t="s">
         <v>584</v>
       </c>
       <c r="D85" s="38" t="s">
         <v>702</v>
       </c>
-      <c r="E85" s="55"/>
-      <c r="F85" s="55"/>
+      <c r="E85" s="67"/>
+      <c r="F85" s="67"/>
       <c r="G85" s="38"/>
       <c r="H85" s="38"/>
       <c r="I85" s="38"/>
@@ -11215,20 +11219,20 @@
       <c r="L85" s="39"/>
     </row>
     <row r="86" spans="1:12" ht="33">
-      <c r="A86" s="62" t="s">
+      <c r="A86" s="56" t="s">
         <v>703</v>
       </c>
-      <c r="B86" s="65"/>
+      <c r="B86" s="59"/>
       <c r="C86" s="28" t="s">
         <v>639</v>
       </c>
       <c r="D86" s="23" t="s">
         <v>704</v>
       </c>
-      <c r="E86" s="59" t="s">
+      <c r="E86" s="53" t="s">
         <v>705</v>
       </c>
-      <c r="F86" s="59" t="s">
+      <c r="F86" s="53" t="s">
         <v>706</v>
       </c>
       <c r="G86" s="22"/>
@@ -11239,20 +11243,20 @@
       <c r="L86" s="24"/>
     </row>
     <row r="87" spans="1:12" ht="99">
-      <c r="A87" s="63" t="s">
+      <c r="A87" s="57" t="s">
         <v>703</v>
       </c>
-      <c r="B87" s="66"/>
+      <c r="B87" s="60"/>
       <c r="C87" s="29" t="s">
         <v>707</v>
       </c>
       <c r="D87" s="29" t="s">
         <v>708</v>
       </c>
-      <c r="E87" s="60" t="s">
+      <c r="E87" s="54" t="s">
         <v>709</v>
       </c>
-      <c r="F87" s="60" t="s">
+      <c r="F87" s="54" t="s">
         <v>635</v>
       </c>
       <c r="G87" s="23"/>
@@ -11271,16 +11275,16 @@
       </c>
     </row>
     <row r="88" spans="1:12" ht="50.25" thickBot="1">
-      <c r="A88" s="64"/>
-      <c r="B88" s="67"/>
+      <c r="A88" s="58"/>
+      <c r="B88" s="61"/>
       <c r="C88" s="30" t="s">
         <v>649</v>
       </c>
       <c r="D88" s="30" t="s">
         <v>714</v>
       </c>
-      <c r="E88" s="61"/>
-      <c r="F88" s="61"/>
+      <c r="E88" s="55"/>
+      <c r="F88" s="55"/>
       <c r="G88" s="26"/>
       <c r="H88" s="26"/>
       <c r="I88" s="26"/>
@@ -11289,20 +11293,20 @@
       <c r="L88" s="27"/>
     </row>
     <row r="89" spans="1:12" ht="33">
-      <c r="A89" s="56" t="s">
+      <c r="A89" s="50" t="s">
         <v>715</v>
       </c>
-      <c r="B89" s="59"/>
+      <c r="B89" s="53"/>
       <c r="C89" s="22" t="s">
         <v>639</v>
       </c>
       <c r="D89" s="23" t="s">
         <v>716</v>
       </c>
-      <c r="E89" s="59" t="s">
+      <c r="E89" s="53" t="s">
         <v>717</v>
       </c>
-      <c r="F89" s="59" t="s">
+      <c r="F89" s="53" t="s">
         <v>614</v>
       </c>
       <c r="G89" s="22"/>
@@ -11313,20 +11317,20 @@
       <c r="L89" s="24"/>
     </row>
     <row r="90" spans="1:12" ht="99">
-      <c r="A90" s="57" t="s">
+      <c r="A90" s="51" t="s">
         <v>718</v>
       </c>
-      <c r="B90" s="60"/>
+      <c r="B90" s="54"/>
       <c r="C90" s="23" t="s">
         <v>590</v>
       </c>
       <c r="D90" s="23" t="s">
         <v>719</v>
       </c>
-      <c r="E90" s="60" t="s">
+      <c r="E90" s="54" t="s">
         <v>720</v>
       </c>
-      <c r="F90" s="60" t="s">
+      <c r="F90" s="54" t="s">
         <v>614</v>
       </c>
       <c r="G90" s="23"/>
@@ -11345,16 +11349,16 @@
       </c>
     </row>
     <row r="91" spans="1:12" ht="50.25" thickBot="1">
-      <c r="A91" s="58"/>
-      <c r="B91" s="61"/>
+      <c r="A91" s="52"/>
+      <c r="B91" s="55"/>
       <c r="C91" s="26" t="s">
         <v>649</v>
       </c>
       <c r="D91" s="26" t="s">
         <v>724</v>
       </c>
-      <c r="E91" s="61"/>
-      <c r="F91" s="61"/>
+      <c r="E91" s="55"/>
+      <c r="F91" s="55"/>
       <c r="G91" s="26"/>
       <c r="H91" s="26"/>
       <c r="I91" s="26"/>
@@ -11363,20 +11367,20 @@
       <c r="L91" s="27"/>
     </row>
     <row r="92" spans="1:12" ht="33">
-      <c r="A92" s="62" t="s">
+      <c r="A92" s="56" t="s">
         <v>725</v>
       </c>
-      <c r="B92" s="65"/>
+      <c r="B92" s="59"/>
       <c r="C92" s="28" t="s">
         <v>726</v>
       </c>
       <c r="D92" s="23" t="s">
         <v>657</v>
       </c>
-      <c r="E92" s="59" t="s">
+      <c r="E92" s="53" t="s">
         <v>727</v>
       </c>
-      <c r="F92" s="59" t="s">
+      <c r="F92" s="53" t="s">
         <v>602</v>
       </c>
       <c r="G92" s="22"/>
@@ -11387,20 +11391,20 @@
       <c r="L92" s="24"/>
     </row>
     <row r="93" spans="1:12" ht="49.5">
-      <c r="A93" s="63" t="s">
+      <c r="A93" s="57" t="s">
         <v>728</v>
       </c>
-      <c r="B93" s="66"/>
+      <c r="B93" s="60"/>
       <c r="C93" s="29" t="s">
         <v>590</v>
       </c>
       <c r="D93" s="29" t="s">
         <v>657</v>
       </c>
-      <c r="E93" s="60" t="s">
+      <c r="E93" s="54" t="s">
         <v>727</v>
       </c>
-      <c r="F93" s="60" t="s">
+      <c r="F93" s="54" t="s">
         <v>602</v>
       </c>
       <c r="G93" s="23"/>
@@ -11419,16 +11423,16 @@
       </c>
     </row>
     <row r="94" spans="1:12" ht="17.25" thickBot="1">
-      <c r="A94" s="64"/>
-      <c r="B94" s="67"/>
+      <c r="A94" s="58"/>
+      <c r="B94" s="61"/>
       <c r="C94" s="30" t="s">
         <v>649</v>
       </c>
       <c r="D94" s="30" t="s">
         <v>733</v>
       </c>
-      <c r="E94" s="61"/>
-      <c r="F94" s="61"/>
+      <c r="E94" s="55"/>
+      <c r="F94" s="55"/>
       <c r="G94" s="26"/>
       <c r="H94" s="26"/>
       <c r="I94" s="26"/>
@@ -11437,20 +11441,20 @@
       <c r="L94" s="27"/>
     </row>
     <row r="95" spans="1:12" ht="33">
-      <c r="A95" s="56" t="s">
+      <c r="A95" s="50" t="s">
         <v>734</v>
       </c>
-      <c r="B95" s="59"/>
+      <c r="B95" s="53"/>
       <c r="C95" s="22" t="s">
         <v>726</v>
       </c>
       <c r="D95" s="23" t="s">
         <v>704</v>
       </c>
-      <c r="E95" s="65" t="s">
+      <c r="E95" s="59" t="s">
         <v>735</v>
       </c>
-      <c r="F95" s="65" t="s">
+      <c r="F95" s="59" t="s">
         <v>635</v>
       </c>
       <c r="G95" s="28"/>
@@ -11461,20 +11465,20 @@
       <c r="L95" s="31"/>
     </row>
     <row r="96" spans="1:12" ht="33">
-      <c r="A96" s="57" t="s">
+      <c r="A96" s="51" t="s">
         <v>734</v>
       </c>
-      <c r="B96" s="60"/>
+      <c r="B96" s="54"/>
       <c r="C96" s="23" t="s">
         <v>590</v>
       </c>
       <c r="D96" s="23" t="s">
         <v>657</v>
       </c>
-      <c r="E96" s="66" t="s">
+      <c r="E96" s="60" t="s">
         <v>735</v>
       </c>
-      <c r="F96" s="66" t="s">
+      <c r="F96" s="60" t="s">
         <v>635</v>
       </c>
       <c r="G96" s="29"/>
@@ -11493,16 +11497,16 @@
       </c>
     </row>
     <row r="97" spans="1:12" ht="33.75" thickBot="1">
-      <c r="A97" s="58"/>
-      <c r="B97" s="61"/>
+      <c r="A97" s="52"/>
+      <c r="B97" s="55"/>
       <c r="C97" s="26" t="s">
         <v>649</v>
       </c>
       <c r="D97" s="26" t="s">
         <v>740</v>
       </c>
-      <c r="E97" s="67"/>
-      <c r="F97" s="67"/>
+      <c r="E97" s="61"/>
+      <c r="F97" s="61"/>
       <c r="G97" s="30"/>
       <c r="H97" s="30"/>
       <c r="I97" s="30"/>
@@ -11511,20 +11515,20 @@
       <c r="L97" s="33"/>
     </row>
     <row r="98" spans="1:12" ht="33">
-      <c r="A98" s="56" t="s">
+      <c r="A98" s="50" t="s">
         <v>741</v>
       </c>
-      <c r="B98" s="59"/>
+      <c r="B98" s="53"/>
       <c r="C98" s="22" t="s">
         <v>639</v>
       </c>
       <c r="D98" s="23" t="s">
         <v>657</v>
       </c>
-      <c r="E98" s="59" t="s">
+      <c r="E98" s="53" t="s">
         <v>742</v>
       </c>
-      <c r="F98" s="59" t="s">
+      <c r="F98" s="53" t="s">
         <v>602</v>
       </c>
       <c r="G98" s="22"/>
@@ -11535,20 +11539,20 @@
       <c r="L98" s="24"/>
     </row>
     <row r="99" spans="1:12" ht="33">
-      <c r="A99" s="57" t="s">
+      <c r="A99" s="51" t="s">
         <v>743</v>
       </c>
-      <c r="B99" s="60"/>
+      <c r="B99" s="54"/>
       <c r="C99" s="23" t="s">
         <v>590</v>
       </c>
       <c r="D99" s="23" t="s">
         <v>744</v>
       </c>
-      <c r="E99" s="60" t="s">
+      <c r="E99" s="54" t="s">
         <v>742</v>
       </c>
-      <c r="F99" s="60" t="s">
+      <c r="F99" s="54" t="s">
         <v>602</v>
       </c>
       <c r="G99" s="23"/>
@@ -11567,16 +11571,16 @@
       </c>
     </row>
     <row r="100" spans="1:12" ht="33.75" thickBot="1">
-      <c r="A100" s="58"/>
-      <c r="B100" s="61"/>
+      <c r="A100" s="52"/>
+      <c r="B100" s="55"/>
       <c r="C100" s="26" t="s">
         <v>649</v>
       </c>
       <c r="D100" s="26" t="s">
         <v>749</v>
       </c>
-      <c r="E100" s="61"/>
-      <c r="F100" s="61"/>
+      <c r="E100" s="55"/>
+      <c r="F100" s="55"/>
       <c r="G100" s="26"/>
       <c r="H100" s="26"/>
       <c r="I100" s="26"/>
@@ -11585,20 +11589,20 @@
       <c r="L100" s="27"/>
     </row>
     <row r="101" spans="1:12" ht="33">
-      <c r="A101" s="56" t="s">
+      <c r="A101" s="50" t="s">
         <v>750</v>
       </c>
-      <c r="B101" s="59"/>
+      <c r="B101" s="53"/>
       <c r="C101" s="22" t="s">
         <v>639</v>
       </c>
       <c r="D101" s="23" t="s">
         <v>716</v>
       </c>
-      <c r="E101" s="59" t="s">
+      <c r="E101" s="53" t="s">
         <v>751</v>
       </c>
-      <c r="F101" s="59" t="s">
+      <c r="F101" s="53" t="s">
         <v>614</v>
       </c>
       <c r="G101" s="22"/>
@@ -11609,20 +11613,20 @@
       <c r="L101" s="24"/>
     </row>
     <row r="102" spans="1:12" ht="33">
-      <c r="A102" s="57" t="s">
+      <c r="A102" s="51" t="s">
         <v>750</v>
       </c>
-      <c r="B102" s="60"/>
+      <c r="B102" s="54"/>
       <c r="C102" s="23" t="s">
         <v>590</v>
       </c>
       <c r="D102" s="23" t="s">
         <v>752</v>
       </c>
-      <c r="E102" s="60" t="s">
+      <c r="E102" s="54" t="s">
         <v>751</v>
       </c>
-      <c r="F102" s="60" t="s">
+      <c r="F102" s="54" t="s">
         <v>614</v>
       </c>
       <c r="G102" s="23"/>
@@ -11641,16 +11645,16 @@
       </c>
     </row>
     <row r="103" spans="1:12" ht="33.75" thickBot="1">
-      <c r="A103" s="58"/>
-      <c r="B103" s="61"/>
+      <c r="A103" s="52"/>
+      <c r="B103" s="55"/>
       <c r="C103" s="26" t="s">
         <v>649</v>
       </c>
       <c r="D103" s="26" t="s">
         <v>756</v>
       </c>
-      <c r="E103" s="61"/>
-      <c r="F103" s="61"/>
+      <c r="E103" s="55"/>
+      <c r="F103" s="55"/>
       <c r="G103" s="26"/>
       <c r="H103" s="26"/>
       <c r="I103" s="26"/>
@@ -11659,18 +11663,18 @@
       <c r="L103" s="27"/>
     </row>
     <row r="104" spans="1:12">
-      <c r="A104" s="50" t="s">
+      <c r="A104" s="62" t="s">
         <v>757</v>
       </c>
-      <c r="B104" s="53"/>
+      <c r="B104" s="65"/>
       <c r="C104" s="34" t="s">
         <v>576</v>
       </c>
       <c r="D104" s="34"/>
-      <c r="E104" s="53" t="s">
+      <c r="E104" s="65" t="s">
         <v>758</v>
       </c>
-      <c r="F104" s="53"/>
+      <c r="F104" s="65"/>
       <c r="G104" s="34"/>
       <c r="H104" s="34"/>
       <c r="I104" s="34"/>
@@ -11679,10 +11683,10 @@
       <c r="L104" s="35"/>
     </row>
     <row r="105" spans="1:12" ht="33">
-      <c r="A105" s="51" t="s">
+      <c r="A105" s="63" t="s">
         <v>757</v>
       </c>
-      <c r="B105" s="54" t="s">
+      <c r="B105" s="66" t="s">
         <v>759</v>
       </c>
       <c r="C105" s="36" t="s">
@@ -11691,10 +11695,10 @@
       <c r="D105" s="36" t="s">
         <v>708</v>
       </c>
-      <c r="E105" s="54" t="s">
+      <c r="E105" s="66" t="s">
         <v>758</v>
       </c>
-      <c r="F105" s="54" t="s">
+      <c r="F105" s="66" t="s">
         <v>614</v>
       </c>
       <c r="G105" s="36"/>
@@ -11709,16 +11713,16 @@
       <c r="L105" s="37"/>
     </row>
     <row r="106" spans="1:12" ht="33.75" thickBot="1">
-      <c r="A106" s="52"/>
-      <c r="B106" s="55"/>
+      <c r="A106" s="64"/>
+      <c r="B106" s="67"/>
       <c r="C106" s="38" t="s">
         <v>584</v>
       </c>
       <c r="D106" s="38" t="s">
         <v>762</v>
       </c>
-      <c r="E106" s="55"/>
-      <c r="F106" s="55"/>
+      <c r="E106" s="67"/>
+      <c r="F106" s="67"/>
       <c r="G106" s="38"/>
       <c r="H106" s="38"/>
       <c r="I106" s="38"/>
@@ -11727,18 +11731,18 @@
       <c r="L106" s="39"/>
     </row>
     <row r="107" spans="1:12">
-      <c r="A107" s="50" t="s">
+      <c r="A107" s="62" t="s">
         <v>763</v>
       </c>
-      <c r="B107" s="53"/>
+      <c r="B107" s="65"/>
       <c r="C107" s="34" t="s">
         <v>576</v>
       </c>
       <c r="D107" s="34"/>
-      <c r="E107" s="53" t="s">
+      <c r="E107" s="65" t="s">
         <v>764</v>
       </c>
-      <c r="F107" s="53"/>
+      <c r="F107" s="65"/>
       <c r="G107" s="34"/>
       <c r="H107" s="34"/>
       <c r="I107" s="34"/>
@@ -11747,10 +11751,10 @@
       <c r="L107" s="35"/>
     </row>
     <row r="108" spans="1:12" ht="33">
-      <c r="A108" s="51" t="s">
+      <c r="A108" s="63" t="s">
         <v>763</v>
       </c>
-      <c r="B108" s="54" t="s">
+      <c r="B108" s="66" t="s">
         <v>627</v>
       </c>
       <c r="C108" s="36" t="s">
@@ -11759,10 +11763,10 @@
       <c r="D108" s="36" t="s">
         <v>634</v>
       </c>
-      <c r="E108" s="54" t="s">
+      <c r="E108" s="66" t="s">
         <v>764</v>
       </c>
-      <c r="F108" s="54" t="s">
+      <c r="F108" s="66" t="s">
         <v>635</v>
       </c>
       <c r="G108" s="36"/>
@@ -11777,16 +11781,16 @@
       <c r="L108" s="37"/>
     </row>
     <row r="109" spans="1:12" ht="17.25" thickBot="1">
-      <c r="A109" s="52"/>
-      <c r="B109" s="55"/>
+      <c r="A109" s="64"/>
+      <c r="B109" s="67"/>
       <c r="C109" s="38" t="s">
         <v>584</v>
       </c>
       <c r="D109" s="38" t="s">
         <v>767</v>
       </c>
-      <c r="E109" s="55"/>
-      <c r="F109" s="55"/>
+      <c r="E109" s="67"/>
+      <c r="F109" s="67"/>
       <c r="G109" s="38"/>
       <c r="H109" s="38"/>
       <c r="I109" s="38"/>
@@ -11795,18 +11799,18 @@
       <c r="L109" s="39"/>
     </row>
     <row r="110" spans="1:12">
-      <c r="A110" s="50" t="s">
+      <c r="A110" s="62" t="s">
         <v>768</v>
       </c>
-      <c r="B110" s="53"/>
+      <c r="B110" s="65"/>
       <c r="C110" s="34" t="s">
         <v>576</v>
       </c>
       <c r="D110" s="34"/>
-      <c r="E110" s="53" t="s">
+      <c r="E110" s="65" t="s">
         <v>769</v>
       </c>
-      <c r="F110" s="53"/>
+      <c r="F110" s="65"/>
       <c r="G110" s="34"/>
       <c r="H110" s="34"/>
       <c r="I110" s="34"/>
@@ -11815,10 +11819,10 @@
       <c r="L110" s="35"/>
     </row>
     <row r="111" spans="1:12" ht="33">
-      <c r="A111" s="51" t="s">
+      <c r="A111" s="63" t="s">
         <v>768</v>
       </c>
-      <c r="B111" s="54" t="s">
+      <c r="B111" s="66" t="s">
         <v>759</v>
       </c>
       <c r="C111" s="36" t="s">
@@ -11827,10 +11831,10 @@
       <c r="D111" s="36" t="s">
         <v>634</v>
       </c>
-      <c r="E111" s="54" t="s">
+      <c r="E111" s="66" t="s">
         <v>769</v>
       </c>
-      <c r="F111" s="54" t="s">
+      <c r="F111" s="66" t="s">
         <v>635</v>
       </c>
       <c r="G111" s="36"/>
@@ -11845,16 +11849,16 @@
       <c r="L111" s="37"/>
     </row>
     <row r="112" spans="1:12" ht="33.75" thickBot="1">
-      <c r="A112" s="52"/>
-      <c r="B112" s="55"/>
+      <c r="A112" s="64"/>
+      <c r="B112" s="67"/>
       <c r="C112" s="38" t="s">
         <v>584</v>
       </c>
       <c r="D112" s="38" t="s">
         <v>771</v>
       </c>
-      <c r="E112" s="55"/>
-      <c r="F112" s="55"/>
+      <c r="E112" s="67"/>
+      <c r="F112" s="67"/>
       <c r="G112" s="38"/>
       <c r="H112" s="38"/>
       <c r="I112" s="38"/>
@@ -11863,18 +11867,18 @@
       <c r="L112" s="39"/>
     </row>
     <row r="113" spans="1:12">
-      <c r="A113" s="50" t="s">
+      <c r="A113" s="62" t="s">
         <v>772</v>
       </c>
-      <c r="B113" s="53"/>
+      <c r="B113" s="65"/>
       <c r="C113" s="34" t="s">
         <v>576</v>
       </c>
       <c r="D113" s="34"/>
-      <c r="E113" s="53" t="s">
+      <c r="E113" s="65" t="s">
         <v>773</v>
       </c>
-      <c r="F113" s="53"/>
+      <c r="F113" s="65"/>
       <c r="G113" s="34"/>
       <c r="H113" s="34"/>
       <c r="I113" s="34"/>
@@ -11883,10 +11887,10 @@
       <c r="L113" s="35"/>
     </row>
     <row r="114" spans="1:12" ht="33">
-      <c r="A114" s="51" t="s">
+      <c r="A114" s="63" t="s">
         <v>772</v>
       </c>
-      <c r="B114" s="54" t="s">
+      <c r="B114" s="66" t="s">
         <v>759</v>
       </c>
       <c r="C114" s="36" t="s">
@@ -11895,10 +11899,10 @@
       <c r="D114" s="36" t="s">
         <v>774</v>
       </c>
-      <c r="E114" s="54" t="s">
+      <c r="E114" s="66" t="s">
         <v>773</v>
       </c>
-      <c r="F114" s="54" t="s">
+      <c r="F114" s="66" t="s">
         <v>635</v>
       </c>
       <c r="G114" s="36"/>
@@ -11913,16 +11917,16 @@
       <c r="L114" s="37"/>
     </row>
     <row r="115" spans="1:12" ht="17.25" thickBot="1">
-      <c r="A115" s="52"/>
-      <c r="B115" s="55"/>
+      <c r="A115" s="64"/>
+      <c r="B115" s="67"/>
       <c r="C115" s="38" t="s">
         <v>584</v>
       </c>
       <c r="D115" s="38" t="s">
         <v>777</v>
       </c>
-      <c r="E115" s="55"/>
-      <c r="F115" s="55"/>
+      <c r="E115" s="67"/>
+      <c r="F115" s="67"/>
       <c r="G115" s="38"/>
       <c r="H115" s="38"/>
       <c r="I115" s="38"/>
@@ -11932,30 +11936,118 @@
     </row>
   </sheetData>
   <mergeCells count="152">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="E2:E4"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="F5:F7"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="E14:E16"/>
-    <mergeCell ref="F14:F16"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="E17:E19"/>
-    <mergeCell ref="F17:F19"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="E11:E13"/>
-    <mergeCell ref="F11:F13"/>
+    <mergeCell ref="A110:A112"/>
+    <mergeCell ref="B110:B112"/>
+    <mergeCell ref="E110:E112"/>
+    <mergeCell ref="F110:F112"/>
+    <mergeCell ref="A113:A115"/>
+    <mergeCell ref="B113:B115"/>
+    <mergeCell ref="E113:E115"/>
+    <mergeCell ref="F113:F115"/>
+    <mergeCell ref="A104:A106"/>
+    <mergeCell ref="B104:B106"/>
+    <mergeCell ref="E104:E106"/>
+    <mergeCell ref="F104:F106"/>
+    <mergeCell ref="A107:A109"/>
+    <mergeCell ref="B107:B109"/>
+    <mergeCell ref="E107:E109"/>
+    <mergeCell ref="F107:F109"/>
+    <mergeCell ref="A98:A100"/>
+    <mergeCell ref="B98:B100"/>
+    <mergeCell ref="E98:E100"/>
+    <mergeCell ref="F98:F100"/>
+    <mergeCell ref="A101:A103"/>
+    <mergeCell ref="B101:B103"/>
+    <mergeCell ref="E101:E103"/>
+    <mergeCell ref="F101:F103"/>
+    <mergeCell ref="A92:A94"/>
+    <mergeCell ref="B92:B94"/>
+    <mergeCell ref="E92:E94"/>
+    <mergeCell ref="F92:F94"/>
+    <mergeCell ref="A95:A97"/>
+    <mergeCell ref="B95:B97"/>
+    <mergeCell ref="E95:E97"/>
+    <mergeCell ref="F95:F97"/>
+    <mergeCell ref="A86:A88"/>
+    <mergeCell ref="B86:B88"/>
+    <mergeCell ref="E86:E88"/>
+    <mergeCell ref="F86:F88"/>
+    <mergeCell ref="A89:A91"/>
+    <mergeCell ref="B89:B91"/>
+    <mergeCell ref="E89:E91"/>
+    <mergeCell ref="F89:F91"/>
+    <mergeCell ref="A80:A82"/>
+    <mergeCell ref="B80:B82"/>
+    <mergeCell ref="E80:E82"/>
+    <mergeCell ref="F80:F82"/>
+    <mergeCell ref="A83:A85"/>
+    <mergeCell ref="B83:B85"/>
+    <mergeCell ref="E83:E85"/>
+    <mergeCell ref="F83:F85"/>
+    <mergeCell ref="A74:A76"/>
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="E74:E76"/>
+    <mergeCell ref="F74:F76"/>
+    <mergeCell ref="A77:A79"/>
+    <mergeCell ref="B77:B79"/>
+    <mergeCell ref="E77:E79"/>
+    <mergeCell ref="F77:F79"/>
+    <mergeCell ref="A68:A70"/>
+    <mergeCell ref="B68:B70"/>
+    <mergeCell ref="E68:E70"/>
+    <mergeCell ref="F68:F70"/>
+    <mergeCell ref="A71:A73"/>
+    <mergeCell ref="B71:B73"/>
+    <mergeCell ref="E71:E73"/>
+    <mergeCell ref="F71:F73"/>
+    <mergeCell ref="A62:A64"/>
+    <mergeCell ref="B62:B64"/>
+    <mergeCell ref="E62:E64"/>
+    <mergeCell ref="F62:F64"/>
+    <mergeCell ref="A65:A67"/>
+    <mergeCell ref="B65:B67"/>
+    <mergeCell ref="E65:E67"/>
+    <mergeCell ref="F65:F67"/>
+    <mergeCell ref="A56:A58"/>
+    <mergeCell ref="B56:B58"/>
+    <mergeCell ref="E56:E58"/>
+    <mergeCell ref="F56:F58"/>
+    <mergeCell ref="A59:A61"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="E59:E61"/>
+    <mergeCell ref="F59:F61"/>
+    <mergeCell ref="A50:A52"/>
+    <mergeCell ref="B50:B52"/>
+    <mergeCell ref="E50:E52"/>
+    <mergeCell ref="F50:F52"/>
+    <mergeCell ref="A53:A55"/>
+    <mergeCell ref="B53:B55"/>
+    <mergeCell ref="E53:E55"/>
+    <mergeCell ref="F53:F55"/>
+    <mergeCell ref="A44:A46"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="E44:E46"/>
+    <mergeCell ref="F44:F46"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="E47:E49"/>
+    <mergeCell ref="F47:F49"/>
+    <mergeCell ref="A38:A40"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="E38:E40"/>
+    <mergeCell ref="F38:F40"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="E41:E43"/>
+    <mergeCell ref="F41:F43"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="E32:E34"/>
+    <mergeCell ref="F32:F34"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="E35:E37"/>
+    <mergeCell ref="F35:F37"/>
     <mergeCell ref="A26:A28"/>
     <mergeCell ref="B26:B28"/>
     <mergeCell ref="E26:E28"/>
@@ -11972,118 +12064,30 @@
     <mergeCell ref="B23:B25"/>
     <mergeCell ref="E23:E25"/>
     <mergeCell ref="F23:F25"/>
-    <mergeCell ref="A38:A40"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="E38:E40"/>
-    <mergeCell ref="F38:F40"/>
-    <mergeCell ref="A41:A43"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="E41:E43"/>
-    <mergeCell ref="F41:F43"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="E32:E34"/>
-    <mergeCell ref="F32:F34"/>
-    <mergeCell ref="A35:A37"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="E35:E37"/>
-    <mergeCell ref="F35:F37"/>
-    <mergeCell ref="A50:A52"/>
-    <mergeCell ref="B50:B52"/>
-    <mergeCell ref="E50:E52"/>
-    <mergeCell ref="F50:F52"/>
-    <mergeCell ref="A53:A55"/>
-    <mergeCell ref="B53:B55"/>
-    <mergeCell ref="E53:E55"/>
-    <mergeCell ref="F53:F55"/>
-    <mergeCell ref="A44:A46"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="E44:E46"/>
-    <mergeCell ref="F44:F46"/>
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="E47:E49"/>
-    <mergeCell ref="F47:F49"/>
-    <mergeCell ref="A62:A64"/>
-    <mergeCell ref="B62:B64"/>
-    <mergeCell ref="E62:E64"/>
-    <mergeCell ref="F62:F64"/>
-    <mergeCell ref="A65:A67"/>
-    <mergeCell ref="B65:B67"/>
-    <mergeCell ref="E65:E67"/>
-    <mergeCell ref="F65:F67"/>
-    <mergeCell ref="A56:A58"/>
-    <mergeCell ref="B56:B58"/>
-    <mergeCell ref="E56:E58"/>
-    <mergeCell ref="F56:F58"/>
-    <mergeCell ref="A59:A61"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="E59:E61"/>
-    <mergeCell ref="F59:F61"/>
-    <mergeCell ref="A74:A76"/>
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="E74:E76"/>
-    <mergeCell ref="F74:F76"/>
-    <mergeCell ref="A77:A79"/>
-    <mergeCell ref="B77:B79"/>
-    <mergeCell ref="E77:E79"/>
-    <mergeCell ref="F77:F79"/>
-    <mergeCell ref="A68:A70"/>
-    <mergeCell ref="B68:B70"/>
-    <mergeCell ref="E68:E70"/>
-    <mergeCell ref="F68:F70"/>
-    <mergeCell ref="A71:A73"/>
-    <mergeCell ref="B71:B73"/>
-    <mergeCell ref="E71:E73"/>
-    <mergeCell ref="F71:F73"/>
-    <mergeCell ref="A86:A88"/>
-    <mergeCell ref="B86:B88"/>
-    <mergeCell ref="E86:E88"/>
-    <mergeCell ref="F86:F88"/>
-    <mergeCell ref="A89:A91"/>
-    <mergeCell ref="B89:B91"/>
-    <mergeCell ref="E89:E91"/>
-    <mergeCell ref="F89:F91"/>
-    <mergeCell ref="A80:A82"/>
-    <mergeCell ref="B80:B82"/>
-    <mergeCell ref="E80:E82"/>
-    <mergeCell ref="F80:F82"/>
-    <mergeCell ref="A83:A85"/>
-    <mergeCell ref="B83:B85"/>
-    <mergeCell ref="E83:E85"/>
-    <mergeCell ref="F83:F85"/>
-    <mergeCell ref="A98:A100"/>
-    <mergeCell ref="B98:B100"/>
-    <mergeCell ref="E98:E100"/>
-    <mergeCell ref="F98:F100"/>
-    <mergeCell ref="A101:A103"/>
-    <mergeCell ref="B101:B103"/>
-    <mergeCell ref="E101:E103"/>
-    <mergeCell ref="F101:F103"/>
-    <mergeCell ref="A92:A94"/>
-    <mergeCell ref="B92:B94"/>
-    <mergeCell ref="E92:E94"/>
-    <mergeCell ref="F92:F94"/>
-    <mergeCell ref="A95:A97"/>
-    <mergeCell ref="B95:B97"/>
-    <mergeCell ref="E95:E97"/>
-    <mergeCell ref="F95:F97"/>
-    <mergeCell ref="A110:A112"/>
-    <mergeCell ref="B110:B112"/>
-    <mergeCell ref="E110:E112"/>
-    <mergeCell ref="F110:F112"/>
-    <mergeCell ref="A113:A115"/>
-    <mergeCell ref="B113:B115"/>
-    <mergeCell ref="E113:E115"/>
-    <mergeCell ref="F113:F115"/>
-    <mergeCell ref="A104:A106"/>
-    <mergeCell ref="B104:B106"/>
-    <mergeCell ref="E104:E106"/>
-    <mergeCell ref="F104:F106"/>
-    <mergeCell ref="A107:A109"/>
-    <mergeCell ref="B107:B109"/>
-    <mergeCell ref="E107:E109"/>
-    <mergeCell ref="F107:F109"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="F17:F19"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="F11:F13"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="F14:F16"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/策划案/镇魂街/战斗设计.xlsx
+++ b/策划案/镇魂街/战斗设计.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA922671-6970-497D-8C38-E4BE22D0F8BE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -28,12 +29,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
       <text>
         <r>
           <rPr>
@@ -59,7 +60,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0">
+    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000002000000}">
       <text>
         <r>
           <rPr>
@@ -85,7 +86,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0">
+    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000003000000}">
       <text>
         <r>
           <rPr>
@@ -111,7 +112,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0" shapeId="0">
+    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000004000000}">
       <text>
         <r>
           <rPr>
@@ -137,7 +138,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D3" authorId="0" shapeId="0">
+    <comment ref="D3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000005000000}">
       <text>
         <r>
           <rPr>
@@ -163,7 +164,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E3" authorId="0" shapeId="0">
+    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000006000000}">
       <text>
         <r>
           <rPr>
@@ -189,7 +190,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G6" authorId="0" shapeId="0">
+    <comment ref="G6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000007000000}">
       <text>
         <r>
           <rPr>
@@ -216,7 +217,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K6" authorId="0" shapeId="0">
+    <comment ref="K6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000008000000}">
       <text>
         <r>
           <rPr>
@@ -243,7 +244,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O7" authorId="0" shapeId="0">
+    <comment ref="O7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000009000000}">
       <text>
         <r>
           <rPr>
@@ -269,7 +270,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D10" authorId="0" shapeId="0">
+    <comment ref="D10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -295,7 +296,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D11" authorId="0" shapeId="0">
+    <comment ref="D11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -321,7 +322,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O13" authorId="0" shapeId="0">
+    <comment ref="O13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -347,7 +348,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C17" authorId="0" shapeId="0">
+    <comment ref="C17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -373,7 +374,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D17" authorId="0" shapeId="0">
+    <comment ref="D17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -399,7 +400,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C23" authorId="0" shapeId="0">
+    <comment ref="C23" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-00000F000000}">
       <text>
         <r>
           <rPr>
@@ -425,7 +426,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G23" authorId="0" shapeId="0">
+    <comment ref="G23" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000010000000}">
       <text>
         <r>
           <rPr>
@@ -451,7 +452,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K23" authorId="0" shapeId="0">
+    <comment ref="K23" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000011000000}">
       <text>
         <r>
           <rPr>
@@ -477,7 +478,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F27" authorId="0" shapeId="0">
+    <comment ref="F27" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000012000000}">
       <text>
         <r>
           <rPr>
@@ -503,7 +504,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J27" authorId="0" shapeId="0">
+    <comment ref="J27" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000013000000}">
       <text>
         <r>
           <rPr>
@@ -529,7 +530,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O27" authorId="0" shapeId="0">
+    <comment ref="O27" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000014000000}">
       <text>
         <r>
           <rPr>
@@ -560,7 +561,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1252" uniqueCount="857">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1255" uniqueCount="860">
   <si>
     <t>sheet名</t>
   </si>
@@ -1979,10 +1980,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>鬼将军</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>出场4水晶，让玩家快速招守护灵，不要垃圾时间。鬼将军死于唐流雨的大招加追击</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -4933,12 +4930,28 @@
     <t>UR</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>预估等级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>前置任务</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>小蜘蛛，鬼将军，小蜘蛛</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="19">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5403,7 +5416,7 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
@@ -5529,6 +5542,12 @@
     <xf numFmtId="0" fontId="18" fillId="10" borderId="15" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="4" applyFont="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="4">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -5624,20 +5643,20 @@
     </xf>
   </cellXfs>
   <cellStyles count="14">
-    <cellStyle name="Grid" xfId="4"/>
-    <cellStyle name="Normal" xfId="1"/>
+    <cellStyle name="Grid" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Normal" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="10"/>
-    <cellStyle name="常规 3" xfId="13"/>
-    <cellStyle name="超链接 2" xfId="11"/>
-    <cellStyle name="大标题" xfId="3"/>
-    <cellStyle name="横向标题" xfId="5"/>
-    <cellStyle name="文本" xfId="9"/>
-    <cellStyle name="无效" xfId="6"/>
-    <cellStyle name="因变Grid" xfId="7"/>
-    <cellStyle name="英文标题" xfId="12"/>
-    <cellStyle name="中文标题" xfId="2"/>
-    <cellStyle name="纵向标题" xfId="8"/>
+    <cellStyle name="常规 2" xfId="10" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="常规 3" xfId="13" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="超链接 2" xfId="11" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="大标题" xfId="3" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="横向标题" xfId="5" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="文本" xfId="9" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="无效" xfId="6" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="因变Grid" xfId="7" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="英文标题" xfId="12" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="中文标题" xfId="2" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="纵向标题" xfId="8" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -5914,14 +5933,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.5" customWidth="1"/>
     <col min="2" max="2" width="27.125" customWidth="1"/>
@@ -5932,7 +5951,7 @@
     <col min="7" max="7" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15">
+    <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5958,7 +5977,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="47.25" customHeight="1">
+    <row r="2" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -5968,7 +5987,7 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8" ht="57.75" customHeight="1">
+    <row r="3" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -5978,7 +5997,7 @@
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
     </row>
-    <row r="4" spans="1:8" ht="54" customHeight="1">
+    <row r="4" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -5988,7 +6007,7 @@
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="1:8" ht="55.5" customHeight="1">
+    <row r="5" spans="1:8" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -5998,7 +6017,7 @@
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
     </row>
   </sheetData>
@@ -6009,14 +6028,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
     <col min="2" max="2" width="27.875" customWidth="1"/>
@@ -6025,7 +6044,7 @@
     <col min="5" max="5" width="28.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>109</v>
       </c>
@@ -6042,7 +6061,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>122</v>
       </c>
@@ -6053,7 +6072,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>112</v>
       </c>
@@ -6061,7 +6080,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>113</v>
       </c>
@@ -6069,7 +6088,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>114</v>
       </c>
@@ -6077,7 +6096,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>121</v>
       </c>
@@ -6085,17 +6104,17 @@
         <v>118</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>123</v>
       </c>
@@ -6106,7 +6125,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>127</v>
       </c>
@@ -6114,31 +6133,31 @@
         <v>125</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="14"/>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="14"/>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="14"/>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="14"/>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="14"/>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="14"/>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" s="14"/>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" s="14"/>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" s="14"/>
     </row>
   </sheetData>
@@ -6149,820 +6168,960 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:L58"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A3:N58"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.875" customWidth="1"/>
-    <col min="2" max="2" width="42.875" customWidth="1"/>
-    <col min="3" max="3" width="29.375" customWidth="1"/>
-    <col min="4" max="4" width="32.5" customWidth="1"/>
-    <col min="5" max="5" width="40" customWidth="1"/>
+    <col min="2" max="2" width="7.125" customWidth="1"/>
+    <col min="3" max="3" width="44.75" customWidth="1"/>
+    <col min="4" max="4" width="42.875" customWidth="1"/>
+    <col min="5" max="5" width="29.375" customWidth="1"/>
+    <col min="6" max="6" width="32.5" customWidth="1"/>
+    <col min="7" max="7" width="40" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:5" ht="17.25">
+    <row r="3" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>265</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>856</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>857</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="E3" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="F3" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="G3" s="5" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="16.5">
+    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
-        <v>311</v>
-      </c>
-      <c r="B4" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="70.5" customHeight="1">
+    <row r="5" spans="1:7" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>288</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="C5" s="4" t="s">
+      <c r="B5" s="15">
+        <v>1</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>858</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="F5" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="G5" s="4" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="99" customHeight="1">
+    <row r="6" spans="1:7" ht="99" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
         <v>289</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="15">
+        <v>2</v>
+      </c>
+      <c r="C6" s="15"/>
+      <c r="D6" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="D6" s="4" t="s">
+      <c r="G6" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="E6" s="4" t="s">
+    </row>
+    <row r="7" spans="1:7" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="15" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="72" customHeight="1">
-      <c r="A7" s="15" t="s">
-        <v>316</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="C7" s="4" t="s">
+      <c r="B7" s="15">
+        <v>3</v>
+      </c>
+      <c r="C7" s="15"/>
+      <c r="D7" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="E7" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="F7" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="84.75" customHeight="1">
+    <row r="8" spans="1:7" ht="84.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
         <v>272</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="15">
+        <v>3</v>
+      </c>
+      <c r="C8" s="15"/>
+      <c r="D8" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="E8" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="F8" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="G8" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="42" customHeight="1">
+    <row r="9" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
         <v>277</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="15">
+        <v>4</v>
+      </c>
+      <c r="C9" s="15"/>
+      <c r="D9" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="E9" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="F9" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="G9" s="4" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="104.25" customHeight="1">
+    <row r="10" spans="1:7" ht="104.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
         <v>282</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>855</v>
-      </c>
-      <c r="C10" s="4" t="s">
+      <c r="B10" s="15">
+        <v>4</v>
+      </c>
+      <c r="C10" s="15"/>
+      <c r="D10" s="4" t="s">
+        <v>854</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="F10" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="G10" s="4" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="37.5" customHeight="1">
+    <row r="11" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
         <v>285</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="15">
+        <v>5</v>
+      </c>
+      <c r="C11" s="15"/>
+      <c r="D11" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="E11" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="F11" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="G11" s="4" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="45" customHeight="1">
+    <row r="12" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
-        <v>317</v>
-      </c>
-      <c r="B12" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="B12" s="15">
+        <v>5</v>
+      </c>
+      <c r="C12" s="15"/>
+      <c r="D12" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="E12" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="F12" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="G12" s="4" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="57.75" customHeight="1">
+    <row r="13" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="15" t="s">
-        <v>297</v>
-      </c>
-      <c r="B13" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="B13" s="15">
+        <v>6</v>
+      </c>
+      <c r="C13" s="15"/>
+      <c r="D13" s="4" t="s">
         <v>294</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>280</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" ht="39.75" customHeight="1">
+      <c r="F13" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="15" t="s">
-        <v>318</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>326</v>
-      </c>
+        <v>317</v>
+      </c>
+      <c r="B14" s="15">
+        <v>6</v>
+      </c>
+      <c r="C14" s="15"/>
       <c r="D14" s="4" t="s">
-        <v>280</v>
+        <v>297</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" ht="30.75" customHeight="1">
+      <c r="F14" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="B15" s="43"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="E15" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="G15" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="C15" s="4" t="s">
+    </row>
+    <row r="16" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B16" s="43"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="E16" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="33" customHeight="1">
-      <c r="A16" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="B16" s="4" t="s">
+      <c r="F16" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="G16" s="4" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="B17" s="43"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="E17" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="33" customHeight="1">
-      <c r="A17" s="4" t="s">
+      <c r="F17" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="33" customHeight="1">
-      <c r="A18" s="4" t="s">
-        <v>306</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>26</v>
-      </c>
+      <c r="B18" s="43"/>
+      <c r="C18" s="43"/>
       <c r="D18" s="4" t="s">
         <v>308</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="51" customHeight="1">
+        <v>26</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="B19" s="43"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4" t="s">
         <v>339</v>
       </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4" t="s">
+    </row>
+    <row r="20" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="15" t="s">
+        <v>309</v>
+      </c>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="15" t="s">
+        <v>322</v>
+      </c>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="15" t="s">
+        <v>326</v>
+      </c>
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="15" t="s">
+        <v>329</v>
+      </c>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="4" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="15" t="s">
+        <v>333</v>
+      </c>
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="4" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" ht="33" customHeight="1">
-      <c r="A20" s="15" t="s">
-        <v>310</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>328</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="31.5" customHeight="1">
-      <c r="A21" s="15" t="s">
-        <v>323</v>
-      </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="E21" s="4" t="s">
+      <c r="E24" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="F24" s="3"/>
+      <c r="G24" s="4" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="15" t="s">
+        <v>334</v>
+      </c>
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="15" t="s">
+        <v>346</v>
+      </c>
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="4"/>
+    </row>
+    <row r="27" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="15" t="s">
+        <v>347</v>
+      </c>
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="4"/>
+    </row>
+    <row r="28" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="15" t="s">
+        <v>348</v>
+      </c>
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="4"/>
+    </row>
+    <row r="29" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="15" t="s">
+        <v>349</v>
+      </c>
+      <c r="B29" s="15"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="4"/>
+    </row>
+    <row r="30" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="15" t="s">
+        <v>350</v>
+      </c>
+      <c r="B30" s="15"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="4"/>
+    </row>
+    <row r="31" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="15" t="s">
+        <v>351</v>
+      </c>
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="4"/>
+    </row>
+    <row r="32" spans="1:7" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="15" t="s">
+        <v>335</v>
+      </c>
+      <c r="B32" s="15"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="F32" s="3"/>
+      <c r="G32" s="4" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="15" t="s">
+        <v>336</v>
+      </c>
+      <c r="B33" s="15"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="E33" s="4" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" ht="33.75" customHeight="1">
-      <c r="A22" s="15" t="s">
-        <v>327</v>
-      </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="4" t="s">
-        <v>332</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="39.75" customHeight="1">
-      <c r="A23" s="15" t="s">
-        <v>330</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>331</v>
-      </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="4" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="32.25" customHeight="1">
-      <c r="A24" s="15" t="s">
-        <v>334</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>341</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>342</v>
-      </c>
-      <c r="D24" s="3"/>
-      <c r="E24" s="4" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="33" customHeight="1">
-      <c r="A25" s="15" t="s">
-        <v>335</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="33" customHeight="1">
-      <c r="A26" s="15" t="s">
-        <v>347</v>
-      </c>
-      <c r="B26" s="4" t="s">
+      <c r="F33" s="3"/>
+      <c r="G33" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="K33" t="s">
+        <v>396</v>
+      </c>
+      <c r="L33" t="s">
+        <v>397</v>
+      </c>
+      <c r="N33" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="15" t="s">
+        <v>337</v>
+      </c>
+      <c r="B34" s="15"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="E34" s="4"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="4"/>
+      <c r="K34" t="s">
+        <v>380</v>
+      </c>
+      <c r="L34" t="s">
+        <v>398</v>
+      </c>
+      <c r="N34" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="4" t="s">
         <v>358</v>
       </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="4"/>
-    </row>
-    <row r="27" spans="1:5" ht="33" customHeight="1">
-      <c r="A27" s="15" t="s">
-        <v>348</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>353</v>
-      </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="4"/>
-    </row>
-    <row r="28" spans="1:5" ht="33" customHeight="1">
-      <c r="A28" s="15" t="s">
-        <v>349</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>354</v>
-      </c>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="4"/>
-    </row>
-    <row r="29" spans="1:5" ht="33" customHeight="1">
-      <c r="A29" s="15" t="s">
-        <v>350</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="4"/>
-    </row>
-    <row r="30" spans="1:5" ht="33" customHeight="1">
-      <c r="A30" s="15" t="s">
-        <v>351</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>357</v>
-      </c>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="4"/>
-    </row>
-    <row r="31" spans="1:5" ht="33" customHeight="1">
-      <c r="A31" s="15" t="s">
-        <v>352</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="4"/>
-    </row>
-    <row r="32" spans="1:5" ht="65.25" customHeight="1">
-      <c r="A32" s="15" t="s">
-        <v>336</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>402</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>403</v>
-      </c>
-      <c r="D32" s="3"/>
-      <c r="E32" s="4" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" ht="51" customHeight="1">
-      <c r="A33" s="15" t="s">
-        <v>337</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>407</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="D33" s="3"/>
-      <c r="E33" s="4" t="s">
-        <v>404</v>
-      </c>
-      <c r="I33" t="s">
-        <v>397</v>
-      </c>
-      <c r="J33" t="s">
-        <v>398</v>
-      </c>
-      <c r="L33" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" ht="57" customHeight="1">
-      <c r="A34" s="15" t="s">
-        <v>338</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>408</v>
-      </c>
-      <c r="C34" s="4"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="4"/>
-      <c r="I34" t="s">
+      <c r="B35" s="43"/>
+      <c r="C35" s="43"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="4" t="s">
         <v>381</v>
       </c>
-      <c r="J34" t="s">
-        <v>399</v>
-      </c>
-      <c r="L34" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" ht="28.5" customHeight="1">
-      <c r="A35" s="4" t="s">
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+    </row>
+    <row r="36" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="4" t="s">
         <v>359</v>
       </c>
-      <c r="B35" s="3"/>
-      <c r="C35" s="4" t="s">
+      <c r="B36" s="43"/>
+      <c r="C36" s="43"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="4" t="s">
         <v>382</v>
       </c>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-    </row>
-    <row r="36" spans="1:12" ht="26.25" customHeight="1">
-      <c r="A36" s="4" t="s">
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+    </row>
+    <row r="37" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="4" t="s">
         <v>360</v>
       </c>
-      <c r="B36" s="3"/>
-      <c r="C36" s="4" t="s">
+      <c r="B37" s="43"/>
+      <c r="C37" s="43"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="4" t="s">
         <v>383</v>
       </c>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-    </row>
-    <row r="37" spans="1:12" ht="24" customHeight="1">
-      <c r="A37" s="4" t="s">
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+    </row>
+    <row r="38" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="4" t="s">
         <v>361</v>
       </c>
-      <c r="B37" s="3"/>
-      <c r="C37" s="4" t="s">
+      <c r="B38" s="43"/>
+      <c r="C38" s="43"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="4" t="s">
         <v>384</v>
       </c>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-    </row>
-    <row r="38" spans="1:12" ht="23.25" customHeight="1">
-      <c r="A38" s="4" t="s">
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+    </row>
+    <row r="39" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="B39" s="43"/>
+      <c r="C39" s="43"/>
+      <c r="D39" s="45" t="s">
+        <v>390</v>
+      </c>
+      <c r="E39" s="46"/>
+      <c r="F39" s="46"/>
+      <c r="G39" s="47"/>
+    </row>
+    <row r="40" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="4" t="s">
         <v>362</v>
       </c>
-      <c r="B38" s="3"/>
-      <c r="C38" s="4" t="s">
+      <c r="B40" s="43"/>
+      <c r="C40" s="43"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="4" t="s">
         <v>385</v>
       </c>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-    </row>
-    <row r="39" spans="1:12" ht="23.25" customHeight="1">
-      <c r="A39" s="4" t="s">
-        <v>390</v>
-      </c>
-      <c r="B39" s="43" t="s">
-        <v>391</v>
-      </c>
-      <c r="C39" s="44"/>
-      <c r="D39" s="44"/>
-      <c r="E39" s="45"/>
-    </row>
-    <row r="40" spans="1:12" ht="37.5" customHeight="1">
-      <c r="A40" s="4" t="s">
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+    </row>
+    <row r="41" spans="1:14" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="4" t="s">
         <v>363</v>
       </c>
-      <c r="B40" s="3"/>
-      <c r="C40" s="4" t="s">
+      <c r="B41" s="43"/>
+      <c r="C41" s="43"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="4" t="s">
         <v>386</v>
       </c>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-    </row>
-    <row r="41" spans="1:12" ht="36.75" customHeight="1">
-      <c r="A41" s="4" t="s">
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+    </row>
+    <row r="42" spans="1:14" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="4" t="s">
         <v>364</v>
       </c>
-      <c r="B41" s="3"/>
-      <c r="C41" s="4" t="s">
+      <c r="B42" s="43"/>
+      <c r="C42" s="43"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="4" t="s">
         <v>387</v>
       </c>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-    </row>
-    <row r="42" spans="1:12" ht="38.25" customHeight="1">
-      <c r="A42" s="4" t="s">
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+    </row>
+    <row r="43" spans="1:14" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="4" t="s">
         <v>365</v>
       </c>
-      <c r="B42" s="3"/>
-      <c r="C42" s="4" t="s">
+      <c r="B43" s="43"/>
+      <c r="C43" s="43"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="4" t="s">
         <v>388</v>
       </c>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-    </row>
-    <row r="43" spans="1:12" ht="38.25" customHeight="1">
-      <c r="A43" s="4" t="s">
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+    </row>
+    <row r="44" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="4" t="s">
         <v>366</v>
       </c>
-      <c r="B43" s="3"/>
-      <c r="C43" s="4" t="s">
-        <v>389</v>
-      </c>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
-    </row>
-    <row r="44" spans="1:12" ht="28.5" customHeight="1">
-      <c r="A44" s="4" t="s">
-        <v>367</v>
-      </c>
-      <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
+      <c r="B44" s="43"/>
+      <c r="C44" s="43"/>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
-    </row>
-    <row r="45" spans="1:12" ht="20.100000000000001" customHeight="1">
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+    </row>
+    <row r="45" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="B45" s="43"/>
+      <c r="C45" s="43"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+    </row>
+    <row r="46" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="B45" s="3"/>
-      <c r="C45" s="4" t="s">
+      <c r="B46" s="43"/>
+      <c r="C46" s="43"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="4" t="s">
         <v>393</v>
       </c>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
-    </row>
-    <row r="46" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A46" s="4" t="s">
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+    </row>
+    <row r="47" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="B46" s="3"/>
-      <c r="C46" s="4" t="s">
+      <c r="B47" s="44"/>
+      <c r="C47" s="44"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="4" t="s">
         <v>394</v>
       </c>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
-    </row>
-    <row r="47" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A47" s="3" t="s">
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+    </row>
+    <row r="48" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="B47" s="3"/>
-      <c r="C47" s="4" t="s">
+      <c r="B48" s="44"/>
+      <c r="C48" s="44"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+    </row>
+    <row r="49" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="B49" s="43"/>
+      <c r="C49" s="43"/>
+      <c r="D49" s="45" t="s">
         <v>395</v>
       </c>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3"/>
-    </row>
-    <row r="48" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A48" s="3" t="s">
+      <c r="E49" s="46"/>
+      <c r="F49" s="46"/>
+      <c r="G49" s="47"/>
+    </row>
+    <row r="50" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="16" t="s">
         <v>371</v>
       </c>
-      <c r="B48" s="3"/>
-      <c r="C48" s="4" t="s">
-        <v>392</v>
-      </c>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3"/>
-    </row>
-    <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A49" s="4" t="s">
-        <v>390</v>
-      </c>
-      <c r="B49" s="43" t="s">
-        <v>396</v>
-      </c>
-      <c r="C49" s="44"/>
-      <c r="D49" s="44"/>
-      <c r="E49" s="45"/>
-    </row>
-    <row r="50" spans="1:5" ht="51.75" customHeight="1">
-      <c r="A50" s="16" t="s">
+      <c r="B50" s="16"/>
+      <c r="C50" s="16"/>
+      <c r="D50" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="F50" s="3"/>
+      <c r="G50" s="4" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="16" t="s">
         <v>372</v>
       </c>
-      <c r="B50" s="4" t="s">
-        <v>409</v>
-      </c>
-      <c r="C50" s="4" t="s">
+      <c r="B51" s="16"/>
+      <c r="C51" s="16"/>
+      <c r="D51" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="E51" s="4" t="s">
         <v>421</v>
       </c>
-      <c r="D50" s="3"/>
-      <c r="E50" s="4" t="s">
+      <c r="F51" s="3"/>
+      <c r="G51" s="4" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="16" t="s">
+        <v>373</v>
+      </c>
+      <c r="B52" s="16"/>
+      <c r="C52" s="16"/>
+      <c r="D52" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="E52" s="4"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="4" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="16" t="s">
+        <v>374</v>
+      </c>
+      <c r="B53" s="16"/>
+      <c r="C53" s="16"/>
+      <c r="D53" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="G53" s="4"/>
+    </row>
+    <row r="54" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="16" t="s">
+        <v>375</v>
+      </c>
+      <c r="B54" s="16"/>
+      <c r="C54" s="16"/>
+      <c r="D54" s="4" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" ht="35.1" customHeight="1">
-      <c r="A51" s="16" t="s">
-        <v>373</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>416</v>
-      </c>
-      <c r="C51" s="4" t="s">
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="4" t="s">
         <v>422</v>
       </c>
-      <c r="D51" s="3"/>
-      <c r="E51" s="4" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="35.1" customHeight="1">
-      <c r="A52" s="16" t="s">
-        <v>374</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>418</v>
-      </c>
-      <c r="C52" s="4"/>
-      <c r="D52" s="3"/>
-      <c r="E52" s="4" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="35.1" customHeight="1">
-      <c r="A53" s="16" t="s">
-        <v>375</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>426</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>424</v>
-      </c>
-      <c r="D53" s="4" t="s">
+    </row>
+    <row r="55" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="16" t="s">
+        <v>376</v>
+      </c>
+      <c r="B55" s="16"/>
+      <c r="C55" s="16"/>
+      <c r="D55" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="E55" s="4" t="s">
         <v>427</v>
       </c>
-      <c r="E53" s="4"/>
-    </row>
-    <row r="54" spans="1:5" ht="35.1" customHeight="1">
-      <c r="A54" s="16" t="s">
-        <v>376</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>420</v>
-      </c>
-      <c r="C54" s="3"/>
-      <c r="D54" s="3"/>
-      <c r="E54" s="4" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="35.1" customHeight="1">
-      <c r="A55" s="16" t="s">
+      <c r="F55" s="3"/>
+      <c r="G55" s="4" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="16" t="s">
         <v>377</v>
       </c>
-      <c r="B55" s="4" t="s">
+      <c r="B56" s="16"/>
+      <c r="C56" s="16"/>
+      <c r="D56" s="4" t="s">
         <v>429</v>
       </c>
-      <c r="C55" s="4" t="s">
-        <v>428</v>
-      </c>
-      <c r="D55" s="3"/>
-      <c r="E55" s="4" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" ht="45.75" customHeight="1">
-      <c r="A56" s="16" t="s">
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="4" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="16" t="s">
         <v>378</v>
       </c>
-      <c r="B56" s="4" t="s">
-        <v>430</v>
-      </c>
-      <c r="C56" s="3"/>
-      <c r="D56" s="3"/>
-      <c r="E56" s="4" t="s">
+      <c r="B57" s="16"/>
+      <c r="C57" s="16"/>
+      <c r="D57" s="4" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" ht="45.75" customHeight="1">
-      <c r="A57" s="16" t="s">
+      <c r="E57" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="16" t="s">
         <v>379</v>
       </c>
-      <c r="B57" s="4" t="s">
-        <v>432</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>436</v>
-      </c>
-      <c r="D57" s="4" t="s">
-        <v>433</v>
-      </c>
-      <c r="E57" s="4" t="s">
+      <c r="B58" s="16"/>
+      <c r="C58" s="16"/>
+      <c r="D58" s="4" t="s">
         <v>434</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="52.5" customHeight="1">
-      <c r="A58" s="16" t="s">
-        <v>380</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>435</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>438</v>
-      </c>
-      <c r="D58" s="4" t="s">
-        <v>439</v>
       </c>
       <c r="E58" s="4" t="s">
         <v>437</v>
       </c>
+      <c r="F58" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="G58" s="4" t="s">
+        <v>436</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B39:E39"/>
-    <mergeCell ref="B49:E49"/>
+    <mergeCell ref="D39:G39"/>
+    <mergeCell ref="D49:G49"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6971,17 +7130,17 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.875" customWidth="1"/>
     <col min="2" max="3" width="16.375" customWidth="1"/>
@@ -6994,7 +7153,7 @@
     <col min="11" max="11" width="22.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="17.25">
+    <row r="1" spans="1:10" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>8</v>
       </c>
@@ -7026,37 +7185,37 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="108" customHeight="1">
+    <row r="2" spans="1:10" ht="108" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>411</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
+        <v>820</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>412</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>821</v>
-      </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>413</v>
       </c>
-      <c r="H2" s="4" t="s">
-        <v>415</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>414</v>
-      </c>
       <c r="J2" s="4" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="108" customHeight="1">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="108" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>33</v>
       </c>
@@ -7071,7 +7230,7 @@
         <v>35</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>76</v>
@@ -7086,7 +7245,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="150.75" customHeight="1">
+    <row r="4" spans="1:10" ht="150.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>45</v>
       </c>
@@ -7101,7 +7260,7 @@
         <v>47</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>79</v>
@@ -7116,12 +7275,12 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="99.75" customHeight="1">
+    <row r="5" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="4" t="s">
@@ -7131,96 +7290,96 @@
         <v>20</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="84.75" customHeight="1">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="84.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="4" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>20</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="4" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="103.5" customHeight="1">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="4" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="4" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>20</v>
       </c>
       <c r="F7" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="J7" s="4" t="s">
         <v>456</v>
       </c>
-      <c r="G7" s="4" t="s">
-        <v>453</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>455</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>452</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="102.75" customHeight="1">
+    </row>
+    <row r="8" spans="1:10" ht="102.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="4" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>20</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="4" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="67.5" customHeight="1">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="4" t="s">
         <v>42</v>
@@ -7233,7 +7392,7 @@
         <v>41</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>77</v>
@@ -7248,161 +7407,161 @@
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="87" customHeight="1">
+    <row r="10" spans="1:10" ht="87" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="4" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="4" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="4" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="121.5" customHeight="1">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="121.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="4" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="4" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="92.25" customHeight="1">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="4" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="4" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="G12" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>822</v>
+      </c>
+      <c r="I12" s="3" t="s">
         <v>804</v>
       </c>
-      <c r="H12" s="4" t="s">
-        <v>823</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>805</v>
-      </c>
       <c r="J12" s="4" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="133.5" customHeight="1">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="133.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="4" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="4" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="4" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="138.75" customHeight="1">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="138.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="4" t="s">
         <v>68</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="4" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="I14" s="3"/>
       <c r="J14" s="4" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="119.25" customHeight="1">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="119.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="4" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="4" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="G15" s="4" t="s">
+        <v>785</v>
+      </c>
+      <c r="H15" s="4" t="s">
         <v>786</v>
       </c>
-      <c r="H15" s="4" t="s">
-        <v>787</v>
-      </c>
       <c r="I15" s="4" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="65.25" customHeight="1">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="4" t="s">
         <v>40</v>
@@ -7415,7 +7574,7 @@
         <v>18</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G16" s="4" t="s">
         <v>80</v>
@@ -7427,43 +7586,43 @@
         <v>73</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="105.75" customHeight="1">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="105.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="4" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="4" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="G17" s="3"/>
       <c r="H17" s="4" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="54.75" customHeight="1">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
       <c r="B18" s="4" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="4" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>18</v>
@@ -7484,38 +7643,38 @@
         <v>87</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="53.25" customHeight="1">
+    <row r="19" spans="1:10" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
       <c r="B19" s="4" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="4" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="G19" s="4" t="s">
+        <v>839</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>829</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>830</v>
+      </c>
+      <c r="J19" s="4" t="s">
         <v>840</v>
       </c>
-      <c r="H19" s="4" t="s">
-        <v>830</v>
-      </c>
-      <c r="I19" s="4" t="s">
-        <v>831</v>
-      </c>
-      <c r="J19" s="4" t="s">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="91.5" customHeight="1">
+    </row>
+    <row r="20" spans="1:10" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
       <c r="B20" s="4" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="4" t="s">
@@ -7525,102 +7684,102 @@
         <v>18</v>
       </c>
       <c r="F20" s="4" t="s">
+        <v>807</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>838</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>828</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>842</v>
+      </c>
+      <c r="J20" s="4" t="s">
         <v>808</v>
       </c>
-      <c r="G20" s="4" t="s">
-        <v>839</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>829</v>
-      </c>
-      <c r="I20" s="4" t="s">
-        <v>843</v>
-      </c>
-      <c r="J20" s="4" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="102" customHeight="1">
+    </row>
+    <row r="21" spans="1:10" ht="102" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
       <c r="B21" s="4" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="4" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>811</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="222" customHeight="1">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="222" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
       <c r="B22" s="4" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="4" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="G22" s="3"/>
       <c r="H22" s="4" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="109.5" customHeight="1">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="109.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
       <c r="B23" s="4" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="4" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="G23" s="3"/>
       <c r="H23" s="4" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="16.5">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -7632,7 +7791,7 @@
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
     </row>
-    <row r="25" spans="1:10" ht="16.5">
+    <row r="25" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -7644,7 +7803,7 @@
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
     </row>
-    <row r="26" spans="1:10" ht="16.5">
+    <row r="26" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -7656,7 +7815,7 @@
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
     </row>
-    <row r="27" spans="1:10" ht="16.5">
+    <row r="27" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -7668,7 +7827,7 @@
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
     </row>
-    <row r="28" spans="1:10" ht="16.5">
+    <row r="28" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -7680,7 +7839,7 @@
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
     </row>
-    <row r="29" spans="1:10" ht="16.5">
+    <row r="29" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -7692,7 +7851,7 @@
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
     </row>
-    <row r="30" spans="1:10" ht="16.5">
+    <row r="30" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -7712,14 +7871,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:X19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.25" customWidth="1"/>
     <col min="2" max="2" width="15.75" customWidth="1"/>
@@ -7732,7 +7891,7 @@
     <col min="11" max="11" width="34.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="17.25">
+    <row r="1" spans="1:24" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>8</v>
       </c>
@@ -7767,7 +7926,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="99.95" customHeight="1">
+    <row r="2" spans="1:24" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="3" t="s">
         <v>15</v>
@@ -7795,24 +7954,24 @@
         <v>131</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>848</v>
-      </c>
-      <c r="M2" s="46" t="s">
         <v>847</v>
       </c>
-      <c r="N2" s="47"/>
-      <c r="O2" s="47"/>
-      <c r="P2" s="47"/>
-      <c r="Q2" s="47"/>
-      <c r="R2" s="47"/>
-      <c r="S2" s="47"/>
-      <c r="T2" s="47"/>
-      <c r="U2" s="47"/>
-      <c r="V2" s="47"/>
-      <c r="W2" s="47"/>
-      <c r="X2" s="47"/>
-    </row>
-    <row r="3" spans="1:24" ht="99.95" customHeight="1">
+      <c r="M2" s="48" t="s">
+        <v>846</v>
+      </c>
+      <c r="N2" s="49"/>
+      <c r="O2" s="49"/>
+      <c r="P2" s="49"/>
+      <c r="Q2" s="49"/>
+      <c r="R2" s="49"/>
+      <c r="S2" s="49"/>
+      <c r="T2" s="49"/>
+      <c r="U2" s="49"/>
+      <c r="V2" s="49"/>
+      <c r="W2" s="49"/>
+      <c r="X2" s="49"/>
+    </row>
+    <row r="3" spans="1:24" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="4" t="s">
         <v>92</v>
@@ -7840,22 +7999,22 @@
         <v>130</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>851</v>
-      </c>
-      <c r="M3" s="47"/>
-      <c r="N3" s="47"/>
-      <c r="O3" s="47"/>
-      <c r="P3" s="47"/>
-      <c r="Q3" s="47"/>
-      <c r="R3" s="47"/>
-      <c r="S3" s="47"/>
-      <c r="T3" s="47"/>
-      <c r="U3" s="47"/>
-      <c r="V3" s="47"/>
-      <c r="W3" s="47"/>
-      <c r="X3" s="47"/>
-    </row>
-    <row r="4" spans="1:24" ht="99.95" customHeight="1">
+        <v>850</v>
+      </c>
+      <c r="M3" s="49"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="49"/>
+      <c r="P3" s="49"/>
+      <c r="Q3" s="49"/>
+      <c r="R3" s="49"/>
+      <c r="S3" s="49"/>
+      <c r="T3" s="49"/>
+      <c r="U3" s="49"/>
+      <c r="V3" s="49"/>
+      <c r="W3" s="49"/>
+      <c r="X3" s="49"/>
+    </row>
+    <row r="4" spans="1:24" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="4" t="s">
         <v>132</v>
@@ -7880,25 +8039,25 @@
         <v>91</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>852</v>
-      </c>
-      <c r="M4" s="47"/>
-      <c r="N4" s="47"/>
-      <c r="O4" s="47"/>
-      <c r="P4" s="47"/>
-      <c r="Q4" s="47"/>
-      <c r="R4" s="47"/>
-      <c r="S4" s="47"/>
-      <c r="T4" s="47"/>
-      <c r="U4" s="47"/>
-      <c r="V4" s="47"/>
-      <c r="W4" s="47"/>
-      <c r="X4" s="47"/>
-    </row>
-    <row r="5" spans="1:24" ht="99.95" customHeight="1">
+        <v>851</v>
+      </c>
+      <c r="M4" s="49"/>
+      <c r="N4" s="49"/>
+      <c r="O4" s="49"/>
+      <c r="P4" s="49"/>
+      <c r="Q4" s="49"/>
+      <c r="R4" s="49"/>
+      <c r="S4" s="49"/>
+      <c r="T4" s="49"/>
+      <c r="U4" s="49"/>
+      <c r="V4" s="49"/>
+      <c r="W4" s="49"/>
+      <c r="X4" s="49"/>
+    </row>
+    <row r="5" spans="1:24" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
         <v>16</v>
@@ -7923,25 +8082,25 @@
         <v>88</v>
       </c>
       <c r="J5" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="K5" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="K5" s="4" t="s">
-        <v>441</v>
-      </c>
-      <c r="M5" s="47"/>
-      <c r="N5" s="47"/>
-      <c r="O5" s="47"/>
-      <c r="P5" s="47"/>
-      <c r="Q5" s="47"/>
-      <c r="R5" s="47"/>
-      <c r="S5" s="47"/>
-      <c r="T5" s="47"/>
-      <c r="U5" s="47"/>
-      <c r="V5" s="47"/>
-      <c r="W5" s="47"/>
-      <c r="X5" s="47"/>
-    </row>
-    <row r="6" spans="1:24" ht="99.95" customHeight="1">
+      <c r="M5" s="49"/>
+      <c r="N5" s="49"/>
+      <c r="O5" s="49"/>
+      <c r="P5" s="49"/>
+      <c r="Q5" s="49"/>
+      <c r="R5" s="49"/>
+      <c r="S5" s="49"/>
+      <c r="T5" s="49"/>
+      <c r="U5" s="49"/>
+      <c r="V5" s="49"/>
+      <c r="W5" s="49"/>
+      <c r="X5" s="49"/>
+    </row>
+    <row r="6" spans="1:24" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="4" t="s">
         <v>32</v>
@@ -7966,25 +8125,25 @@
         <v>58</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>849</v>
-      </c>
-      <c r="M6" s="47"/>
-      <c r="N6" s="47"/>
-      <c r="O6" s="47"/>
-      <c r="P6" s="47"/>
-      <c r="Q6" s="47"/>
-      <c r="R6" s="47"/>
-      <c r="S6" s="47"/>
-      <c r="T6" s="47"/>
-      <c r="U6" s="47"/>
-      <c r="V6" s="47"/>
-      <c r="W6" s="47"/>
-      <c r="X6" s="47"/>
-    </row>
-    <row r="7" spans="1:24" ht="99.95" customHeight="1">
+        <v>848</v>
+      </c>
+      <c r="M6" s="49"/>
+      <c r="N6" s="49"/>
+      <c r="O6" s="49"/>
+      <c r="P6" s="49"/>
+      <c r="Q6" s="49"/>
+      <c r="R6" s="49"/>
+      <c r="S6" s="49"/>
+      <c r="T6" s="49"/>
+      <c r="U6" s="49"/>
+      <c r="V6" s="49"/>
+      <c r="W6" s="49"/>
+      <c r="X6" s="49"/>
+    </row>
+    <row r="7" spans="1:24" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="3" t="s">
         <v>24</v>
@@ -8012,10 +8171,10 @@
         <v>49</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" ht="99.95" customHeight="1">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="4" t="s">
         <v>37</v>
@@ -8043,10 +8202,10 @@
         <v>129</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" ht="99.95" customHeight="1">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="4" t="s">
         <v>60</v>
@@ -8072,10 +8231,10 @@
         <v>128</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" ht="99.95" customHeight="1">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -8088,7 +8247,7 @@
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
     </row>
-    <row r="11" spans="1:24" ht="99.95" customHeight="1">
+    <row r="11" spans="1:24" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -8101,7 +8260,7 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
     </row>
-    <row r="12" spans="1:24" ht="99.95" customHeight="1">
+    <row r="12" spans="1:24" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -8114,7 +8273,7 @@
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
     </row>
-    <row r="13" spans="1:24" ht="99.95" customHeight="1">
+    <row r="13" spans="1:24" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -8127,7 +8286,7 @@
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
     </row>
-    <row r="14" spans="1:24" ht="99.95" customHeight="1">
+    <row r="14" spans="1:24" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -8140,7 +8299,7 @@
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
     </row>
-    <row r="15" spans="1:24" ht="99.95" customHeight="1">
+    <row r="15" spans="1:24" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -8153,7 +8312,7 @@
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
     </row>
-    <row r="16" spans="1:24" ht="99.95" customHeight="1">
+    <row r="16" spans="1:24" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -8166,7 +8325,7 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
     </row>
-    <row r="17" spans="1:11" ht="99.95" customHeight="1">
+    <row r="17" spans="1:11" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -8179,7 +8338,7 @@
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
     </row>
-    <row r="18" spans="1:11" ht="99.95" customHeight="1">
+    <row r="18" spans="1:11" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -8192,7 +8351,7 @@
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
     </row>
-    <row r="19" spans="1:11" ht="99.95" customHeight="1">
+    <row r="19" spans="1:11" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -8216,14 +8375,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:P41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.125" style="6" customWidth="1"/>
     <col min="2" max="2" width="5.25" style="6" customWidth="1"/>
@@ -8243,7 +8402,7 @@
     <col min="16" max="16" width="16.5" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>133</v>
       </c>
@@ -8259,19 +8418,19 @@
       <c r="E1" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="F1" s="49" t="s">
+      <c r="F1" s="51" t="s">
         <v>138</v>
       </c>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
       <c r="I1" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="J1" s="49" t="s">
+      <c r="J1" s="51" t="s">
         <v>140</v>
       </c>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
       <c r="M1" s="7" t="s">
         <v>141</v>
       </c>
@@ -8285,8 +8444,8 @@
         <v>144</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
-      <c r="A2" s="48">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A2" s="50">
         <v>1</v>
       </c>
       <c r="B2" s="6">
@@ -8326,8 +8485,8 @@
         <v>151</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
-      <c r="A3" s="48"/>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A3" s="50"/>
       <c r="B3" s="6">
         <v>2</v>
       </c>
@@ -8353,8 +8512,8 @@
         <v>158</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="28.5">
-      <c r="A4" s="48"/>
+    <row r="4" spans="1:16" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="50"/>
       <c r="B4" s="6">
         <v>3</v>
       </c>
@@ -8377,8 +8536,8 @@
         <v>164</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="85.5">
-      <c r="A5" s="48"/>
+    <row r="5" spans="1:16" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="50"/>
       <c r="B5" s="6">
         <v>4</v>
       </c>
@@ -8401,8 +8560,8 @@
         <v>165</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="71.25">
-      <c r="A6" s="48"/>
+    <row r="6" spans="1:16" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A6" s="50"/>
       <c r="B6" s="6">
         <v>5</v>
       </c>
@@ -8429,8 +8588,8 @@
       </c>
       <c r="O6" s="8"/>
     </row>
-    <row r="7" spans="1:16" ht="99.75">
-      <c r="A7" s="48"/>
+    <row r="7" spans="1:16" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="50"/>
       <c r="B7" s="6">
         <v>6</v>
       </c>
@@ -8443,12 +8602,12 @@
       <c r="O7" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="P7" s="49" t="s">
+      <c r="P7" s="51" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="42.75">
-      <c r="A8" s="48"/>
+    <row r="8" spans="1:16" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="50"/>
       <c r="B8" s="6">
         <v>7</v>
       </c>
@@ -8474,10 +8633,10 @@
       <c r="O8" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="P8" s="49"/>
-    </row>
-    <row r="9" spans="1:16" ht="28.5">
-      <c r="A9" s="48"/>
+      <c r="P8" s="51"/>
+    </row>
+    <row r="9" spans="1:16" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="50"/>
       <c r="B9" s="6">
         <v>8</v>
       </c>
@@ -8503,10 +8662,10 @@
       <c r="O9" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="P9" s="49"/>
-    </row>
-    <row r="10" spans="1:16" ht="57">
-      <c r="A10" s="48"/>
+      <c r="P9" s="51"/>
+    </row>
+    <row r="10" spans="1:16" ht="57" x14ac:dyDescent="0.2">
+      <c r="A10" s="50"/>
       <c r="B10" s="6">
         <v>9</v>
       </c>
@@ -8537,10 +8696,10 @@
       <c r="O10" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="P10" s="49"/>
-    </row>
-    <row r="11" spans="1:16" ht="142.5">
-      <c r="A11" s="48"/>
+      <c r="P10" s="51"/>
+    </row>
+    <row r="11" spans="1:16" ht="142.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="50"/>
       <c r="B11" s="6">
         <v>10</v>
       </c>
@@ -8569,8 +8728,8 @@
         <v>193</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="57">
-      <c r="A12" s="48">
+    <row r="12" spans="1:16" ht="57" x14ac:dyDescent="0.2">
+      <c r="A12" s="50">
         <v>2</v>
       </c>
       <c r="B12" s="6">
@@ -8599,8 +8758,8 @@
         <v>198</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="42.75">
-      <c r="A13" s="48"/>
+    <row r="13" spans="1:16" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="50"/>
       <c r="B13" s="6">
         <v>2</v>
       </c>
@@ -8618,8 +8777,8 @@
         <v>201</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="28.5">
-      <c r="A14" s="48"/>
+    <row r="14" spans="1:16" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="50"/>
       <c r="B14" s="6">
         <v>3</v>
       </c>
@@ -8645,8 +8804,8 @@
         <v>205</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="28.5">
-      <c r="A15" s="48"/>
+    <row r="15" spans="1:16" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="50"/>
       <c r="B15" s="6">
         <v>4</v>
       </c>
@@ -8672,8 +8831,8 @@
         <v>205</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="57">
-      <c r="A16" s="48"/>
+    <row r="16" spans="1:16" ht="57" x14ac:dyDescent="0.2">
+      <c r="A16" s="50"/>
       <c r="B16" s="6">
         <v>5</v>
       </c>
@@ -8699,8 +8858,8 @@
         <v>205</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="42.75">
-      <c r="A17" s="48"/>
+    <row r="17" spans="1:15" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="50"/>
       <c r="B17" s="6">
         <v>6</v>
       </c>
@@ -8732,8 +8891,8 @@
         <v>216</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="28.5">
-      <c r="A18" s="48"/>
+    <row r="18" spans="1:15" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A18" s="50"/>
       <c r="B18" s="6">
         <v>7</v>
       </c>
@@ -8756,8 +8915,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="28.5">
-      <c r="A19" s="48"/>
+    <row r="19" spans="1:15" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A19" s="50"/>
       <c r="B19" s="6">
         <v>8</v>
       </c>
@@ -8780,8 +8939,8 @@
         <v>99</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="114">
-      <c r="A20" s="48"/>
+    <row r="20" spans="1:15" ht="114" x14ac:dyDescent="0.2">
+      <c r="A20" s="50"/>
       <c r="B20" s="6">
         <v>9</v>
       </c>
@@ -8796,8 +8955,8 @@
         <v>221</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="57">
-      <c r="A21" s="48"/>
+    <row r="21" spans="1:15" ht="57" x14ac:dyDescent="0.2">
+      <c r="A21" s="50"/>
       <c r="B21" s="6">
         <v>10</v>
       </c>
@@ -8826,8 +8985,8 @@
         <v>223</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="57">
-      <c r="A22" s="48"/>
+    <row r="22" spans="1:15" ht="57" x14ac:dyDescent="0.2">
+      <c r="A22" s="50"/>
       <c r="B22" s="6">
         <v>11</v>
       </c>
@@ -8859,8 +9018,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="85.5">
-      <c r="A23" s="48"/>
+    <row r="23" spans="1:15" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A23" s="50"/>
       <c r="B23" s="6">
         <v>12</v>
       </c>
@@ -8886,8 +9045,8 @@
         <v>233</v>
       </c>
     </row>
-    <row r="24" spans="1:15">
-      <c r="A24" s="48">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A24" s="50">
         <v>3</v>
       </c>
       <c r="B24" s="6">
@@ -8918,8 +9077,8 @@
         <v>101</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="128.25">
-      <c r="A25" s="48"/>
+    <row r="25" spans="1:15" ht="128.25" x14ac:dyDescent="0.2">
+      <c r="A25" s="50"/>
       <c r="B25" s="6">
         <v>2</v>
       </c>
@@ -8951,8 +9110,8 @@
         <v>236</v>
       </c>
     </row>
-    <row r="26" spans="1:15">
-      <c r="A26" s="48"/>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A26" s="50"/>
       <c r="B26" s="6">
         <v>3</v>
       </c>
@@ -8981,8 +9140,8 @@
         <v>101</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="28.5">
-      <c r="A27" s="48"/>
+    <row r="27" spans="1:15" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A27" s="50"/>
       <c r="B27" s="6">
         <v>4</v>
       </c>
@@ -9015,8 +9174,8 @@
         <v>240</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="85.5">
-      <c r="A28" s="48"/>
+    <row r="28" spans="1:15" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A28" s="50"/>
       <c r="B28" s="6">
         <v>5</v>
       </c>
@@ -9030,8 +9189,8 @@
         <v>243</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="28.5">
-      <c r="A29" s="48"/>
+    <row r="29" spans="1:15" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A29" s="50"/>
       <c r="B29" s="6">
         <v>6</v>
       </c>
@@ -9064,14 +9223,14 @@
         <v>247</v>
       </c>
     </row>
-    <row r="30" spans="1:15">
-      <c r="A30" s="48"/>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A30" s="50"/>
       <c r="B30" s="6">
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="42.75">
-      <c r="A31" s="48"/>
+    <row r="31" spans="1:15" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A31" s="50"/>
       <c r="B31" s="6">
         <v>8</v>
       </c>
@@ -9097,8 +9256,8 @@
         <v>250</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="28.5">
-      <c r="A32" s="48"/>
+    <row r="32" spans="1:15" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A32" s="50"/>
       <c r="B32" s="6">
         <v>9</v>
       </c>
@@ -9109,8 +9268,8 @@
         <v>252</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="28.5">
-      <c r="A33" s="48"/>
+    <row r="33" spans="1:15" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A33" s="50"/>
       <c r="B33" s="6">
         <v>10</v>
       </c>
@@ -9139,8 +9298,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="28.5">
-      <c r="A34" s="48"/>
+    <row r="34" spans="1:15" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A34" s="50"/>
       <c r="B34" s="6">
         <v>11</v>
       </c>
@@ -9166,8 +9325,8 @@
         <v>102</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="99.75">
-      <c r="A35" s="48"/>
+    <row r="35" spans="1:15" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="A35" s="50"/>
       <c r="B35" s="6">
         <v>12</v>
       </c>
@@ -9178,8 +9337,8 @@
         <v>256</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="28.5">
-      <c r="A36" s="48"/>
+    <row r="36" spans="1:15" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A36" s="50"/>
       <c r="B36" s="6">
         <v>13</v>
       </c>
@@ -9212,8 +9371,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="71.25">
-      <c r="A37" s="48"/>
+    <row r="37" spans="1:15" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A37" s="50"/>
       <c r="B37" s="6">
         <v>14</v>
       </c>
@@ -9239,8 +9398,8 @@
         <v>262</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="28.5">
-      <c r="A38" s="48"/>
+    <row r="38" spans="1:15" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A38" s="50"/>
       <c r="B38" s="6">
         <v>15</v>
       </c>
@@ -9257,10 +9416,10 @@
         <v>104</v>
       </c>
     </row>
-    <row r="39" spans="1:15">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" s="12"/>
     </row>
-    <row r="41" spans="1:15">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B41" s="13"/>
       <c r="E41" s="13" t="s">
         <v>264</v>
@@ -9283,7 +9442,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:L115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9293,7 +9452,7 @@
       <selection pane="bottomRight" activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.25" style="21" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="9" style="21"/>
@@ -9308,60 +9467,60 @@
     <col min="13" max="16384" width="9" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="17.25" thickBot="1">
+    <row r="1" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
+        <v>475</v>
+      </c>
+      <c r="B1" s="18" t="s">
         <v>476</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="C1" s="17" t="s">
         <v>477</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="D1" s="18" t="s">
         <v>478</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="E1" s="17" t="s">
         <v>479</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="F1" s="18" t="s">
         <v>480</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="G1" s="17" t="s">
         <v>481</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="H1" s="18" t="s">
         <v>482</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="I1" s="19" t="s">
         <v>483</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="J1" s="19" t="s">
         <v>484</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="K1" s="20" t="s">
         <v>485</v>
       </c>
-      <c r="K1" s="20" t="s">
+      <c r="L1" s="18" t="s">
         <v>486</v>
       </c>
-      <c r="L1" s="18" t="s">
+    </row>
+    <row r="2" spans="1:12" ht="33" x14ac:dyDescent="0.2">
+      <c r="A2" s="52" t="s">
         <v>487</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" ht="33">
-      <c r="A2" s="50" t="s">
-        <v>488</v>
-      </c>
-      <c r="B2" s="53"/>
+      <c r="B2" s="55"/>
       <c r="C2" s="22" t="s">
+        <v>489</v>
+      </c>
+      <c r="D2" s="23" t="s">
         <v>490</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="E2" s="55" t="s">
         <v>491</v>
       </c>
-      <c r="E2" s="53" t="s">
+      <c r="F2" s="55" t="s">
         <v>492</v>
-      </c>
-      <c r="F2" s="53" t="s">
-        <v>493</v>
       </c>
       <c r="G2" s="22"/>
       <c r="H2" s="22"/>
@@ -9370,43 +9529,43 @@
       <c r="K2" s="22"/>
       <c r="L2" s="24"/>
     </row>
-    <row r="3" spans="1:12" ht="49.5">
-      <c r="A3" s="51"/>
-      <c r="B3" s="54"/>
+    <row r="3" spans="1:12" ht="49.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="53"/>
+      <c r="B3" s="56"/>
       <c r="C3" s="23" t="s">
+        <v>493</v>
+      </c>
+      <c r="D3" s="23" t="s">
         <v>494</v>
       </c>
-      <c r="D3" s="23" t="s">
-        <v>495</v>
-      </c>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
       <c r="G3" s="23"/>
       <c r="H3" s="23" t="s">
+        <v>495</v>
+      </c>
+      <c r="I3" s="23" t="s">
         <v>496</v>
       </c>
-      <c r="I3" s="23" t="s">
+      <c r="J3" s="23" t="s">
         <v>497</v>
-      </c>
-      <c r="J3" s="23" t="s">
-        <v>498</v>
       </c>
       <c r="K3" s="23"/>
       <c r="L3" s="25" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="33.75" thickBot="1">
-      <c r="A4" s="52"/>
-      <c r="B4" s="55"/>
+        <v>498</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="54"/>
+      <c r="B4" s="57"/>
       <c r="C4" s="26" t="s">
+        <v>500</v>
+      </c>
+      <c r="D4" s="26" t="s">
         <v>501</v>
       </c>
-      <c r="D4" s="26" t="s">
-        <v>502</v>
-      </c>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
       <c r="G4" s="26"/>
       <c r="H4" s="26"/>
       <c r="I4" s="26"/>
@@ -9414,22 +9573,22 @@
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
     </row>
-    <row r="5" spans="1:12" ht="33">
-      <c r="A5" s="50" t="s">
+    <row r="5" spans="1:12" ht="33" x14ac:dyDescent="0.2">
+      <c r="A5" s="52" t="s">
+        <v>502</v>
+      </c>
+      <c r="B5" s="55"/>
+      <c r="C5" s="22" t="s">
+        <v>489</v>
+      </c>
+      <c r="D5" s="23" t="s">
         <v>503</v>
       </c>
-      <c r="B5" s="53"/>
-      <c r="C5" s="22" t="s">
-        <v>490</v>
-      </c>
-      <c r="D5" s="23" t="s">
+      <c r="E5" s="55" t="s">
         <v>504</v>
       </c>
-      <c r="E5" s="53" t="s">
+      <c r="F5" s="55" t="s">
         <v>505</v>
-      </c>
-      <c r="F5" s="53" t="s">
-        <v>506</v>
       </c>
       <c r="G5" s="22"/>
       <c r="H5" s="22"/>
@@ -9438,49 +9597,49 @@
       <c r="K5" s="22"/>
       <c r="L5" s="24"/>
     </row>
-    <row r="6" spans="1:12" ht="49.5">
-      <c r="A6" s="51" t="s">
+    <row r="6" spans="1:12" ht="49.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="53" t="s">
+        <v>506</v>
+      </c>
+      <c r="B6" s="56"/>
+      <c r="C6" s="23" t="s">
+        <v>493</v>
+      </c>
+      <c r="D6" s="23" t="s">
         <v>507</v>
       </c>
-      <c r="B6" s="54"/>
-      <c r="C6" s="23" t="s">
-        <v>494</v>
-      </c>
-      <c r="D6" s="23" t="s">
-        <v>508</v>
-      </c>
-      <c r="E6" s="54" t="s">
+      <c r="E6" s="56" t="s">
+        <v>504</v>
+      </c>
+      <c r="F6" s="56" t="s">
         <v>505</v>
-      </c>
-      <c r="F6" s="54" t="s">
-        <v>506</v>
       </c>
       <c r="G6" s="23"/>
       <c r="H6" s="23" t="s">
+        <v>508</v>
+      </c>
+      <c r="I6" s="23" t="s">
         <v>509</v>
       </c>
-      <c r="I6" s="23" t="s">
+      <c r="J6" s="23" t="s">
         <v>510</v>
-      </c>
-      <c r="J6" s="23" t="s">
-        <v>511</v>
       </c>
       <c r="K6" s="23"/>
       <c r="L6" s="25" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="54"/>
+      <c r="B7" s="57"/>
+      <c r="C7" s="26" t="s">
+        <v>500</v>
+      </c>
+      <c r="D7" s="26" t="s">
         <v>512</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" ht="17.25" thickBot="1">
-      <c r="A7" s="52"/>
-      <c r="B7" s="55"/>
-      <c r="C7" s="26" t="s">
-        <v>501</v>
-      </c>
-      <c r="D7" s="26" t="s">
-        <v>513</v>
-      </c>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
       <c r="G7" s="26"/>
       <c r="H7" s="26"/>
       <c r="I7" s="26"/>
@@ -9488,22 +9647,22 @@
       <c r="K7" s="26"/>
       <c r="L7" s="27"/>
     </row>
-    <row r="8" spans="1:12" ht="33">
-      <c r="A8" s="56" t="s">
+    <row r="8" spans="1:12" ht="33" x14ac:dyDescent="0.2">
+      <c r="A8" s="58" t="s">
+        <v>513</v>
+      </c>
+      <c r="B8" s="61"/>
+      <c r="C8" s="28" t="s">
+        <v>489</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>503</v>
+      </c>
+      <c r="E8" s="55" t="s">
         <v>514</v>
       </c>
-      <c r="B8" s="59"/>
-      <c r="C8" s="28" t="s">
-        <v>490</v>
-      </c>
-      <c r="D8" s="23" t="s">
-        <v>504</v>
-      </c>
-      <c r="E8" s="53" t="s">
-        <v>515</v>
-      </c>
-      <c r="F8" s="53" t="s">
-        <v>506</v>
+      <c r="F8" s="55" t="s">
+        <v>505</v>
       </c>
       <c r="G8" s="22"/>
       <c r="H8" s="22"/>
@@ -9512,49 +9671,49 @@
       <c r="K8" s="22"/>
       <c r="L8" s="24"/>
     </row>
-    <row r="9" spans="1:12" ht="33">
-      <c r="A9" s="57" t="s">
+    <row r="9" spans="1:12" ht="33" x14ac:dyDescent="0.2">
+      <c r="A9" s="59" t="s">
+        <v>513</v>
+      </c>
+      <c r="B9" s="62"/>
+      <c r="C9" s="29" t="s">
+        <v>493</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>515</v>
+      </c>
+      <c r="E9" s="56" t="s">
         <v>514</v>
       </c>
-      <c r="B9" s="60"/>
-      <c r="C9" s="29" t="s">
-        <v>494</v>
-      </c>
-      <c r="D9" s="29" t="s">
-        <v>516</v>
-      </c>
-      <c r="E9" s="54" t="s">
-        <v>515</v>
-      </c>
-      <c r="F9" s="54" t="s">
-        <v>506</v>
+      <c r="F9" s="56" t="s">
+        <v>505</v>
       </c>
       <c r="G9" s="23"/>
       <c r="H9" s="23" t="s">
+        <v>516</v>
+      </c>
+      <c r="I9" s="23" t="s">
         <v>517</v>
       </c>
-      <c r="I9" s="23" t="s">
+      <c r="J9" s="23" t="s">
         <v>518</v>
-      </c>
-      <c r="J9" s="23" t="s">
-        <v>519</v>
       </c>
       <c r="K9" s="23"/>
       <c r="L9" s="25" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="60"/>
+      <c r="B10" s="63"/>
+      <c r="C10" s="30" t="s">
+        <v>500</v>
+      </c>
+      <c r="D10" s="30" t="s">
         <v>520</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" ht="33.75" thickBot="1">
-      <c r="A10" s="58"/>
-      <c r="B10" s="61"/>
-      <c r="C10" s="30" t="s">
-        <v>501</v>
-      </c>
-      <c r="D10" s="30" t="s">
-        <v>521</v>
-      </c>
-      <c r="E10" s="55"/>
-      <c r="F10" s="55"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
       <c r="G10" s="26"/>
       <c r="H10" s="26"/>
       <c r="I10" s="26"/>
@@ -9562,22 +9721,22 @@
       <c r="K10" s="26"/>
       <c r="L10" s="27"/>
     </row>
-    <row r="11" spans="1:12" ht="33">
-      <c r="A11" s="50" t="s">
-        <v>522</v>
-      </c>
-      <c r="B11" s="53"/>
+    <row r="11" spans="1:12" ht="33" x14ac:dyDescent="0.2">
+      <c r="A11" s="52" t="s">
+        <v>521</v>
+      </c>
+      <c r="B11" s="55"/>
       <c r="C11" s="22" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D11" s="23" t="s">
+        <v>523</v>
+      </c>
+      <c r="E11" s="61" t="s">
         <v>524</v>
       </c>
-      <c r="E11" s="59" t="s">
+      <c r="F11" s="61" t="s">
         <v>525</v>
-      </c>
-      <c r="F11" s="59" t="s">
-        <v>526</v>
       </c>
       <c r="G11" s="28"/>
       <c r="H11" s="28"/>
@@ -9586,49 +9745,49 @@
       <c r="K11" s="28"/>
       <c r="L11" s="31"/>
     </row>
-    <row r="12" spans="1:12" ht="49.5">
-      <c r="A12" s="51" t="s">
+    <row r="12" spans="1:12" ht="49.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="53" t="s">
+        <v>526</v>
+      </c>
+      <c r="B12" s="56"/>
+      <c r="C12" s="23" t="s">
+        <v>493</v>
+      </c>
+      <c r="D12" s="23" t="s">
         <v>527</v>
       </c>
-      <c r="B12" s="54"/>
-      <c r="C12" s="23" t="s">
-        <v>494</v>
-      </c>
-      <c r="D12" s="23" t="s">
-        <v>528</v>
-      </c>
-      <c r="E12" s="60" t="s">
+      <c r="E12" s="62" t="s">
+        <v>524</v>
+      </c>
+      <c r="F12" s="62" t="s">
         <v>525</v>
-      </c>
-      <c r="F12" s="60" t="s">
-        <v>526</v>
       </c>
       <c r="G12" s="29"/>
       <c r="H12" s="29" t="s">
+        <v>528</v>
+      </c>
+      <c r="I12" s="29" t="s">
         <v>529</v>
       </c>
-      <c r="I12" s="29" t="s">
+      <c r="J12" s="29" t="s">
         <v>530</v>
-      </c>
-      <c r="J12" s="29" t="s">
-        <v>531</v>
       </c>
       <c r="K12" s="29"/>
       <c r="L12" s="32" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="54"/>
+      <c r="B13" s="57"/>
+      <c r="C13" s="26" t="s">
+        <v>500</v>
+      </c>
+      <c r="D13" s="26" t="s">
         <v>532</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" ht="33.75" thickBot="1">
-      <c r="A13" s="52"/>
-      <c r="B13" s="55"/>
-      <c r="C13" s="26" t="s">
-        <v>501</v>
-      </c>
-      <c r="D13" s="26" t="s">
-        <v>533</v>
-      </c>
-      <c r="E13" s="61"/>
-      <c r="F13" s="61"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
       <c r="G13" s="30"/>
       <c r="H13" s="30"/>
       <c r="I13" s="30"/>
@@ -9636,22 +9795,22 @@
       <c r="K13" s="30"/>
       <c r="L13" s="33"/>
     </row>
-    <row r="14" spans="1:12" ht="33">
-      <c r="A14" s="50" t="s">
+    <row r="14" spans="1:12" ht="33" x14ac:dyDescent="0.2">
+      <c r="A14" s="52" t="s">
+        <v>533</v>
+      </c>
+      <c r="B14" s="55"/>
+      <c r="C14" s="22" t="s">
+        <v>489</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>523</v>
+      </c>
+      <c r="E14" s="55" t="s">
         <v>534</v>
       </c>
-      <c r="B14" s="53"/>
-      <c r="C14" s="22" t="s">
-        <v>490</v>
-      </c>
-      <c r="D14" s="23" t="s">
-        <v>524</v>
-      </c>
-      <c r="E14" s="53" t="s">
-        <v>535</v>
-      </c>
-      <c r="F14" s="53" t="s">
-        <v>526</v>
+      <c r="F14" s="55" t="s">
+        <v>525</v>
       </c>
       <c r="G14" s="22"/>
       <c r="H14" s="22"/>
@@ -9660,49 +9819,49 @@
       <c r="K14" s="22"/>
       <c r="L14" s="24"/>
     </row>
-    <row r="15" spans="1:12" ht="33">
-      <c r="A15" s="51" t="s">
-        <v>536</v>
-      </c>
-      <c r="B15" s="54"/>
+    <row r="15" spans="1:12" ht="33" x14ac:dyDescent="0.2">
+      <c r="A15" s="53" t="s">
+        <v>535</v>
+      </c>
+      <c r="B15" s="56"/>
       <c r="C15" s="23" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D15" s="23" t="s">
-        <v>528</v>
-      </c>
-      <c r="E15" s="54" t="s">
-        <v>535</v>
-      </c>
-      <c r="F15" s="54" t="s">
-        <v>493</v>
+        <v>527</v>
+      </c>
+      <c r="E15" s="56" t="s">
+        <v>534</v>
+      </c>
+      <c r="F15" s="56" t="s">
+        <v>492</v>
       </c>
       <c r="G15" s="23"/>
       <c r="H15" s="23" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="I15" s="23" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="J15" s="23" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="K15" s="23"/>
       <c r="L15" s="25" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="54"/>
+      <c r="B16" s="57"/>
+      <c r="C16" s="26" t="s">
+        <v>500</v>
+      </c>
+      <c r="D16" s="26" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" ht="33.75" thickBot="1">
-      <c r="A16" s="52"/>
-      <c r="B16" s="55"/>
-      <c r="C16" s="26" t="s">
-        <v>501</v>
-      </c>
-      <c r="D16" s="26" t="s">
-        <v>539</v>
-      </c>
-      <c r="E16" s="55"/>
-      <c r="F16" s="55"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="57"/>
       <c r="G16" s="26"/>
       <c r="H16" s="26"/>
       <c r="I16" s="26"/>
@@ -9710,22 +9869,22 @@
       <c r="K16" s="26"/>
       <c r="L16" s="27"/>
     </row>
-    <row r="17" spans="1:12" ht="33">
-      <c r="A17" s="56" t="s">
+    <row r="17" spans="1:12" ht="33" x14ac:dyDescent="0.2">
+      <c r="A17" s="58" t="s">
+        <v>539</v>
+      </c>
+      <c r="B17" s="61"/>
+      <c r="C17" s="28" t="s">
+        <v>489</v>
+      </c>
+      <c r="D17" s="28" t="s">
+        <v>523</v>
+      </c>
+      <c r="E17" s="55" t="s">
         <v>540</v>
       </c>
-      <c r="B17" s="59"/>
-      <c r="C17" s="28" t="s">
-        <v>490</v>
-      </c>
-      <c r="D17" s="28" t="s">
-        <v>524</v>
-      </c>
-      <c r="E17" s="53" t="s">
-        <v>541</v>
-      </c>
-      <c r="F17" s="53" t="s">
-        <v>526</v>
+      <c r="F17" s="55" t="s">
+        <v>525</v>
       </c>
       <c r="G17" s="22"/>
       <c r="H17" s="22"/>
@@ -9734,49 +9893,49 @@
       <c r="K17" s="22"/>
       <c r="L17" s="24"/>
     </row>
-    <row r="18" spans="1:12" ht="49.5">
-      <c r="A18" s="57" t="s">
+    <row r="18" spans="1:12" ht="49.5" x14ac:dyDescent="0.2">
+      <c r="A18" s="59" t="s">
+        <v>539</v>
+      </c>
+      <c r="B18" s="62"/>
+      <c r="C18" s="29" t="s">
+        <v>493</v>
+      </c>
+      <c r="D18" s="29" t="s">
+        <v>527</v>
+      </c>
+      <c r="E18" s="56" t="s">
         <v>540</v>
       </c>
-      <c r="B18" s="60"/>
-      <c r="C18" s="29" t="s">
-        <v>494</v>
-      </c>
-      <c r="D18" s="29" t="s">
-        <v>528</v>
-      </c>
-      <c r="E18" s="54" t="s">
-        <v>541</v>
-      </c>
-      <c r="F18" s="54" t="s">
-        <v>493</v>
+      <c r="F18" s="56" t="s">
+        <v>492</v>
       </c>
       <c r="G18" s="23"/>
       <c r="H18" s="23" t="s">
+        <v>541</v>
+      </c>
+      <c r="I18" s="23" t="s">
         <v>542</v>
       </c>
-      <c r="I18" s="23" t="s">
+      <c r="J18" s="23" t="s">
         <v>543</v>
-      </c>
-      <c r="J18" s="23" t="s">
-        <v>544</v>
       </c>
       <c r="K18" s="23"/>
       <c r="L18" s="25" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="60"/>
+      <c r="B19" s="63"/>
+      <c r="C19" s="30" t="s">
+        <v>500</v>
+      </c>
+      <c r="D19" s="30" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" ht="33.75" thickBot="1">
-      <c r="A19" s="58"/>
-      <c r="B19" s="61"/>
-      <c r="C19" s="30" t="s">
-        <v>501</v>
-      </c>
-      <c r="D19" s="30" t="s">
-        <v>546</v>
-      </c>
-      <c r="E19" s="55"/>
-      <c r="F19" s="55"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="57"/>
       <c r="G19" s="26"/>
       <c r="H19" s="26"/>
       <c r="I19" s="26"/>
@@ -9784,16 +9943,16 @@
       <c r="K19" s="26"/>
       <c r="L19" s="27"/>
     </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="50"/>
-      <c r="B20" s="53"/>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="52"/>
+      <c r="B20" s="55"/>
       <c r="C20" s="22"/>
       <c r="D20" s="22"/>
-      <c r="E20" s="53" t="s">
-        <v>547</v>
-      </c>
-      <c r="F20" s="53" t="s">
-        <v>526</v>
+      <c r="E20" s="55" t="s">
+        <v>546</v>
+      </c>
+      <c r="F20" s="55" t="s">
+        <v>525</v>
       </c>
       <c r="G20" s="22"/>
       <c r="H20" s="22"/>
@@ -9802,41 +9961,41 @@
       <c r="K20" s="22"/>
       <c r="L20" s="24"/>
     </row>
-    <row r="21" spans="1:12" ht="132">
-      <c r="A21" s="51"/>
-      <c r="B21" s="54"/>
+    <row r="21" spans="1:12" ht="132" x14ac:dyDescent="0.2">
+      <c r="A21" s="53"/>
+      <c r="B21" s="56"/>
       <c r="C21" s="23"/>
       <c r="D21" s="23"/>
-      <c r="E21" s="54" t="s">
-        <v>547</v>
-      </c>
-      <c r="F21" s="54" t="s">
-        <v>526</v>
+      <c r="E21" s="56" t="s">
+        <v>546</v>
+      </c>
+      <c r="F21" s="56" t="s">
+        <v>525</v>
       </c>
       <c r="G21" s="23"/>
       <c r="H21" s="23" t="s">
+        <v>547</v>
+      </c>
+      <c r="I21" s="23" t="s">
         <v>548</v>
       </c>
-      <c r="I21" s="23" t="s">
+      <c r="J21" s="23" t="s">
         <v>549</v>
       </c>
-      <c r="J21" s="23" t="s">
+      <c r="K21" s="23" t="s">
         <v>550</v>
       </c>
-      <c r="K21" s="23" t="s">
+      <c r="L21" s="25" t="s">
         <v>551</v>
       </c>
-      <c r="L21" s="25" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="17.25" thickBot="1">
-      <c r="A22" s="52"/>
-      <c r="B22" s="55"/>
+    </row>
+    <row r="22" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="54"/>
+      <c r="B22" s="57"/>
       <c r="C22" s="26"/>
       <c r="D22" s="26"/>
-      <c r="E22" s="55"/>
-      <c r="F22" s="55"/>
+      <c r="E22" s="57"/>
+      <c r="F22" s="57"/>
       <c r="G22" s="26"/>
       <c r="H22" s="26"/>
       <c r="I22" s="26"/>
@@ -9844,16 +10003,16 @@
       <c r="K22" s="26"/>
       <c r="L22" s="27"/>
     </row>
-    <row r="23" spans="1:12">
-      <c r="A23" s="50"/>
-      <c r="B23" s="53"/>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="52"/>
+      <c r="B23" s="55"/>
       <c r="C23" s="22"/>
       <c r="D23" s="22"/>
-      <c r="E23" s="53" t="s">
-        <v>553</v>
-      </c>
-      <c r="F23" s="53" t="s">
-        <v>526</v>
+      <c r="E23" s="55" t="s">
+        <v>552</v>
+      </c>
+      <c r="F23" s="55" t="s">
+        <v>525</v>
       </c>
       <c r="G23" s="22"/>
       <c r="H23" s="22"/>
@@ -9862,41 +10021,41 @@
       <c r="K23" s="22"/>
       <c r="L23" s="24"/>
     </row>
-    <row r="24" spans="1:12" ht="148.5">
-      <c r="A24" s="51"/>
-      <c r="B24" s="54"/>
+    <row r="24" spans="1:12" ht="148.5" x14ac:dyDescent="0.2">
+      <c r="A24" s="53"/>
+      <c r="B24" s="56"/>
       <c r="C24" s="23"/>
       <c r="D24" s="23"/>
-      <c r="E24" s="54" t="s">
-        <v>554</v>
-      </c>
-      <c r="F24" s="54" t="s">
-        <v>526</v>
+      <c r="E24" s="56" t="s">
+        <v>553</v>
+      </c>
+      <c r="F24" s="56" t="s">
+        <v>525</v>
       </c>
       <c r="G24" s="23"/>
       <c r="H24" s="23" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="I24" s="23" t="s">
+        <v>554</v>
+      </c>
+      <c r="J24" s="23" t="s">
         <v>555</v>
       </c>
-      <c r="J24" s="23" t="s">
+      <c r="K24" s="23" t="s">
         <v>556</v>
       </c>
-      <c r="K24" s="23" t="s">
+      <c r="L24" s="25" t="s">
         <v>557</v>
       </c>
-      <c r="L24" s="25" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="17.25" thickBot="1">
-      <c r="A25" s="52"/>
-      <c r="B25" s="55"/>
+    </row>
+    <row r="25" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="54"/>
+      <c r="B25" s="57"/>
       <c r="C25" s="26"/>
       <c r="D25" s="26"/>
-      <c r="E25" s="55"/>
-      <c r="F25" s="55"/>
+      <c r="E25" s="57"/>
+      <c r="F25" s="57"/>
       <c r="G25" s="26"/>
       <c r="H25" s="26"/>
       <c r="I25" s="26"/>
@@ -9904,16 +10063,16 @@
       <c r="K25" s="26"/>
       <c r="L25" s="27"/>
     </row>
-    <row r="26" spans="1:12">
-      <c r="A26" s="50"/>
-      <c r="B26" s="53"/>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="52"/>
+      <c r="B26" s="55"/>
       <c r="C26" s="22"/>
       <c r="D26" s="22"/>
-      <c r="E26" s="59" t="s">
-        <v>559</v>
-      </c>
-      <c r="F26" s="59" t="s">
-        <v>493</v>
+      <c r="E26" s="61" t="s">
+        <v>558</v>
+      </c>
+      <c r="F26" s="61" t="s">
+        <v>492</v>
       </c>
       <c r="G26" s="28"/>
       <c r="H26" s="28"/>
@@ -9922,39 +10081,39 @@
       <c r="K26" s="28"/>
       <c r="L26" s="31"/>
     </row>
-    <row r="27" spans="1:12" ht="49.5">
-      <c r="A27" s="51"/>
-      <c r="B27" s="54"/>
+    <row r="27" spans="1:12" ht="49.5" x14ac:dyDescent="0.2">
+      <c r="A27" s="53"/>
+      <c r="B27" s="56"/>
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
-      <c r="E27" s="60" t="s">
-        <v>559</v>
-      </c>
-      <c r="F27" s="60" t="s">
-        <v>493</v>
+      <c r="E27" s="62" t="s">
+        <v>558</v>
+      </c>
+      <c r="F27" s="62" t="s">
+        <v>492</v>
       </c>
       <c r="G27" s="29"/>
       <c r="H27" s="29" t="s">
+        <v>559</v>
+      </c>
+      <c r="I27" s="29" t="s">
+        <v>780</v>
+      </c>
+      <c r="J27" s="29" t="s">
         <v>560</v>
-      </c>
-      <c r="I27" s="29" t="s">
-        <v>781</v>
-      </c>
-      <c r="J27" s="29" t="s">
-        <v>561</v>
       </c>
       <c r="K27" s="29"/>
       <c r="L27" s="32" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" ht="17.25" thickBot="1">
-      <c r="A28" s="52"/>
-      <c r="B28" s="55"/>
+        <v>561</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="54"/>
+      <c r="B28" s="57"/>
       <c r="C28" s="26"/>
       <c r="D28" s="26"/>
-      <c r="E28" s="61"/>
-      <c r="F28" s="61"/>
+      <c r="E28" s="63"/>
+      <c r="F28" s="63"/>
       <c r="G28" s="30"/>
       <c r="H28" s="30"/>
       <c r="I28" s="30"/>
@@ -9962,16 +10121,16 @@
       <c r="K28" s="30"/>
       <c r="L28" s="33"/>
     </row>
-    <row r="29" spans="1:12">
-      <c r="A29" s="50"/>
-      <c r="B29" s="53"/>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" s="52"/>
+      <c r="B29" s="55"/>
       <c r="C29" s="22"/>
       <c r="D29" s="22"/>
-      <c r="E29" s="59" t="s">
-        <v>563</v>
-      </c>
-      <c r="F29" s="59" t="s">
-        <v>493</v>
+      <c r="E29" s="61" t="s">
+        <v>562</v>
+      </c>
+      <c r="F29" s="61" t="s">
+        <v>492</v>
       </c>
       <c r="G29" s="28"/>
       <c r="H29" s="28"/>
@@ -9980,39 +10139,39 @@
       <c r="K29" s="28"/>
       <c r="L29" s="31"/>
     </row>
-    <row r="30" spans="1:12" ht="49.5">
-      <c r="A30" s="51"/>
-      <c r="B30" s="54"/>
+    <row r="30" spans="1:12" ht="49.5" x14ac:dyDescent="0.2">
+      <c r="A30" s="53"/>
+      <c r="B30" s="56"/>
       <c r="C30" s="23"/>
       <c r="D30" s="23"/>
-      <c r="E30" s="60" t="s">
-        <v>563</v>
-      </c>
-      <c r="F30" s="60" t="s">
-        <v>493</v>
+      <c r="E30" s="62" t="s">
+        <v>562</v>
+      </c>
+      <c r="F30" s="62" t="s">
+        <v>492</v>
       </c>
       <c r="G30" s="29"/>
       <c r="H30" s="29" t="s">
+        <v>563</v>
+      </c>
+      <c r="I30" s="29" t="s">
         <v>564</v>
       </c>
-      <c r="I30" s="29" t="s">
+      <c r="J30" s="29" t="s">
         <v>565</v>
-      </c>
-      <c r="J30" s="29" t="s">
-        <v>566</v>
       </c>
       <c r="K30" s="29"/>
       <c r="L30" s="32" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" ht="17.25" thickBot="1">
-      <c r="A31" s="52"/>
-      <c r="B31" s="55"/>
+        <v>566</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="54"/>
+      <c r="B31" s="57"/>
       <c r="C31" s="26"/>
       <c r="D31" s="26"/>
-      <c r="E31" s="61"/>
-      <c r="F31" s="61"/>
+      <c r="E31" s="63"/>
+      <c r="F31" s="63"/>
       <c r="G31" s="30"/>
       <c r="H31" s="30"/>
       <c r="I31" s="30"/>
@@ -10020,16 +10179,16 @@
       <c r="K31" s="30"/>
       <c r="L31" s="33"/>
     </row>
-    <row r="32" spans="1:12">
-      <c r="A32" s="50"/>
-      <c r="B32" s="53"/>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A32" s="52"/>
+      <c r="B32" s="55"/>
       <c r="C32" s="22"/>
       <c r="D32" s="22"/>
-      <c r="E32" s="53" t="s">
-        <v>568</v>
-      </c>
-      <c r="F32" s="53" t="s">
-        <v>506</v>
+      <c r="E32" s="55" t="s">
+        <v>567</v>
+      </c>
+      <c r="F32" s="55" t="s">
+        <v>505</v>
       </c>
       <c r="G32" s="22"/>
       <c r="H32" s="22"/>
@@ -10038,41 +10197,41 @@
       <c r="K32" s="22"/>
       <c r="L32" s="24"/>
     </row>
-    <row r="33" spans="1:12" ht="66">
-      <c r="A33" s="51"/>
-      <c r="B33" s="54"/>
+    <row r="33" spans="1:12" ht="66" x14ac:dyDescent="0.2">
+      <c r="A33" s="53"/>
+      <c r="B33" s="56"/>
       <c r="C33" s="23"/>
       <c r="D33" s="23"/>
-      <c r="E33" s="54" t="s">
-        <v>569</v>
-      </c>
-      <c r="F33" s="54" t="s">
-        <v>506</v>
+      <c r="E33" s="56" t="s">
+        <v>568</v>
+      </c>
+      <c r="F33" s="56" t="s">
+        <v>505</v>
       </c>
       <c r="G33" s="23"/>
       <c r="H33" s="23" t="s">
+        <v>569</v>
+      </c>
+      <c r="I33" s="23" t="s">
         <v>570</v>
       </c>
-      <c r="I33" s="23" t="s">
+      <c r="J33" s="23" t="s">
         <v>571</v>
       </c>
-      <c r="J33" s="23" t="s">
+      <c r="K33" s="23" t="s">
         <v>572</v>
       </c>
-      <c r="K33" s="23" t="s">
+      <c r="L33" s="25" t="s">
         <v>573</v>
       </c>
-      <c r="L33" s="25" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" ht="17.25" thickBot="1">
-      <c r="A34" s="52"/>
-      <c r="B34" s="55"/>
+    </row>
+    <row r="34" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="54"/>
+      <c r="B34" s="57"/>
       <c r="C34" s="26"/>
       <c r="D34" s="26"/>
-      <c r="E34" s="55"/>
-      <c r="F34" s="55"/>
+      <c r="E34" s="57"/>
+      <c r="F34" s="57"/>
       <c r="G34" s="26"/>
       <c r="H34" s="26"/>
       <c r="I34" s="26"/>
@@ -10080,19 +10239,19 @@
       <c r="K34" s="26"/>
       <c r="L34" s="27"/>
     </row>
-    <row r="35" spans="1:12">
-      <c r="A35" s="62" t="s">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A35" s="64" t="s">
+        <v>574</v>
+      </c>
+      <c r="B35" s="67"/>
+      <c r="C35" s="34" t="s">
         <v>575</v>
       </c>
-      <c r="B35" s="65"/>
-      <c r="C35" s="34" t="s">
+      <c r="D35" s="34"/>
+      <c r="E35" s="67" t="s">
         <v>576</v>
       </c>
-      <c r="D35" s="34"/>
-      <c r="E35" s="65" t="s">
-        <v>577</v>
-      </c>
-      <c r="F35" s="65"/>
+      <c r="F35" s="67"/>
       <c r="G35" s="34"/>
       <c r="H35" s="34"/>
       <c r="I35" s="34"/>
@@ -10100,47 +10259,47 @@
       <c r="K35" s="34"/>
       <c r="L35" s="35"/>
     </row>
-    <row r="36" spans="1:12" ht="66">
-      <c r="A36" s="63" t="s">
+    <row r="36" spans="1:12" ht="66" x14ac:dyDescent="0.2">
+      <c r="A36" s="65" t="s">
+        <v>577</v>
+      </c>
+      <c r="B36" s="68" t="s">
         <v>578</v>
       </c>
-      <c r="B36" s="66" t="s">
+      <c r="C36" s="36" t="s">
         <v>579</v>
       </c>
-      <c r="C36" s="36" t="s">
+      <c r="D36" s="36" t="s">
         <v>580</v>
       </c>
-      <c r="D36" s="36" t="s">
-        <v>581</v>
-      </c>
-      <c r="E36" s="66" t="s">
-        <v>577</v>
-      </c>
-      <c r="F36" s="66" t="s">
-        <v>506</v>
+      <c r="E36" s="68" t="s">
+        <v>576</v>
+      </c>
+      <c r="F36" s="68" t="s">
+        <v>505</v>
       </c>
       <c r="G36" s="36"/>
       <c r="H36" s="36" t="s">
+        <v>581</v>
+      </c>
+      <c r="I36" s="36" t="s">
         <v>582</v>
-      </c>
-      <c r="I36" s="36" t="s">
-        <v>583</v>
       </c>
       <c r="J36" s="36"/>
       <c r="K36" s="36"/>
       <c r="L36" s="37"/>
     </row>
-    <row r="37" spans="1:12" ht="33.75" thickBot="1">
-      <c r="A37" s="64"/>
-      <c r="B37" s="67"/>
+    <row r="37" spans="1:12" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="66"/>
+      <c r="B37" s="69"/>
       <c r="C37" s="38" t="s">
+        <v>583</v>
+      </c>
+      <c r="D37" s="38" t="s">
         <v>584</v>
       </c>
-      <c r="D37" s="38" t="s">
-        <v>585</v>
-      </c>
-      <c r="E37" s="67"/>
-      <c r="F37" s="67"/>
+      <c r="E37" s="69"/>
+      <c r="F37" s="69"/>
       <c r="G37" s="38"/>
       <c r="H37" s="38"/>
       <c r="I37" s="38"/>
@@ -10148,22 +10307,22 @@
       <c r="K37" s="38"/>
       <c r="L37" s="39"/>
     </row>
-    <row r="38" spans="1:12" ht="33">
-      <c r="A38" s="50" t="s">
+    <row r="38" spans="1:12" ht="33" x14ac:dyDescent="0.2">
+      <c r="A38" s="52" t="s">
+        <v>585</v>
+      </c>
+      <c r="B38" s="55"/>
+      <c r="C38" s="22" t="s">
+        <v>488</v>
+      </c>
+      <c r="D38" s="23" t="s">
+        <v>522</v>
+      </c>
+      <c r="E38" s="61" t="s">
         <v>586</v>
       </c>
-      <c r="B38" s="53"/>
-      <c r="C38" s="22" t="s">
-        <v>489</v>
-      </c>
-      <c r="D38" s="23" t="s">
-        <v>523</v>
-      </c>
-      <c r="E38" s="59" t="s">
+      <c r="F38" s="61" t="s">
         <v>587</v>
-      </c>
-      <c r="F38" s="59" t="s">
-        <v>588</v>
       </c>
       <c r="G38" s="28"/>
       <c r="H38" s="28"/>
@@ -10172,51 +10331,51 @@
       <c r="K38" s="28"/>
       <c r="L38" s="31"/>
     </row>
-    <row r="39" spans="1:12" ht="66">
-      <c r="A39" s="51" t="s">
+    <row r="39" spans="1:12" ht="66" x14ac:dyDescent="0.2">
+      <c r="A39" s="53" t="s">
+        <v>588</v>
+      </c>
+      <c r="B39" s="56"/>
+      <c r="C39" s="23" t="s">
         <v>589</v>
       </c>
-      <c r="B39" s="54"/>
-      <c r="C39" s="23" t="s">
+      <c r="D39" s="23" t="s">
         <v>590</v>
       </c>
-      <c r="D39" s="23" t="s">
+      <c r="E39" s="62" t="s">
         <v>591</v>
       </c>
-      <c r="E39" s="60" t="s">
-        <v>592</v>
-      </c>
-      <c r="F39" s="60" t="s">
-        <v>588</v>
+      <c r="F39" s="62" t="s">
+        <v>587</v>
       </c>
       <c r="G39" s="29"/>
       <c r="H39" s="29" t="s">
+        <v>592</v>
+      </c>
+      <c r="I39" s="29" t="s">
         <v>593</v>
       </c>
-      <c r="I39" s="29" t="s">
+      <c r="J39" s="29" t="s">
         <v>594</v>
       </c>
-      <c r="J39" s="29" t="s">
+      <c r="K39" s="29" t="s">
         <v>595</v>
       </c>
-      <c r="K39" s="29" t="s">
+      <c r="L39" s="32" t="s">
         <v>596</v>
       </c>
-      <c r="L39" s="32" t="s">
+    </row>
+    <row r="40" spans="1:12" ht="50.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="54"/>
+      <c r="B40" s="57"/>
+      <c r="C40" s="26" t="s">
+        <v>499</v>
+      </c>
+      <c r="D40" s="26" t="s">
         <v>597</v>
       </c>
-    </row>
-    <row r="40" spans="1:12" ht="50.25" thickBot="1">
-      <c r="A40" s="52"/>
-      <c r="B40" s="55"/>
-      <c r="C40" s="26" t="s">
-        <v>500</v>
-      </c>
-      <c r="D40" s="26" t="s">
-        <v>598</v>
-      </c>
-      <c r="E40" s="61"/>
-      <c r="F40" s="61"/>
+      <c r="E40" s="63"/>
+      <c r="F40" s="63"/>
       <c r="G40" s="30"/>
       <c r="H40" s="30"/>
       <c r="I40" s="30"/>
@@ -10224,16 +10383,16 @@
       <c r="K40" s="30"/>
       <c r="L40" s="33"/>
     </row>
-    <row r="41" spans="1:12">
-      <c r="A41" s="50"/>
-      <c r="B41" s="53"/>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A41" s="52"/>
+      <c r="B41" s="55"/>
       <c r="C41" s="22"/>
       <c r="D41" s="22"/>
-      <c r="E41" s="59" t="s">
+      <c r="E41" s="61" t="s">
+        <v>598</v>
+      </c>
+      <c r="F41" s="61" t="s">
         <v>599</v>
-      </c>
-      <c r="F41" s="59" t="s">
-        <v>600</v>
       </c>
       <c r="G41" s="28"/>
       <c r="H41" s="28"/>
@@ -10242,41 +10401,41 @@
       <c r="K41" s="28"/>
       <c r="L41" s="31"/>
     </row>
-    <row r="42" spans="1:12" ht="165">
-      <c r="A42" s="51"/>
-      <c r="B42" s="54"/>
+    <row r="42" spans="1:12" ht="165" x14ac:dyDescent="0.2">
+      <c r="A42" s="53"/>
+      <c r="B42" s="56"/>
       <c r="C42" s="23"/>
       <c r="D42" s="23"/>
-      <c r="E42" s="60" t="s">
+      <c r="E42" s="62" t="s">
+        <v>600</v>
+      </c>
+      <c r="F42" s="62" t="s">
         <v>601</v>
-      </c>
-      <c r="F42" s="60" t="s">
-        <v>602</v>
       </c>
       <c r="G42" s="29"/>
       <c r="H42" s="29" t="s">
+        <v>602</v>
+      </c>
+      <c r="I42" s="29" t="s">
         <v>603</v>
       </c>
-      <c r="I42" s="29" t="s">
+      <c r="J42" s="29" t="s">
         <v>604</v>
       </c>
-      <c r="J42" s="29" t="s">
+      <c r="K42" s="29" t="s">
         <v>605</v>
       </c>
-      <c r="K42" s="29" t="s">
+      <c r="L42" s="32" t="s">
         <v>606</v>
       </c>
-      <c r="L42" s="32" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" ht="17.25" thickBot="1">
-      <c r="A43" s="52"/>
-      <c r="B43" s="55"/>
+    </row>
+    <row r="43" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="54"/>
+      <c r="B43" s="57"/>
       <c r="C43" s="26"/>
       <c r="D43" s="26"/>
-      <c r="E43" s="61"/>
-      <c r="F43" s="61"/>
+      <c r="E43" s="63"/>
+      <c r="F43" s="63"/>
       <c r="G43" s="30"/>
       <c r="H43" s="30"/>
       <c r="I43" s="30"/>
@@ -10284,15 +10443,15 @@
       <c r="K43" s="30"/>
       <c r="L43" s="33"/>
     </row>
-    <row r="44" spans="1:12">
-      <c r="A44" s="62"/>
-      <c r="B44" s="65"/>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A44" s="64"/>
+      <c r="B44" s="67"/>
       <c r="C44" s="34"/>
       <c r="D44" s="34"/>
-      <c r="E44" s="65" t="s">
-        <v>608</v>
-      </c>
-      <c r="F44" s="65"/>
+      <c r="E44" s="67" t="s">
+        <v>607</v>
+      </c>
+      <c r="F44" s="67"/>
       <c r="G44" s="34"/>
       <c r="H44" s="34"/>
       <c r="I44" s="34"/>
@@ -10300,35 +10459,35 @@
       <c r="K44" s="34"/>
       <c r="L44" s="35"/>
     </row>
-    <row r="45" spans="1:12" ht="82.5">
-      <c r="A45" s="63"/>
-      <c r="B45" s="66"/>
+    <row r="45" spans="1:12" ht="82.5" x14ac:dyDescent="0.2">
+      <c r="A45" s="65"/>
+      <c r="B45" s="68"/>
       <c r="C45" s="36"/>
       <c r="D45" s="36"/>
-      <c r="E45" s="66" t="s">
-        <v>609</v>
-      </c>
-      <c r="F45" s="66" t="s">
+      <c r="E45" s="68" t="s">
+        <v>608</v>
+      </c>
+      <c r="F45" s="68" t="s">
         <v>18</v>
       </c>
       <c r="G45" s="36"/>
       <c r="H45" s="36" t="s">
+        <v>609</v>
+      </c>
+      <c r="I45" s="36" t="s">
         <v>610</v>
-      </c>
-      <c r="I45" s="36" t="s">
-        <v>611</v>
       </c>
       <c r="J45" s="36"/>
       <c r="K45" s="36"/>
       <c r="L45" s="37"/>
     </row>
-    <row r="46" spans="1:12" ht="17.25" thickBot="1">
-      <c r="A46" s="64"/>
-      <c r="B46" s="67"/>
+    <row r="46" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="66"/>
+      <c r="B46" s="69"/>
       <c r="C46" s="38"/>
       <c r="D46" s="38"/>
-      <c r="E46" s="67"/>
-      <c r="F46" s="67"/>
+      <c r="E46" s="69"/>
+      <c r="F46" s="69"/>
       <c r="G46" s="38"/>
       <c r="H46" s="38"/>
       <c r="I46" s="38"/>
@@ -10336,15 +10495,15 @@
       <c r="K46" s="38"/>
       <c r="L46" s="39"/>
     </row>
-    <row r="47" spans="1:12">
-      <c r="A47" s="62"/>
-      <c r="B47" s="65"/>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A47" s="64"/>
+      <c r="B47" s="67"/>
       <c r="C47" s="34"/>
       <c r="D47" s="34"/>
-      <c r="E47" s="65" t="s">
-        <v>612</v>
-      </c>
-      <c r="F47" s="65"/>
+      <c r="E47" s="67" t="s">
+        <v>611</v>
+      </c>
+      <c r="F47" s="67"/>
       <c r="G47" s="34"/>
       <c r="H47" s="34"/>
       <c r="I47" s="34"/>
@@ -10352,35 +10511,35 @@
       <c r="K47" s="34"/>
       <c r="L47" s="35"/>
     </row>
-    <row r="48" spans="1:12" ht="49.5">
-      <c r="A48" s="63"/>
-      <c r="B48" s="66"/>
+    <row r="48" spans="1:12" ht="49.5" x14ac:dyDescent="0.2">
+      <c r="A48" s="65"/>
+      <c r="B48" s="68"/>
       <c r="C48" s="36"/>
       <c r="D48" s="36"/>
-      <c r="E48" s="66" t="s">
+      <c r="E48" s="68" t="s">
+        <v>612</v>
+      </c>
+      <c r="F48" s="68" t="s">
         <v>613</v>
-      </c>
-      <c r="F48" s="66" t="s">
-        <v>614</v>
       </c>
       <c r="G48" s="36"/>
       <c r="H48" s="36" t="s">
+        <v>614</v>
+      </c>
+      <c r="I48" s="36" t="s">
         <v>615</v>
-      </c>
-      <c r="I48" s="36" t="s">
-        <v>616</v>
       </c>
       <c r="J48" s="36"/>
       <c r="K48" s="36"/>
       <c r="L48" s="37"/>
     </row>
-    <row r="49" spans="1:12" ht="17.25" thickBot="1">
-      <c r="A49" s="64"/>
-      <c r="B49" s="67"/>
+    <row r="49" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="66"/>
+      <c r="B49" s="69"/>
       <c r="C49" s="38"/>
       <c r="D49" s="38"/>
-      <c r="E49" s="67"/>
-      <c r="F49" s="67"/>
+      <c r="E49" s="69"/>
+      <c r="F49" s="69"/>
       <c r="G49" s="38"/>
       <c r="H49" s="38"/>
       <c r="I49" s="38"/>
@@ -10388,19 +10547,19 @@
       <c r="K49" s="38"/>
       <c r="L49" s="39"/>
     </row>
-    <row r="50" spans="1:12">
-      <c r="A50" s="62" t="s">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A50" s="64" t="s">
+        <v>616</v>
+      </c>
+      <c r="B50" s="67"/>
+      <c r="C50" s="34" t="s">
+        <v>575</v>
+      </c>
+      <c r="D50" s="34"/>
+      <c r="E50" s="67" t="s">
         <v>617</v>
       </c>
-      <c r="B50" s="65"/>
-      <c r="C50" s="34" t="s">
-        <v>576</v>
-      </c>
-      <c r="D50" s="34"/>
-      <c r="E50" s="65" t="s">
-        <v>618</v>
-      </c>
-      <c r="F50" s="65"/>
+      <c r="F50" s="67"/>
       <c r="G50" s="34"/>
       <c r="H50" s="34"/>
       <c r="I50" s="34"/>
@@ -10408,47 +10567,47 @@
       <c r="K50" s="34"/>
       <c r="L50" s="35"/>
     </row>
-    <row r="51" spans="1:12" ht="66">
-      <c r="A51" s="63" t="s">
+    <row r="51" spans="1:12" ht="66" x14ac:dyDescent="0.2">
+      <c r="A51" s="65" t="s">
+        <v>616</v>
+      </c>
+      <c r="B51" s="68" t="s">
+        <v>618</v>
+      </c>
+      <c r="C51" s="36" t="s">
+        <v>579</v>
+      </c>
+      <c r="D51" s="36" t="s">
+        <v>619</v>
+      </c>
+      <c r="E51" s="68" t="s">
         <v>617</v>
       </c>
-      <c r="B51" s="66" t="s">
-        <v>619</v>
-      </c>
-      <c r="C51" s="36" t="s">
-        <v>580</v>
-      </c>
-      <c r="D51" s="36" t="s">
-        <v>620</v>
-      </c>
-      <c r="E51" s="66" t="s">
-        <v>618</v>
-      </c>
-      <c r="F51" s="66" t="s">
-        <v>602</v>
+      <c r="F51" s="68" t="s">
+        <v>601</v>
       </c>
       <c r="G51" s="36"/>
       <c r="H51" s="36" t="s">
+        <v>620</v>
+      </c>
+      <c r="I51" s="36" t="s">
         <v>621</v>
-      </c>
-      <c r="I51" s="36" t="s">
-        <v>622</v>
       </c>
       <c r="J51" s="36"/>
       <c r="K51" s="36"/>
       <c r="L51" s="37"/>
     </row>
-    <row r="52" spans="1:12" ht="50.25" thickBot="1">
-      <c r="A52" s="64"/>
-      <c r="B52" s="67"/>
+    <row r="52" spans="1:12" ht="50.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="66"/>
+      <c r="B52" s="69"/>
       <c r="C52" s="38" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D52" s="38" t="s">
-        <v>623</v>
-      </c>
-      <c r="E52" s="67"/>
-      <c r="F52" s="67"/>
+        <v>622</v>
+      </c>
+      <c r="E52" s="69"/>
+      <c r="F52" s="69"/>
       <c r="G52" s="38"/>
       <c r="H52" s="38"/>
       <c r="I52" s="38"/>
@@ -10456,19 +10615,19 @@
       <c r="K52" s="38"/>
       <c r="L52" s="39"/>
     </row>
-    <row r="53" spans="1:12">
-      <c r="A53" s="68" t="s">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A53" s="70" t="s">
+        <v>623</v>
+      </c>
+      <c r="B53" s="73"/>
+      <c r="C53" s="40" t="s">
+        <v>575</v>
+      </c>
+      <c r="D53" s="40"/>
+      <c r="E53" s="67" t="s">
         <v>624</v>
       </c>
-      <c r="B53" s="71"/>
-      <c r="C53" s="40" t="s">
-        <v>576</v>
-      </c>
-      <c r="D53" s="40"/>
-      <c r="E53" s="65" t="s">
-        <v>625</v>
-      </c>
-      <c r="F53" s="65"/>
+      <c r="F53" s="67"/>
       <c r="G53" s="34"/>
       <c r="H53" s="34"/>
       <c r="I53" s="34"/>
@@ -10476,47 +10635,47 @@
       <c r="K53" s="34"/>
       <c r="L53" s="35"/>
     </row>
-    <row r="54" spans="1:12" ht="33">
-      <c r="A54" s="69" t="s">
+    <row r="54" spans="1:12" ht="33" x14ac:dyDescent="0.2">
+      <c r="A54" s="71" t="s">
+        <v>625</v>
+      </c>
+      <c r="B54" s="74" t="s">
         <v>626</v>
       </c>
-      <c r="B54" s="72" t="s">
+      <c r="C54" s="41" t="s">
+        <v>579</v>
+      </c>
+      <c r="D54" s="41" t="s">
         <v>627</v>
       </c>
-      <c r="C54" s="41" t="s">
-        <v>580</v>
-      </c>
-      <c r="D54" s="41" t="s">
-        <v>628</v>
-      </c>
-      <c r="E54" s="66" t="s">
-        <v>625</v>
-      </c>
-      <c r="F54" s="66" t="s">
-        <v>602</v>
+      <c r="E54" s="68" t="s">
+        <v>624</v>
+      </c>
+      <c r="F54" s="68" t="s">
+        <v>601</v>
       </c>
       <c r="G54" s="36"/>
       <c r="H54" s="36" t="s">
+        <v>628</v>
+      </c>
+      <c r="I54" s="36" t="s">
         <v>629</v>
-      </c>
-      <c r="I54" s="36" t="s">
-        <v>630</v>
       </c>
       <c r="J54" s="36"/>
       <c r="K54" s="36"/>
       <c r="L54" s="37"/>
     </row>
-    <row r="55" spans="1:12" ht="50.25" thickBot="1">
-      <c r="A55" s="70"/>
-      <c r="B55" s="73"/>
+    <row r="55" spans="1:12" ht="50.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="72"/>
+      <c r="B55" s="75"/>
       <c r="C55" s="42" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D55" s="42" t="s">
-        <v>631</v>
-      </c>
-      <c r="E55" s="67"/>
-      <c r="F55" s="67"/>
+        <v>630</v>
+      </c>
+      <c r="E55" s="69"/>
+      <c r="F55" s="69"/>
       <c r="G55" s="38"/>
       <c r="H55" s="38"/>
       <c r="I55" s="38"/>
@@ -10524,19 +10683,19 @@
       <c r="K55" s="38"/>
       <c r="L55" s="39"/>
     </row>
-    <row r="56" spans="1:12">
-      <c r="A56" s="62" t="s">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A56" s="64" t="s">
+        <v>631</v>
+      </c>
+      <c r="B56" s="67"/>
+      <c r="C56" s="34" t="s">
+        <v>575</v>
+      </c>
+      <c r="D56" s="34"/>
+      <c r="E56" s="67" t="s">
         <v>632</v>
       </c>
-      <c r="B56" s="65"/>
-      <c r="C56" s="34" t="s">
-        <v>576</v>
-      </c>
-      <c r="D56" s="34"/>
-      <c r="E56" s="65" t="s">
-        <v>633</v>
-      </c>
-      <c r="F56" s="65"/>
+      <c r="F56" s="67"/>
       <c r="G56" s="34"/>
       <c r="H56" s="34"/>
       <c r="I56" s="34"/>
@@ -10544,47 +10703,47 @@
       <c r="K56" s="34"/>
       <c r="L56" s="35"/>
     </row>
-    <row r="57" spans="1:12" ht="33">
-      <c r="A57" s="63" t="s">
+    <row r="57" spans="1:12" ht="33" x14ac:dyDescent="0.2">
+      <c r="A57" s="65" t="s">
+        <v>631</v>
+      </c>
+      <c r="B57" s="68" t="s">
+        <v>626</v>
+      </c>
+      <c r="C57" s="36" t="s">
+        <v>579</v>
+      </c>
+      <c r="D57" s="36" t="s">
+        <v>633</v>
+      </c>
+      <c r="E57" s="68" t="s">
         <v>632</v>
       </c>
-      <c r="B57" s="66" t="s">
-        <v>627</v>
-      </c>
-      <c r="C57" s="36" t="s">
-        <v>580</v>
-      </c>
-      <c r="D57" s="36" t="s">
+      <c r="F57" s="68" t="s">
         <v>634</v>
-      </c>
-      <c r="E57" s="66" t="s">
-        <v>633</v>
-      </c>
-      <c r="F57" s="66" t="s">
-        <v>635</v>
       </c>
       <c r="G57" s="36"/>
       <c r="H57" s="36" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="I57" s="36" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="J57" s="36"/>
       <c r="K57" s="36"/>
       <c r="L57" s="37"/>
     </row>
-    <row r="58" spans="1:12" ht="33.75" thickBot="1">
-      <c r="A58" s="64"/>
-      <c r="B58" s="67"/>
+    <row r="58" spans="1:12" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="66"/>
+      <c r="B58" s="69"/>
       <c r="C58" s="38" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D58" s="38" t="s">
-        <v>637</v>
-      </c>
-      <c r="E58" s="67"/>
-      <c r="F58" s="67"/>
+        <v>636</v>
+      </c>
+      <c r="E58" s="69"/>
+      <c r="F58" s="69"/>
       <c r="G58" s="38"/>
       <c r="H58" s="38"/>
       <c r="I58" s="38"/>
@@ -10592,22 +10751,22 @@
       <c r="K58" s="38"/>
       <c r="L58" s="39"/>
     </row>
-    <row r="59" spans="1:12" ht="33">
-      <c r="A59" s="50" t="s">
+    <row r="59" spans="1:12" ht="33" x14ac:dyDescent="0.2">
+      <c r="A59" s="52" t="s">
+        <v>637</v>
+      </c>
+      <c r="B59" s="55"/>
+      <c r="C59" s="22" t="s">
         <v>638</v>
       </c>
-      <c r="B59" s="53"/>
-      <c r="C59" s="22" t="s">
+      <c r="D59" s="23" t="s">
         <v>639</v>
       </c>
-      <c r="D59" s="23" t="s">
+      <c r="E59" s="55" t="s">
         <v>640</v>
       </c>
-      <c r="E59" s="53" t="s">
-        <v>641</v>
-      </c>
-      <c r="F59" s="53" t="s">
-        <v>602</v>
+      <c r="F59" s="55" t="s">
+        <v>601</v>
       </c>
       <c r="G59" s="22"/>
       <c r="H59" s="22"/>
@@ -10616,51 +10775,51 @@
       <c r="K59" s="22"/>
       <c r="L59" s="24"/>
     </row>
-    <row r="60" spans="1:12" ht="82.5">
-      <c r="A60" s="51" t="s">
-        <v>638</v>
-      </c>
-      <c r="B60" s="54"/>
+    <row r="60" spans="1:12" ht="82.5" x14ac:dyDescent="0.2">
+      <c r="A60" s="53" t="s">
+        <v>637</v>
+      </c>
+      <c r="B60" s="56"/>
       <c r="C60" s="23" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D60" s="23" t="s">
+        <v>641</v>
+      </c>
+      <c r="E60" s="56" t="s">
+        <v>640</v>
+      </c>
+      <c r="F60" s="56" t="s">
         <v>642</v>
-      </c>
-      <c r="E60" s="54" t="s">
-        <v>641</v>
-      </c>
-      <c r="F60" s="54" t="s">
-        <v>643</v>
       </c>
       <c r="G60" s="23"/>
       <c r="H60" s="23" t="s">
+        <v>643</v>
+      </c>
+      <c r="I60" s="23" t="s">
         <v>644</v>
       </c>
-      <c r="I60" s="23" t="s">
+      <c r="J60" s="23" t="s">
         <v>645</v>
       </c>
-      <c r="J60" s="23" t="s">
+      <c r="K60" s="23" t="s">
         <v>646</v>
       </c>
-      <c r="K60" s="23" t="s">
+      <c r="L60" s="25" t="s">
         <v>647</v>
       </c>
-      <c r="L60" s="25" t="s">
+    </row>
+    <row r="61" spans="1:12" ht="66.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="54"/>
+      <c r="B61" s="57"/>
+      <c r="C61" s="26" t="s">
         <v>648</v>
       </c>
-    </row>
-    <row r="61" spans="1:12" ht="66.75" thickBot="1">
-      <c r="A61" s="52"/>
-      <c r="B61" s="55"/>
-      <c r="C61" s="26" t="s">
+      <c r="D61" s="26" t="s">
         <v>649</v>
       </c>
-      <c r="D61" s="26" t="s">
-        <v>650</v>
-      </c>
-      <c r="E61" s="55"/>
-      <c r="F61" s="55"/>
+      <c r="E61" s="57"/>
+      <c r="F61" s="57"/>
       <c r="G61" s="26"/>
       <c r="H61" s="26"/>
       <c r="I61" s="26"/>
@@ -10668,19 +10827,19 @@
       <c r="K61" s="26"/>
       <c r="L61" s="27"/>
     </row>
-    <row r="62" spans="1:12">
-      <c r="A62" s="62" t="s">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A62" s="64" t="s">
+        <v>650</v>
+      </c>
+      <c r="B62" s="67"/>
+      <c r="C62" s="34" t="s">
+        <v>575</v>
+      </c>
+      <c r="D62" s="34"/>
+      <c r="E62" s="67" t="s">
         <v>651</v>
       </c>
-      <c r="B62" s="65"/>
-      <c r="C62" s="34" t="s">
-        <v>576</v>
-      </c>
-      <c r="D62" s="34"/>
-      <c r="E62" s="65" t="s">
-        <v>652</v>
-      </c>
-      <c r="F62" s="65"/>
+      <c r="F62" s="67"/>
       <c r="G62" s="34"/>
       <c r="H62" s="34"/>
       <c r="I62" s="34"/>
@@ -10688,47 +10847,47 @@
       <c r="K62" s="34"/>
       <c r="L62" s="35"/>
     </row>
-    <row r="63" spans="1:12" ht="49.5">
-      <c r="A63" s="63" t="s">
+    <row r="63" spans="1:12" ht="49.5" x14ac:dyDescent="0.2">
+      <c r="A63" s="65" t="s">
+        <v>650</v>
+      </c>
+      <c r="B63" s="68" t="s">
+        <v>578</v>
+      </c>
+      <c r="C63" s="36" t="s">
+        <v>579</v>
+      </c>
+      <c r="D63" s="36" t="s">
+        <v>652</v>
+      </c>
+      <c r="E63" s="68" t="s">
         <v>651</v>
       </c>
-      <c r="B63" s="66" t="s">
-        <v>579</v>
-      </c>
-      <c r="C63" s="36" t="s">
-        <v>580</v>
-      </c>
-      <c r="D63" s="36" t="s">
-        <v>653</v>
-      </c>
-      <c r="E63" s="66" t="s">
-        <v>652</v>
-      </c>
-      <c r="F63" s="66" t="s">
-        <v>614</v>
+      <c r="F63" s="68" t="s">
+        <v>613</v>
       </c>
       <c r="G63" s="36"/>
       <c r="H63" s="36" t="s">
+        <v>653</v>
+      </c>
+      <c r="I63" s="36" t="s">
         <v>654</v>
-      </c>
-      <c r="I63" s="36" t="s">
-        <v>655</v>
       </c>
       <c r="J63" s="36"/>
       <c r="K63" s="36"/>
       <c r="L63" s="37"/>
     </row>
-    <row r="64" spans="1:12" ht="33.75" thickBot="1">
-      <c r="A64" s="64"/>
-      <c r="B64" s="67"/>
+    <row r="64" spans="1:12" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="66"/>
+      <c r="B64" s="69"/>
       <c r="C64" s="38" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D64" s="38" t="s">
-        <v>656</v>
-      </c>
-      <c r="E64" s="67"/>
-      <c r="F64" s="67"/>
+        <v>655</v>
+      </c>
+      <c r="E64" s="69"/>
+      <c r="F64" s="69"/>
       <c r="G64" s="38"/>
       <c r="H64" s="38"/>
       <c r="I64" s="38"/>
@@ -10736,22 +10895,22 @@
       <c r="K64" s="38"/>
       <c r="L64" s="39"/>
     </row>
-    <row r="65" spans="1:12" ht="33">
-      <c r="A65" s="50" t="s">
+    <row r="65" spans="1:12" ht="33" x14ac:dyDescent="0.2">
+      <c r="A65" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="B65" s="53"/>
+      <c r="B65" s="55"/>
       <c r="C65" s="22" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="D65" s="23" t="s">
+        <v>656</v>
+      </c>
+      <c r="E65" s="55" t="s">
         <v>657</v>
       </c>
-      <c r="E65" s="53" t="s">
-        <v>658</v>
-      </c>
-      <c r="F65" s="53" t="s">
-        <v>602</v>
+      <c r="F65" s="55" t="s">
+        <v>601</v>
       </c>
       <c r="G65" s="22"/>
       <c r="H65" s="22"/>
@@ -10760,49 +10919,49 @@
       <c r="K65" s="22"/>
       <c r="L65" s="24"/>
     </row>
-    <row r="66" spans="1:12" ht="66">
-      <c r="A66" s="51" t="s">
+    <row r="66" spans="1:12" ht="66" x14ac:dyDescent="0.2">
+      <c r="A66" s="53" t="s">
+        <v>658</v>
+      </c>
+      <c r="B66" s="56"/>
+      <c r="C66" s="23" t="s">
+        <v>589</v>
+      </c>
+      <c r="D66" s="23" t="s">
         <v>659</v>
       </c>
-      <c r="B66" s="54"/>
-      <c r="C66" s="23" t="s">
-        <v>590</v>
-      </c>
-      <c r="D66" s="23" t="s">
-        <v>660</v>
-      </c>
-      <c r="E66" s="54" t="s">
-        <v>658</v>
-      </c>
-      <c r="F66" s="54" t="s">
-        <v>602</v>
+      <c r="E66" s="56" t="s">
+        <v>657</v>
+      </c>
+      <c r="F66" s="56" t="s">
+        <v>601</v>
       </c>
       <c r="G66" s="23"/>
       <c r="H66" s="23" t="s">
+        <v>660</v>
+      </c>
+      <c r="I66" s="23" t="s">
         <v>661</v>
       </c>
-      <c r="I66" s="23" t="s">
+      <c r="J66" s="23" t="s">
         <v>662</v>
-      </c>
-      <c r="J66" s="23" t="s">
-        <v>663</v>
       </c>
       <c r="K66" s="23"/>
       <c r="L66" s="25" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="54"/>
+      <c r="B67" s="57"/>
+      <c r="C67" s="26" t="s">
+        <v>648</v>
+      </c>
+      <c r="D67" s="26" t="s">
         <v>664</v>
       </c>
-    </row>
-    <row r="67" spans="1:12" ht="33.75" thickBot="1">
-      <c r="A67" s="52"/>
-      <c r="B67" s="55"/>
-      <c r="C67" s="26" t="s">
-        <v>649</v>
-      </c>
-      <c r="D67" s="26" t="s">
-        <v>665</v>
-      </c>
-      <c r="E67" s="55"/>
-      <c r="F67" s="55"/>
+      <c r="E67" s="57"/>
+      <c r="F67" s="57"/>
       <c r="G67" s="26"/>
       <c r="H67" s="26"/>
       <c r="I67" s="26"/>
@@ -10810,19 +10969,19 @@
       <c r="K67" s="26"/>
       <c r="L67" s="27"/>
     </row>
-    <row r="68" spans="1:12">
-      <c r="A68" s="62" t="s">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A68" s="64" t="s">
+        <v>665</v>
+      </c>
+      <c r="B68" s="67"/>
+      <c r="C68" s="34" t="s">
+        <v>575</v>
+      </c>
+      <c r="D68" s="34"/>
+      <c r="E68" s="67" t="s">
         <v>666</v>
       </c>
-      <c r="B68" s="65"/>
-      <c r="C68" s="34" t="s">
-        <v>576</v>
-      </c>
-      <c r="D68" s="34"/>
-      <c r="E68" s="65" t="s">
-        <v>667</v>
-      </c>
-      <c r="F68" s="65"/>
+      <c r="F68" s="67"/>
       <c r="G68" s="34"/>
       <c r="H68" s="34"/>
       <c r="I68" s="34"/>
@@ -10830,47 +10989,47 @@
       <c r="K68" s="34"/>
       <c r="L68" s="35"/>
     </row>
-    <row r="69" spans="1:12" ht="33">
-      <c r="A69" s="63" t="s">
+    <row r="69" spans="1:12" ht="33" x14ac:dyDescent="0.2">
+      <c r="A69" s="65" t="s">
+        <v>665</v>
+      </c>
+      <c r="B69" s="68" t="s">
+        <v>626</v>
+      </c>
+      <c r="C69" s="36" t="s">
+        <v>579</v>
+      </c>
+      <c r="D69" s="36" t="s">
+        <v>667</v>
+      </c>
+      <c r="E69" s="68" t="s">
         <v>666</v>
       </c>
-      <c r="B69" s="66" t="s">
-        <v>627</v>
-      </c>
-      <c r="C69" s="36" t="s">
-        <v>580</v>
-      </c>
-      <c r="D69" s="36" t="s">
-        <v>668</v>
-      </c>
-      <c r="E69" s="66" t="s">
-        <v>667</v>
-      </c>
-      <c r="F69" s="66" t="s">
-        <v>602</v>
+      <c r="F69" s="68" t="s">
+        <v>601</v>
       </c>
       <c r="G69" s="36"/>
       <c r="H69" s="36" t="s">
+        <v>668</v>
+      </c>
+      <c r="I69" s="36" t="s">
         <v>669</v>
-      </c>
-      <c r="I69" s="36" t="s">
-        <v>670</v>
       </c>
       <c r="J69" s="36"/>
       <c r="K69" s="36"/>
       <c r="L69" s="37"/>
     </row>
-    <row r="70" spans="1:12" ht="33.75" thickBot="1">
-      <c r="A70" s="64"/>
-      <c r="B70" s="67"/>
+    <row r="70" spans="1:12" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="66"/>
+      <c r="B70" s="69"/>
       <c r="C70" s="38" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D70" s="38" t="s">
-        <v>671</v>
-      </c>
-      <c r="E70" s="67"/>
-      <c r="F70" s="67"/>
+        <v>670</v>
+      </c>
+      <c r="E70" s="69"/>
+      <c r="F70" s="69"/>
       <c r="G70" s="38"/>
       <c r="H70" s="38"/>
       <c r="I70" s="38"/>
@@ -10878,19 +11037,19 @@
       <c r="K70" s="38"/>
       <c r="L70" s="39"/>
     </row>
-    <row r="71" spans="1:12">
-      <c r="A71" s="62" t="s">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A71" s="64" t="s">
+        <v>671</v>
+      </c>
+      <c r="B71" s="67"/>
+      <c r="C71" s="34" t="s">
+        <v>575</v>
+      </c>
+      <c r="D71" s="34"/>
+      <c r="E71" s="67" t="s">
         <v>672</v>
       </c>
-      <c r="B71" s="65"/>
-      <c r="C71" s="34" t="s">
-        <v>576</v>
-      </c>
-      <c r="D71" s="34"/>
-      <c r="E71" s="65" t="s">
-        <v>673</v>
-      </c>
-      <c r="F71" s="65"/>
+      <c r="F71" s="67"/>
       <c r="G71" s="34"/>
       <c r="H71" s="34"/>
       <c r="I71" s="34"/>
@@ -10898,47 +11057,47 @@
       <c r="K71" s="34"/>
       <c r="L71" s="35"/>
     </row>
-    <row r="72" spans="1:12" ht="49.5">
-      <c r="A72" s="63" t="s">
+    <row r="72" spans="1:12" ht="49.5" x14ac:dyDescent="0.2">
+      <c r="A72" s="65" t="s">
+        <v>671</v>
+      </c>
+      <c r="B72" s="68" t="s">
+        <v>578</v>
+      </c>
+      <c r="C72" s="36" t="s">
+        <v>579</v>
+      </c>
+      <c r="D72" s="36" t="s">
+        <v>667</v>
+      </c>
+      <c r="E72" s="68" t="s">
         <v>672</v>
       </c>
-      <c r="B72" s="66" t="s">
-        <v>579</v>
-      </c>
-      <c r="C72" s="36" t="s">
-        <v>580</v>
-      </c>
-      <c r="D72" s="36" t="s">
-        <v>668</v>
-      </c>
-      <c r="E72" s="66" t="s">
-        <v>673</v>
-      </c>
-      <c r="F72" s="66" t="s">
-        <v>602</v>
+      <c r="F72" s="68" t="s">
+        <v>601</v>
       </c>
       <c r="G72" s="36"/>
       <c r="H72" s="36" t="s">
+        <v>673</v>
+      </c>
+      <c r="I72" s="36" t="s">
         <v>674</v>
-      </c>
-      <c r="I72" s="36" t="s">
-        <v>675</v>
       </c>
       <c r="J72" s="36"/>
       <c r="K72" s="36"/>
       <c r="L72" s="37"/>
     </row>
-    <row r="73" spans="1:12" ht="33.75" thickBot="1">
-      <c r="A73" s="64"/>
-      <c r="B73" s="67"/>
+    <row r="73" spans="1:12" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="66"/>
+      <c r="B73" s="69"/>
       <c r="C73" s="38" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D73" s="38" t="s">
-        <v>676</v>
-      </c>
-      <c r="E73" s="67"/>
-      <c r="F73" s="67"/>
+        <v>675</v>
+      </c>
+      <c r="E73" s="69"/>
+      <c r="F73" s="69"/>
       <c r="G73" s="38"/>
       <c r="H73" s="38"/>
       <c r="I73" s="38"/>
@@ -10946,19 +11105,19 @@
       <c r="K73" s="38"/>
       <c r="L73" s="39"/>
     </row>
-    <row r="74" spans="1:12">
-      <c r="A74" s="62" t="s">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A74" s="64" t="s">
+        <v>676</v>
+      </c>
+      <c r="B74" s="67"/>
+      <c r="C74" s="34" t="s">
+        <v>575</v>
+      </c>
+      <c r="D74" s="34"/>
+      <c r="E74" s="67" t="s">
         <v>677</v>
       </c>
-      <c r="B74" s="65"/>
-      <c r="C74" s="34" t="s">
-        <v>576</v>
-      </c>
-      <c r="D74" s="34"/>
-      <c r="E74" s="65" t="s">
-        <v>678</v>
-      </c>
-      <c r="F74" s="65"/>
+      <c r="F74" s="67"/>
       <c r="G74" s="34"/>
       <c r="H74" s="34"/>
       <c r="I74" s="34"/>
@@ -10966,47 +11125,47 @@
       <c r="K74" s="34"/>
       <c r="L74" s="35"/>
     </row>
-    <row r="75" spans="1:12" ht="33">
-      <c r="A75" s="63" t="s">
+    <row r="75" spans="1:12" ht="33" x14ac:dyDescent="0.2">
+      <c r="A75" s="65" t="s">
+        <v>676</v>
+      </c>
+      <c r="B75" s="68" t="s">
+        <v>626</v>
+      </c>
+      <c r="C75" s="36" t="s">
+        <v>579</v>
+      </c>
+      <c r="D75" s="36" t="s">
+        <v>678</v>
+      </c>
+      <c r="E75" s="68" t="s">
         <v>677</v>
       </c>
-      <c r="B75" s="66" t="s">
-        <v>627</v>
-      </c>
-      <c r="C75" s="36" t="s">
-        <v>580</v>
-      </c>
-      <c r="D75" s="36" t="s">
-        <v>679</v>
-      </c>
-      <c r="E75" s="66" t="s">
-        <v>678</v>
-      </c>
-      <c r="F75" s="66" t="s">
-        <v>614</v>
+      <c r="F75" s="68" t="s">
+        <v>613</v>
       </c>
       <c r="G75" s="36"/>
       <c r="H75" s="36" t="s">
+        <v>679</v>
+      </c>
+      <c r="I75" s="36" t="s">
         <v>680</v>
-      </c>
-      <c r="I75" s="36" t="s">
-        <v>681</v>
       </c>
       <c r="J75" s="36"/>
       <c r="K75" s="36"/>
       <c r="L75" s="37"/>
     </row>
-    <row r="76" spans="1:12" ht="33.75" thickBot="1">
-      <c r="A76" s="64"/>
-      <c r="B76" s="67"/>
+    <row r="76" spans="1:12" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="66"/>
+      <c r="B76" s="69"/>
       <c r="C76" s="38" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D76" s="38" t="s">
-        <v>682</v>
-      </c>
-      <c r="E76" s="67"/>
-      <c r="F76" s="67"/>
+        <v>681</v>
+      </c>
+      <c r="E76" s="69"/>
+      <c r="F76" s="69"/>
       <c r="G76" s="38"/>
       <c r="H76" s="38"/>
       <c r="I76" s="38"/>
@@ -11014,19 +11173,19 @@
       <c r="K76" s="38"/>
       <c r="L76" s="39"/>
     </row>
-    <row r="77" spans="1:12">
-      <c r="A77" s="62" t="s">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A77" s="64" t="s">
+        <v>682</v>
+      </c>
+      <c r="B77" s="67"/>
+      <c r="C77" s="34" t="s">
+        <v>575</v>
+      </c>
+      <c r="D77" s="34"/>
+      <c r="E77" s="67" t="s">
         <v>683</v>
       </c>
-      <c r="B77" s="65"/>
-      <c r="C77" s="34" t="s">
-        <v>576</v>
-      </c>
-      <c r="D77" s="34"/>
-      <c r="E77" s="65" t="s">
-        <v>684</v>
-      </c>
-      <c r="F77" s="65"/>
+      <c r="F77" s="67"/>
       <c r="G77" s="34"/>
       <c r="H77" s="34"/>
       <c r="I77" s="34"/>
@@ -11034,47 +11193,47 @@
       <c r="K77" s="34"/>
       <c r="L77" s="35"/>
     </row>
-    <row r="78" spans="1:12" ht="33">
-      <c r="A78" s="63" t="s">
+    <row r="78" spans="1:12" ht="33" x14ac:dyDescent="0.2">
+      <c r="A78" s="65" t="s">
+        <v>682</v>
+      </c>
+      <c r="B78" s="68" t="s">
+        <v>626</v>
+      </c>
+      <c r="C78" s="36" t="s">
+        <v>579</v>
+      </c>
+      <c r="D78" s="36" t="s">
+        <v>684</v>
+      </c>
+      <c r="E78" s="68" t="s">
         <v>683</v>
       </c>
-      <c r="B78" s="66" t="s">
-        <v>627</v>
-      </c>
-      <c r="C78" s="36" t="s">
-        <v>580</v>
-      </c>
-      <c r="D78" s="36" t="s">
-        <v>685</v>
-      </c>
-      <c r="E78" s="66" t="s">
-        <v>684</v>
-      </c>
-      <c r="F78" s="66" t="s">
-        <v>614</v>
+      <c r="F78" s="68" t="s">
+        <v>613</v>
       </c>
       <c r="G78" s="36"/>
       <c r="H78" s="36" t="s">
+        <v>685</v>
+      </c>
+      <c r="I78" s="36" t="s">
         <v>686</v>
-      </c>
-      <c r="I78" s="36" t="s">
-        <v>687</v>
       </c>
       <c r="J78" s="36"/>
       <c r="K78" s="36"/>
       <c r="L78" s="37"/>
     </row>
-    <row r="79" spans="1:12" ht="33.75" thickBot="1">
-      <c r="A79" s="64"/>
-      <c r="B79" s="67"/>
+    <row r="79" spans="1:12" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="66"/>
+      <c r="B79" s="69"/>
       <c r="C79" s="38" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D79" s="38" t="s">
-        <v>688</v>
-      </c>
-      <c r="E79" s="67"/>
-      <c r="F79" s="67"/>
+        <v>687</v>
+      </c>
+      <c r="E79" s="69"/>
+      <c r="F79" s="69"/>
       <c r="G79" s="38"/>
       <c r="H79" s="38"/>
       <c r="I79" s="38"/>
@@ -11082,19 +11241,19 @@
       <c r="K79" s="38"/>
       <c r="L79" s="39"/>
     </row>
-    <row r="80" spans="1:12">
-      <c r="A80" s="62" t="s">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A80" s="64" t="s">
+        <v>688</v>
+      </c>
+      <c r="B80" s="67"/>
+      <c r="C80" s="34" t="s">
+        <v>575</v>
+      </c>
+      <c r="D80" s="34"/>
+      <c r="E80" s="67" t="s">
         <v>689</v>
       </c>
-      <c r="B80" s="65"/>
-      <c r="C80" s="34" t="s">
-        <v>576</v>
-      </c>
-      <c r="D80" s="34"/>
-      <c r="E80" s="65" t="s">
-        <v>690</v>
-      </c>
-      <c r="F80" s="65"/>
+      <c r="F80" s="67"/>
       <c r="G80" s="34"/>
       <c r="H80" s="34"/>
       <c r="I80" s="34"/>
@@ -11102,47 +11261,47 @@
       <c r="K80" s="34"/>
       <c r="L80" s="35"/>
     </row>
-    <row r="81" spans="1:12" ht="49.5">
-      <c r="A81" s="63" t="s">
+    <row r="81" spans="1:12" ht="49.5" x14ac:dyDescent="0.2">
+      <c r="A81" s="65" t="s">
+        <v>690</v>
+      </c>
+      <c r="B81" s="68" t="s">
+        <v>626</v>
+      </c>
+      <c r="C81" s="36" t="s">
+        <v>579</v>
+      </c>
+      <c r="D81" s="36" t="s">
         <v>691</v>
       </c>
-      <c r="B81" s="66" t="s">
-        <v>627</v>
-      </c>
-      <c r="C81" s="36" t="s">
-        <v>580</v>
-      </c>
-      <c r="D81" s="36" t="s">
+      <c r="E81" s="68" t="s">
         <v>692</v>
       </c>
-      <c r="E81" s="66" t="s">
-        <v>693</v>
-      </c>
-      <c r="F81" s="66" t="s">
-        <v>635</v>
+      <c r="F81" s="68" t="s">
+        <v>634</v>
       </c>
       <c r="G81" s="36"/>
       <c r="H81" s="36" t="s">
+        <v>693</v>
+      </c>
+      <c r="I81" s="36" t="s">
         <v>694</v>
-      </c>
-      <c r="I81" s="36" t="s">
-        <v>695</v>
       </c>
       <c r="J81" s="36"/>
       <c r="K81" s="36"/>
       <c r="L81" s="37"/>
     </row>
-    <row r="82" spans="1:12" ht="50.25" thickBot="1">
-      <c r="A82" s="64"/>
-      <c r="B82" s="67"/>
+    <row r="82" spans="1:12" ht="50.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="66"/>
+      <c r="B82" s="69"/>
       <c r="C82" s="38" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D82" s="38" t="s">
-        <v>696</v>
-      </c>
-      <c r="E82" s="67"/>
-      <c r="F82" s="67"/>
+        <v>695</v>
+      </c>
+      <c r="E82" s="69"/>
+      <c r="F82" s="69"/>
       <c r="G82" s="38"/>
       <c r="H82" s="38"/>
       <c r="I82" s="38"/>
@@ -11150,19 +11309,19 @@
       <c r="K82" s="38"/>
       <c r="L82" s="39"/>
     </row>
-    <row r="83" spans="1:12">
-      <c r="A83" s="62" t="s">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A83" s="64" t="s">
+        <v>696</v>
+      </c>
+      <c r="B83" s="67"/>
+      <c r="C83" s="34" t="s">
+        <v>575</v>
+      </c>
+      <c r="D83" s="34"/>
+      <c r="E83" s="67" t="s">
         <v>697</v>
       </c>
-      <c r="B83" s="65"/>
-      <c r="C83" s="34" t="s">
-        <v>576</v>
-      </c>
-      <c r="D83" s="34"/>
-      <c r="E83" s="65" t="s">
-        <v>698</v>
-      </c>
-      <c r="F83" s="65"/>
+      <c r="F83" s="67"/>
       <c r="G83" s="34"/>
       <c r="H83" s="34"/>
       <c r="I83" s="34"/>
@@ -11170,47 +11329,47 @@
       <c r="K83" s="34"/>
       <c r="L83" s="35"/>
     </row>
-    <row r="84" spans="1:12" ht="33">
-      <c r="A84" s="63" t="s">
-        <v>697</v>
-      </c>
-      <c r="B84" s="66" t="s">
+    <row r="84" spans="1:12" ht="33" x14ac:dyDescent="0.2">
+      <c r="A84" s="65" t="s">
+        <v>696</v>
+      </c>
+      <c r="B84" s="68" t="s">
+        <v>578</v>
+      </c>
+      <c r="C84" s="36" t="s">
         <v>579</v>
       </c>
-      <c r="C84" s="36" t="s">
-        <v>580</v>
-      </c>
       <c r="D84" s="36" t="s">
-        <v>660</v>
-      </c>
-      <c r="E84" s="66" t="s">
-        <v>699</v>
-      </c>
-      <c r="F84" s="66" t="s">
-        <v>635</v>
+        <v>659</v>
+      </c>
+      <c r="E84" s="68" t="s">
+        <v>698</v>
+      </c>
+      <c r="F84" s="68" t="s">
+        <v>634</v>
       </c>
       <c r="G84" s="36"/>
       <c r="H84" s="36" t="s">
+        <v>699</v>
+      </c>
+      <c r="I84" s="36" t="s">
         <v>700</v>
-      </c>
-      <c r="I84" s="36" t="s">
-        <v>701</v>
       </c>
       <c r="J84" s="36"/>
       <c r="K84" s="36"/>
       <c r="L84" s="37"/>
     </row>
-    <row r="85" spans="1:12" ht="33.75" thickBot="1">
-      <c r="A85" s="64"/>
-      <c r="B85" s="67"/>
+    <row r="85" spans="1:12" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="66"/>
+      <c r="B85" s="69"/>
       <c r="C85" s="38" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D85" s="38" t="s">
-        <v>702</v>
-      </c>
-      <c r="E85" s="67"/>
-      <c r="F85" s="67"/>
+        <v>701</v>
+      </c>
+      <c r="E85" s="69"/>
+      <c r="F85" s="69"/>
       <c r="G85" s="38"/>
       <c r="H85" s="38"/>
       <c r="I85" s="38"/>
@@ -11218,22 +11377,22 @@
       <c r="K85" s="38"/>
       <c r="L85" s="39"/>
     </row>
-    <row r="86" spans="1:12" ht="33">
-      <c r="A86" s="56" t="s">
+    <row r="86" spans="1:12" ht="33" x14ac:dyDescent="0.2">
+      <c r="A86" s="58" t="s">
+        <v>702</v>
+      </c>
+      <c r="B86" s="61"/>
+      <c r="C86" s="28" t="s">
+        <v>638</v>
+      </c>
+      <c r="D86" s="23" t="s">
         <v>703</v>
       </c>
-      <c r="B86" s="59"/>
-      <c r="C86" s="28" t="s">
-        <v>639</v>
-      </c>
-      <c r="D86" s="23" t="s">
+      <c r="E86" s="55" t="s">
         <v>704</v>
       </c>
-      <c r="E86" s="53" t="s">
+      <c r="F86" s="55" t="s">
         <v>705</v>
-      </c>
-      <c r="F86" s="53" t="s">
-        <v>706</v>
       </c>
       <c r="G86" s="22"/>
       <c r="H86" s="22"/>
@@ -11242,49 +11401,49 @@
       <c r="K86" s="22"/>
       <c r="L86" s="24"/>
     </row>
-    <row r="87" spans="1:12" ht="99">
-      <c r="A87" s="57" t="s">
-        <v>703</v>
-      </c>
-      <c r="B87" s="60"/>
+    <row r="87" spans="1:12" ht="99" x14ac:dyDescent="0.2">
+      <c r="A87" s="59" t="s">
+        <v>702</v>
+      </c>
+      <c r="B87" s="62"/>
       <c r="C87" s="29" t="s">
+        <v>706</v>
+      </c>
+      <c r="D87" s="29" t="s">
         <v>707</v>
       </c>
-      <c r="D87" s="29" t="s">
+      <c r="E87" s="56" t="s">
         <v>708</v>
       </c>
-      <c r="E87" s="54" t="s">
-        <v>709</v>
-      </c>
-      <c r="F87" s="54" t="s">
-        <v>635</v>
+      <c r="F87" s="56" t="s">
+        <v>634</v>
       </c>
       <c r="G87" s="23"/>
       <c r="H87" s="23" t="s">
+        <v>709</v>
+      </c>
+      <c r="I87" s="23" t="s">
         <v>710</v>
       </c>
-      <c r="I87" s="23" t="s">
+      <c r="J87" s="23" t="s">
         <v>711</v>
-      </c>
-      <c r="J87" s="23" t="s">
-        <v>712</v>
       </c>
       <c r="K87" s="23"/>
       <c r="L87" s="25" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" ht="50.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="60"/>
+      <c r="B88" s="63"/>
+      <c r="C88" s="30" t="s">
+        <v>648</v>
+      </c>
+      <c r="D88" s="30" t="s">
         <v>713</v>
       </c>
-    </row>
-    <row r="88" spans="1:12" ht="50.25" thickBot="1">
-      <c r="A88" s="58"/>
-      <c r="B88" s="61"/>
-      <c r="C88" s="30" t="s">
-        <v>649</v>
-      </c>
-      <c r="D88" s="30" t="s">
-        <v>714</v>
-      </c>
-      <c r="E88" s="55"/>
-      <c r="F88" s="55"/>
+      <c r="E88" s="57"/>
+      <c r="F88" s="57"/>
       <c r="G88" s="26"/>
       <c r="H88" s="26"/>
       <c r="I88" s="26"/>
@@ -11292,22 +11451,22 @@
       <c r="K88" s="26"/>
       <c r="L88" s="27"/>
     </row>
-    <row r="89" spans="1:12" ht="33">
-      <c r="A89" s="50" t="s">
+    <row r="89" spans="1:12" ht="33" x14ac:dyDescent="0.2">
+      <c r="A89" s="52" t="s">
+        <v>714</v>
+      </c>
+      <c r="B89" s="55"/>
+      <c r="C89" s="22" t="s">
+        <v>638</v>
+      </c>
+      <c r="D89" s="23" t="s">
         <v>715</v>
       </c>
-      <c r="B89" s="53"/>
-      <c r="C89" s="22" t="s">
-        <v>639</v>
-      </c>
-      <c r="D89" s="23" t="s">
+      <c r="E89" s="55" t="s">
         <v>716</v>
       </c>
-      <c r="E89" s="53" t="s">
-        <v>717</v>
-      </c>
-      <c r="F89" s="53" t="s">
-        <v>614</v>
+      <c r="F89" s="55" t="s">
+        <v>613</v>
       </c>
       <c r="G89" s="22"/>
       <c r="H89" s="22"/>
@@ -11316,49 +11475,49 @@
       <c r="K89" s="22"/>
       <c r="L89" s="24"/>
     </row>
-    <row r="90" spans="1:12" ht="99">
-      <c r="A90" s="51" t="s">
+    <row r="90" spans="1:12" ht="99" x14ac:dyDescent="0.2">
+      <c r="A90" s="53" t="s">
+        <v>717</v>
+      </c>
+      <c r="B90" s="56"/>
+      <c r="C90" s="23" t="s">
+        <v>589</v>
+      </c>
+      <c r="D90" s="23" t="s">
         <v>718</v>
       </c>
-      <c r="B90" s="54"/>
-      <c r="C90" s="23" t="s">
-        <v>590</v>
-      </c>
-      <c r="D90" s="23" t="s">
+      <c r="E90" s="56" t="s">
         <v>719</v>
       </c>
-      <c r="E90" s="54" t="s">
-        <v>720</v>
-      </c>
-      <c r="F90" s="54" t="s">
-        <v>614</v>
+      <c r="F90" s="56" t="s">
+        <v>613</v>
       </c>
       <c r="G90" s="23"/>
       <c r="H90" s="23" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="I90" s="23" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="J90" s="23"/>
       <c r="K90" s="23" t="s">
+        <v>721</v>
+      </c>
+      <c r="L90" s="25" t="s">
         <v>722</v>
       </c>
-      <c r="L90" s="25" t="s">
+    </row>
+    <row r="91" spans="1:12" ht="50.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="54"/>
+      <c r="B91" s="57"/>
+      <c r="C91" s="26" t="s">
+        <v>648</v>
+      </c>
+      <c r="D91" s="26" t="s">
         <v>723</v>
       </c>
-    </row>
-    <row r="91" spans="1:12" ht="50.25" thickBot="1">
-      <c r="A91" s="52"/>
-      <c r="B91" s="55"/>
-      <c r="C91" s="26" t="s">
-        <v>649</v>
-      </c>
-      <c r="D91" s="26" t="s">
-        <v>724</v>
-      </c>
-      <c r="E91" s="55"/>
-      <c r="F91" s="55"/>
+      <c r="E91" s="57"/>
+      <c r="F91" s="57"/>
       <c r="G91" s="26"/>
       <c r="H91" s="26"/>
       <c r="I91" s="26"/>
@@ -11366,22 +11525,22 @@
       <c r="K91" s="26"/>
       <c r="L91" s="27"/>
     </row>
-    <row r="92" spans="1:12" ht="33">
-      <c r="A92" s="56" t="s">
+    <row r="92" spans="1:12" ht="33" x14ac:dyDescent="0.2">
+      <c r="A92" s="58" t="s">
+        <v>724</v>
+      </c>
+      <c r="B92" s="61"/>
+      <c r="C92" s="28" t="s">
         <v>725</v>
       </c>
-      <c r="B92" s="59"/>
-      <c r="C92" s="28" t="s">
+      <c r="D92" s="23" t="s">
+        <v>656</v>
+      </c>
+      <c r="E92" s="55" t="s">
         <v>726</v>
       </c>
-      <c r="D92" s="23" t="s">
-        <v>657</v>
-      </c>
-      <c r="E92" s="53" t="s">
-        <v>727</v>
-      </c>
-      <c r="F92" s="53" t="s">
-        <v>602</v>
+      <c r="F92" s="55" t="s">
+        <v>601</v>
       </c>
       <c r="G92" s="22"/>
       <c r="H92" s="22"/>
@@ -11390,49 +11549,49 @@
       <c r="K92" s="22"/>
       <c r="L92" s="24"/>
     </row>
-    <row r="93" spans="1:12" ht="49.5">
-      <c r="A93" s="57" t="s">
-        <v>728</v>
-      </c>
-      <c r="B93" s="60"/>
+    <row r="93" spans="1:12" ht="49.5" x14ac:dyDescent="0.2">
+      <c r="A93" s="59" t="s">
+        <v>727</v>
+      </c>
+      <c r="B93" s="62"/>
       <c r="C93" s="29" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D93" s="29" t="s">
-        <v>657</v>
-      </c>
-      <c r="E93" s="54" t="s">
-        <v>727</v>
-      </c>
-      <c r="F93" s="54" t="s">
-        <v>602</v>
+        <v>656</v>
+      </c>
+      <c r="E93" s="56" t="s">
+        <v>726</v>
+      </c>
+      <c r="F93" s="56" t="s">
+        <v>601</v>
       </c>
       <c r="G93" s="23"/>
       <c r="H93" s="23" t="s">
+        <v>728</v>
+      </c>
+      <c r="I93" s="23" t="s">
         <v>729</v>
       </c>
-      <c r="I93" s="23" t="s">
+      <c r="J93" s="23" t="s">
         <v>730</v>
-      </c>
-      <c r="J93" s="23" t="s">
-        <v>731</v>
       </c>
       <c r="K93" s="23"/>
       <c r="L93" s="25" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="60"/>
+      <c r="B94" s="63"/>
+      <c r="C94" s="30" t="s">
+        <v>648</v>
+      </c>
+      <c r="D94" s="30" t="s">
         <v>732</v>
       </c>
-    </row>
-    <row r="94" spans="1:12" ht="17.25" thickBot="1">
-      <c r="A94" s="58"/>
-      <c r="B94" s="61"/>
-      <c r="C94" s="30" t="s">
-        <v>649</v>
-      </c>
-      <c r="D94" s="30" t="s">
-        <v>733</v>
-      </c>
-      <c r="E94" s="55"/>
-      <c r="F94" s="55"/>
+      <c r="E94" s="57"/>
+      <c r="F94" s="57"/>
       <c r="G94" s="26"/>
       <c r="H94" s="26"/>
       <c r="I94" s="26"/>
@@ -11440,22 +11599,22 @@
       <c r="K94" s="26"/>
       <c r="L94" s="27"/>
     </row>
-    <row r="95" spans="1:12" ht="33">
-      <c r="A95" s="50" t="s">
+    <row r="95" spans="1:12" ht="33" x14ac:dyDescent="0.2">
+      <c r="A95" s="52" t="s">
+        <v>733</v>
+      </c>
+      <c r="B95" s="55"/>
+      <c r="C95" s="22" t="s">
+        <v>725</v>
+      </c>
+      <c r="D95" s="23" t="s">
+        <v>703</v>
+      </c>
+      <c r="E95" s="61" t="s">
         <v>734</v>
       </c>
-      <c r="B95" s="53"/>
-      <c r="C95" s="22" t="s">
-        <v>726</v>
-      </c>
-      <c r="D95" s="23" t="s">
-        <v>704</v>
-      </c>
-      <c r="E95" s="59" t="s">
-        <v>735</v>
-      </c>
-      <c r="F95" s="59" t="s">
-        <v>635</v>
+      <c r="F95" s="61" t="s">
+        <v>634</v>
       </c>
       <c r="G95" s="28"/>
       <c r="H95" s="28"/>
@@ -11464,49 +11623,49 @@
       <c r="K95" s="28"/>
       <c r="L95" s="31"/>
     </row>
-    <row r="96" spans="1:12" ht="33">
-      <c r="A96" s="51" t="s">
+    <row r="96" spans="1:12" ht="33" x14ac:dyDescent="0.2">
+      <c r="A96" s="53" t="s">
+        <v>733</v>
+      </c>
+      <c r="B96" s="56"/>
+      <c r="C96" s="23" t="s">
+        <v>589</v>
+      </c>
+      <c r="D96" s="23" t="s">
+        <v>656</v>
+      </c>
+      <c r="E96" s="62" t="s">
         <v>734</v>
       </c>
-      <c r="B96" s="54"/>
-      <c r="C96" s="23" t="s">
-        <v>590</v>
-      </c>
-      <c r="D96" s="23" t="s">
-        <v>657</v>
-      </c>
-      <c r="E96" s="60" t="s">
-        <v>735</v>
-      </c>
-      <c r="F96" s="60" t="s">
-        <v>635</v>
+      <c r="F96" s="62" t="s">
+        <v>634</v>
       </c>
       <c r="G96" s="29"/>
       <c r="H96" s="29" t="s">
+        <v>735</v>
+      </c>
+      <c r="I96" s="29" t="s">
         <v>736</v>
       </c>
-      <c r="I96" s="29" t="s">
+      <c r="J96" s="29" t="s">
         <v>737</v>
-      </c>
-      <c r="J96" s="29" t="s">
-        <v>738</v>
       </c>
       <c r="K96" s="29"/>
       <c r="L96" s="32" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="54"/>
+      <c r="B97" s="57"/>
+      <c r="C97" s="26" t="s">
+        <v>648</v>
+      </c>
+      <c r="D97" s="26" t="s">
         <v>739</v>
       </c>
-    </row>
-    <row r="97" spans="1:12" ht="33.75" thickBot="1">
-      <c r="A97" s="52"/>
-      <c r="B97" s="55"/>
-      <c r="C97" s="26" t="s">
-        <v>649</v>
-      </c>
-      <c r="D97" s="26" t="s">
-        <v>740</v>
-      </c>
-      <c r="E97" s="61"/>
-      <c r="F97" s="61"/>
+      <c r="E97" s="63"/>
+      <c r="F97" s="63"/>
       <c r="G97" s="30"/>
       <c r="H97" s="30"/>
       <c r="I97" s="30"/>
@@ -11514,22 +11673,22 @@
       <c r="K97" s="30"/>
       <c r="L97" s="33"/>
     </row>
-    <row r="98" spans="1:12" ht="33">
-      <c r="A98" s="50" t="s">
+    <row r="98" spans="1:12" ht="33" x14ac:dyDescent="0.2">
+      <c r="A98" s="52" t="s">
+        <v>740</v>
+      </c>
+      <c r="B98" s="55"/>
+      <c r="C98" s="22" t="s">
+        <v>638</v>
+      </c>
+      <c r="D98" s="23" t="s">
+        <v>656</v>
+      </c>
+      <c r="E98" s="55" t="s">
         <v>741</v>
       </c>
-      <c r="B98" s="53"/>
-      <c r="C98" s="22" t="s">
-        <v>639</v>
-      </c>
-      <c r="D98" s="23" t="s">
-        <v>657</v>
-      </c>
-      <c r="E98" s="53" t="s">
-        <v>742</v>
-      </c>
-      <c r="F98" s="53" t="s">
-        <v>602</v>
+      <c r="F98" s="55" t="s">
+        <v>601</v>
       </c>
       <c r="G98" s="22"/>
       <c r="H98" s="22"/>
@@ -11538,49 +11697,49 @@
       <c r="K98" s="22"/>
       <c r="L98" s="24"/>
     </row>
-    <row r="99" spans="1:12" ht="33">
-      <c r="A99" s="51" t="s">
+    <row r="99" spans="1:12" ht="33" x14ac:dyDescent="0.2">
+      <c r="A99" s="53" t="s">
+        <v>742</v>
+      </c>
+      <c r="B99" s="56"/>
+      <c r="C99" s="23" t="s">
+        <v>589</v>
+      </c>
+      <c r="D99" s="23" t="s">
         <v>743</v>
       </c>
-      <c r="B99" s="54"/>
-      <c r="C99" s="23" t="s">
-        <v>590</v>
-      </c>
-      <c r="D99" s="23" t="s">
-        <v>744</v>
-      </c>
-      <c r="E99" s="54" t="s">
-        <v>742</v>
-      </c>
-      <c r="F99" s="54" t="s">
-        <v>602</v>
+      <c r="E99" s="56" t="s">
+        <v>741</v>
+      </c>
+      <c r="F99" s="56" t="s">
+        <v>601</v>
       </c>
       <c r="G99" s="23"/>
       <c r="H99" s="23" t="s">
+        <v>744</v>
+      </c>
+      <c r="I99" s="23" t="s">
         <v>745</v>
       </c>
-      <c r="I99" s="23" t="s">
+      <c r="J99" s="23" t="s">
         <v>746</v>
-      </c>
-      <c r="J99" s="23" t="s">
-        <v>747</v>
       </c>
       <c r="K99" s="23"/>
       <c r="L99" s="25" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="54"/>
+      <c r="B100" s="57"/>
+      <c r="C100" s="26" t="s">
+        <v>648</v>
+      </c>
+      <c r="D100" s="26" t="s">
         <v>748</v>
       </c>
-    </row>
-    <row r="100" spans="1:12" ht="33.75" thickBot="1">
-      <c r="A100" s="52"/>
-      <c r="B100" s="55"/>
-      <c r="C100" s="26" t="s">
-        <v>649</v>
-      </c>
-      <c r="D100" s="26" t="s">
-        <v>749</v>
-      </c>
-      <c r="E100" s="55"/>
-      <c r="F100" s="55"/>
+      <c r="E100" s="57"/>
+      <c r="F100" s="57"/>
       <c r="G100" s="26"/>
       <c r="H100" s="26"/>
       <c r="I100" s="26"/>
@@ -11588,22 +11747,22 @@
       <c r="K100" s="26"/>
       <c r="L100" s="27"/>
     </row>
-    <row r="101" spans="1:12" ht="33">
-      <c r="A101" s="50" t="s">
+    <row r="101" spans="1:12" ht="33" x14ac:dyDescent="0.2">
+      <c r="A101" s="52" t="s">
+        <v>749</v>
+      </c>
+      <c r="B101" s="55"/>
+      <c r="C101" s="22" t="s">
+        <v>638</v>
+      </c>
+      <c r="D101" s="23" t="s">
+        <v>715</v>
+      </c>
+      <c r="E101" s="55" t="s">
         <v>750</v>
       </c>
-      <c r="B101" s="53"/>
-      <c r="C101" s="22" t="s">
-        <v>639</v>
-      </c>
-      <c r="D101" s="23" t="s">
-        <v>716</v>
-      </c>
-      <c r="E101" s="53" t="s">
-        <v>751</v>
-      </c>
-      <c r="F101" s="53" t="s">
-        <v>614</v>
+      <c r="F101" s="55" t="s">
+        <v>613</v>
       </c>
       <c r="G101" s="22"/>
       <c r="H101" s="22"/>
@@ -11612,49 +11771,49 @@
       <c r="K101" s="22"/>
       <c r="L101" s="24"/>
     </row>
-    <row r="102" spans="1:12" ht="33">
-      <c r="A102" s="51" t="s">
+    <row r="102" spans="1:12" ht="33" x14ac:dyDescent="0.2">
+      <c r="A102" s="53" t="s">
+        <v>749</v>
+      </c>
+      <c r="B102" s="56"/>
+      <c r="C102" s="23" t="s">
+        <v>589</v>
+      </c>
+      <c r="D102" s="23" t="s">
+        <v>751</v>
+      </c>
+      <c r="E102" s="56" t="s">
         <v>750</v>
       </c>
-      <c r="B102" s="54"/>
-      <c r="C102" s="23" t="s">
-        <v>590</v>
-      </c>
-      <c r="D102" s="23" t="s">
-        <v>752</v>
-      </c>
-      <c r="E102" s="54" t="s">
-        <v>751</v>
-      </c>
-      <c r="F102" s="54" t="s">
-        <v>614</v>
+      <c r="F102" s="56" t="s">
+        <v>613</v>
       </c>
       <c r="G102" s="23"/>
       <c r="H102" s="23" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="I102" s="23" t="s">
+        <v>752</v>
+      </c>
+      <c r="J102" s="23" t="s">
         <v>753</v>
-      </c>
-      <c r="J102" s="23" t="s">
-        <v>754</v>
       </c>
       <c r="K102" s="23"/>
       <c r="L102" s="25" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="54"/>
+      <c r="B103" s="57"/>
+      <c r="C103" s="26" t="s">
+        <v>648</v>
+      </c>
+      <c r="D103" s="26" t="s">
         <v>755</v>
       </c>
-    </row>
-    <row r="103" spans="1:12" ht="33.75" thickBot="1">
-      <c r="A103" s="52"/>
-      <c r="B103" s="55"/>
-      <c r="C103" s="26" t="s">
-        <v>649</v>
-      </c>
-      <c r="D103" s="26" t="s">
-        <v>756</v>
-      </c>
-      <c r="E103" s="55"/>
-      <c r="F103" s="55"/>
+      <c r="E103" s="57"/>
+      <c r="F103" s="57"/>
       <c r="G103" s="26"/>
       <c r="H103" s="26"/>
       <c r="I103" s="26"/>
@@ -11662,19 +11821,19 @@
       <c r="K103" s="26"/>
       <c r="L103" s="27"/>
     </row>
-    <row r="104" spans="1:12">
-      <c r="A104" s="62" t="s">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A104" s="64" t="s">
+        <v>756</v>
+      </c>
+      <c r="B104" s="67"/>
+      <c r="C104" s="34" t="s">
+        <v>575</v>
+      </c>
+      <c r="D104" s="34"/>
+      <c r="E104" s="67" t="s">
         <v>757</v>
       </c>
-      <c r="B104" s="65"/>
-      <c r="C104" s="34" t="s">
-        <v>576</v>
-      </c>
-      <c r="D104" s="34"/>
-      <c r="E104" s="65" t="s">
-        <v>758</v>
-      </c>
-      <c r="F104" s="65"/>
+      <c r="F104" s="67"/>
       <c r="G104" s="34"/>
       <c r="H104" s="34"/>
       <c r="I104" s="34"/>
@@ -11682,47 +11841,47 @@
       <c r="K104" s="34"/>
       <c r="L104" s="35"/>
     </row>
-    <row r="105" spans="1:12" ht="33">
-      <c r="A105" s="63" t="s">
+    <row r="105" spans="1:12" ht="33" x14ac:dyDescent="0.2">
+      <c r="A105" s="65" t="s">
+        <v>756</v>
+      </c>
+      <c r="B105" s="68" t="s">
+        <v>758</v>
+      </c>
+      <c r="C105" s="36" t="s">
+        <v>579</v>
+      </c>
+      <c r="D105" s="36" t="s">
+        <v>707</v>
+      </c>
+      <c r="E105" s="68" t="s">
         <v>757</v>
       </c>
-      <c r="B105" s="66" t="s">
-        <v>759</v>
-      </c>
-      <c r="C105" s="36" t="s">
-        <v>580</v>
-      </c>
-      <c r="D105" s="36" t="s">
-        <v>708</v>
-      </c>
-      <c r="E105" s="66" t="s">
-        <v>758</v>
-      </c>
-      <c r="F105" s="66" t="s">
-        <v>614</v>
+      <c r="F105" s="68" t="s">
+        <v>613</v>
       </c>
       <c r="G105" s="36"/>
       <c r="H105" s="36" t="s">
+        <v>759</v>
+      </c>
+      <c r="I105" s="36" t="s">
         <v>760</v>
-      </c>
-      <c r="I105" s="36" t="s">
-        <v>761</v>
       </c>
       <c r="J105" s="36"/>
       <c r="K105" s="36"/>
       <c r="L105" s="37"/>
     </row>
-    <row r="106" spans="1:12" ht="33.75" thickBot="1">
-      <c r="A106" s="64"/>
-      <c r="B106" s="67"/>
+    <row r="106" spans="1:12" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="66"/>
+      <c r="B106" s="69"/>
       <c r="C106" s="38" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D106" s="38" t="s">
-        <v>762</v>
-      </c>
-      <c r="E106" s="67"/>
-      <c r="F106" s="67"/>
+        <v>761</v>
+      </c>
+      <c r="E106" s="69"/>
+      <c r="F106" s="69"/>
       <c r="G106" s="38"/>
       <c r="H106" s="38"/>
       <c r="I106" s="38"/>
@@ -11730,19 +11889,19 @@
       <c r="K106" s="38"/>
       <c r="L106" s="39"/>
     </row>
-    <row r="107" spans="1:12">
-      <c r="A107" s="62" t="s">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A107" s="64" t="s">
+        <v>762</v>
+      </c>
+      <c r="B107" s="67"/>
+      <c r="C107" s="34" t="s">
+        <v>575</v>
+      </c>
+      <c r="D107" s="34"/>
+      <c r="E107" s="67" t="s">
         <v>763</v>
       </c>
-      <c r="B107" s="65"/>
-      <c r="C107" s="34" t="s">
-        <v>576</v>
-      </c>
-      <c r="D107" s="34"/>
-      <c r="E107" s="65" t="s">
-        <v>764</v>
-      </c>
-      <c r="F107" s="65"/>
+      <c r="F107" s="67"/>
       <c r="G107" s="34"/>
       <c r="H107" s="34"/>
       <c r="I107" s="34"/>
@@ -11750,47 +11909,47 @@
       <c r="K107" s="34"/>
       <c r="L107" s="35"/>
     </row>
-    <row r="108" spans="1:12" ht="33">
-      <c r="A108" s="63" t="s">
+    <row r="108" spans="1:12" ht="33" x14ac:dyDescent="0.2">
+      <c r="A108" s="65" t="s">
+        <v>762</v>
+      </c>
+      <c r="B108" s="68" t="s">
+        <v>626</v>
+      </c>
+      <c r="C108" s="36" t="s">
+        <v>579</v>
+      </c>
+      <c r="D108" s="36" t="s">
+        <v>633</v>
+      </c>
+      <c r="E108" s="68" t="s">
         <v>763</v>
       </c>
-      <c r="B108" s="66" t="s">
-        <v>627</v>
-      </c>
-      <c r="C108" s="36" t="s">
-        <v>580</v>
-      </c>
-      <c r="D108" s="36" t="s">
+      <c r="F108" s="68" t="s">
         <v>634</v>
-      </c>
-      <c r="E108" s="66" t="s">
-        <v>764</v>
-      </c>
-      <c r="F108" s="66" t="s">
-        <v>635</v>
       </c>
       <c r="G108" s="36"/>
       <c r="H108" s="36" t="s">
+        <v>764</v>
+      </c>
+      <c r="I108" s="36" t="s">
         <v>765</v>
-      </c>
-      <c r="I108" s="36" t="s">
-        <v>766</v>
       </c>
       <c r="J108" s="36"/>
       <c r="K108" s="36"/>
       <c r="L108" s="37"/>
     </row>
-    <row r="109" spans="1:12" ht="17.25" thickBot="1">
-      <c r="A109" s="64"/>
-      <c r="B109" s="67"/>
+    <row r="109" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="66"/>
+      <c r="B109" s="69"/>
       <c r="C109" s="38" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D109" s="38" t="s">
-        <v>767</v>
-      </c>
-      <c r="E109" s="67"/>
-      <c r="F109" s="67"/>
+        <v>766</v>
+      </c>
+      <c r="E109" s="69"/>
+      <c r="F109" s="69"/>
       <c r="G109" s="38"/>
       <c r="H109" s="38"/>
       <c r="I109" s="38"/>
@@ -11798,19 +11957,19 @@
       <c r="K109" s="38"/>
       <c r="L109" s="39"/>
     </row>
-    <row r="110" spans="1:12">
-      <c r="A110" s="62" t="s">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A110" s="64" t="s">
+        <v>767</v>
+      </c>
+      <c r="B110" s="67"/>
+      <c r="C110" s="34" t="s">
+        <v>575</v>
+      </c>
+      <c r="D110" s="34"/>
+      <c r="E110" s="67" t="s">
         <v>768</v>
       </c>
-      <c r="B110" s="65"/>
-      <c r="C110" s="34" t="s">
-        <v>576</v>
-      </c>
-      <c r="D110" s="34"/>
-      <c r="E110" s="65" t="s">
-        <v>769</v>
-      </c>
-      <c r="F110" s="65"/>
+      <c r="F110" s="67"/>
       <c r="G110" s="34"/>
       <c r="H110" s="34"/>
       <c r="I110" s="34"/>
@@ -11818,47 +11977,47 @@
       <c r="K110" s="34"/>
       <c r="L110" s="35"/>
     </row>
-    <row r="111" spans="1:12" ht="33">
-      <c r="A111" s="63" t="s">
+    <row r="111" spans="1:12" ht="33" x14ac:dyDescent="0.2">
+      <c r="A111" s="65" t="s">
+        <v>767</v>
+      </c>
+      <c r="B111" s="68" t="s">
+        <v>758</v>
+      </c>
+      <c r="C111" s="36" t="s">
+        <v>579</v>
+      </c>
+      <c r="D111" s="36" t="s">
+        <v>633</v>
+      </c>
+      <c r="E111" s="68" t="s">
         <v>768</v>
       </c>
-      <c r="B111" s="66" t="s">
-        <v>759</v>
-      </c>
-      <c r="C111" s="36" t="s">
-        <v>580</v>
-      </c>
-      <c r="D111" s="36" t="s">
+      <c r="F111" s="68" t="s">
         <v>634</v>
-      </c>
-      <c r="E111" s="66" t="s">
-        <v>769</v>
-      </c>
-      <c r="F111" s="66" t="s">
-        <v>635</v>
       </c>
       <c r="G111" s="36"/>
       <c r="H111" s="36" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="I111" s="36" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="J111" s="36"/>
       <c r="K111" s="36"/>
       <c r="L111" s="37"/>
     </row>
-    <row r="112" spans="1:12" ht="33.75" thickBot="1">
-      <c r="A112" s="64"/>
-      <c r="B112" s="67"/>
+    <row r="112" spans="1:12" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="66"/>
+      <c r="B112" s="69"/>
       <c r="C112" s="38" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D112" s="38" t="s">
-        <v>771</v>
-      </c>
-      <c r="E112" s="67"/>
-      <c r="F112" s="67"/>
+        <v>770</v>
+      </c>
+      <c r="E112" s="69"/>
+      <c r="F112" s="69"/>
       <c r="G112" s="38"/>
       <c r="H112" s="38"/>
       <c r="I112" s="38"/>
@@ -11866,19 +12025,19 @@
       <c r="K112" s="38"/>
       <c r="L112" s="39"/>
     </row>
-    <row r="113" spans="1:12">
-      <c r="A113" s="62" t="s">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A113" s="64" t="s">
+        <v>771</v>
+      </c>
+      <c r="B113" s="67"/>
+      <c r="C113" s="34" t="s">
+        <v>575</v>
+      </c>
+      <c r="D113" s="34"/>
+      <c r="E113" s="67" t="s">
         <v>772</v>
       </c>
-      <c r="B113" s="65"/>
-      <c r="C113" s="34" t="s">
-        <v>576</v>
-      </c>
-      <c r="D113" s="34"/>
-      <c r="E113" s="65" t="s">
-        <v>773</v>
-      </c>
-      <c r="F113" s="65"/>
+      <c r="F113" s="67"/>
       <c r="G113" s="34"/>
       <c r="H113" s="34"/>
       <c r="I113" s="34"/>
@@ -11886,47 +12045,47 @@
       <c r="K113" s="34"/>
       <c r="L113" s="35"/>
     </row>
-    <row r="114" spans="1:12" ht="33">
-      <c r="A114" s="63" t="s">
+    <row r="114" spans="1:12" ht="33" x14ac:dyDescent="0.2">
+      <c r="A114" s="65" t="s">
+        <v>771</v>
+      </c>
+      <c r="B114" s="68" t="s">
+        <v>758</v>
+      </c>
+      <c r="C114" s="36" t="s">
+        <v>579</v>
+      </c>
+      <c r="D114" s="36" t="s">
+        <v>773</v>
+      </c>
+      <c r="E114" s="68" t="s">
         <v>772</v>
       </c>
-      <c r="B114" s="66" t="s">
-        <v>759</v>
-      </c>
-      <c r="C114" s="36" t="s">
-        <v>580</v>
-      </c>
-      <c r="D114" s="36" t="s">
-        <v>774</v>
-      </c>
-      <c r="E114" s="66" t="s">
-        <v>773</v>
-      </c>
-      <c r="F114" s="66" t="s">
-        <v>635</v>
+      <c r="F114" s="68" t="s">
+        <v>634</v>
       </c>
       <c r="G114" s="36"/>
       <c r="H114" s="36" t="s">
+        <v>774</v>
+      </c>
+      <c r="I114" s="36" t="s">
         <v>775</v>
-      </c>
-      <c r="I114" s="36" t="s">
-        <v>776</v>
       </c>
       <c r="J114" s="36"/>
       <c r="K114" s="36"/>
       <c r="L114" s="37"/>
     </row>
-    <row r="115" spans="1:12" ht="17.25" thickBot="1">
-      <c r="A115" s="64"/>
-      <c r="B115" s="67"/>
+    <row r="115" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="66"/>
+      <c r="B115" s="69"/>
       <c r="C115" s="38" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D115" s="38" t="s">
-        <v>777</v>
-      </c>
-      <c r="E115" s="67"/>
-      <c r="F115" s="67"/>
+        <v>776</v>
+      </c>
+      <c r="E115" s="69"/>
+      <c r="F115" s="69"/>
       <c r="G115" s="38"/>
       <c r="H115" s="38"/>
       <c r="I115" s="38"/>

--- a/策划案/镇魂街/战斗设计.xlsx
+++ b/策划案/镇魂街/战斗设计.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3"/>
+    <workbookView minimized="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
     <sheet name="可用的策略点" sheetId="31" r:id="rId2"/>
     <sheet name="关卡设计" sheetId="34" r:id="rId3"/>
-    <sheet name="守护灵设计" sheetId="30" r:id="rId4"/>
-    <sheet name="寄灵人设计" sheetId="36" r:id="rId5"/>
-    <sheet name="原版关卡设计" sheetId="33" r:id="rId6"/>
-    <sheet name="原版卡牌" sheetId="35" r:id="rId7"/>
+    <sheet name="新手流程" sheetId="37" r:id="rId4"/>
+    <sheet name="守护灵设计" sheetId="30" r:id="rId5"/>
+    <sheet name="寄灵人设计" sheetId="36" r:id="rId6"/>
+    <sheet name="原版关卡设计" sheetId="33" r:id="rId7"/>
+    <sheet name="原版卡牌" sheetId="35" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">原版卡牌!$F$1:$F$115</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">原版卡牌!$F$1:$F$115</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -560,7 +561,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1255" uniqueCount="861">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1280" uniqueCount="880">
   <si>
     <t>sheet名</t>
   </si>
@@ -4947,6 +4948,94 @@
       </rPr>
       <t>R</t>
     </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>行为</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>引导</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>引导战斗1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>释放4个技能</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>引导战斗2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>简述</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽卡，获得一个柠檬精</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽卡，又获得一个柠檬精</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>引导寄灵人释放顺序</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>打1-1，夏玲技能2，曹玄亮技能2，曹玄亮技能1，结束战斗</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>打1-2，夏玲技能2，曹玄亮技能2，曹玄亮技能1，夏玲技能1，结束战斗</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsBackHome</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>打1-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3，</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>引导玩家移动卡牌位置</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -5419,7 +5508,7 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
@@ -5554,6 +5643,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="4" applyFont="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="4" applyFont="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="4">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -5573,24 +5668,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="9" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="12" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="14" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="15" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="9" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5627,6 +5704,24 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="9" borderId="15" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="9" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="12" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="14" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="15" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="10" borderId="9" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6178,7 +6273,7 @@
   <dimension ref="A3:N58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -6838,12 +6933,12 @@
       </c>
       <c r="B39" s="43"/>
       <c r="C39" s="43"/>
-      <c r="D39" s="46" t="s">
+      <c r="D39" s="48" t="s">
         <v>390</v>
       </c>
-      <c r="E39" s="47"/>
-      <c r="F39" s="47"/>
-      <c r="G39" s="48"/>
+      <c r="E39" s="49"/>
+      <c r="F39" s="49"/>
+      <c r="G39" s="50"/>
     </row>
     <row r="40" spans="1:14" ht="37.5" customHeight="1">
       <c r="A40" s="4" t="s">
@@ -6966,12 +7061,12 @@
       </c>
       <c r="B49" s="43"/>
       <c r="C49" s="43"/>
-      <c r="D49" s="46" t="s">
+      <c r="D49" s="48" t="s">
         <v>395</v>
       </c>
-      <c r="E49" s="47"/>
-      <c r="F49" s="47"/>
-      <c r="G49" s="48"/>
+      <c r="E49" s="49"/>
+      <c r="F49" s="49"/>
+      <c r="G49" s="50"/>
     </row>
     <row r="50" spans="1:7" ht="51.75" customHeight="1">
       <c r="A50" s="16" t="s">
@@ -7137,13 +7232,226 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:E18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="3" max="3" width="65" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="5" max="5" width="30.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5" ht="17.25">
+      <c r="A2" s="5" t="s">
+        <v>861</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>867</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>862</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>877</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="16.5">
+      <c r="A3" s="47">
+        <v>1</v>
+      </c>
+      <c r="B3" s="46" t="s">
+        <v>868</v>
+      </c>
+      <c r="C3" s="47" t="s">
+        <v>864</v>
+      </c>
+      <c r="D3" s="47"/>
+      <c r="E3" s="46" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="16.5">
+      <c r="A4" s="47">
+        <v>2</v>
+      </c>
+      <c r="B4" s="46" t="s">
+        <v>869</v>
+      </c>
+      <c r="C4" s="46" t="s">
+        <v>866</v>
+      </c>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="16.5">
+      <c r="A5" s="47">
+        <v>3</v>
+      </c>
+      <c r="B5" s="46" t="s">
+        <v>870</v>
+      </c>
+      <c r="C5" s="46" t="s">
+        <v>875</v>
+      </c>
+      <c r="D5" s="46" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" s="46" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="16.5">
+      <c r="A6" s="47">
+        <v>5</v>
+      </c>
+      <c r="B6" s="46" t="s">
+        <v>870</v>
+      </c>
+      <c r="C6" s="46" t="s">
+        <v>876</v>
+      </c>
+      <c r="D6" s="46" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" s="46" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="16.5">
+      <c r="A7" s="47">
+        <v>4</v>
+      </c>
+      <c r="B7" s="46" t="s">
+        <v>450</v>
+      </c>
+      <c r="C7" s="46" t="s">
+        <v>871</v>
+      </c>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="16.5">
+      <c r="A8" s="47">
+        <v>7</v>
+      </c>
+      <c r="B8" s="46" t="s">
+        <v>870</v>
+      </c>
+      <c r="C8" s="46" t="s">
+        <v>878</v>
+      </c>
+      <c r="D8" s="47"/>
+      <c r="E8" s="46" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="16.5">
+      <c r="A9" s="47">
+        <v>8</v>
+      </c>
+      <c r="B9" s="47"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
+    </row>
+    <row r="10" spans="1:5" ht="16.5">
+      <c r="A10" s="47">
+        <v>9</v>
+      </c>
+      <c r="B10" s="47"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
+    </row>
+    <row r="11" spans="1:5" ht="16.5">
+      <c r="A11" s="47">
+        <v>6</v>
+      </c>
+      <c r="B11" s="46" t="s">
+        <v>450</v>
+      </c>
+      <c r="C11" s="46" t="s">
+        <v>872</v>
+      </c>
+      <c r="D11" s="46"/>
+      <c r="E11" s="47"/>
+    </row>
+    <row r="12" spans="1:5" ht="16.5">
+      <c r="A12" s="47"/>
+      <c r="B12" s="47"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
+    </row>
+    <row r="13" spans="1:5" ht="16.5">
+      <c r="A13" s="47"/>
+      <c r="B13" s="47"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
+    </row>
+    <row r="14" spans="1:5" ht="16.5">
+      <c r="A14" s="47"/>
+      <c r="B14" s="47"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="47"/>
+    </row>
+    <row r="15" spans="1:5" ht="16.5">
+      <c r="A15" s="47"/>
+      <c r="B15" s="47"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="47"/>
+    </row>
+    <row r="16" spans="1:5" ht="16.5">
+      <c r="A16" s="47"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47"/>
+    </row>
+    <row r="17" spans="1:5" ht="16.5">
+      <c r="A17" s="47"/>
+      <c r="B17" s="47"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="47"/>
+    </row>
+    <row r="18" spans="1:5" ht="16.5">
+      <c r="A18" s="47"/>
+      <c r="B18" s="47"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="47"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D23" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D14" sqref="D14"/>
+      <selection pane="bottomRight" activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -7876,7 +8184,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X19"/>
   <sheetViews>
@@ -7962,20 +8270,20 @@
       <c r="K2" s="4" t="s">
         <v>845</v>
       </c>
-      <c r="M2" s="49" t="s">
+      <c r="M2" s="51" t="s">
         <v>844</v>
       </c>
-      <c r="N2" s="50"/>
-      <c r="O2" s="50"/>
-      <c r="P2" s="50"/>
-      <c r="Q2" s="50"/>
-      <c r="R2" s="50"/>
-      <c r="S2" s="50"/>
-      <c r="T2" s="50"/>
-      <c r="U2" s="50"/>
-      <c r="V2" s="50"/>
-      <c r="W2" s="50"/>
-      <c r="X2" s="50"/>
+      <c r="N2" s="52"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="52"/>
+      <c r="Q2" s="52"/>
+      <c r="R2" s="52"/>
+      <c r="S2" s="52"/>
+      <c r="T2" s="52"/>
+      <c r="U2" s="52"/>
+      <c r="V2" s="52"/>
+      <c r="W2" s="52"/>
+      <c r="X2" s="52"/>
     </row>
     <row r="3" spans="1:24" ht="99.95" customHeight="1">
       <c r="A3" s="3"/>
@@ -8007,18 +8315,18 @@
       <c r="K3" s="4" t="s">
         <v>848</v>
       </c>
-      <c r="M3" s="50"/>
-      <c r="N3" s="50"/>
-      <c r="O3" s="50"/>
-      <c r="P3" s="50"/>
-      <c r="Q3" s="50"/>
-      <c r="R3" s="50"/>
-      <c r="S3" s="50"/>
-      <c r="T3" s="50"/>
-      <c r="U3" s="50"/>
-      <c r="V3" s="50"/>
-      <c r="W3" s="50"/>
-      <c r="X3" s="50"/>
+      <c r="M3" s="52"/>
+      <c r="N3" s="52"/>
+      <c r="O3" s="52"/>
+      <c r="P3" s="52"/>
+      <c r="Q3" s="52"/>
+      <c r="R3" s="52"/>
+      <c r="S3" s="52"/>
+      <c r="T3" s="52"/>
+      <c r="U3" s="52"/>
+      <c r="V3" s="52"/>
+      <c r="W3" s="52"/>
+      <c r="X3" s="52"/>
     </row>
     <row r="4" spans="1:24" ht="99.95" customHeight="1">
       <c r="A4" s="3"/>
@@ -8050,18 +8358,18 @@
       <c r="K4" s="4" t="s">
         <v>849</v>
       </c>
-      <c r="M4" s="50"/>
-      <c r="N4" s="50"/>
-      <c r="O4" s="50"/>
-      <c r="P4" s="50"/>
-      <c r="Q4" s="50"/>
-      <c r="R4" s="50"/>
-      <c r="S4" s="50"/>
-      <c r="T4" s="50"/>
-      <c r="U4" s="50"/>
-      <c r="V4" s="50"/>
-      <c r="W4" s="50"/>
-      <c r="X4" s="50"/>
+      <c r="M4" s="52"/>
+      <c r="N4" s="52"/>
+      <c r="O4" s="52"/>
+      <c r="P4" s="52"/>
+      <c r="Q4" s="52"/>
+      <c r="R4" s="52"/>
+      <c r="S4" s="52"/>
+      <c r="T4" s="52"/>
+      <c r="U4" s="52"/>
+      <c r="V4" s="52"/>
+      <c r="W4" s="52"/>
+      <c r="X4" s="52"/>
     </row>
     <row r="5" spans="1:24" ht="99.95" customHeight="1">
       <c r="A5" s="3"/>
@@ -8093,18 +8401,18 @@
       <c r="K5" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="M5" s="50"/>
-      <c r="N5" s="50"/>
-      <c r="O5" s="50"/>
-      <c r="P5" s="50"/>
-      <c r="Q5" s="50"/>
-      <c r="R5" s="50"/>
-      <c r="S5" s="50"/>
-      <c r="T5" s="50"/>
-      <c r="U5" s="50"/>
-      <c r="V5" s="50"/>
-      <c r="W5" s="50"/>
-      <c r="X5" s="50"/>
+      <c r="M5" s="52"/>
+      <c r="N5" s="52"/>
+      <c r="O5" s="52"/>
+      <c r="P5" s="52"/>
+      <c r="Q5" s="52"/>
+      <c r="R5" s="52"/>
+      <c r="S5" s="52"/>
+      <c r="T5" s="52"/>
+      <c r="U5" s="52"/>
+      <c r="V5" s="52"/>
+      <c r="W5" s="52"/>
+      <c r="X5" s="52"/>
     </row>
     <row r="6" spans="1:24" ht="99.95" customHeight="1">
       <c r="A6" s="3"/>
@@ -8136,18 +8444,18 @@
       <c r="K6" s="4" t="s">
         <v>846</v>
       </c>
-      <c r="M6" s="50"/>
-      <c r="N6" s="50"/>
-      <c r="O6" s="50"/>
-      <c r="P6" s="50"/>
-      <c r="Q6" s="50"/>
-      <c r="R6" s="50"/>
-      <c r="S6" s="50"/>
-      <c r="T6" s="50"/>
-      <c r="U6" s="50"/>
-      <c r="V6" s="50"/>
-      <c r="W6" s="50"/>
-      <c r="X6" s="50"/>
+      <c r="M6" s="52"/>
+      <c r="N6" s="52"/>
+      <c r="O6" s="52"/>
+      <c r="P6" s="52"/>
+      <c r="Q6" s="52"/>
+      <c r="R6" s="52"/>
+      <c r="S6" s="52"/>
+      <c r="T6" s="52"/>
+      <c r="U6" s="52"/>
+      <c r="V6" s="52"/>
+      <c r="W6" s="52"/>
+      <c r="X6" s="52"/>
     </row>
     <row r="7" spans="1:24" ht="99.95" customHeight="1">
       <c r="A7" s="3"/>
@@ -8380,7 +8688,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P41"/>
   <sheetViews>
@@ -8424,19 +8732,19 @@
       <c r="E1" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="F1" s="52" t="s">
+      <c r="F1" s="54" t="s">
         <v>138</v>
       </c>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
       <c r="I1" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="J1" s="52" t="s">
+      <c r="J1" s="54" t="s">
         <v>140</v>
       </c>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
       <c r="M1" s="7" t="s">
         <v>141</v>
       </c>
@@ -8451,7 +8759,7 @@
       </c>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" s="51">
+      <c r="A2" s="53">
         <v>1</v>
       </c>
       <c r="B2" s="6">
@@ -8492,7 +8800,7 @@
       </c>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3" s="51"/>
+      <c r="A3" s="53"/>
       <c r="B3" s="6">
         <v>2</v>
       </c>
@@ -8519,7 +8827,7 @@
       </c>
     </row>
     <row r="4" spans="1:16" ht="28.5">
-      <c r="A4" s="51"/>
+      <c r="A4" s="53"/>
       <c r="B4" s="6">
         <v>3</v>
       </c>
@@ -8543,7 +8851,7 @@
       </c>
     </row>
     <row r="5" spans="1:16" ht="85.5">
-      <c r="A5" s="51"/>
+      <c r="A5" s="53"/>
       <c r="B5" s="6">
         <v>4</v>
       </c>
@@ -8567,7 +8875,7 @@
       </c>
     </row>
     <row r="6" spans="1:16" ht="71.25">
-      <c r="A6" s="51"/>
+      <c r="A6" s="53"/>
       <c r="B6" s="6">
         <v>5</v>
       </c>
@@ -8595,7 +8903,7 @@
       <c r="O6" s="8"/>
     </row>
     <row r="7" spans="1:16" ht="99.75">
-      <c r="A7" s="51"/>
+      <c r="A7" s="53"/>
       <c r="B7" s="6">
         <v>6</v>
       </c>
@@ -8608,12 +8916,12 @@
       <c r="O7" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="P7" s="52" t="s">
+      <c r="P7" s="54" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="42.75">
-      <c r="A8" s="51"/>
+      <c r="A8" s="53"/>
       <c r="B8" s="6">
         <v>7</v>
       </c>
@@ -8639,10 +8947,10 @@
       <c r="O8" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="P8" s="52"/>
+      <c r="P8" s="54"/>
     </row>
     <row r="9" spans="1:16" ht="28.5">
-      <c r="A9" s="51"/>
+      <c r="A9" s="53"/>
       <c r="B9" s="6">
         <v>8</v>
       </c>
@@ -8668,10 +8976,10 @@
       <c r="O9" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="P9" s="52"/>
+      <c r="P9" s="54"/>
     </row>
     <row r="10" spans="1:16" ht="57">
-      <c r="A10" s="51"/>
+      <c r="A10" s="53"/>
       <c r="B10" s="6">
         <v>9</v>
       </c>
@@ -8702,10 +9010,10 @@
       <c r="O10" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="P10" s="52"/>
+      <c r="P10" s="54"/>
     </row>
     <row r="11" spans="1:16" ht="142.5">
-      <c r="A11" s="51"/>
+      <c r="A11" s="53"/>
       <c r="B11" s="6">
         <v>10</v>
       </c>
@@ -8735,7 +9043,7 @@
       </c>
     </row>
     <row r="12" spans="1:16" ht="57">
-      <c r="A12" s="51">
+      <c r="A12" s="53">
         <v>2</v>
       </c>
       <c r="B12" s="6">
@@ -8765,7 +9073,7 @@
       </c>
     </row>
     <row r="13" spans="1:16" ht="42.75">
-      <c r="A13" s="51"/>
+      <c r="A13" s="53"/>
       <c r="B13" s="6">
         <v>2</v>
       </c>
@@ -8784,7 +9092,7 @@
       </c>
     </row>
     <row r="14" spans="1:16" ht="28.5">
-      <c r="A14" s="51"/>
+      <c r="A14" s="53"/>
       <c r="B14" s="6">
         <v>3</v>
       </c>
@@ -8811,7 +9119,7 @@
       </c>
     </row>
     <row r="15" spans="1:16" ht="28.5">
-      <c r="A15" s="51"/>
+      <c r="A15" s="53"/>
       <c r="B15" s="6">
         <v>4</v>
       </c>
@@ -8838,7 +9146,7 @@
       </c>
     </row>
     <row r="16" spans="1:16" ht="57">
-      <c r="A16" s="51"/>
+      <c r="A16" s="53"/>
       <c r="B16" s="6">
         <v>5</v>
       </c>
@@ -8865,7 +9173,7 @@
       </c>
     </row>
     <row r="17" spans="1:15" ht="42.75">
-      <c r="A17" s="51"/>
+      <c r="A17" s="53"/>
       <c r="B17" s="6">
         <v>6</v>
       </c>
@@ -8898,7 +9206,7 @@
       </c>
     </row>
     <row r="18" spans="1:15" ht="28.5">
-      <c r="A18" s="51"/>
+      <c r="A18" s="53"/>
       <c r="B18" s="6">
         <v>7</v>
       </c>
@@ -8922,7 +9230,7 @@
       </c>
     </row>
     <row r="19" spans="1:15" ht="28.5">
-      <c r="A19" s="51"/>
+      <c r="A19" s="53"/>
       <c r="B19" s="6">
         <v>8</v>
       </c>
@@ -8946,7 +9254,7 @@
       </c>
     </row>
     <row r="20" spans="1:15" ht="114">
-      <c r="A20" s="51"/>
+      <c r="A20" s="53"/>
       <c r="B20" s="6">
         <v>9</v>
       </c>
@@ -8962,7 +9270,7 @@
       </c>
     </row>
     <row r="21" spans="1:15" ht="57">
-      <c r="A21" s="51"/>
+      <c r="A21" s="53"/>
       <c r="B21" s="6">
         <v>10</v>
       </c>
@@ -8992,7 +9300,7 @@
       </c>
     </row>
     <row r="22" spans="1:15" ht="57">
-      <c r="A22" s="51"/>
+      <c r="A22" s="53"/>
       <c r="B22" s="6">
         <v>11</v>
       </c>
@@ -9025,7 +9333,7 @@
       </c>
     </row>
     <row r="23" spans="1:15" ht="85.5">
-      <c r="A23" s="51"/>
+      <c r="A23" s="53"/>
       <c r="B23" s="6">
         <v>12</v>
       </c>
@@ -9052,7 +9360,7 @@
       </c>
     </row>
     <row r="24" spans="1:15">
-      <c r="A24" s="51">
+      <c r="A24" s="53">
         <v>3</v>
       </c>
       <c r="B24" s="6">
@@ -9084,7 +9392,7 @@
       </c>
     </row>
     <row r="25" spans="1:15" ht="128.25">
-      <c r="A25" s="51"/>
+      <c r="A25" s="53"/>
       <c r="B25" s="6">
         <v>2</v>
       </c>
@@ -9117,7 +9425,7 @@
       </c>
     </row>
     <row r="26" spans="1:15">
-      <c r="A26" s="51"/>
+      <c r="A26" s="53"/>
       <c r="B26" s="6">
         <v>3</v>
       </c>
@@ -9147,7 +9455,7 @@
       </c>
     </row>
     <row r="27" spans="1:15" ht="28.5">
-      <c r="A27" s="51"/>
+      <c r="A27" s="53"/>
       <c r="B27" s="6">
         <v>4</v>
       </c>
@@ -9181,7 +9489,7 @@
       </c>
     </row>
     <row r="28" spans="1:15" ht="85.5">
-      <c r="A28" s="51"/>
+      <c r="A28" s="53"/>
       <c r="B28" s="6">
         <v>5</v>
       </c>
@@ -9196,7 +9504,7 @@
       </c>
     </row>
     <row r="29" spans="1:15" ht="28.5">
-      <c r="A29" s="51"/>
+      <c r="A29" s="53"/>
       <c r="B29" s="6">
         <v>6</v>
       </c>
@@ -9230,13 +9538,13 @@
       </c>
     </row>
     <row r="30" spans="1:15">
-      <c r="A30" s="51"/>
+      <c r="A30" s="53"/>
       <c r="B30" s="6">
         <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:15" ht="42.75">
-      <c r="A31" s="51"/>
+      <c r="A31" s="53"/>
       <c r="B31" s="6">
         <v>8</v>
       </c>
@@ -9263,7 +9571,7 @@
       </c>
     </row>
     <row r="32" spans="1:15" ht="28.5">
-      <c r="A32" s="51"/>
+      <c r="A32" s="53"/>
       <c r="B32" s="6">
         <v>9</v>
       </c>
@@ -9275,7 +9583,7 @@
       </c>
     </row>
     <row r="33" spans="1:15" ht="28.5">
-      <c r="A33" s="51"/>
+      <c r="A33" s="53"/>
       <c r="B33" s="6">
         <v>10</v>
       </c>
@@ -9305,7 +9613,7 @@
       </c>
     </row>
     <row r="34" spans="1:15" ht="28.5">
-      <c r="A34" s="51"/>
+      <c r="A34" s="53"/>
       <c r="B34" s="6">
         <v>11</v>
       </c>
@@ -9332,7 +9640,7 @@
       </c>
     </row>
     <row r="35" spans="1:15" ht="99.75">
-      <c r="A35" s="51"/>
+      <c r="A35" s="53"/>
       <c r="B35" s="6">
         <v>12</v>
       </c>
@@ -9344,7 +9652,7 @@
       </c>
     </row>
     <row r="36" spans="1:15" ht="28.5">
-      <c r="A36" s="51"/>
+      <c r="A36" s="53"/>
       <c r="B36" s="6">
         <v>13</v>
       </c>
@@ -9378,7 +9686,7 @@
       </c>
     </row>
     <row r="37" spans="1:15" ht="71.25">
-      <c r="A37" s="51"/>
+      <c r="A37" s="53"/>
       <c r="B37" s="6">
         <v>14</v>
       </c>
@@ -9405,7 +9713,7 @@
       </c>
     </row>
     <row r="38" spans="1:15" ht="28.5">
-      <c r="A38" s="51"/>
+      <c r="A38" s="53"/>
       <c r="B38" s="6">
         <v>15</v>
       </c>
@@ -9447,7 +9755,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L115"/>
   <sheetViews>
@@ -9512,20 +9820,20 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="33">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="55" t="s">
         <v>486</v>
       </c>
-      <c r="B2" s="62"/>
+      <c r="B2" s="58"/>
       <c r="C2" s="22" t="s">
         <v>488</v>
       </c>
       <c r="D2" s="23" t="s">
         <v>489</v>
       </c>
-      <c r="E2" s="62" t="s">
+      <c r="E2" s="58" t="s">
         <v>490</v>
       </c>
-      <c r="F2" s="62" t="s">
+      <c r="F2" s="58" t="s">
         <v>491</v>
       </c>
       <c r="G2" s="22"/>
@@ -9536,16 +9844,16 @@
       <c r="L2" s="24"/>
     </row>
     <row r="3" spans="1:12" ht="49.5">
-      <c r="A3" s="60"/>
-      <c r="B3" s="63"/>
+      <c r="A3" s="56"/>
+      <c r="B3" s="59"/>
       <c r="C3" s="23" t="s">
         <v>492</v>
       </c>
       <c r="D3" s="23" t="s">
         <v>493</v>
       </c>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
       <c r="G3" s="23"/>
       <c r="H3" s="23" t="s">
         <v>494</v>
@@ -9562,16 +9870,16 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="33.75" thickBot="1">
-      <c r="A4" s="61"/>
-      <c r="B4" s="64"/>
+      <c r="A4" s="57"/>
+      <c r="B4" s="60"/>
       <c r="C4" s="26" t="s">
         <v>499</v>
       </c>
       <c r="D4" s="26" t="s">
         <v>500</v>
       </c>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
       <c r="G4" s="26"/>
       <c r="H4" s="26"/>
       <c r="I4" s="26"/>
@@ -9580,20 +9888,20 @@
       <c r="L4" s="27"/>
     </row>
     <row r="5" spans="1:12" ht="33">
-      <c r="A5" s="59" t="s">
+      <c r="A5" s="55" t="s">
         <v>501</v>
       </c>
-      <c r="B5" s="62"/>
+      <c r="B5" s="58"/>
       <c r="C5" s="22" t="s">
         <v>488</v>
       </c>
       <c r="D5" s="23" t="s">
         <v>502</v>
       </c>
-      <c r="E5" s="62" t="s">
+      <c r="E5" s="58" t="s">
         <v>503</v>
       </c>
-      <c r="F5" s="62" t="s">
+      <c r="F5" s="58" t="s">
         <v>504</v>
       </c>
       <c r="G5" s="22"/>
@@ -9604,20 +9912,20 @@
       <c r="L5" s="24"/>
     </row>
     <row r="6" spans="1:12" ht="49.5">
-      <c r="A6" s="60" t="s">
+      <c r="A6" s="56" t="s">
         <v>505</v>
       </c>
-      <c r="B6" s="63"/>
+      <c r="B6" s="59"/>
       <c r="C6" s="23" t="s">
         <v>492</v>
       </c>
       <c r="D6" s="23" t="s">
         <v>506</v>
       </c>
-      <c r="E6" s="63" t="s">
+      <c r="E6" s="59" t="s">
         <v>503</v>
       </c>
-      <c r="F6" s="63" t="s">
+      <c r="F6" s="59" t="s">
         <v>504</v>
       </c>
       <c r="G6" s="23"/>
@@ -9636,16 +9944,16 @@
       </c>
     </row>
     <row r="7" spans="1:12" ht="17.25" thickBot="1">
-      <c r="A7" s="61"/>
-      <c r="B7" s="64"/>
+      <c r="A7" s="57"/>
+      <c r="B7" s="60"/>
       <c r="C7" s="26" t="s">
         <v>499</v>
       </c>
       <c r="D7" s="26" t="s">
         <v>511</v>
       </c>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
       <c r="G7" s="26"/>
       <c r="H7" s="26"/>
       <c r="I7" s="26"/>
@@ -9654,20 +9962,20 @@
       <c r="L7" s="27"/>
     </row>
     <row r="8" spans="1:12" ht="33">
-      <c r="A8" s="65" t="s">
+      <c r="A8" s="61" t="s">
         <v>512</v>
       </c>
-      <c r="B8" s="68"/>
+      <c r="B8" s="64"/>
       <c r="C8" s="28" t="s">
         <v>488</v>
       </c>
       <c r="D8" s="23" t="s">
         <v>502</v>
       </c>
-      <c r="E8" s="62" t="s">
+      <c r="E8" s="58" t="s">
         <v>513</v>
       </c>
-      <c r="F8" s="62" t="s">
+      <c r="F8" s="58" t="s">
         <v>504</v>
       </c>
       <c r="G8" s="22"/>
@@ -9678,20 +9986,20 @@
       <c r="L8" s="24"/>
     </row>
     <row r="9" spans="1:12" ht="33">
-      <c r="A9" s="66" t="s">
+      <c r="A9" s="62" t="s">
         <v>512</v>
       </c>
-      <c r="B9" s="69"/>
+      <c r="B9" s="65"/>
       <c r="C9" s="29" t="s">
         <v>492</v>
       </c>
       <c r="D9" s="29" t="s">
         <v>514</v>
       </c>
-      <c r="E9" s="63" t="s">
+      <c r="E9" s="59" t="s">
         <v>513</v>
       </c>
-      <c r="F9" s="63" t="s">
+      <c r="F9" s="59" t="s">
         <v>504</v>
       </c>
       <c r="G9" s="23"/>
@@ -9710,16 +10018,16 @@
       </c>
     </row>
     <row r="10" spans="1:12" ht="33.75" thickBot="1">
-      <c r="A10" s="67"/>
-      <c r="B10" s="70"/>
+      <c r="A10" s="63"/>
+      <c r="B10" s="66"/>
       <c r="C10" s="30" t="s">
         <v>499</v>
       </c>
       <c r="D10" s="30" t="s">
         <v>519</v>
       </c>
-      <c r="E10" s="64"/>
-      <c r="F10" s="64"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="60"/>
       <c r="G10" s="26"/>
       <c r="H10" s="26"/>
       <c r="I10" s="26"/>
@@ -9728,20 +10036,20 @@
       <c r="L10" s="27"/>
     </row>
     <row r="11" spans="1:12" ht="33">
-      <c r="A11" s="59" t="s">
+      <c r="A11" s="55" t="s">
         <v>520</v>
       </c>
-      <c r="B11" s="62"/>
+      <c r="B11" s="58"/>
       <c r="C11" s="22" t="s">
         <v>488</v>
       </c>
       <c r="D11" s="23" t="s">
         <v>522</v>
       </c>
-      <c r="E11" s="68" t="s">
+      <c r="E11" s="64" t="s">
         <v>523</v>
       </c>
-      <c r="F11" s="68" t="s">
+      <c r="F11" s="64" t="s">
         <v>524</v>
       </c>
       <c r="G11" s="28"/>
@@ -9752,20 +10060,20 @@
       <c r="L11" s="31"/>
     </row>
     <row r="12" spans="1:12" ht="49.5">
-      <c r="A12" s="60" t="s">
+      <c r="A12" s="56" t="s">
         <v>525</v>
       </c>
-      <c r="B12" s="63"/>
+      <c r="B12" s="59"/>
       <c r="C12" s="23" t="s">
         <v>492</v>
       </c>
       <c r="D12" s="23" t="s">
         <v>526</v>
       </c>
-      <c r="E12" s="69" t="s">
+      <c r="E12" s="65" t="s">
         <v>523</v>
       </c>
-      <c r="F12" s="69" t="s">
+      <c r="F12" s="65" t="s">
         <v>524</v>
       </c>
       <c r="G12" s="29"/>
@@ -9784,16 +10092,16 @@
       </c>
     </row>
     <row r="13" spans="1:12" ht="33.75" thickBot="1">
-      <c r="A13" s="61"/>
-      <c r="B13" s="64"/>
+      <c r="A13" s="57"/>
+      <c r="B13" s="60"/>
       <c r="C13" s="26" t="s">
         <v>499</v>
       </c>
       <c r="D13" s="26" t="s">
         <v>531</v>
       </c>
-      <c r="E13" s="70"/>
-      <c r="F13" s="70"/>
+      <c r="E13" s="66"/>
+      <c r="F13" s="66"/>
       <c r="G13" s="30"/>
       <c r="H13" s="30"/>
       <c r="I13" s="30"/>
@@ -9802,20 +10110,20 @@
       <c r="L13" s="33"/>
     </row>
     <row r="14" spans="1:12" ht="33">
-      <c r="A14" s="59" t="s">
+      <c r="A14" s="55" t="s">
         <v>532</v>
       </c>
-      <c r="B14" s="62"/>
+      <c r="B14" s="58"/>
       <c r="C14" s="22" t="s">
         <v>488</v>
       </c>
       <c r="D14" s="23" t="s">
         <v>522</v>
       </c>
-      <c r="E14" s="62" t="s">
+      <c r="E14" s="58" t="s">
         <v>533</v>
       </c>
-      <c r="F14" s="62" t="s">
+      <c r="F14" s="58" t="s">
         <v>524</v>
       </c>
       <c r="G14" s="22"/>
@@ -9826,20 +10134,20 @@
       <c r="L14" s="24"/>
     </row>
     <row r="15" spans="1:12" ht="33">
-      <c r="A15" s="60" t="s">
+      <c r="A15" s="56" t="s">
         <v>534</v>
       </c>
-      <c r="B15" s="63"/>
+      <c r="B15" s="59"/>
       <c r="C15" s="23" t="s">
         <v>492</v>
       </c>
       <c r="D15" s="23" t="s">
         <v>526</v>
       </c>
-      <c r="E15" s="63" t="s">
+      <c r="E15" s="59" t="s">
         <v>533</v>
       </c>
-      <c r="F15" s="63" t="s">
+      <c r="F15" s="59" t="s">
         <v>491</v>
       </c>
       <c r="G15" s="23"/>
@@ -9858,16 +10166,16 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="33.75" thickBot="1">
-      <c r="A16" s="61"/>
-      <c r="B16" s="64"/>
+      <c r="A16" s="57"/>
+      <c r="B16" s="60"/>
       <c r="C16" s="26" t="s">
         <v>499</v>
       </c>
       <c r="D16" s="26" t="s">
         <v>537</v>
       </c>
-      <c r="E16" s="64"/>
-      <c r="F16" s="64"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="60"/>
       <c r="G16" s="26"/>
       <c r="H16" s="26"/>
       <c r="I16" s="26"/>
@@ -9876,20 +10184,20 @@
       <c r="L16" s="27"/>
     </row>
     <row r="17" spans="1:12" ht="33">
-      <c r="A17" s="65" t="s">
+      <c r="A17" s="61" t="s">
         <v>538</v>
       </c>
-      <c r="B17" s="68"/>
+      <c r="B17" s="64"/>
       <c r="C17" s="28" t="s">
         <v>488</v>
       </c>
       <c r="D17" s="28" t="s">
         <v>522</v>
       </c>
-      <c r="E17" s="62" t="s">
+      <c r="E17" s="58" t="s">
         <v>539</v>
       </c>
-      <c r="F17" s="62" t="s">
+      <c r="F17" s="58" t="s">
         <v>524</v>
       </c>
       <c r="G17" s="22"/>
@@ -9900,20 +10208,20 @@
       <c r="L17" s="24"/>
     </row>
     <row r="18" spans="1:12" ht="49.5">
-      <c r="A18" s="66" t="s">
+      <c r="A18" s="62" t="s">
         <v>538</v>
       </c>
-      <c r="B18" s="69"/>
+      <c r="B18" s="65"/>
       <c r="C18" s="29" t="s">
         <v>492</v>
       </c>
       <c r="D18" s="29" t="s">
         <v>526</v>
       </c>
-      <c r="E18" s="63" t="s">
+      <c r="E18" s="59" t="s">
         <v>539</v>
       </c>
-      <c r="F18" s="63" t="s">
+      <c r="F18" s="59" t="s">
         <v>491</v>
       </c>
       <c r="G18" s="23"/>
@@ -9932,16 +10240,16 @@
       </c>
     </row>
     <row r="19" spans="1:12" ht="33.75" thickBot="1">
-      <c r="A19" s="67"/>
-      <c r="B19" s="70"/>
+      <c r="A19" s="63"/>
+      <c r="B19" s="66"/>
       <c r="C19" s="30" t="s">
         <v>499</v>
       </c>
       <c r="D19" s="30" t="s">
         <v>544</v>
       </c>
-      <c r="E19" s="64"/>
-      <c r="F19" s="64"/>
+      <c r="E19" s="60"/>
+      <c r="F19" s="60"/>
       <c r="G19" s="26"/>
       <c r="H19" s="26"/>
       <c r="I19" s="26"/>
@@ -9950,14 +10258,14 @@
       <c r="L19" s="27"/>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="59"/>
-      <c r="B20" s="62"/>
+      <c r="A20" s="55"/>
+      <c r="B20" s="58"/>
       <c r="C20" s="22"/>
       <c r="D20" s="22"/>
-      <c r="E20" s="62" t="s">
+      <c r="E20" s="58" t="s">
         <v>545</v>
       </c>
-      <c r="F20" s="62" t="s">
+      <c r="F20" s="58" t="s">
         <v>524</v>
       </c>
       <c r="G20" s="22"/>
@@ -9968,14 +10276,14 @@
       <c r="L20" s="24"/>
     </row>
     <row r="21" spans="1:12" ht="132">
-      <c r="A21" s="60"/>
-      <c r="B21" s="63"/>
+      <c r="A21" s="56"/>
+      <c r="B21" s="59"/>
       <c r="C21" s="23"/>
       <c r="D21" s="23"/>
-      <c r="E21" s="63" t="s">
+      <c r="E21" s="59" t="s">
         <v>545</v>
       </c>
-      <c r="F21" s="63" t="s">
+      <c r="F21" s="59" t="s">
         <v>524</v>
       </c>
       <c r="G21" s="23"/>
@@ -9996,12 +10304,12 @@
       </c>
     </row>
     <row r="22" spans="1:12" ht="17.25" thickBot="1">
-      <c r="A22" s="61"/>
-      <c r="B22" s="64"/>
+      <c r="A22" s="57"/>
+      <c r="B22" s="60"/>
       <c r="C22" s="26"/>
       <c r="D22" s="26"/>
-      <c r="E22" s="64"/>
-      <c r="F22" s="64"/>
+      <c r="E22" s="60"/>
+      <c r="F22" s="60"/>
       <c r="G22" s="26"/>
       <c r="H22" s="26"/>
       <c r="I22" s="26"/>
@@ -10010,14 +10318,14 @@
       <c r="L22" s="27"/>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="59"/>
-      <c r="B23" s="62"/>
+      <c r="A23" s="55"/>
+      <c r="B23" s="58"/>
       <c r="C23" s="22"/>
       <c r="D23" s="22"/>
-      <c r="E23" s="62" t="s">
+      <c r="E23" s="58" t="s">
         <v>551</v>
       </c>
-      <c r="F23" s="62" t="s">
+      <c r="F23" s="58" t="s">
         <v>524</v>
       </c>
       <c r="G23" s="22"/>
@@ -10028,14 +10336,14 @@
       <c r="L23" s="24"/>
     </row>
     <row r="24" spans="1:12" ht="148.5">
-      <c r="A24" s="60"/>
-      <c r="B24" s="63"/>
+      <c r="A24" s="56"/>
+      <c r="B24" s="59"/>
       <c r="C24" s="23"/>
       <c r="D24" s="23"/>
-      <c r="E24" s="63" t="s">
+      <c r="E24" s="59" t="s">
         <v>552</v>
       </c>
-      <c r="F24" s="63" t="s">
+      <c r="F24" s="59" t="s">
         <v>524</v>
       </c>
       <c r="G24" s="23"/>
@@ -10056,12 +10364,12 @@
       </c>
     </row>
     <row r="25" spans="1:12" ht="17.25" thickBot="1">
-      <c r="A25" s="61"/>
-      <c r="B25" s="64"/>
+      <c r="A25" s="57"/>
+      <c r="B25" s="60"/>
       <c r="C25" s="26"/>
       <c r="D25" s="26"/>
-      <c r="E25" s="64"/>
-      <c r="F25" s="64"/>
+      <c r="E25" s="60"/>
+      <c r="F25" s="60"/>
       <c r="G25" s="26"/>
       <c r="H25" s="26"/>
       <c r="I25" s="26"/>
@@ -10070,14 +10378,14 @@
       <c r="L25" s="27"/>
     </row>
     <row r="26" spans="1:12">
-      <c r="A26" s="59"/>
-      <c r="B26" s="62"/>
+      <c r="A26" s="55"/>
+      <c r="B26" s="58"/>
       <c r="C26" s="22"/>
       <c r="D26" s="22"/>
-      <c r="E26" s="68" t="s">
+      <c r="E26" s="64" t="s">
         <v>557</v>
       </c>
-      <c r="F26" s="68" t="s">
+      <c r="F26" s="64" t="s">
         <v>491</v>
       </c>
       <c r="G26" s="28"/>
@@ -10088,14 +10396,14 @@
       <c r="L26" s="31"/>
     </row>
     <row r="27" spans="1:12" ht="49.5">
-      <c r="A27" s="60"/>
-      <c r="B27" s="63"/>
+      <c r="A27" s="56"/>
+      <c r="B27" s="59"/>
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
-      <c r="E27" s="69" t="s">
+      <c r="E27" s="65" t="s">
         <v>557</v>
       </c>
-      <c r="F27" s="69" t="s">
+      <c r="F27" s="65" t="s">
         <v>491</v>
       </c>
       <c r="G27" s="29"/>
@@ -10114,12 +10422,12 @@
       </c>
     </row>
     <row r="28" spans="1:12" ht="17.25" thickBot="1">
-      <c r="A28" s="61"/>
-      <c r="B28" s="64"/>
+      <c r="A28" s="57"/>
+      <c r="B28" s="60"/>
       <c r="C28" s="26"/>
       <c r="D28" s="26"/>
-      <c r="E28" s="70"/>
-      <c r="F28" s="70"/>
+      <c r="E28" s="66"/>
+      <c r="F28" s="66"/>
       <c r="G28" s="30"/>
       <c r="H28" s="30"/>
       <c r="I28" s="30"/>
@@ -10128,14 +10436,14 @@
       <c r="L28" s="33"/>
     </row>
     <row r="29" spans="1:12">
-      <c r="A29" s="59"/>
-      <c r="B29" s="62"/>
+      <c r="A29" s="55"/>
+      <c r="B29" s="58"/>
       <c r="C29" s="22"/>
       <c r="D29" s="22"/>
-      <c r="E29" s="68" t="s">
+      <c r="E29" s="64" t="s">
         <v>561</v>
       </c>
-      <c r="F29" s="68" t="s">
+      <c r="F29" s="64" t="s">
         <v>491</v>
       </c>
       <c r="G29" s="28"/>
@@ -10146,14 +10454,14 @@
       <c r="L29" s="31"/>
     </row>
     <row r="30" spans="1:12" ht="49.5">
-      <c r="A30" s="60"/>
-      <c r="B30" s="63"/>
+      <c r="A30" s="56"/>
+      <c r="B30" s="59"/>
       <c r="C30" s="23"/>
       <c r="D30" s="23"/>
-      <c r="E30" s="69" t="s">
+      <c r="E30" s="65" t="s">
         <v>561</v>
       </c>
-      <c r="F30" s="69" t="s">
+      <c r="F30" s="65" t="s">
         <v>491</v>
       </c>
       <c r="G30" s="29"/>
@@ -10172,12 +10480,12 @@
       </c>
     </row>
     <row r="31" spans="1:12" ht="17.25" thickBot="1">
-      <c r="A31" s="61"/>
-      <c r="B31" s="64"/>
+      <c r="A31" s="57"/>
+      <c r="B31" s="60"/>
       <c r="C31" s="26"/>
       <c r="D31" s="26"/>
-      <c r="E31" s="70"/>
-      <c r="F31" s="70"/>
+      <c r="E31" s="66"/>
+      <c r="F31" s="66"/>
       <c r="G31" s="30"/>
       <c r="H31" s="30"/>
       <c r="I31" s="30"/>
@@ -10186,14 +10494,14 @@
       <c r="L31" s="33"/>
     </row>
     <row r="32" spans="1:12">
-      <c r="A32" s="59"/>
-      <c r="B32" s="62"/>
+      <c r="A32" s="55"/>
+      <c r="B32" s="58"/>
       <c r="C32" s="22"/>
       <c r="D32" s="22"/>
-      <c r="E32" s="62" t="s">
+      <c r="E32" s="58" t="s">
         <v>566</v>
       </c>
-      <c r="F32" s="62" t="s">
+      <c r="F32" s="58" t="s">
         <v>504</v>
       </c>
       <c r="G32" s="22"/>
@@ -10204,14 +10512,14 @@
       <c r="L32" s="24"/>
     </row>
     <row r="33" spans="1:12" ht="66">
-      <c r="A33" s="60"/>
-      <c r="B33" s="63"/>
+      <c r="A33" s="56"/>
+      <c r="B33" s="59"/>
       <c r="C33" s="23"/>
       <c r="D33" s="23"/>
-      <c r="E33" s="63" t="s">
+      <c r="E33" s="59" t="s">
         <v>567</v>
       </c>
-      <c r="F33" s="63" t="s">
+      <c r="F33" s="59" t="s">
         <v>504</v>
       </c>
       <c r="G33" s="23"/>
@@ -10232,12 +10540,12 @@
       </c>
     </row>
     <row r="34" spans="1:12" ht="17.25" thickBot="1">
-      <c r="A34" s="61"/>
-      <c r="B34" s="64"/>
+      <c r="A34" s="57"/>
+      <c r="B34" s="60"/>
       <c r="C34" s="26"/>
       <c r="D34" s="26"/>
-      <c r="E34" s="64"/>
-      <c r="F34" s="64"/>
+      <c r="E34" s="60"/>
+      <c r="F34" s="60"/>
       <c r="G34" s="26"/>
       <c r="H34" s="26"/>
       <c r="I34" s="26"/>
@@ -10246,18 +10554,18 @@
       <c r="L34" s="27"/>
     </row>
     <row r="35" spans="1:12">
-      <c r="A35" s="53" t="s">
+      <c r="A35" s="67" t="s">
         <v>573</v>
       </c>
-      <c r="B35" s="56"/>
+      <c r="B35" s="70"/>
       <c r="C35" s="34" t="s">
         <v>574</v>
       </c>
       <c r="D35" s="34"/>
-      <c r="E35" s="56" t="s">
+      <c r="E35" s="70" t="s">
         <v>575</v>
       </c>
-      <c r="F35" s="56"/>
+      <c r="F35" s="70"/>
       <c r="G35" s="34"/>
       <c r="H35" s="34"/>
       <c r="I35" s="34"/>
@@ -10266,10 +10574,10 @@
       <c r="L35" s="35"/>
     </row>
     <row r="36" spans="1:12" ht="66">
-      <c r="A36" s="54" t="s">
+      <c r="A36" s="68" t="s">
         <v>576</v>
       </c>
-      <c r="B36" s="57" t="s">
+      <c r="B36" s="71" t="s">
         <v>577</v>
       </c>
       <c r="C36" s="36" t="s">
@@ -10278,10 +10586,10 @@
       <c r="D36" s="36" t="s">
         <v>579</v>
       </c>
-      <c r="E36" s="57" t="s">
+      <c r="E36" s="71" t="s">
         <v>575</v>
       </c>
-      <c r="F36" s="57" t="s">
+      <c r="F36" s="71" t="s">
         <v>504</v>
       </c>
       <c r="G36" s="36"/>
@@ -10296,16 +10604,16 @@
       <c r="L36" s="37"/>
     </row>
     <row r="37" spans="1:12" ht="33.75" thickBot="1">
-      <c r="A37" s="55"/>
-      <c r="B37" s="58"/>
+      <c r="A37" s="69"/>
+      <c r="B37" s="72"/>
       <c r="C37" s="38" t="s">
         <v>582</v>
       </c>
       <c r="D37" s="38" t="s">
         <v>583</v>
       </c>
-      <c r="E37" s="58"/>
-      <c r="F37" s="58"/>
+      <c r="E37" s="72"/>
+      <c r="F37" s="72"/>
       <c r="G37" s="38"/>
       <c r="H37" s="38"/>
       <c r="I37" s="38"/>
@@ -10314,20 +10622,20 @@
       <c r="L37" s="39"/>
     </row>
     <row r="38" spans="1:12" ht="33">
-      <c r="A38" s="59" t="s">
+      <c r="A38" s="55" t="s">
         <v>584</v>
       </c>
-      <c r="B38" s="62"/>
+      <c r="B38" s="58"/>
       <c r="C38" s="22" t="s">
         <v>487</v>
       </c>
       <c r="D38" s="23" t="s">
         <v>521</v>
       </c>
-      <c r="E38" s="68" t="s">
+      <c r="E38" s="64" t="s">
         <v>585</v>
       </c>
-      <c r="F38" s="68" t="s">
+      <c r="F38" s="64" t="s">
         <v>586</v>
       </c>
       <c r="G38" s="28"/>
@@ -10338,20 +10646,20 @@
       <c r="L38" s="31"/>
     </row>
     <row r="39" spans="1:12" ht="66">
-      <c r="A39" s="60" t="s">
+      <c r="A39" s="56" t="s">
         <v>587</v>
       </c>
-      <c r="B39" s="63"/>
+      <c r="B39" s="59"/>
       <c r="C39" s="23" t="s">
         <v>588</v>
       </c>
       <c r="D39" s="23" t="s">
         <v>589</v>
       </c>
-      <c r="E39" s="69" t="s">
+      <c r="E39" s="65" t="s">
         <v>590</v>
       </c>
-      <c r="F39" s="69" t="s">
+      <c r="F39" s="65" t="s">
         <v>586</v>
       </c>
       <c r="G39" s="29"/>
@@ -10372,16 +10680,16 @@
       </c>
     </row>
     <row r="40" spans="1:12" ht="50.25" thickBot="1">
-      <c r="A40" s="61"/>
-      <c r="B40" s="64"/>
+      <c r="A40" s="57"/>
+      <c r="B40" s="60"/>
       <c r="C40" s="26" t="s">
         <v>498</v>
       </c>
       <c r="D40" s="26" t="s">
         <v>596</v>
       </c>
-      <c r="E40" s="70"/>
-      <c r="F40" s="70"/>
+      <c r="E40" s="66"/>
+      <c r="F40" s="66"/>
       <c r="G40" s="30"/>
       <c r="H40" s="30"/>
       <c r="I40" s="30"/>
@@ -10390,14 +10698,14 @@
       <c r="L40" s="33"/>
     </row>
     <row r="41" spans="1:12">
-      <c r="A41" s="59"/>
-      <c r="B41" s="62"/>
+      <c r="A41" s="55"/>
+      <c r="B41" s="58"/>
       <c r="C41" s="22"/>
       <c r="D41" s="22"/>
-      <c r="E41" s="68" t="s">
+      <c r="E41" s="64" t="s">
         <v>597</v>
       </c>
-      <c r="F41" s="68" t="s">
+      <c r="F41" s="64" t="s">
         <v>598</v>
       </c>
       <c r="G41" s="28"/>
@@ -10408,14 +10716,14 @@
       <c r="L41" s="31"/>
     </row>
     <row r="42" spans="1:12" ht="165">
-      <c r="A42" s="60"/>
-      <c r="B42" s="63"/>
+      <c r="A42" s="56"/>
+      <c r="B42" s="59"/>
       <c r="C42" s="23"/>
       <c r="D42" s="23"/>
-      <c r="E42" s="69" t="s">
+      <c r="E42" s="65" t="s">
         <v>599</v>
       </c>
-      <c r="F42" s="69" t="s">
+      <c r="F42" s="65" t="s">
         <v>600</v>
       </c>
       <c r="G42" s="29"/>
@@ -10436,12 +10744,12 @@
       </c>
     </row>
     <row r="43" spans="1:12" ht="17.25" thickBot="1">
-      <c r="A43" s="61"/>
-      <c r="B43" s="64"/>
+      <c r="A43" s="57"/>
+      <c r="B43" s="60"/>
       <c r="C43" s="26"/>
       <c r="D43" s="26"/>
-      <c r="E43" s="70"/>
-      <c r="F43" s="70"/>
+      <c r="E43" s="66"/>
+      <c r="F43" s="66"/>
       <c r="G43" s="30"/>
       <c r="H43" s="30"/>
       <c r="I43" s="30"/>
@@ -10450,14 +10758,14 @@
       <c r="L43" s="33"/>
     </row>
     <row r="44" spans="1:12">
-      <c r="A44" s="53"/>
-      <c r="B44" s="56"/>
+      <c r="A44" s="67"/>
+      <c r="B44" s="70"/>
       <c r="C44" s="34"/>
       <c r="D44" s="34"/>
-      <c r="E44" s="56" t="s">
+      <c r="E44" s="70" t="s">
         <v>606</v>
       </c>
-      <c r="F44" s="56"/>
+      <c r="F44" s="70"/>
       <c r="G44" s="34"/>
       <c r="H44" s="34"/>
       <c r="I44" s="34"/>
@@ -10466,14 +10774,14 @@
       <c r="L44" s="35"/>
     </row>
     <row r="45" spans="1:12" ht="82.5">
-      <c r="A45" s="54"/>
-      <c r="B45" s="57"/>
+      <c r="A45" s="68"/>
+      <c r="B45" s="71"/>
       <c r="C45" s="36"/>
       <c r="D45" s="36"/>
-      <c r="E45" s="57" t="s">
+      <c r="E45" s="71" t="s">
         <v>607</v>
       </c>
-      <c r="F45" s="57" t="s">
+      <c r="F45" s="71" t="s">
         <v>18</v>
       </c>
       <c r="G45" s="36"/>
@@ -10488,12 +10796,12 @@
       <c r="L45" s="37"/>
     </row>
     <row r="46" spans="1:12" ht="17.25" thickBot="1">
-      <c r="A46" s="55"/>
-      <c r="B46" s="58"/>
+      <c r="A46" s="69"/>
+      <c r="B46" s="72"/>
       <c r="C46" s="38"/>
       <c r="D46" s="38"/>
-      <c r="E46" s="58"/>
-      <c r="F46" s="58"/>
+      <c r="E46" s="72"/>
+      <c r="F46" s="72"/>
       <c r="G46" s="38"/>
       <c r="H46" s="38"/>
       <c r="I46" s="38"/>
@@ -10502,14 +10810,14 @@
       <c r="L46" s="39"/>
     </row>
     <row r="47" spans="1:12">
-      <c r="A47" s="53"/>
-      <c r="B47" s="56"/>
+      <c r="A47" s="67"/>
+      <c r="B47" s="70"/>
       <c r="C47" s="34"/>
       <c r="D47" s="34"/>
-      <c r="E47" s="56" t="s">
+      <c r="E47" s="70" t="s">
         <v>610</v>
       </c>
-      <c r="F47" s="56"/>
+      <c r="F47" s="70"/>
       <c r="G47" s="34"/>
       <c r="H47" s="34"/>
       <c r="I47" s="34"/>
@@ -10518,14 +10826,14 @@
       <c r="L47" s="35"/>
     </row>
     <row r="48" spans="1:12" ht="49.5">
-      <c r="A48" s="54"/>
-      <c r="B48" s="57"/>
+      <c r="A48" s="68"/>
+      <c r="B48" s="71"/>
       <c r="C48" s="36"/>
       <c r="D48" s="36"/>
-      <c r="E48" s="57" t="s">
+      <c r="E48" s="71" t="s">
         <v>611</v>
       </c>
-      <c r="F48" s="57" t="s">
+      <c r="F48" s="71" t="s">
         <v>612</v>
       </c>
       <c r="G48" s="36"/>
@@ -10540,12 +10848,12 @@
       <c r="L48" s="37"/>
     </row>
     <row r="49" spans="1:12" ht="17.25" thickBot="1">
-      <c r="A49" s="55"/>
-      <c r="B49" s="58"/>
+      <c r="A49" s="69"/>
+      <c r="B49" s="72"/>
       <c r="C49" s="38"/>
       <c r="D49" s="38"/>
-      <c r="E49" s="58"/>
-      <c r="F49" s="58"/>
+      <c r="E49" s="72"/>
+      <c r="F49" s="72"/>
       <c r="G49" s="38"/>
       <c r="H49" s="38"/>
       <c r="I49" s="38"/>
@@ -10554,18 +10862,18 @@
       <c r="L49" s="39"/>
     </row>
     <row r="50" spans="1:12">
-      <c r="A50" s="53" t="s">
+      <c r="A50" s="67" t="s">
         <v>615</v>
       </c>
-      <c r="B50" s="56"/>
+      <c r="B50" s="70"/>
       <c r="C50" s="34" t="s">
         <v>574</v>
       </c>
       <c r="D50" s="34"/>
-      <c r="E50" s="56" t="s">
+      <c r="E50" s="70" t="s">
         <v>616</v>
       </c>
-      <c r="F50" s="56"/>
+      <c r="F50" s="70"/>
       <c r="G50" s="34"/>
       <c r="H50" s="34"/>
       <c r="I50" s="34"/>
@@ -10574,10 +10882,10 @@
       <c r="L50" s="35"/>
     </row>
     <row r="51" spans="1:12" ht="66">
-      <c r="A51" s="54" t="s">
+      <c r="A51" s="68" t="s">
         <v>615</v>
       </c>
-      <c r="B51" s="57" t="s">
+      <c r="B51" s="71" t="s">
         <v>617</v>
       </c>
       <c r="C51" s="36" t="s">
@@ -10586,10 +10894,10 @@
       <c r="D51" s="36" t="s">
         <v>618</v>
       </c>
-      <c r="E51" s="57" t="s">
+      <c r="E51" s="71" t="s">
         <v>616</v>
       </c>
-      <c r="F51" s="57" t="s">
+      <c r="F51" s="71" t="s">
         <v>600</v>
       </c>
       <c r="G51" s="36"/>
@@ -10604,16 +10912,16 @@
       <c r="L51" s="37"/>
     </row>
     <row r="52" spans="1:12" ht="50.25" thickBot="1">
-      <c r="A52" s="55"/>
-      <c r="B52" s="58"/>
+      <c r="A52" s="69"/>
+      <c r="B52" s="72"/>
       <c r="C52" s="38" t="s">
         <v>582</v>
       </c>
       <c r="D52" s="38" t="s">
         <v>621</v>
       </c>
-      <c r="E52" s="58"/>
-      <c r="F52" s="58"/>
+      <c r="E52" s="72"/>
+      <c r="F52" s="72"/>
       <c r="G52" s="38"/>
       <c r="H52" s="38"/>
       <c r="I52" s="38"/>
@@ -10622,18 +10930,18 @@
       <c r="L52" s="39"/>
     </row>
     <row r="53" spans="1:12">
-      <c r="A53" s="71" t="s">
+      <c r="A53" s="73" t="s">
         <v>622</v>
       </c>
-      <c r="B53" s="74"/>
+      <c r="B53" s="76"/>
       <c r="C53" s="40" t="s">
         <v>574</v>
       </c>
       <c r="D53" s="40"/>
-      <c r="E53" s="56" t="s">
+      <c r="E53" s="70" t="s">
         <v>623</v>
       </c>
-      <c r="F53" s="56"/>
+      <c r="F53" s="70"/>
       <c r="G53" s="34"/>
       <c r="H53" s="34"/>
       <c r="I53" s="34"/>
@@ -10642,10 +10950,10 @@
       <c r="L53" s="35"/>
     </row>
     <row r="54" spans="1:12" ht="33">
-      <c r="A54" s="72" t="s">
+      <c r="A54" s="74" t="s">
         <v>624</v>
       </c>
-      <c r="B54" s="75" t="s">
+      <c r="B54" s="77" t="s">
         <v>625</v>
       </c>
       <c r="C54" s="41" t="s">
@@ -10654,10 +10962,10 @@
       <c r="D54" s="41" t="s">
         <v>626</v>
       </c>
-      <c r="E54" s="57" t="s">
+      <c r="E54" s="71" t="s">
         <v>623</v>
       </c>
-      <c r="F54" s="57" t="s">
+      <c r="F54" s="71" t="s">
         <v>600</v>
       </c>
       <c r="G54" s="36"/>
@@ -10672,16 +10980,16 @@
       <c r="L54" s="37"/>
     </row>
     <row r="55" spans="1:12" ht="50.25" thickBot="1">
-      <c r="A55" s="73"/>
-      <c r="B55" s="76"/>
+      <c r="A55" s="75"/>
+      <c r="B55" s="78"/>
       <c r="C55" s="42" t="s">
         <v>582</v>
       </c>
       <c r="D55" s="42" t="s">
         <v>629</v>
       </c>
-      <c r="E55" s="58"/>
-      <c r="F55" s="58"/>
+      <c r="E55" s="72"/>
+      <c r="F55" s="72"/>
       <c r="G55" s="38"/>
       <c r="H55" s="38"/>
       <c r="I55" s="38"/>
@@ -10690,18 +10998,18 @@
       <c r="L55" s="39"/>
     </row>
     <row r="56" spans="1:12">
-      <c r="A56" s="53" t="s">
+      <c r="A56" s="67" t="s">
         <v>630</v>
       </c>
-      <c r="B56" s="56"/>
+      <c r="B56" s="70"/>
       <c r="C56" s="34" t="s">
         <v>574</v>
       </c>
       <c r="D56" s="34"/>
-      <c r="E56" s="56" t="s">
+      <c r="E56" s="70" t="s">
         <v>631</v>
       </c>
-      <c r="F56" s="56"/>
+      <c r="F56" s="70"/>
       <c r="G56" s="34"/>
       <c r="H56" s="34"/>
       <c r="I56" s="34"/>
@@ -10710,10 +11018,10 @@
       <c r="L56" s="35"/>
     </row>
     <row r="57" spans="1:12" ht="33">
-      <c r="A57" s="54" t="s">
+      <c r="A57" s="68" t="s">
         <v>630</v>
       </c>
-      <c r="B57" s="57" t="s">
+      <c r="B57" s="71" t="s">
         <v>625</v>
       </c>
       <c r="C57" s="36" t="s">
@@ -10722,10 +11030,10 @@
       <c r="D57" s="36" t="s">
         <v>632</v>
       </c>
-      <c r="E57" s="57" t="s">
+      <c r="E57" s="71" t="s">
         <v>631</v>
       </c>
-      <c r="F57" s="57" t="s">
+      <c r="F57" s="71" t="s">
         <v>633</v>
       </c>
       <c r="G57" s="36"/>
@@ -10740,16 +11048,16 @@
       <c r="L57" s="37"/>
     </row>
     <row r="58" spans="1:12" ht="33.75" thickBot="1">
-      <c r="A58" s="55"/>
-      <c r="B58" s="58"/>
+      <c r="A58" s="69"/>
+      <c r="B58" s="72"/>
       <c r="C58" s="38" t="s">
         <v>582</v>
       </c>
       <c r="D58" s="38" t="s">
         <v>635</v>
       </c>
-      <c r="E58" s="58"/>
-      <c r="F58" s="58"/>
+      <c r="E58" s="72"/>
+      <c r="F58" s="72"/>
       <c r="G58" s="38"/>
       <c r="H58" s="38"/>
       <c r="I58" s="38"/>
@@ -10758,20 +11066,20 @@
       <c r="L58" s="39"/>
     </row>
     <row r="59" spans="1:12" ht="33">
-      <c r="A59" s="59" t="s">
+      <c r="A59" s="55" t="s">
         <v>636</v>
       </c>
-      <c r="B59" s="62"/>
+      <c r="B59" s="58"/>
       <c r="C59" s="22" t="s">
         <v>637</v>
       </c>
       <c r="D59" s="23" t="s">
         <v>638</v>
       </c>
-      <c r="E59" s="62" t="s">
+      <c r="E59" s="58" t="s">
         <v>639</v>
       </c>
-      <c r="F59" s="62" t="s">
+      <c r="F59" s="58" t="s">
         <v>600</v>
       </c>
       <c r="G59" s="22"/>
@@ -10782,20 +11090,20 @@
       <c r="L59" s="24"/>
     </row>
     <row r="60" spans="1:12" ht="82.5">
-      <c r="A60" s="60" t="s">
+      <c r="A60" s="56" t="s">
         <v>636</v>
       </c>
-      <c r="B60" s="63"/>
+      <c r="B60" s="59"/>
       <c r="C60" s="23" t="s">
         <v>588</v>
       </c>
       <c r="D60" s="23" t="s">
         <v>640</v>
       </c>
-      <c r="E60" s="63" t="s">
+      <c r="E60" s="59" t="s">
         <v>639</v>
       </c>
-      <c r="F60" s="63" t="s">
+      <c r="F60" s="59" t="s">
         <v>641</v>
       </c>
       <c r="G60" s="23"/>
@@ -10816,16 +11124,16 @@
       </c>
     </row>
     <row r="61" spans="1:12" ht="66.75" thickBot="1">
-      <c r="A61" s="61"/>
-      <c r="B61" s="64"/>
+      <c r="A61" s="57"/>
+      <c r="B61" s="60"/>
       <c r="C61" s="26" t="s">
         <v>647</v>
       </c>
       <c r="D61" s="26" t="s">
         <v>648</v>
       </c>
-      <c r="E61" s="64"/>
-      <c r="F61" s="64"/>
+      <c r="E61" s="60"/>
+      <c r="F61" s="60"/>
       <c r="G61" s="26"/>
       <c r="H61" s="26"/>
       <c r="I61" s="26"/>
@@ -10834,18 +11142,18 @@
       <c r="L61" s="27"/>
     </row>
     <row r="62" spans="1:12">
-      <c r="A62" s="53" t="s">
+      <c r="A62" s="67" t="s">
         <v>649</v>
       </c>
-      <c r="B62" s="56"/>
+      <c r="B62" s="70"/>
       <c r="C62" s="34" t="s">
         <v>574</v>
       </c>
       <c r="D62" s="34"/>
-      <c r="E62" s="56" t="s">
+      <c r="E62" s="70" t="s">
         <v>650</v>
       </c>
-      <c r="F62" s="56"/>
+      <c r="F62" s="70"/>
       <c r="G62" s="34"/>
       <c r="H62" s="34"/>
       <c r="I62" s="34"/>
@@ -10854,10 +11162,10 @@
       <c r="L62" s="35"/>
     </row>
     <row r="63" spans="1:12" ht="49.5">
-      <c r="A63" s="54" t="s">
+      <c r="A63" s="68" t="s">
         <v>649</v>
       </c>
-      <c r="B63" s="57" t="s">
+      <c r="B63" s="71" t="s">
         <v>577</v>
       </c>
       <c r="C63" s="36" t="s">
@@ -10866,10 +11174,10 @@
       <c r="D63" s="36" t="s">
         <v>651</v>
       </c>
-      <c r="E63" s="57" t="s">
+      <c r="E63" s="71" t="s">
         <v>650</v>
       </c>
-      <c r="F63" s="57" t="s">
+      <c r="F63" s="71" t="s">
         <v>612</v>
       </c>
       <c r="G63" s="36"/>
@@ -10884,16 +11192,16 @@
       <c r="L63" s="37"/>
     </row>
     <row r="64" spans="1:12" ht="33.75" thickBot="1">
-      <c r="A64" s="55"/>
-      <c r="B64" s="58"/>
+      <c r="A64" s="69"/>
+      <c r="B64" s="72"/>
       <c r="C64" s="38" t="s">
         <v>582</v>
       </c>
       <c r="D64" s="38" t="s">
         <v>654</v>
       </c>
-      <c r="E64" s="58"/>
-      <c r="F64" s="58"/>
+      <c r="E64" s="72"/>
+      <c r="F64" s="72"/>
       <c r="G64" s="38"/>
       <c r="H64" s="38"/>
       <c r="I64" s="38"/>
@@ -10902,20 +11210,20 @@
       <c r="L64" s="39"/>
     </row>
     <row r="65" spans="1:12" ht="33">
-      <c r="A65" s="59" t="s">
+      <c r="A65" s="55" t="s">
         <v>37</v>
       </c>
-      <c r="B65" s="62"/>
+      <c r="B65" s="58"/>
       <c r="C65" s="22" t="s">
         <v>637</v>
       </c>
       <c r="D65" s="23" t="s">
         <v>655</v>
       </c>
-      <c r="E65" s="62" t="s">
+      <c r="E65" s="58" t="s">
         <v>656</v>
       </c>
-      <c r="F65" s="62" t="s">
+      <c r="F65" s="58" t="s">
         <v>600</v>
       </c>
       <c r="G65" s="22"/>
@@ -10926,20 +11234,20 @@
       <c r="L65" s="24"/>
     </row>
     <row r="66" spans="1:12" ht="66">
-      <c r="A66" s="60" t="s">
+      <c r="A66" s="56" t="s">
         <v>657</v>
       </c>
-      <c r="B66" s="63"/>
+      <c r="B66" s="59"/>
       <c r="C66" s="23" t="s">
         <v>588</v>
       </c>
       <c r="D66" s="23" t="s">
         <v>658</v>
       </c>
-      <c r="E66" s="63" t="s">
+      <c r="E66" s="59" t="s">
         <v>656</v>
       </c>
-      <c r="F66" s="63" t="s">
+      <c r="F66" s="59" t="s">
         <v>600</v>
       </c>
       <c r="G66" s="23"/>
@@ -10958,16 +11266,16 @@
       </c>
     </row>
     <row r="67" spans="1:12" ht="33.75" thickBot="1">
-      <c r="A67" s="61"/>
-      <c r="B67" s="64"/>
+      <c r="A67" s="57"/>
+      <c r="B67" s="60"/>
       <c r="C67" s="26" t="s">
         <v>647</v>
       </c>
       <c r="D67" s="26" t="s">
         <v>663</v>
       </c>
-      <c r="E67" s="64"/>
-      <c r="F67" s="64"/>
+      <c r="E67" s="60"/>
+      <c r="F67" s="60"/>
       <c r="G67" s="26"/>
       <c r="H67" s="26"/>
       <c r="I67" s="26"/>
@@ -10976,18 +11284,18 @@
       <c r="L67" s="27"/>
     </row>
     <row r="68" spans="1:12">
-      <c r="A68" s="53" t="s">
+      <c r="A68" s="67" t="s">
         <v>664</v>
       </c>
-      <c r="B68" s="56"/>
+      <c r="B68" s="70"/>
       <c r="C68" s="34" t="s">
         <v>574</v>
       </c>
       <c r="D68" s="34"/>
-      <c r="E68" s="56" t="s">
+      <c r="E68" s="70" t="s">
         <v>665</v>
       </c>
-      <c r="F68" s="56"/>
+      <c r="F68" s="70"/>
       <c r="G68" s="34"/>
       <c r="H68" s="34"/>
       <c r="I68" s="34"/>
@@ -10996,10 +11304,10 @@
       <c r="L68" s="35"/>
     </row>
     <row r="69" spans="1:12" ht="33">
-      <c r="A69" s="54" t="s">
+      <c r="A69" s="68" t="s">
         <v>664</v>
       </c>
-      <c r="B69" s="57" t="s">
+      <c r="B69" s="71" t="s">
         <v>625</v>
       </c>
       <c r="C69" s="36" t="s">
@@ -11008,10 +11316,10 @@
       <c r="D69" s="36" t="s">
         <v>666</v>
       </c>
-      <c r="E69" s="57" t="s">
+      <c r="E69" s="71" t="s">
         <v>665</v>
       </c>
-      <c r="F69" s="57" t="s">
+      <c r="F69" s="71" t="s">
         <v>600</v>
       </c>
       <c r="G69" s="36"/>
@@ -11026,16 +11334,16 @@
       <c r="L69" s="37"/>
     </row>
     <row r="70" spans="1:12" ht="33.75" thickBot="1">
-      <c r="A70" s="55"/>
-      <c r="B70" s="58"/>
+      <c r="A70" s="69"/>
+      <c r="B70" s="72"/>
       <c r="C70" s="38" t="s">
         <v>582</v>
       </c>
       <c r="D70" s="38" t="s">
         <v>669</v>
       </c>
-      <c r="E70" s="58"/>
-      <c r="F70" s="58"/>
+      <c r="E70" s="72"/>
+      <c r="F70" s="72"/>
       <c r="G70" s="38"/>
       <c r="H70" s="38"/>
       <c r="I70" s="38"/>
@@ -11044,18 +11352,18 @@
       <c r="L70" s="39"/>
     </row>
     <row r="71" spans="1:12">
-      <c r="A71" s="53" t="s">
+      <c r="A71" s="67" t="s">
         <v>670</v>
       </c>
-      <c r="B71" s="56"/>
+      <c r="B71" s="70"/>
       <c r="C71" s="34" t="s">
         <v>574</v>
       </c>
       <c r="D71" s="34"/>
-      <c r="E71" s="56" t="s">
+      <c r="E71" s="70" t="s">
         <v>671</v>
       </c>
-      <c r="F71" s="56"/>
+      <c r="F71" s="70"/>
       <c r="G71" s="34"/>
       <c r="H71" s="34"/>
       <c r="I71" s="34"/>
@@ -11064,10 +11372,10 @@
       <c r="L71" s="35"/>
     </row>
     <row r="72" spans="1:12" ht="49.5">
-      <c r="A72" s="54" t="s">
+      <c r="A72" s="68" t="s">
         <v>670</v>
       </c>
-      <c r="B72" s="57" t="s">
+      <c r="B72" s="71" t="s">
         <v>577</v>
       </c>
       <c r="C72" s="36" t="s">
@@ -11076,10 +11384,10 @@
       <c r="D72" s="36" t="s">
         <v>666</v>
       </c>
-      <c r="E72" s="57" t="s">
+      <c r="E72" s="71" t="s">
         <v>671</v>
       </c>
-      <c r="F72" s="57" t="s">
+      <c r="F72" s="71" t="s">
         <v>600</v>
       </c>
       <c r="G72" s="36"/>
@@ -11094,16 +11402,16 @@
       <c r="L72" s="37"/>
     </row>
     <row r="73" spans="1:12" ht="33.75" thickBot="1">
-      <c r="A73" s="55"/>
-      <c r="B73" s="58"/>
+      <c r="A73" s="69"/>
+      <c r="B73" s="72"/>
       <c r="C73" s="38" t="s">
         <v>582</v>
       </c>
       <c r="D73" s="38" t="s">
         <v>674</v>
       </c>
-      <c r="E73" s="58"/>
-      <c r="F73" s="58"/>
+      <c r="E73" s="72"/>
+      <c r="F73" s="72"/>
       <c r="G73" s="38"/>
       <c r="H73" s="38"/>
       <c r="I73" s="38"/>
@@ -11112,18 +11420,18 @@
       <c r="L73" s="39"/>
     </row>
     <row r="74" spans="1:12">
-      <c r="A74" s="53" t="s">
+      <c r="A74" s="67" t="s">
         <v>675</v>
       </c>
-      <c r="B74" s="56"/>
+      <c r="B74" s="70"/>
       <c r="C74" s="34" t="s">
         <v>574</v>
       </c>
       <c r="D74" s="34"/>
-      <c r="E74" s="56" t="s">
+      <c r="E74" s="70" t="s">
         <v>676</v>
       </c>
-      <c r="F74" s="56"/>
+      <c r="F74" s="70"/>
       <c r="G74" s="34"/>
       <c r="H74" s="34"/>
       <c r="I74" s="34"/>
@@ -11132,10 +11440,10 @@
       <c r="L74" s="35"/>
     </row>
     <row r="75" spans="1:12" ht="33">
-      <c r="A75" s="54" t="s">
+      <c r="A75" s="68" t="s">
         <v>675</v>
       </c>
-      <c r="B75" s="57" t="s">
+      <c r="B75" s="71" t="s">
         <v>625</v>
       </c>
       <c r="C75" s="36" t="s">
@@ -11144,10 +11452,10 @@
       <c r="D75" s="36" t="s">
         <v>677</v>
       </c>
-      <c r="E75" s="57" t="s">
+      <c r="E75" s="71" t="s">
         <v>676</v>
       </c>
-      <c r="F75" s="57" t="s">
+      <c r="F75" s="71" t="s">
         <v>612</v>
       </c>
       <c r="G75" s="36"/>
@@ -11162,16 +11470,16 @@
       <c r="L75" s="37"/>
     </row>
     <row r="76" spans="1:12" ht="33.75" thickBot="1">
-      <c r="A76" s="55"/>
-      <c r="B76" s="58"/>
+      <c r="A76" s="69"/>
+      <c r="B76" s="72"/>
       <c r="C76" s="38" t="s">
         <v>582</v>
       </c>
       <c r="D76" s="38" t="s">
         <v>680</v>
       </c>
-      <c r="E76" s="58"/>
-      <c r="F76" s="58"/>
+      <c r="E76" s="72"/>
+      <c r="F76" s="72"/>
       <c r="G76" s="38"/>
       <c r="H76" s="38"/>
       <c r="I76" s="38"/>
@@ -11180,18 +11488,18 @@
       <c r="L76" s="39"/>
     </row>
     <row r="77" spans="1:12">
-      <c r="A77" s="53" t="s">
+      <c r="A77" s="67" t="s">
         <v>681</v>
       </c>
-      <c r="B77" s="56"/>
+      <c r="B77" s="70"/>
       <c r="C77" s="34" t="s">
         <v>574</v>
       </c>
       <c r="D77" s="34"/>
-      <c r="E77" s="56" t="s">
+      <c r="E77" s="70" t="s">
         <v>682</v>
       </c>
-      <c r="F77" s="56"/>
+      <c r="F77" s="70"/>
       <c r="G77" s="34"/>
       <c r="H77" s="34"/>
       <c r="I77" s="34"/>
@@ -11200,10 +11508,10 @@
       <c r="L77" s="35"/>
     </row>
     <row r="78" spans="1:12" ht="33">
-      <c r="A78" s="54" t="s">
+      <c r="A78" s="68" t="s">
         <v>681</v>
       </c>
-      <c r="B78" s="57" t="s">
+      <c r="B78" s="71" t="s">
         <v>625</v>
       </c>
       <c r="C78" s="36" t="s">
@@ -11212,10 +11520,10 @@
       <c r="D78" s="36" t="s">
         <v>683</v>
       </c>
-      <c r="E78" s="57" t="s">
+      <c r="E78" s="71" t="s">
         <v>682</v>
       </c>
-      <c r="F78" s="57" t="s">
+      <c r="F78" s="71" t="s">
         <v>612</v>
       </c>
       <c r="G78" s="36"/>
@@ -11230,16 +11538,16 @@
       <c r="L78" s="37"/>
     </row>
     <row r="79" spans="1:12" ht="33.75" thickBot="1">
-      <c r="A79" s="55"/>
-      <c r="B79" s="58"/>
+      <c r="A79" s="69"/>
+      <c r="B79" s="72"/>
       <c r="C79" s="38" t="s">
         <v>582</v>
       </c>
       <c r="D79" s="38" t="s">
         <v>686</v>
       </c>
-      <c r="E79" s="58"/>
-      <c r="F79" s="58"/>
+      <c r="E79" s="72"/>
+      <c r="F79" s="72"/>
       <c r="G79" s="38"/>
       <c r="H79" s="38"/>
       <c r="I79" s="38"/>
@@ -11248,18 +11556,18 @@
       <c r="L79" s="39"/>
     </row>
     <row r="80" spans="1:12">
-      <c r="A80" s="53" t="s">
+      <c r="A80" s="67" t="s">
         <v>687</v>
       </c>
-      <c r="B80" s="56"/>
+      <c r="B80" s="70"/>
       <c r="C80" s="34" t="s">
         <v>574</v>
       </c>
       <c r="D80" s="34"/>
-      <c r="E80" s="56" t="s">
+      <c r="E80" s="70" t="s">
         <v>688</v>
       </c>
-      <c r="F80" s="56"/>
+      <c r="F80" s="70"/>
       <c r="G80" s="34"/>
       <c r="H80" s="34"/>
       <c r="I80" s="34"/>
@@ -11268,10 +11576,10 @@
       <c r="L80" s="35"/>
     </row>
     <row r="81" spans="1:12" ht="49.5">
-      <c r="A81" s="54" t="s">
+      <c r="A81" s="68" t="s">
         <v>689</v>
       </c>
-      <c r="B81" s="57" t="s">
+      <c r="B81" s="71" t="s">
         <v>625</v>
       </c>
       <c r="C81" s="36" t="s">
@@ -11280,10 +11588,10 @@
       <c r="D81" s="36" t="s">
         <v>690</v>
       </c>
-      <c r="E81" s="57" t="s">
+      <c r="E81" s="71" t="s">
         <v>691</v>
       </c>
-      <c r="F81" s="57" t="s">
+      <c r="F81" s="71" t="s">
         <v>633</v>
       </c>
       <c r="G81" s="36"/>
@@ -11298,16 +11606,16 @@
       <c r="L81" s="37"/>
     </row>
     <row r="82" spans="1:12" ht="50.25" thickBot="1">
-      <c r="A82" s="55"/>
-      <c r="B82" s="58"/>
+      <c r="A82" s="69"/>
+      <c r="B82" s="72"/>
       <c r="C82" s="38" t="s">
         <v>582</v>
       </c>
       <c r="D82" s="38" t="s">
         <v>694</v>
       </c>
-      <c r="E82" s="58"/>
-      <c r="F82" s="58"/>
+      <c r="E82" s="72"/>
+      <c r="F82" s="72"/>
       <c r="G82" s="38"/>
       <c r="H82" s="38"/>
       <c r="I82" s="38"/>
@@ -11316,18 +11624,18 @@
       <c r="L82" s="39"/>
     </row>
     <row r="83" spans="1:12">
-      <c r="A83" s="53" t="s">
+      <c r="A83" s="67" t="s">
         <v>695</v>
       </c>
-      <c r="B83" s="56"/>
+      <c r="B83" s="70"/>
       <c r="C83" s="34" t="s">
         <v>574</v>
       </c>
       <c r="D83" s="34"/>
-      <c r="E83" s="56" t="s">
+      <c r="E83" s="70" t="s">
         <v>696</v>
       </c>
-      <c r="F83" s="56"/>
+      <c r="F83" s="70"/>
       <c r="G83" s="34"/>
       <c r="H83" s="34"/>
       <c r="I83" s="34"/>
@@ -11336,10 +11644,10 @@
       <c r="L83" s="35"/>
     </row>
     <row r="84" spans="1:12" ht="33">
-      <c r="A84" s="54" t="s">
+      <c r="A84" s="68" t="s">
         <v>695</v>
       </c>
-      <c r="B84" s="57" t="s">
+      <c r="B84" s="71" t="s">
         <v>577</v>
       </c>
       <c r="C84" s="36" t="s">
@@ -11348,10 +11656,10 @@
       <c r="D84" s="36" t="s">
         <v>658</v>
       </c>
-      <c r="E84" s="57" t="s">
+      <c r="E84" s="71" t="s">
         <v>697</v>
       </c>
-      <c r="F84" s="57" t="s">
+      <c r="F84" s="71" t="s">
         <v>633</v>
       </c>
       <c r="G84" s="36"/>
@@ -11366,16 +11674,16 @@
       <c r="L84" s="37"/>
     </row>
     <row r="85" spans="1:12" ht="33.75" thickBot="1">
-      <c r="A85" s="55"/>
-      <c r="B85" s="58"/>
+      <c r="A85" s="69"/>
+      <c r="B85" s="72"/>
       <c r="C85" s="38" t="s">
         <v>582</v>
       </c>
       <c r="D85" s="38" t="s">
         <v>700</v>
       </c>
-      <c r="E85" s="58"/>
-      <c r="F85" s="58"/>
+      <c r="E85" s="72"/>
+      <c r="F85" s="72"/>
       <c r="G85" s="38"/>
       <c r="H85" s="38"/>
       <c r="I85" s="38"/>
@@ -11384,20 +11692,20 @@
       <c r="L85" s="39"/>
     </row>
     <row r="86" spans="1:12" ht="33">
-      <c r="A86" s="65" t="s">
+      <c r="A86" s="61" t="s">
         <v>701</v>
       </c>
-      <c r="B86" s="68"/>
+      <c r="B86" s="64"/>
       <c r="C86" s="28" t="s">
         <v>637</v>
       </c>
       <c r="D86" s="23" t="s">
         <v>702</v>
       </c>
-      <c r="E86" s="62" t="s">
+      <c r="E86" s="58" t="s">
         <v>703</v>
       </c>
-      <c r="F86" s="62" t="s">
+      <c r="F86" s="58" t="s">
         <v>704</v>
       </c>
       <c r="G86" s="22"/>
@@ -11408,20 +11716,20 @@
       <c r="L86" s="24"/>
     </row>
     <row r="87" spans="1:12" ht="99">
-      <c r="A87" s="66" t="s">
+      <c r="A87" s="62" t="s">
         <v>701</v>
       </c>
-      <c r="B87" s="69"/>
+      <c r="B87" s="65"/>
       <c r="C87" s="29" t="s">
         <v>705</v>
       </c>
       <c r="D87" s="29" t="s">
         <v>706</v>
       </c>
-      <c r="E87" s="63" t="s">
+      <c r="E87" s="59" t="s">
         <v>707</v>
       </c>
-      <c r="F87" s="63" t="s">
+      <c r="F87" s="59" t="s">
         <v>633</v>
       </c>
       <c r="G87" s="23"/>
@@ -11440,16 +11748,16 @@
       </c>
     </row>
     <row r="88" spans="1:12" ht="50.25" thickBot="1">
-      <c r="A88" s="67"/>
-      <c r="B88" s="70"/>
+      <c r="A88" s="63"/>
+      <c r="B88" s="66"/>
       <c r="C88" s="30" t="s">
         <v>647</v>
       </c>
       <c r="D88" s="30" t="s">
         <v>712</v>
       </c>
-      <c r="E88" s="64"/>
-      <c r="F88" s="64"/>
+      <c r="E88" s="60"/>
+      <c r="F88" s="60"/>
       <c r="G88" s="26"/>
       <c r="H88" s="26"/>
       <c r="I88" s="26"/>
@@ -11458,20 +11766,20 @@
       <c r="L88" s="27"/>
     </row>
     <row r="89" spans="1:12" ht="33">
-      <c r="A89" s="59" t="s">
+      <c r="A89" s="55" t="s">
         <v>713</v>
       </c>
-      <c r="B89" s="62"/>
+      <c r="B89" s="58"/>
       <c r="C89" s="22" t="s">
         <v>637</v>
       </c>
       <c r="D89" s="23" t="s">
         <v>714</v>
       </c>
-      <c r="E89" s="62" t="s">
+      <c r="E89" s="58" t="s">
         <v>715</v>
       </c>
-      <c r="F89" s="62" t="s">
+      <c r="F89" s="58" t="s">
         <v>612</v>
       </c>
       <c r="G89" s="22"/>
@@ -11482,20 +11790,20 @@
       <c r="L89" s="24"/>
     </row>
     <row r="90" spans="1:12" ht="99">
-      <c r="A90" s="60" t="s">
+      <c r="A90" s="56" t="s">
         <v>716</v>
       </c>
-      <c r="B90" s="63"/>
+      <c r="B90" s="59"/>
       <c r="C90" s="23" t="s">
         <v>588</v>
       </c>
       <c r="D90" s="23" t="s">
         <v>717</v>
       </c>
-      <c r="E90" s="63" t="s">
+      <c r="E90" s="59" t="s">
         <v>718</v>
       </c>
-      <c r="F90" s="63" t="s">
+      <c r="F90" s="59" t="s">
         <v>612</v>
       </c>
       <c r="G90" s="23"/>
@@ -11514,16 +11822,16 @@
       </c>
     </row>
     <row r="91" spans="1:12" ht="50.25" thickBot="1">
-      <c r="A91" s="61"/>
-      <c r="B91" s="64"/>
+      <c r="A91" s="57"/>
+      <c r="B91" s="60"/>
       <c r="C91" s="26" t="s">
         <v>647</v>
       </c>
       <c r="D91" s="26" t="s">
         <v>722</v>
       </c>
-      <c r="E91" s="64"/>
-      <c r="F91" s="64"/>
+      <c r="E91" s="60"/>
+      <c r="F91" s="60"/>
       <c r="G91" s="26"/>
       <c r="H91" s="26"/>
       <c r="I91" s="26"/>
@@ -11532,20 +11840,20 @@
       <c r="L91" s="27"/>
     </row>
     <row r="92" spans="1:12" ht="33">
-      <c r="A92" s="65" t="s">
+      <c r="A92" s="61" t="s">
         <v>723</v>
       </c>
-      <c r="B92" s="68"/>
+      <c r="B92" s="64"/>
       <c r="C92" s="28" t="s">
         <v>724</v>
       </c>
       <c r="D92" s="23" t="s">
         <v>655</v>
       </c>
-      <c r="E92" s="62" t="s">
+      <c r="E92" s="58" t="s">
         <v>725</v>
       </c>
-      <c r="F92" s="62" t="s">
+      <c r="F92" s="58" t="s">
         <v>600</v>
       </c>
       <c r="G92" s="22"/>
@@ -11556,20 +11864,20 @@
       <c r="L92" s="24"/>
     </row>
     <row r="93" spans="1:12" ht="49.5">
-      <c r="A93" s="66" t="s">
+      <c r="A93" s="62" t="s">
         <v>726</v>
       </c>
-      <c r="B93" s="69"/>
+      <c r="B93" s="65"/>
       <c r="C93" s="29" t="s">
         <v>588</v>
       </c>
       <c r="D93" s="29" t="s">
         <v>655</v>
       </c>
-      <c r="E93" s="63" t="s">
+      <c r="E93" s="59" t="s">
         <v>725</v>
       </c>
-      <c r="F93" s="63" t="s">
+      <c r="F93" s="59" t="s">
         <v>600</v>
       </c>
       <c r="G93" s="23"/>
@@ -11588,16 +11896,16 @@
       </c>
     </row>
     <row r="94" spans="1:12" ht="17.25" thickBot="1">
-      <c r="A94" s="67"/>
-      <c r="B94" s="70"/>
+      <c r="A94" s="63"/>
+      <c r="B94" s="66"/>
       <c r="C94" s="30" t="s">
         <v>647</v>
       </c>
       <c r="D94" s="30" t="s">
         <v>731</v>
       </c>
-      <c r="E94" s="64"/>
-      <c r="F94" s="64"/>
+      <c r="E94" s="60"/>
+      <c r="F94" s="60"/>
       <c r="G94" s="26"/>
       <c r="H94" s="26"/>
       <c r="I94" s="26"/>
@@ -11606,20 +11914,20 @@
       <c r="L94" s="27"/>
     </row>
     <row r="95" spans="1:12" ht="33">
-      <c r="A95" s="59" t="s">
+      <c r="A95" s="55" t="s">
         <v>732</v>
       </c>
-      <c r="B95" s="62"/>
+      <c r="B95" s="58"/>
       <c r="C95" s="22" t="s">
         <v>724</v>
       </c>
       <c r="D95" s="23" t="s">
         <v>702</v>
       </c>
-      <c r="E95" s="68" t="s">
+      <c r="E95" s="64" t="s">
         <v>733</v>
       </c>
-      <c r="F95" s="68" t="s">
+      <c r="F95" s="64" t="s">
         <v>633</v>
       </c>
       <c r="G95" s="28"/>
@@ -11630,20 +11938,20 @@
       <c r="L95" s="31"/>
     </row>
     <row r="96" spans="1:12" ht="33">
-      <c r="A96" s="60" t="s">
+      <c r="A96" s="56" t="s">
         <v>732</v>
       </c>
-      <c r="B96" s="63"/>
+      <c r="B96" s="59"/>
       <c r="C96" s="23" t="s">
         <v>588</v>
       </c>
       <c r="D96" s="23" t="s">
         <v>655</v>
       </c>
-      <c r="E96" s="69" t="s">
+      <c r="E96" s="65" t="s">
         <v>733</v>
       </c>
-      <c r="F96" s="69" t="s">
+      <c r="F96" s="65" t="s">
         <v>633</v>
       </c>
       <c r="G96" s="29"/>
@@ -11662,16 +11970,16 @@
       </c>
     </row>
     <row r="97" spans="1:12" ht="33.75" thickBot="1">
-      <c r="A97" s="61"/>
-      <c r="B97" s="64"/>
+      <c r="A97" s="57"/>
+      <c r="B97" s="60"/>
       <c r="C97" s="26" t="s">
         <v>647</v>
       </c>
       <c r="D97" s="26" t="s">
         <v>738</v>
       </c>
-      <c r="E97" s="70"/>
-      <c r="F97" s="70"/>
+      <c r="E97" s="66"/>
+      <c r="F97" s="66"/>
       <c r="G97" s="30"/>
       <c r="H97" s="30"/>
       <c r="I97" s="30"/>
@@ -11680,20 +11988,20 @@
       <c r="L97" s="33"/>
     </row>
     <row r="98" spans="1:12" ht="33">
-      <c r="A98" s="59" t="s">
+      <c r="A98" s="55" t="s">
         <v>739</v>
       </c>
-      <c r="B98" s="62"/>
+      <c r="B98" s="58"/>
       <c r="C98" s="22" t="s">
         <v>637</v>
       </c>
       <c r="D98" s="23" t="s">
         <v>655</v>
       </c>
-      <c r="E98" s="62" t="s">
+      <c r="E98" s="58" t="s">
         <v>740</v>
       </c>
-      <c r="F98" s="62" t="s">
+      <c r="F98" s="58" t="s">
         <v>600</v>
       </c>
       <c r="G98" s="22"/>
@@ -11704,20 +12012,20 @@
       <c r="L98" s="24"/>
     </row>
     <row r="99" spans="1:12" ht="33">
-      <c r="A99" s="60" t="s">
+      <c r="A99" s="56" t="s">
         <v>741</v>
       </c>
-      <c r="B99" s="63"/>
+      <c r="B99" s="59"/>
       <c r="C99" s="23" t="s">
         <v>588</v>
       </c>
       <c r="D99" s="23" t="s">
         <v>742</v>
       </c>
-      <c r="E99" s="63" t="s">
+      <c r="E99" s="59" t="s">
         <v>740</v>
       </c>
-      <c r="F99" s="63" t="s">
+      <c r="F99" s="59" t="s">
         <v>600</v>
       </c>
       <c r="G99" s="23"/>
@@ -11736,16 +12044,16 @@
       </c>
     </row>
     <row r="100" spans="1:12" ht="33.75" thickBot="1">
-      <c r="A100" s="61"/>
-      <c r="B100" s="64"/>
+      <c r="A100" s="57"/>
+      <c r="B100" s="60"/>
       <c r="C100" s="26" t="s">
         <v>647</v>
       </c>
       <c r="D100" s="26" t="s">
         <v>747</v>
       </c>
-      <c r="E100" s="64"/>
-      <c r="F100" s="64"/>
+      <c r="E100" s="60"/>
+      <c r="F100" s="60"/>
       <c r="G100" s="26"/>
       <c r="H100" s="26"/>
       <c r="I100" s="26"/>
@@ -11754,20 +12062,20 @@
       <c r="L100" s="27"/>
     </row>
     <row r="101" spans="1:12" ht="33">
-      <c r="A101" s="59" t="s">
+      <c r="A101" s="55" t="s">
         <v>748</v>
       </c>
-      <c r="B101" s="62"/>
+      <c r="B101" s="58"/>
       <c r="C101" s="22" t="s">
         <v>637</v>
       </c>
       <c r="D101" s="23" t="s">
         <v>714</v>
       </c>
-      <c r="E101" s="62" t="s">
+      <c r="E101" s="58" t="s">
         <v>749</v>
       </c>
-      <c r="F101" s="62" t="s">
+      <c r="F101" s="58" t="s">
         <v>612</v>
       </c>
       <c r="G101" s="22"/>
@@ -11778,20 +12086,20 @@
       <c r="L101" s="24"/>
     </row>
     <row r="102" spans="1:12" ht="33">
-      <c r="A102" s="60" t="s">
+      <c r="A102" s="56" t="s">
         <v>748</v>
       </c>
-      <c r="B102" s="63"/>
+      <c r="B102" s="59"/>
       <c r="C102" s="23" t="s">
         <v>588</v>
       </c>
       <c r="D102" s="23" t="s">
         <v>750</v>
       </c>
-      <c r="E102" s="63" t="s">
+      <c r="E102" s="59" t="s">
         <v>749</v>
       </c>
-      <c r="F102" s="63" t="s">
+      <c r="F102" s="59" t="s">
         <v>612</v>
       </c>
       <c r="G102" s="23"/>
@@ -11810,16 +12118,16 @@
       </c>
     </row>
     <row r="103" spans="1:12" ht="33.75" thickBot="1">
-      <c r="A103" s="61"/>
-      <c r="B103" s="64"/>
+      <c r="A103" s="57"/>
+      <c r="B103" s="60"/>
       <c r="C103" s="26" t="s">
         <v>647</v>
       </c>
       <c r="D103" s="26" t="s">
         <v>754</v>
       </c>
-      <c r="E103" s="64"/>
-      <c r="F103" s="64"/>
+      <c r="E103" s="60"/>
+      <c r="F103" s="60"/>
       <c r="G103" s="26"/>
       <c r="H103" s="26"/>
       <c r="I103" s="26"/>
@@ -11828,18 +12136,18 @@
       <c r="L103" s="27"/>
     </row>
     <row r="104" spans="1:12">
-      <c r="A104" s="53" t="s">
+      <c r="A104" s="67" t="s">
         <v>755</v>
       </c>
-      <c r="B104" s="56"/>
+      <c r="B104" s="70"/>
       <c r="C104" s="34" t="s">
         <v>574</v>
       </c>
       <c r="D104" s="34"/>
-      <c r="E104" s="56" t="s">
+      <c r="E104" s="70" t="s">
         <v>756</v>
       </c>
-      <c r="F104" s="56"/>
+      <c r="F104" s="70"/>
       <c r="G104" s="34"/>
       <c r="H104" s="34"/>
       <c r="I104" s="34"/>
@@ -11848,10 +12156,10 @@
       <c r="L104" s="35"/>
     </row>
     <row r="105" spans="1:12" ht="33">
-      <c r="A105" s="54" t="s">
+      <c r="A105" s="68" t="s">
         <v>755</v>
       </c>
-      <c r="B105" s="57" t="s">
+      <c r="B105" s="71" t="s">
         <v>757</v>
       </c>
       <c r="C105" s="36" t="s">
@@ -11860,10 +12168,10 @@
       <c r="D105" s="36" t="s">
         <v>706</v>
       </c>
-      <c r="E105" s="57" t="s">
+      <c r="E105" s="71" t="s">
         <v>756</v>
       </c>
-      <c r="F105" s="57" t="s">
+      <c r="F105" s="71" t="s">
         <v>612</v>
       </c>
       <c r="G105" s="36"/>
@@ -11878,16 +12186,16 @@
       <c r="L105" s="37"/>
     </row>
     <row r="106" spans="1:12" ht="33.75" thickBot="1">
-      <c r="A106" s="55"/>
-      <c r="B106" s="58"/>
+      <c r="A106" s="69"/>
+      <c r="B106" s="72"/>
       <c r="C106" s="38" t="s">
         <v>582</v>
       </c>
       <c r="D106" s="38" t="s">
         <v>760</v>
       </c>
-      <c r="E106" s="58"/>
-      <c r="F106" s="58"/>
+      <c r="E106" s="72"/>
+      <c r="F106" s="72"/>
       <c r="G106" s="38"/>
       <c r="H106" s="38"/>
       <c r="I106" s="38"/>
@@ -11896,18 +12204,18 @@
       <c r="L106" s="39"/>
     </row>
     <row r="107" spans="1:12">
-      <c r="A107" s="53" t="s">
+      <c r="A107" s="67" t="s">
         <v>761</v>
       </c>
-      <c r="B107" s="56"/>
+      <c r="B107" s="70"/>
       <c r="C107" s="34" t="s">
         <v>574</v>
       </c>
       <c r="D107" s="34"/>
-      <c r="E107" s="56" t="s">
+      <c r="E107" s="70" t="s">
         <v>762</v>
       </c>
-      <c r="F107" s="56"/>
+      <c r="F107" s="70"/>
       <c r="G107" s="34"/>
       <c r="H107" s="34"/>
       <c r="I107" s="34"/>
@@ -11916,10 +12224,10 @@
       <c r="L107" s="35"/>
     </row>
     <row r="108" spans="1:12" ht="33">
-      <c r="A108" s="54" t="s">
+      <c r="A108" s="68" t="s">
         <v>761</v>
       </c>
-      <c r="B108" s="57" t="s">
+      <c r="B108" s="71" t="s">
         <v>625</v>
       </c>
       <c r="C108" s="36" t="s">
@@ -11928,10 +12236,10 @@
       <c r="D108" s="36" t="s">
         <v>632</v>
       </c>
-      <c r="E108" s="57" t="s">
+      <c r="E108" s="71" t="s">
         <v>762</v>
       </c>
-      <c r="F108" s="57" t="s">
+      <c r="F108" s="71" t="s">
         <v>633</v>
       </c>
       <c r="G108" s="36"/>
@@ -11946,16 +12254,16 @@
       <c r="L108" s="37"/>
     </row>
     <row r="109" spans="1:12" ht="17.25" thickBot="1">
-      <c r="A109" s="55"/>
-      <c r="B109" s="58"/>
+      <c r="A109" s="69"/>
+      <c r="B109" s="72"/>
       <c r="C109" s="38" t="s">
         <v>582</v>
       </c>
       <c r="D109" s="38" t="s">
         <v>765</v>
       </c>
-      <c r="E109" s="58"/>
-      <c r="F109" s="58"/>
+      <c r="E109" s="72"/>
+      <c r="F109" s="72"/>
       <c r="G109" s="38"/>
       <c r="H109" s="38"/>
       <c r="I109" s="38"/>
@@ -11964,18 +12272,18 @@
       <c r="L109" s="39"/>
     </row>
     <row r="110" spans="1:12">
-      <c r="A110" s="53" t="s">
+      <c r="A110" s="67" t="s">
         <v>766</v>
       </c>
-      <c r="B110" s="56"/>
+      <c r="B110" s="70"/>
       <c r="C110" s="34" t="s">
         <v>574</v>
       </c>
       <c r="D110" s="34"/>
-      <c r="E110" s="56" t="s">
+      <c r="E110" s="70" t="s">
         <v>767</v>
       </c>
-      <c r="F110" s="56"/>
+      <c r="F110" s="70"/>
       <c r="G110" s="34"/>
       <c r="H110" s="34"/>
       <c r="I110" s="34"/>
@@ -11984,10 +12292,10 @@
       <c r="L110" s="35"/>
     </row>
     <row r="111" spans="1:12" ht="33">
-      <c r="A111" s="54" t="s">
+      <c r="A111" s="68" t="s">
         <v>766</v>
       </c>
-      <c r="B111" s="57" t="s">
+      <c r="B111" s="71" t="s">
         <v>757</v>
       </c>
       <c r="C111" s="36" t="s">
@@ -11996,10 +12304,10 @@
       <c r="D111" s="36" t="s">
         <v>632</v>
       </c>
-      <c r="E111" s="57" t="s">
+      <c r="E111" s="71" t="s">
         <v>767</v>
       </c>
-      <c r="F111" s="57" t="s">
+      <c r="F111" s="71" t="s">
         <v>633</v>
       </c>
       <c r="G111" s="36"/>
@@ -12014,16 +12322,16 @@
       <c r="L111" s="37"/>
     </row>
     <row r="112" spans="1:12" ht="33.75" thickBot="1">
-      <c r="A112" s="55"/>
-      <c r="B112" s="58"/>
+      <c r="A112" s="69"/>
+      <c r="B112" s="72"/>
       <c r="C112" s="38" t="s">
         <v>582</v>
       </c>
       <c r="D112" s="38" t="s">
         <v>769</v>
       </c>
-      <c r="E112" s="58"/>
-      <c r="F112" s="58"/>
+      <c r="E112" s="72"/>
+      <c r="F112" s="72"/>
       <c r="G112" s="38"/>
       <c r="H112" s="38"/>
       <c r="I112" s="38"/>
@@ -12032,18 +12340,18 @@
       <c r="L112" s="39"/>
     </row>
     <row r="113" spans="1:12">
-      <c r="A113" s="53" t="s">
+      <c r="A113" s="67" t="s">
         <v>770</v>
       </c>
-      <c r="B113" s="56"/>
+      <c r="B113" s="70"/>
       <c r="C113" s="34" t="s">
         <v>574</v>
       </c>
       <c r="D113" s="34"/>
-      <c r="E113" s="56" t="s">
+      <c r="E113" s="70" t="s">
         <v>771</v>
       </c>
-      <c r="F113" s="56"/>
+      <c r="F113" s="70"/>
       <c r="G113" s="34"/>
       <c r="H113" s="34"/>
       <c r="I113" s="34"/>
@@ -12052,10 +12360,10 @@
       <c r="L113" s="35"/>
     </row>
     <row r="114" spans="1:12" ht="33">
-      <c r="A114" s="54" t="s">
+      <c r="A114" s="68" t="s">
         <v>770</v>
       </c>
-      <c r="B114" s="57" t="s">
+      <c r="B114" s="71" t="s">
         <v>757</v>
       </c>
       <c r="C114" s="36" t="s">
@@ -12064,10 +12372,10 @@
       <c r="D114" s="36" t="s">
         <v>772</v>
       </c>
-      <c r="E114" s="57" t="s">
+      <c r="E114" s="71" t="s">
         <v>771</v>
       </c>
-      <c r="F114" s="57" t="s">
+      <c r="F114" s="71" t="s">
         <v>633</v>
       </c>
       <c r="G114" s="36"/>
@@ -12082,16 +12390,16 @@
       <c r="L114" s="37"/>
     </row>
     <row r="115" spans="1:12" ht="17.25" thickBot="1">
-      <c r="A115" s="55"/>
-      <c r="B115" s="58"/>
+      <c r="A115" s="69"/>
+      <c r="B115" s="72"/>
       <c r="C115" s="38" t="s">
         <v>582</v>
       </c>
       <c r="D115" s="38" t="s">
         <v>775</v>
       </c>
-      <c r="E115" s="58"/>
-      <c r="F115" s="58"/>
+      <c r="E115" s="72"/>
+      <c r="F115" s="72"/>
       <c r="G115" s="38"/>
       <c r="H115" s="38"/>
       <c r="I115" s="38"/>
@@ -12101,30 +12409,118 @@
     </row>
   </sheetData>
   <mergeCells count="152">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="E2:E4"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="F5:F7"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="E14:E16"/>
-    <mergeCell ref="F14:F16"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="E17:E19"/>
-    <mergeCell ref="F17:F19"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="E11:E13"/>
-    <mergeCell ref="F11:F13"/>
+    <mergeCell ref="A110:A112"/>
+    <mergeCell ref="B110:B112"/>
+    <mergeCell ref="E110:E112"/>
+    <mergeCell ref="F110:F112"/>
+    <mergeCell ref="A113:A115"/>
+    <mergeCell ref="B113:B115"/>
+    <mergeCell ref="E113:E115"/>
+    <mergeCell ref="F113:F115"/>
+    <mergeCell ref="A104:A106"/>
+    <mergeCell ref="B104:B106"/>
+    <mergeCell ref="E104:E106"/>
+    <mergeCell ref="F104:F106"/>
+    <mergeCell ref="A107:A109"/>
+    <mergeCell ref="B107:B109"/>
+    <mergeCell ref="E107:E109"/>
+    <mergeCell ref="F107:F109"/>
+    <mergeCell ref="A98:A100"/>
+    <mergeCell ref="B98:B100"/>
+    <mergeCell ref="E98:E100"/>
+    <mergeCell ref="F98:F100"/>
+    <mergeCell ref="A101:A103"/>
+    <mergeCell ref="B101:B103"/>
+    <mergeCell ref="E101:E103"/>
+    <mergeCell ref="F101:F103"/>
+    <mergeCell ref="A92:A94"/>
+    <mergeCell ref="B92:B94"/>
+    <mergeCell ref="E92:E94"/>
+    <mergeCell ref="F92:F94"/>
+    <mergeCell ref="A95:A97"/>
+    <mergeCell ref="B95:B97"/>
+    <mergeCell ref="E95:E97"/>
+    <mergeCell ref="F95:F97"/>
+    <mergeCell ref="A86:A88"/>
+    <mergeCell ref="B86:B88"/>
+    <mergeCell ref="E86:E88"/>
+    <mergeCell ref="F86:F88"/>
+    <mergeCell ref="A89:A91"/>
+    <mergeCell ref="B89:B91"/>
+    <mergeCell ref="E89:E91"/>
+    <mergeCell ref="F89:F91"/>
+    <mergeCell ref="A80:A82"/>
+    <mergeCell ref="B80:B82"/>
+    <mergeCell ref="E80:E82"/>
+    <mergeCell ref="F80:F82"/>
+    <mergeCell ref="A83:A85"/>
+    <mergeCell ref="B83:B85"/>
+    <mergeCell ref="E83:E85"/>
+    <mergeCell ref="F83:F85"/>
+    <mergeCell ref="A74:A76"/>
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="E74:E76"/>
+    <mergeCell ref="F74:F76"/>
+    <mergeCell ref="A77:A79"/>
+    <mergeCell ref="B77:B79"/>
+    <mergeCell ref="E77:E79"/>
+    <mergeCell ref="F77:F79"/>
+    <mergeCell ref="A68:A70"/>
+    <mergeCell ref="B68:B70"/>
+    <mergeCell ref="E68:E70"/>
+    <mergeCell ref="F68:F70"/>
+    <mergeCell ref="A71:A73"/>
+    <mergeCell ref="B71:B73"/>
+    <mergeCell ref="E71:E73"/>
+    <mergeCell ref="F71:F73"/>
+    <mergeCell ref="A62:A64"/>
+    <mergeCell ref="B62:B64"/>
+    <mergeCell ref="E62:E64"/>
+    <mergeCell ref="F62:F64"/>
+    <mergeCell ref="A65:A67"/>
+    <mergeCell ref="B65:B67"/>
+    <mergeCell ref="E65:E67"/>
+    <mergeCell ref="F65:F67"/>
+    <mergeCell ref="A56:A58"/>
+    <mergeCell ref="B56:B58"/>
+    <mergeCell ref="E56:E58"/>
+    <mergeCell ref="F56:F58"/>
+    <mergeCell ref="A59:A61"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="E59:E61"/>
+    <mergeCell ref="F59:F61"/>
+    <mergeCell ref="A50:A52"/>
+    <mergeCell ref="B50:B52"/>
+    <mergeCell ref="E50:E52"/>
+    <mergeCell ref="F50:F52"/>
+    <mergeCell ref="A53:A55"/>
+    <mergeCell ref="B53:B55"/>
+    <mergeCell ref="E53:E55"/>
+    <mergeCell ref="F53:F55"/>
+    <mergeCell ref="A44:A46"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="E44:E46"/>
+    <mergeCell ref="F44:F46"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="E47:E49"/>
+    <mergeCell ref="F47:F49"/>
+    <mergeCell ref="A38:A40"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="E38:E40"/>
+    <mergeCell ref="F38:F40"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="E41:E43"/>
+    <mergeCell ref="F41:F43"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="E32:E34"/>
+    <mergeCell ref="F32:F34"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="E35:E37"/>
+    <mergeCell ref="F35:F37"/>
     <mergeCell ref="A26:A28"/>
     <mergeCell ref="B26:B28"/>
     <mergeCell ref="E26:E28"/>
@@ -12141,118 +12537,30 @@
     <mergeCell ref="B23:B25"/>
     <mergeCell ref="E23:E25"/>
     <mergeCell ref="F23:F25"/>
-    <mergeCell ref="A38:A40"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="E38:E40"/>
-    <mergeCell ref="F38:F40"/>
-    <mergeCell ref="A41:A43"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="E41:E43"/>
-    <mergeCell ref="F41:F43"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="E32:E34"/>
-    <mergeCell ref="F32:F34"/>
-    <mergeCell ref="A35:A37"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="E35:E37"/>
-    <mergeCell ref="F35:F37"/>
-    <mergeCell ref="A50:A52"/>
-    <mergeCell ref="B50:B52"/>
-    <mergeCell ref="E50:E52"/>
-    <mergeCell ref="F50:F52"/>
-    <mergeCell ref="A53:A55"/>
-    <mergeCell ref="B53:B55"/>
-    <mergeCell ref="E53:E55"/>
-    <mergeCell ref="F53:F55"/>
-    <mergeCell ref="A44:A46"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="E44:E46"/>
-    <mergeCell ref="F44:F46"/>
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="E47:E49"/>
-    <mergeCell ref="F47:F49"/>
-    <mergeCell ref="A62:A64"/>
-    <mergeCell ref="B62:B64"/>
-    <mergeCell ref="E62:E64"/>
-    <mergeCell ref="F62:F64"/>
-    <mergeCell ref="A65:A67"/>
-    <mergeCell ref="B65:B67"/>
-    <mergeCell ref="E65:E67"/>
-    <mergeCell ref="F65:F67"/>
-    <mergeCell ref="A56:A58"/>
-    <mergeCell ref="B56:B58"/>
-    <mergeCell ref="E56:E58"/>
-    <mergeCell ref="F56:F58"/>
-    <mergeCell ref="A59:A61"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="E59:E61"/>
-    <mergeCell ref="F59:F61"/>
-    <mergeCell ref="A74:A76"/>
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="E74:E76"/>
-    <mergeCell ref="F74:F76"/>
-    <mergeCell ref="A77:A79"/>
-    <mergeCell ref="B77:B79"/>
-    <mergeCell ref="E77:E79"/>
-    <mergeCell ref="F77:F79"/>
-    <mergeCell ref="A68:A70"/>
-    <mergeCell ref="B68:B70"/>
-    <mergeCell ref="E68:E70"/>
-    <mergeCell ref="F68:F70"/>
-    <mergeCell ref="A71:A73"/>
-    <mergeCell ref="B71:B73"/>
-    <mergeCell ref="E71:E73"/>
-    <mergeCell ref="F71:F73"/>
-    <mergeCell ref="A86:A88"/>
-    <mergeCell ref="B86:B88"/>
-    <mergeCell ref="E86:E88"/>
-    <mergeCell ref="F86:F88"/>
-    <mergeCell ref="A89:A91"/>
-    <mergeCell ref="B89:B91"/>
-    <mergeCell ref="E89:E91"/>
-    <mergeCell ref="F89:F91"/>
-    <mergeCell ref="A80:A82"/>
-    <mergeCell ref="B80:B82"/>
-    <mergeCell ref="E80:E82"/>
-    <mergeCell ref="F80:F82"/>
-    <mergeCell ref="A83:A85"/>
-    <mergeCell ref="B83:B85"/>
-    <mergeCell ref="E83:E85"/>
-    <mergeCell ref="F83:F85"/>
-    <mergeCell ref="A98:A100"/>
-    <mergeCell ref="B98:B100"/>
-    <mergeCell ref="E98:E100"/>
-    <mergeCell ref="F98:F100"/>
-    <mergeCell ref="A101:A103"/>
-    <mergeCell ref="B101:B103"/>
-    <mergeCell ref="E101:E103"/>
-    <mergeCell ref="F101:F103"/>
-    <mergeCell ref="A92:A94"/>
-    <mergeCell ref="B92:B94"/>
-    <mergeCell ref="E92:E94"/>
-    <mergeCell ref="F92:F94"/>
-    <mergeCell ref="A95:A97"/>
-    <mergeCell ref="B95:B97"/>
-    <mergeCell ref="E95:E97"/>
-    <mergeCell ref="F95:F97"/>
-    <mergeCell ref="A110:A112"/>
-    <mergeCell ref="B110:B112"/>
-    <mergeCell ref="E110:E112"/>
-    <mergeCell ref="F110:F112"/>
-    <mergeCell ref="A113:A115"/>
-    <mergeCell ref="B113:B115"/>
-    <mergeCell ref="E113:E115"/>
-    <mergeCell ref="F113:F115"/>
-    <mergeCell ref="A104:A106"/>
-    <mergeCell ref="B104:B106"/>
-    <mergeCell ref="E104:E106"/>
-    <mergeCell ref="F104:F106"/>
-    <mergeCell ref="A107:A109"/>
-    <mergeCell ref="B107:B109"/>
-    <mergeCell ref="E107:E109"/>
-    <mergeCell ref="F107:F109"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="F17:F19"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="F11:F13"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="F14:F16"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
